--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/- PROJECTS/- Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9A5005-A88A-5444-B5EF-2FC29CC74AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E0FC09-260B-0C45-A03E-B59327049EB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="2760" windowWidth="15560" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25760" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Reports" sheetId="1" r:id="rId2"/>
+    <sheet name="Products" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>Q117</t>
   </si>
@@ -244,15 +248,6 @@
     <t>per share</t>
   </si>
   <si>
-    <t>Expected return on invested cash</t>
-  </si>
-  <si>
-    <t>Inflation + risk premium (opportunity cost)</t>
-  </si>
-  <si>
-    <t>NPV on net income (terminal value)</t>
-  </si>
-  <si>
     <t>R&amp;D y/y</t>
   </si>
   <si>
@@ -310,16 +305,55 @@
     <t>Equity</t>
   </si>
   <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>OM</t>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Oculus</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Net present value on future net income (terminal value)</t>
+  </si>
+  <si>
+    <t>Risk-free rate + market premium (opportunity cost)</t>
+  </si>
+  <si>
+    <t>Expected return on invested capital (innovation grade)</t>
+  </si>
+  <si>
+    <t>OE y/y</t>
   </si>
 </sst>
 </file>
@@ -331,7 +365,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,6 +423,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -429,7 +471,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -477,10 +519,6 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -557,17 +595,14 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -590,6 +625,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -615,15 +689,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -639,12 +713,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4749800" y="1346200"/>
-          <a:ext cx="0" cy="6921500"/>
+          <a:off x="5674783" y="1380067"/>
+          <a:ext cx="0" cy="7099300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -929,29 +1004,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DR49"/>
+  <dimension ref="A1:DR58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K1" s="15"/>
     </row>
@@ -960,25 +1036,19 @@
         <v>65</v>
       </c>
       <c r="C2" s="7">
-        <v>204.41</v>
-      </c>
-      <c r="D2" s="38">
-        <v>20191231</v>
-      </c>
-      <c r="E2" s="39" t="s">
+        <v>268.98</v>
+      </c>
+      <c r="D2" s="90">
+        <v>44200</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="40">
-        <v>-0.02</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="42">
-        <f>E16</f>
-        <v>55838</v>
-      </c>
-      <c r="L2" s="41"/>
+      <c r="F2" s="38">
+        <v>-0.01</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
@@ -987,30 +1057,24 @@
       <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="42">
-        <f>Reports!Q22</f>
-        <v>2886</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="39" t="s">
+      <c r="C3" s="40">
+        <f>Reports!X22</f>
+        <v>2891</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>0.01</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="42">
-        <f>E27</f>
-        <v>22113</v>
-      </c>
-      <c r="L3" s="41"/>
+      <c r="G3" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1019,57 +1083,45 @@
       <c r="B4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <f>C3*C2</f>
-        <v>589927.26</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+        <v>777621.18</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="40">
-        <f>2%+5%</f>
+      <c r="F4" s="38">
+        <f>7%</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="51">
-        <f>E31</f>
-        <v>0.37352716896661997</v>
-      </c>
+      <c r="G4" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="42">
-        <f>Reports!Q33</f>
-        <v>41114</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="39" t="s">
+      <c r="C5" s="40">
+        <f>Reports!X33</f>
+        <v>55620</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="45">
-        <f>NPV(F4,F27:DR27)</f>
-        <v>638752.25485733082</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="51">
-        <f>E36</f>
-        <v>0.8324617643898421</v>
-      </c>
+      <c r="F5" s="43">
+        <f>NPV(F4,G27:DR27)</f>
+        <v>1286053.2455488422</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
@@ -1078,46 +1130,40 @@
       <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="42">
         <f>C4-C5</f>
-        <v>548813.26</v>
-      </c>
-      <c r="E6" s="46" t="s">
+        <v>722001.18</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <f>F5+C5</f>
-        <v>679866.25485733082</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="51">
-        <f>E37</f>
-        <v>0.44616569361366809</v>
-      </c>
+        <v>1341673.2455488422</v>
+      </c>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="46">
         <f>C6/C3</f>
-        <v>190.16398475398475</v>
-      </c>
-      <c r="E7" s="49" t="s">
+        <v>249.74098235904532</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="48">
         <f>F6/C3</f>
-        <v>235.57389288195802</v>
-      </c>
-      <c r="G7" s="51">
+        <v>464.08621430260888</v>
+      </c>
+      <c r="G7" s="49">
         <f>F7/C2-1</f>
-        <v>0.1524577705687491</v>
+        <v>0.72535584170796663</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1187,16 +1233,36 @@
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
+      <c r="R9" s="7">
+        <f t="shared" ref="R9" si="1">Q9+1</f>
+        <v>2031</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" ref="S9" si="2">R9+1</f>
+        <v>2032</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" ref="T9" si="3">S9+1</f>
+        <v>2033</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" ref="U9" si="4">T9+1</f>
+        <v>2034</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" ref="V9" si="5">U9+1</f>
+        <v>2035</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="50">
         <f>SUM(Reports!B3:E3)</f>
         <v>17080</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="50">
         <f>SUM(Reports!F3:I3)</f>
         <v>26885</v>
       </c>
@@ -1204,24 +1270,27 @@
         <f>SUM(Reports!J3:M3)</f>
         <v>39942</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <f>SUM(Reports!N3:Q3)</f>
         <v>55012</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="F10" s="40">
+        <f>SUM(Reports!R3:U3)</f>
+        <v>69655</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="52">
+        <v>72</v>
+      </c>
+      <c r="B11" s="50">
         <f>SUM(Reports!B4:E4)</f>
         <v>847</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="50">
         <f>SUM(Reports!F4:I4)</f>
         <v>753</v>
       </c>
@@ -1229,24 +1298,27 @@
         <f>SUM(Reports!J4:M4)</f>
         <v>711</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="40">
         <f>SUM(Reports!N4:Q4)</f>
         <v>826</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="F11" s="40">
+        <f>SUM(Reports!R4:U4)</f>
+        <v>1042</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="40">
         <f>Reports!E6</f>
         <v>1040</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="40">
         <f>Reports!I6</f>
         <v>1230</v>
       </c>
@@ -1254,40 +1326,44 @@
         <f>Reports!M6</f>
         <v>1400</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="40">
         <f>Reports!Q6</f>
         <v>1520</v>
       </c>
-      <c r="F13" s="42">
-        <f>E13*1.02</f>
-        <v>1550.4</v>
-      </c>
-      <c r="G13" s="42">
-        <f t="shared" ref="G13:J13" si="1">F13*1.02</f>
-        <v>1581.4080000000001</v>
-      </c>
-      <c r="H13" s="42">
-        <f t="shared" si="1"/>
-        <v>1613.0361600000001</v>
-      </c>
-      <c r="I13" s="42">
-        <f t="shared" si="1"/>
-        <v>1645.2968832000001</v>
-      </c>
-      <c r="J13" s="42">
-        <f t="shared" si="1"/>
-        <v>1678.2028208640002</v>
+      <c r="F13" s="40">
+        <f>Reports!U6</f>
+        <v>1660</v>
+      </c>
+      <c r="G13" s="40">
+        <f>F13*1.05</f>
+        <v>1743</v>
+      </c>
+      <c r="H13" s="40">
+        <f t="shared" ref="H13:K13" si="6">G13*1.05</f>
+        <v>1830.15</v>
+      </c>
+      <c r="I13" s="40">
+        <f t="shared" si="6"/>
+        <v>1921.6575000000003</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" si="6"/>
+        <v>2017.7403750000003</v>
+      </c>
+      <c r="K13" s="40">
+        <f t="shared" si="6"/>
+        <v>2118.6273937500005</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="53">
+        <v>74</v>
+      </c>
+      <c r="B14" s="51">
         <f>B16/B13</f>
         <v>17.237500000000001</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <f>C16/C13</f>
         <v>22.469918699186991</v>
       </c>
@@ -1299,36 +1375,40 @@
         <f>E16/E13</f>
         <v>36.735526315789471</v>
       </c>
-      <c r="F14" s="54">
-        <f>E14*1.25</f>
-        <v>45.919407894736835</v>
-      </c>
-      <c r="G14" s="54">
-        <f t="shared" ref="G14:J14" si="2">F14*1.25</f>
-        <v>57.399259868421041</v>
-      </c>
-      <c r="H14" s="54">
-        <f t="shared" si="2"/>
-        <v>71.749074835526301</v>
-      </c>
-      <c r="I14" s="54">
-        <f t="shared" si="2"/>
-        <v>89.686343544407876</v>
-      </c>
-      <c r="J14" s="54">
-        <f t="shared" si="2"/>
-        <v>112.10792943050984</v>
+      <c r="F14" s="11">
+        <f>F16/F13</f>
+        <v>42.588554216867472</v>
+      </c>
+      <c r="G14" s="52">
+        <f>F14*1.15</f>
+        <v>48.976837349397591</v>
+      </c>
+      <c r="H14" s="52">
+        <f t="shared" ref="H14:K14" si="7">G14*1.15</f>
+        <v>56.323362951807226</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" si="7"/>
+        <v>64.771867394578308</v>
+      </c>
+      <c r="J14" s="52">
+        <f t="shared" si="7"/>
+        <v>74.487647503765047</v>
+      </c>
+      <c r="K14" s="52">
+        <f t="shared" si="7"/>
+        <v>85.6607946293298</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="53">
         <f>SUM(B10:B11)</f>
         <v>17927</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="53">
         <f>SUM(C10:C11)</f>
         <v>27638</v>
       </c>
@@ -1340,69 +1420,84 @@
         <f>SUM(E10:E11)</f>
         <v>55838</v>
       </c>
-      <c r="F16" s="56">
-        <f>F13*F14</f>
-        <v>71193.45</v>
-      </c>
-      <c r="G16" s="56">
-        <f t="shared" ref="G16:J16" si="3">G13*G14</f>
-        <v>90771.648749999993</v>
-      </c>
-      <c r="H16" s="56">
-        <f t="shared" si="3"/>
-        <v>115733.85215624998</v>
-      </c>
-      <c r="I16" s="56">
-        <f t="shared" si="3"/>
-        <v>147560.66149921872</v>
-      </c>
-      <c r="J16" s="56">
-        <f t="shared" si="3"/>
-        <v>188139.84341150388</v>
-      </c>
-      <c r="K16" s="56">
-        <f>J16*1.05</f>
-        <v>197546.83558207907</v>
-      </c>
-      <c r="L16" s="56">
-        <f t="shared" ref="L16:Q16" si="4">K16*1.05</f>
-        <v>207424.17736118304</v>
-      </c>
-      <c r="M16" s="56">
-        <f t="shared" si="4"/>
-        <v>217795.3862292422</v>
-      </c>
-      <c r="N16" s="56">
-        <f t="shared" si="4"/>
-        <v>228685.15554070432</v>
-      </c>
-      <c r="O16" s="56">
-        <f t="shared" si="4"/>
-        <v>240119.41331773956</v>
-      </c>
-      <c r="P16" s="56">
-        <f t="shared" si="4"/>
-        <v>252125.38398362655</v>
-      </c>
-      <c r="Q16" s="56">
-        <f t="shared" si="4"/>
-        <v>264731.6531828079</v>
-      </c>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
+      <c r="F16" s="16">
+        <f>SUM(F10:F11)</f>
+        <v>70697</v>
+      </c>
+      <c r="G16" s="54">
+        <f t="shared" ref="G16:K16" si="8">G13*G14</f>
+        <v>85366.627500000002</v>
+      </c>
+      <c r="H16" s="54">
+        <f t="shared" si="8"/>
+        <v>103080.20270625</v>
+      </c>
+      <c r="I16" s="54">
+        <f t="shared" si="8"/>
+        <v>124469.34476779688</v>
+      </c>
+      <c r="J16" s="54">
+        <f t="shared" si="8"/>
+        <v>150296.73380711471</v>
+      </c>
+      <c r="K16" s="54">
+        <f t="shared" si="8"/>
+        <v>181483.30607209104</v>
+      </c>
+      <c r="L16" s="54">
+        <f>K16*1.1</f>
+        <v>199631.63667930017</v>
+      </c>
+      <c r="M16" s="54">
+        <f t="shared" ref="M16:Q16" si="9">L16*1.1</f>
+        <v>219594.80034723019</v>
+      </c>
+      <c r="N16" s="54">
+        <f t="shared" si="9"/>
+        <v>241554.28038195323</v>
+      </c>
+      <c r="O16" s="54">
+        <f t="shared" si="9"/>
+        <v>265709.70842014858</v>
+      </c>
+      <c r="P16" s="54">
+        <f t="shared" si="9"/>
+        <v>292280.67926216347</v>
+      </c>
+      <c r="Q16" s="54">
+        <f t="shared" si="9"/>
+        <v>321508.74718837981</v>
+      </c>
+      <c r="R16" s="54">
+        <f t="shared" ref="R16:V16" si="10">Q16*1.1</f>
+        <v>353659.62190721784</v>
+      </c>
+      <c r="S16" s="54">
+        <f t="shared" si="10"/>
+        <v>389025.58409793966</v>
+      </c>
+      <c r="T16" s="54">
+        <f t="shared" si="10"/>
+        <v>427928.14250773366</v>
+      </c>
+      <c r="U16" s="54">
+        <f t="shared" si="10"/>
+        <v>470720.95675850706</v>
+      </c>
+      <c r="V16" s="54">
+        <f t="shared" si="10"/>
+        <v>517793.05243435781</v>
+      </c>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="50">
         <f>SUM(Reports!B10:E10)</f>
         <v>2866</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="50">
         <f>SUM(Reports!F10:I10)</f>
         <v>3788</v>
       </c>
@@ -1410,147 +1505,177 @@
         <f>SUM(Reports!J10:M10)</f>
         <v>5455</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="40">
         <f>SUM(Reports!N10:Q10)</f>
         <v>9355</v>
       </c>
-      <c r="F17" s="52">
-        <f>F16-F18</f>
-        <v>11927.624999999993</v>
-      </c>
-      <c r="G17" s="52">
-        <f t="shared" ref="G17" si="5">G16-G18</f>
-        <v>15207.721874999988</v>
-      </c>
-      <c r="H17" s="52">
-        <f t="shared" ref="H17:Q17" si="6">H16-H18</f>
-        <v>19389.845390624978</v>
-      </c>
-      <c r="I17" s="52">
-        <f t="shared" si="6"/>
-        <v>24722.05287304685</v>
-      </c>
-      <c r="J17" s="52">
-        <f t="shared" si="6"/>
-        <v>31520.617413134722</v>
-      </c>
-      <c r="K17" s="52">
-        <f t="shared" si="6"/>
-        <v>33096.648283791466</v>
-      </c>
-      <c r="L17" s="52">
-        <f t="shared" si="6"/>
-        <v>34751.480697981053</v>
-      </c>
-      <c r="M17" s="52">
-        <f t="shared" si="6"/>
-        <v>36489.054732880089</v>
-      </c>
-      <c r="N17" s="52">
-        <f t="shared" si="6"/>
-        <v>38313.507469524106</v>
-      </c>
-      <c r="O17" s="52">
-        <f t="shared" si="6"/>
-        <v>40229.182843000308</v>
-      </c>
-      <c r="P17" s="52">
-        <f t="shared" si="6"/>
-        <v>42240.641985150316</v>
-      </c>
-      <c r="Q17" s="52">
-        <f t="shared" si="6"/>
-        <v>44352.674084407859</v>
-      </c>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
+      <c r="F17" s="40">
+        <f>SUM(Reports!R10:U10)</f>
+        <v>12770</v>
+      </c>
+      <c r="G17" s="50">
+        <f t="shared" ref="G17" si="11">G16-G18</f>
+        <v>15419.774999999994</v>
+      </c>
+      <c r="H17" s="50">
+        <f t="shared" ref="H17:Q17" si="12">H16-H18</f>
+        <v>18619.37831249999</v>
+      </c>
+      <c r="I17" s="50">
+        <f t="shared" si="12"/>
+        <v>22482.899312343739</v>
+      </c>
+      <c r="J17" s="50">
+        <f t="shared" si="12"/>
+        <v>27148.100919655059</v>
+      </c>
+      <c r="K17" s="50">
+        <f t="shared" si="12"/>
+        <v>32781.331860483479</v>
+      </c>
+      <c r="L17" s="50">
+        <f t="shared" si="12"/>
+        <v>36059.465046531841</v>
+      </c>
+      <c r="M17" s="50">
+        <f t="shared" si="12"/>
+        <v>39665.41155118501</v>
+      </c>
+      <c r="N17" s="50">
+        <f t="shared" si="12"/>
+        <v>43631.952706303535</v>
+      </c>
+      <c r="O17" s="50">
+        <f t="shared" si="12"/>
+        <v>47995.147976933891</v>
+      </c>
+      <c r="P17" s="50">
+        <f t="shared" si="12"/>
+        <v>52794.662774627272</v>
+      </c>
+      <c r="Q17" s="50">
+        <f t="shared" si="12"/>
+        <v>58074.129052089993</v>
+      </c>
+      <c r="R17" s="50">
+        <f t="shared" ref="R17:V17" si="13">R16-R18</f>
+        <v>63881.541957298992</v>
+      </c>
+      <c r="S17" s="50">
+        <f t="shared" si="13"/>
+        <v>70269.696153028926</v>
+      </c>
+      <c r="T17" s="50">
+        <f t="shared" si="13"/>
+        <v>77296.66576833179</v>
+      </c>
+      <c r="U17" s="50">
+        <f t="shared" si="13"/>
+        <v>85026.332345164963</v>
+      </c>
+      <c r="V17" s="50">
+        <f t="shared" si="13"/>
+        <v>93528.965579681448</v>
+      </c>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <f>B16-B17</f>
         <v>15061</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <f>C16-C17</f>
         <v>23850</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <f>D16-D17</f>
         <v>35198</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <f>E16-E17</f>
         <v>46483</v>
       </c>
-      <c r="F18" s="52">
-        <f>F16*E36</f>
-        <v>59265.825000000004</v>
-      </c>
-      <c r="G18" s="52">
-        <f t="shared" ref="G18" si="7">G16*F36</f>
-        <v>75563.926875000005</v>
-      </c>
-      <c r="H18" s="52">
-        <f t="shared" ref="H18" si="8">H16*G36</f>
-        <v>96344.006765625003</v>
-      </c>
-      <c r="I18" s="52">
-        <f t="shared" ref="I18" si="9">I16*H36</f>
-        <v>122838.60862617187</v>
-      </c>
-      <c r="J18" s="52">
-        <f t="shared" ref="J18" si="10">J16*I36</f>
-        <v>156619.22599836916</v>
-      </c>
-      <c r="K18" s="52">
-        <f t="shared" ref="K18" si="11">K16*J36</f>
-        <v>164450.18729828761</v>
-      </c>
-      <c r="L18" s="52">
-        <f t="shared" ref="L18" si="12">L16*K36</f>
-        <v>172672.69666320199</v>
-      </c>
-      <c r="M18" s="52">
-        <f t="shared" ref="M18" si="13">M16*L36</f>
-        <v>181306.33149636211</v>
-      </c>
-      <c r="N18" s="52">
-        <f t="shared" ref="N18" si="14">N16*M36</f>
-        <v>190371.64807118021</v>
-      </c>
-      <c r="O18" s="52">
-        <f t="shared" ref="O18" si="15">O16*N36</f>
-        <v>199890.23047473925</v>
-      </c>
-      <c r="P18" s="52">
-        <f t="shared" ref="P18" si="16">P16*O36</f>
-        <v>209884.74199847624</v>
-      </c>
-      <c r="Q18" s="52">
-        <f t="shared" ref="Q18" si="17">Q16*P36</f>
-        <v>220378.97909840004</v>
-      </c>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
+      <c r="F18" s="19">
+        <f>F16-F17</f>
+        <v>57927</v>
+      </c>
+      <c r="G18" s="50">
+        <f t="shared" ref="G18" si="14">G16*F37</f>
+        <v>69946.852500000008</v>
+      </c>
+      <c r="H18" s="50">
+        <f t="shared" ref="H18" si="15">H16*G37</f>
+        <v>84460.824393750008</v>
+      </c>
+      <c r="I18" s="50">
+        <f t="shared" ref="I18" si="16">I16*H37</f>
+        <v>101986.44545545314</v>
+      </c>
+      <c r="J18" s="50">
+        <f t="shared" ref="J18" si="17">J16*I37</f>
+        <v>123148.63288745965</v>
+      </c>
+      <c r="K18" s="50">
+        <f t="shared" ref="K18" si="18">K16*J37</f>
+        <v>148701.97421160756</v>
+      </c>
+      <c r="L18" s="50">
+        <f t="shared" ref="L18" si="19">L16*K37</f>
+        <v>163572.17163276832</v>
+      </c>
+      <c r="M18" s="50">
+        <f t="shared" ref="M18" si="20">M16*L37</f>
+        <v>179929.38879604518</v>
+      </c>
+      <c r="N18" s="50">
+        <f t="shared" ref="N18" si="21">N16*M37</f>
+        <v>197922.32767564969</v>
+      </c>
+      <c r="O18" s="50">
+        <f t="shared" ref="O18" si="22">O16*N37</f>
+        <v>217714.56044321469</v>
+      </c>
+      <c r="P18" s="50">
+        <f t="shared" ref="P18" si="23">P16*O37</f>
+        <v>239486.0164875362</v>
+      </c>
+      <c r="Q18" s="50">
+        <f t="shared" ref="Q18" si="24">Q16*P37</f>
+        <v>263434.61813628982</v>
+      </c>
+      <c r="R18" s="50">
+        <f t="shared" ref="R18" si="25">R16*Q37</f>
+        <v>289778.07994991884</v>
+      </c>
+      <c r="S18" s="50">
+        <f t="shared" ref="S18" si="26">S16*R37</f>
+        <v>318755.88794491073</v>
+      </c>
+      <c r="T18" s="50">
+        <f t="shared" ref="T18" si="27">T16*S37</f>
+        <v>350631.47673940187</v>
+      </c>
+      <c r="U18" s="50">
+        <f t="shared" ref="U18" si="28">U16*T37</f>
+        <v>385694.6244133421</v>
+      </c>
+      <c r="V18" s="50">
+        <f t="shared" ref="V18" si="29">V16*U37</f>
+        <v>424264.08685467637</v>
+      </c>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="50">
         <f>SUM(Reports!B12:E12)</f>
         <v>4817</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="50">
         <f>SUM(Reports!F12:I12)</f>
         <v>5908</v>
       </c>
@@ -1558,73 +1683,88 @@
         <f>SUM(Reports!J12:M12)</f>
         <v>7754</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="40">
         <f>SUM(Reports!N12:Q12)</f>
         <v>10273</v>
       </c>
-      <c r="F19" s="52">
-        <f>E19*1.3</f>
-        <v>13354.9</v>
-      </c>
-      <c r="G19" s="52">
-        <f t="shared" ref="G19:J19" si="18">F19*1.3</f>
-        <v>17361.37</v>
-      </c>
-      <c r="H19" s="52">
-        <f t="shared" si="18"/>
-        <v>22569.780999999999</v>
-      </c>
-      <c r="I19" s="52">
-        <f t="shared" si="18"/>
-        <v>29340.7153</v>
-      </c>
-      <c r="J19" s="52">
-        <f t="shared" si="18"/>
-        <v>38142.929889999999</v>
-      </c>
-      <c r="K19" s="52">
-        <f>J19*1.1</f>
-        <v>41957.222879000001</v>
-      </c>
-      <c r="L19" s="52">
-        <f t="shared" ref="L19:Q19" si="19">K19*1.1</f>
-        <v>46152.945166900005</v>
-      </c>
-      <c r="M19" s="52">
-        <f t="shared" si="19"/>
-        <v>50768.239683590007</v>
-      </c>
-      <c r="N19" s="52">
-        <f t="shared" si="19"/>
-        <v>55845.063651949014</v>
-      </c>
-      <c r="O19" s="52">
-        <f t="shared" si="19"/>
-        <v>61429.570017143924</v>
-      </c>
-      <c r="P19" s="52">
-        <f t="shared" si="19"/>
-        <v>67572.527018858324</v>
-      </c>
-      <c r="Q19" s="52">
-        <f t="shared" si="19"/>
-        <v>74329.779720744162</v>
-      </c>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
+      <c r="F19" s="40">
+        <f>SUM(Reports!R12:U12)</f>
+        <v>13600</v>
+      </c>
+      <c r="G19" s="50">
+        <f t="shared" ref="G19" si="30">F19*1.3</f>
+        <v>17680</v>
+      </c>
+      <c r="H19" s="50">
+        <f t="shared" ref="H19" si="31">G19*1.3</f>
+        <v>22984</v>
+      </c>
+      <c r="I19" s="50">
+        <f t="shared" ref="I19" si="32">H19*1.3</f>
+        <v>29879.200000000001</v>
+      </c>
+      <c r="J19" s="50">
+        <f t="shared" ref="J19" si="33">I19*1.3</f>
+        <v>38842.959999999999</v>
+      </c>
+      <c r="K19" s="50">
+        <f t="shared" ref="K19" si="34">J19*1.3</f>
+        <v>50495.847999999998</v>
+      </c>
+      <c r="L19" s="50">
+        <f t="shared" ref="L19:Q19" si="35">K19*1.1</f>
+        <v>55545.432800000002</v>
+      </c>
+      <c r="M19" s="50">
+        <f t="shared" si="35"/>
+        <v>61099.976080000008</v>
+      </c>
+      <c r="N19" s="50">
+        <f t="shared" si="35"/>
+        <v>67209.973688000013</v>
+      </c>
+      <c r="O19" s="50">
+        <f t="shared" si="35"/>
+        <v>73930.971056800016</v>
+      </c>
+      <c r="P19" s="50">
+        <f t="shared" si="35"/>
+        <v>81324.06816248002</v>
+      </c>
+      <c r="Q19" s="50">
+        <f t="shared" si="35"/>
+        <v>89456.474978728031</v>
+      </c>
+      <c r="R19" s="50">
+        <f t="shared" ref="R19:R20" si="36">Q19*1.1</f>
+        <v>98402.122476600838</v>
+      </c>
+      <c r="S19" s="50">
+        <f t="shared" ref="S19:S20" si="37">R19*1.1</f>
+        <v>108242.33472426093</v>
+      </c>
+      <c r="T19" s="50">
+        <f t="shared" ref="T19:T20" si="38">S19*1.1</f>
+        <v>119066.56819668703</v>
+      </c>
+      <c r="U19" s="50">
+        <f t="shared" ref="U19:U20" si="39">T19*1.1</f>
+        <v>130973.22501635575</v>
+      </c>
+      <c r="V19" s="50">
+        <f t="shared" ref="V19:V20" si="40">U19*1.1</f>
+        <v>144070.54751799133</v>
+      </c>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="50">
         <f>SUM(Reports!B13:E13)</f>
         <v>2724</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="50">
         <f>SUM(Reports!F13:I13)</f>
         <v>3768</v>
       </c>
@@ -1632,73 +1772,88 @@
         <f>SUM(Reports!J13:M13)</f>
         <v>4725</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="40">
         <f>SUM(Reports!N13:Q13)</f>
         <v>7845</v>
       </c>
-      <c r="F20" s="52">
-        <f>E20*1.25</f>
-        <v>9806.25</v>
-      </c>
-      <c r="G20" s="52">
-        <f t="shared" ref="G20:J20" si="20">F20*1.25</f>
-        <v>12257.8125</v>
-      </c>
-      <c r="H20" s="52">
-        <f t="shared" si="20"/>
-        <v>15322.265625</v>
-      </c>
-      <c r="I20" s="52">
-        <f t="shared" si="20"/>
-        <v>19152.83203125</v>
-      </c>
-      <c r="J20" s="52">
-        <f t="shared" si="20"/>
-        <v>23941.0400390625</v>
-      </c>
-      <c r="K20" s="52">
-        <f>J20*1.1</f>
-        <v>26335.144042968754</v>
-      </c>
-      <c r="L20" s="52">
-        <f t="shared" ref="L20:Q20" si="21">K20*1.1</f>
-        <v>28968.658447265632</v>
-      </c>
-      <c r="M20" s="52">
-        <f t="shared" si="21"/>
-        <v>31865.524291992198</v>
-      </c>
-      <c r="N20" s="52">
-        <f t="shared" si="21"/>
-        <v>35052.076721191421</v>
-      </c>
-      <c r="O20" s="52">
-        <f t="shared" si="21"/>
-        <v>38557.284393310569</v>
-      </c>
-      <c r="P20" s="52">
-        <f t="shared" si="21"/>
-        <v>42413.012832641631</v>
-      </c>
-      <c r="Q20" s="52">
-        <f t="shared" si="21"/>
-        <v>46654.3141159058</v>
-      </c>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
+      <c r="F20" s="40">
+        <f>SUM(Reports!R13:U13)</f>
+        <v>9876</v>
+      </c>
+      <c r="G20" s="50">
+        <f t="shared" ref="G20" si="41">F20*1.25</f>
+        <v>12345</v>
+      </c>
+      <c r="H20" s="50">
+        <f t="shared" ref="H20" si="42">G20*1.25</f>
+        <v>15431.25</v>
+      </c>
+      <c r="I20" s="50">
+        <f t="shared" ref="I20" si="43">H20*1.25</f>
+        <v>19289.0625</v>
+      </c>
+      <c r="J20" s="50">
+        <f t="shared" ref="J20" si="44">I20*1.25</f>
+        <v>24111.328125</v>
+      </c>
+      <c r="K20" s="50">
+        <f t="shared" ref="K20" si="45">J20*1.25</f>
+        <v>30139.16015625</v>
+      </c>
+      <c r="L20" s="50">
+        <f t="shared" ref="L20:Q20" si="46">K20*1.1</f>
+        <v>33153.076171875</v>
+      </c>
+      <c r="M20" s="50">
+        <f t="shared" si="46"/>
+        <v>36468.3837890625</v>
+      </c>
+      <c r="N20" s="50">
+        <f t="shared" si="46"/>
+        <v>40115.22216796875</v>
+      </c>
+      <c r="O20" s="50">
+        <f t="shared" si="46"/>
+        <v>44126.744384765625</v>
+      </c>
+      <c r="P20" s="50">
+        <f t="shared" si="46"/>
+        <v>48539.418823242195</v>
+      </c>
+      <c r="Q20" s="50">
+        <f t="shared" si="46"/>
+        <v>53393.360705566418</v>
+      </c>
+      <c r="R20" s="50">
+        <f t="shared" si="36"/>
+        <v>58732.696776123063</v>
+      </c>
+      <c r="S20" s="50">
+        <f t="shared" si="37"/>
+        <v>64605.966453735375</v>
+      </c>
+      <c r="T20" s="50">
+        <f t="shared" si="38"/>
+        <v>71066.563099108913</v>
+      </c>
+      <c r="U20" s="50">
+        <f t="shared" si="39"/>
+        <v>78173.219409019817</v>
+      </c>
+      <c r="V20" s="50">
+        <f t="shared" si="40"/>
+        <v>85990.541349921812</v>
+      </c>
     </row>
     <row r="21" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="50">
         <f>SUM(Reports!B14:E14)</f>
         <v>1295</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="50">
         <f>SUM(Reports!F14:I14)</f>
         <v>1731</v>
       </c>
@@ -1706,221 +1861,266 @@
         <f>SUM(Reports!J14:M14)</f>
         <v>2517</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="40">
         <f>SUM(Reports!N14:Q14)</f>
         <v>3452</v>
       </c>
-      <c r="F21" s="52">
-        <f t="shared" ref="F21:J21" si="22">E21*1.3</f>
+      <c r="F21" s="40">
+        <f>SUM(Reports!R14:U14)</f>
+        <v>10465</v>
+      </c>
+      <c r="G21" s="50">
+        <f>E21*1.3</f>
         <v>4487.6000000000004</v>
       </c>
-      <c r="G21" s="52">
-        <f t="shared" si="22"/>
+      <c r="H21" s="50">
+        <f>G21*1.3</f>
         <v>5833.880000000001</v>
       </c>
-      <c r="H21" s="52">
-        <f t="shared" si="22"/>
+      <c r="I21" s="50">
+        <f t="shared" ref="I21:K21" si="47">H21*1.3</f>
         <v>7584.0440000000017</v>
       </c>
-      <c r="I21" s="52">
-        <f t="shared" si="22"/>
+      <c r="J21" s="50">
+        <f t="shared" si="47"/>
         <v>9859.2572000000018</v>
       </c>
-      <c r="J21" s="52">
-        <f t="shared" si="22"/>
+      <c r="K21" s="50">
+        <f t="shared" si="47"/>
         <v>12817.034360000003</v>
       </c>
-      <c r="K21" s="52">
-        <f>J21*1.2</f>
-        <v>15380.441232000003</v>
-      </c>
-      <c r="L21" s="52">
-        <f t="shared" ref="L21:Q21" si="23">K21*1.2</f>
-        <v>18456.529478400003</v>
-      </c>
-      <c r="M21" s="52">
-        <f t="shared" si="23"/>
-        <v>22147.835374080005</v>
-      </c>
-      <c r="N21" s="52">
-        <f t="shared" si="23"/>
-        <v>26577.402448896006</v>
-      </c>
-      <c r="O21" s="52">
-        <f t="shared" si="23"/>
-        <v>31892.882938675204</v>
-      </c>
-      <c r="P21" s="52">
-        <f t="shared" si="23"/>
-        <v>38271.459526410246</v>
-      </c>
-      <c r="Q21" s="52">
-        <f t="shared" si="23"/>
-        <v>45925.751431692297</v>
-      </c>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
+      <c r="L21" s="50">
+        <f>K21*0.98</f>
+        <v>12560.693672800004</v>
+      </c>
+      <c r="M21" s="50">
+        <f t="shared" ref="M21:V21" si="48">L21*0.98</f>
+        <v>12309.479799344004</v>
+      </c>
+      <c r="N21" s="50">
+        <f t="shared" si="48"/>
+        <v>12063.290203357124</v>
+      </c>
+      <c r="O21" s="50">
+        <f t="shared" si="48"/>
+        <v>11822.024399289981</v>
+      </c>
+      <c r="P21" s="50">
+        <f t="shared" si="48"/>
+        <v>11585.583911304182</v>
+      </c>
+      <c r="Q21" s="50">
+        <f t="shared" si="48"/>
+        <v>11353.872233078098</v>
+      </c>
+      <c r="R21" s="50">
+        <f t="shared" si="48"/>
+        <v>11126.794788416537</v>
+      </c>
+      <c r="S21" s="50">
+        <f t="shared" si="48"/>
+        <v>10904.258892648206</v>
+      </c>
+      <c r="T21" s="50">
+        <f t="shared" si="48"/>
+        <v>10686.173714795241</v>
+      </c>
+      <c r="U21" s="50">
+        <f t="shared" si="48"/>
+        <v>10472.450240499336</v>
+      </c>
+      <c r="V21" s="50">
+        <f t="shared" si="48"/>
+        <v>10263.001235689349</v>
+      </c>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="55">
         <f>SUM(B19:B21)</f>
         <v>8836</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="55">
         <f>SUM(C19:C21)</f>
         <v>11407</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <f>SUM(D19:D21)</f>
         <v>14996</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <f>SUM(E19:E21)</f>
         <v>21570</v>
       </c>
-      <c r="F22" s="58">
-        <f t="shared" ref="F22:G22" si="24">SUM(F19:F21)</f>
-        <v>27648.75</v>
-      </c>
-      <c r="G22" s="58">
-        <f t="shared" si="24"/>
-        <v>35453.0625</v>
-      </c>
-      <c r="H22" s="58">
-        <f t="shared" ref="H22:Q22" si="25">SUM(H19:H21)</f>
-        <v>45476.090625000004</v>
-      </c>
-      <c r="I22" s="58">
-        <f t="shared" si="25"/>
-        <v>58352.804531249996</v>
-      </c>
-      <c r="J22" s="58">
-        <f t="shared" si="25"/>
-        <v>74901.004289062505</v>
-      </c>
-      <c r="K22" s="58">
-        <f t="shared" si="25"/>
-        <v>83672.808153968756</v>
-      </c>
-      <c r="L22" s="58">
-        <f t="shared" si="25"/>
-        <v>93578.133092565637</v>
-      </c>
-      <c r="M22" s="58">
-        <f t="shared" si="25"/>
-        <v>104781.59934966221</v>
-      </c>
-      <c r="N22" s="58">
-        <f t="shared" si="25"/>
-        <v>117474.54282203643</v>
-      </c>
-      <c r="O22" s="58">
-        <f t="shared" si="25"/>
-        <v>131879.73734912969</v>
-      </c>
-      <c r="P22" s="58">
-        <f t="shared" si="25"/>
-        <v>148256.99937791019</v>
-      </c>
-      <c r="Q22" s="58">
-        <f t="shared" si="25"/>
-        <v>166909.84526834227</v>
-      </c>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
+      <c r="F22" s="19">
+        <f>SUM(F19:F21)</f>
+        <v>33941</v>
+      </c>
+      <c r="G22" s="56">
+        <f t="shared" ref="G22" si="49">SUM(G19:G21)</f>
+        <v>34512.6</v>
+      </c>
+      <c r="H22" s="56">
+        <f t="shared" ref="H22:Q22" si="50">SUM(H19:H21)</f>
+        <v>44249.130000000005</v>
+      </c>
+      <c r="I22" s="56">
+        <f t="shared" si="50"/>
+        <v>56752.306499999999</v>
+      </c>
+      <c r="J22" s="56">
+        <f t="shared" si="50"/>
+        <v>72813.545324999999</v>
+      </c>
+      <c r="K22" s="56">
+        <f t="shared" si="50"/>
+        <v>93452.042516250003</v>
+      </c>
+      <c r="L22" s="56">
+        <f t="shared" si="50"/>
+        <v>101259.20264467501</v>
+      </c>
+      <c r="M22" s="56">
+        <f t="shared" si="50"/>
+        <v>109877.83966840651</v>
+      </c>
+      <c r="N22" s="56">
+        <f t="shared" si="50"/>
+        <v>119388.48605932589</v>
+      </c>
+      <c r="O22" s="56">
+        <f t="shared" si="50"/>
+        <v>129879.73984085562</v>
+      </c>
+      <c r="P22" s="56">
+        <f t="shared" si="50"/>
+        <v>141449.07089702639</v>
+      </c>
+      <c r="Q22" s="56">
+        <f t="shared" si="50"/>
+        <v>154203.70791737255</v>
+      </c>
+      <c r="R22" s="56">
+        <f t="shared" ref="R22:V22" si="51">SUM(R19:R21)</f>
+        <v>168261.61404114042</v>
+      </c>
+      <c r="S22" s="56">
+        <f t="shared" si="51"/>
+        <v>183752.56007064451</v>
+      </c>
+      <c r="T22" s="56">
+        <f t="shared" si="51"/>
+        <v>200819.3050105912</v>
+      </c>
+      <c r="U22" s="56">
+        <f t="shared" si="51"/>
+        <v>219618.89466587489</v>
+      </c>
+      <c r="V22" s="56">
+        <f t="shared" si="51"/>
+        <v>240324.0901036025</v>
+      </c>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="55">
         <f>B18-B22</f>
         <v>6225</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <f>C18-C22</f>
         <v>12443</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <f>D18-D22</f>
         <v>20202</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <f>E18-E22</f>
         <v>24913</v>
       </c>
-      <c r="F23" s="58">
-        <f t="shared" ref="F23:G23" si="26">F18-F22</f>
-        <v>31617.075000000004</v>
-      </c>
-      <c r="G23" s="58">
-        <f t="shared" si="26"/>
-        <v>40110.864375000005</v>
-      </c>
-      <c r="H23" s="58">
-        <f t="shared" ref="H23:Q23" si="27">H18-H22</f>
-        <v>50867.916140624999</v>
-      </c>
-      <c r="I23" s="58">
-        <f t="shared" si="27"/>
-        <v>64485.804094921878</v>
-      </c>
-      <c r="J23" s="58">
-        <f t="shared" si="27"/>
-        <v>81718.221709306657</v>
-      </c>
-      <c r="K23" s="58">
-        <f t="shared" si="27"/>
-        <v>80777.379144318853</v>
-      </c>
-      <c r="L23" s="58">
-        <f t="shared" si="27"/>
-        <v>79094.563570636354</v>
-      </c>
-      <c r="M23" s="58">
-        <f t="shared" si="27"/>
-        <v>76524.732146699898</v>
-      </c>
-      <c r="N23" s="58">
-        <f t="shared" si="27"/>
-        <v>72897.105249143788</v>
-      </c>
-      <c r="O23" s="58">
-        <f t="shared" si="27"/>
-        <v>68010.493125609559</v>
-      </c>
-      <c r="P23" s="58">
-        <f t="shared" si="27"/>
-        <v>61627.742620566045</v>
-      </c>
-      <c r="Q23" s="58">
-        <f t="shared" si="27"/>
-        <v>53469.133830057777</v>
-      </c>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
+      <c r="F23" s="19">
+        <f>F18-F22</f>
+        <v>23986</v>
+      </c>
+      <c r="G23" s="56">
+        <f t="shared" ref="G23" si="52">G18-G22</f>
+        <v>35434.25250000001</v>
+      </c>
+      <c r="H23" s="56">
+        <f t="shared" ref="H23:Q23" si="53">H18-H22</f>
+        <v>40211.694393750004</v>
+      </c>
+      <c r="I23" s="56">
+        <f t="shared" si="53"/>
+        <v>45234.138955453142</v>
+      </c>
+      <c r="J23" s="56">
+        <f t="shared" si="53"/>
+        <v>50335.087562459652</v>
+      </c>
+      <c r="K23" s="56">
+        <f t="shared" si="53"/>
+        <v>55249.931695357562</v>
+      </c>
+      <c r="L23" s="56">
+        <f t="shared" si="53"/>
+        <v>62312.968988093315</v>
+      </c>
+      <c r="M23" s="56">
+        <f t="shared" si="53"/>
+        <v>70051.549127638675</v>
+      </c>
+      <c r="N23" s="56">
+        <f t="shared" si="53"/>
+        <v>78533.8416163238</v>
+      </c>
+      <c r="O23" s="56">
+        <f t="shared" si="53"/>
+        <v>87834.820602359076</v>
+      </c>
+      <c r="P23" s="56">
+        <f t="shared" si="53"/>
+        <v>98036.9455905098</v>
+      </c>
+      <c r="Q23" s="56">
+        <f t="shared" si="53"/>
+        <v>109230.91021891727</v>
+      </c>
+      <c r="R23" s="56">
+        <f t="shared" ref="R23:V23" si="54">R18-R22</f>
+        <v>121516.46590877842</v>
+      </c>
+      <c r="S23" s="56">
+        <f t="shared" si="54"/>
+        <v>135003.32787426622</v>
+      </c>
+      <c r="T23" s="56">
+        <f t="shared" si="54"/>
+        <v>149812.17172881067</v>
+      </c>
+      <c r="U23" s="56">
+        <f t="shared" si="54"/>
+        <v>166075.72974746721</v>
+      </c>
+      <c r="V23" s="56">
+        <f t="shared" si="54"/>
+        <v>183939.99675107386</v>
+      </c>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="50">
         <f>SUM(Reports!B17:E17)</f>
         <v>-31</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="50">
         <f>SUM(Reports!F17:I17)</f>
         <v>90</v>
       </c>
@@ -1928,147 +2128,177 @@
         <f>SUM(Reports!J17:M17)</f>
         <v>392</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="40">
         <f>SUM(Reports!N17:Q17)</f>
         <v>448</v>
       </c>
-      <c r="F24" s="58">
-        <f>E40*$F$3</f>
-        <v>411.14</v>
-      </c>
-      <c r="G24" s="58">
-        <f t="shared" ref="G24:Q24" si="28">F40*$F$3</f>
-        <v>667.36572000000001</v>
-      </c>
-      <c r="H24" s="58">
-        <f t="shared" si="28"/>
-        <v>993.59156076000011</v>
-      </c>
-      <c r="I24" s="58">
-        <f t="shared" si="28"/>
-        <v>1408.4836223710799</v>
-      </c>
-      <c r="J24" s="58">
-        <f t="shared" si="28"/>
-        <v>1935.6379241094237</v>
-      </c>
-      <c r="K24" s="58">
-        <f t="shared" si="28"/>
-        <v>2604.8688011767522</v>
-      </c>
-      <c r="L24" s="58">
-        <f t="shared" si="28"/>
-        <v>3271.9267847407173</v>
-      </c>
-      <c r="M24" s="58">
-        <f t="shared" si="28"/>
-        <v>3930.858707583734</v>
-      </c>
-      <c r="N24" s="58">
-        <f t="shared" si="28"/>
-        <v>4574.5034344180031</v>
-      </c>
-      <c r="O24" s="58">
-        <f t="shared" si="28"/>
-        <v>5194.2763038864978</v>
-      </c>
-      <c r="P24" s="58">
-        <f t="shared" si="28"/>
-        <v>5779.9144593224664</v>
-      </c>
-      <c r="Q24" s="58">
-        <f t="shared" si="28"/>
-        <v>6319.1757159615736</v>
-      </c>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
+      <c r="F24" s="40">
+        <f>SUM(Reports!R17:U17)</f>
+        <v>826</v>
+      </c>
+      <c r="G24" s="56">
+        <f t="shared" ref="G24:Q24" si="55">F41*$F$3</f>
+        <v>548.55000000000007</v>
+      </c>
+      <c r="H24" s="56">
+        <f t="shared" si="55"/>
+        <v>836.41242000000011</v>
+      </c>
+      <c r="I24" s="56">
+        <f t="shared" si="55"/>
+        <v>1164.7972745100001</v>
+      </c>
+      <c r="J24" s="56">
+        <f t="shared" si="55"/>
+        <v>1535.9887643497054</v>
+      </c>
+      <c r="K24" s="56">
+        <f t="shared" si="55"/>
+        <v>1950.9573749641802</v>
+      </c>
+      <c r="L24" s="56">
+        <f t="shared" si="55"/>
+        <v>2408.564487526754</v>
+      </c>
+      <c r="M24" s="56">
+        <f t="shared" si="55"/>
+        <v>2926.3367553317144</v>
+      </c>
+      <c r="N24" s="56">
+        <f t="shared" si="55"/>
+        <v>3510.1598423954774</v>
+      </c>
+      <c r="O24" s="56">
+        <f t="shared" si="55"/>
+        <v>4166.511854065232</v>
+      </c>
+      <c r="P24" s="56">
+        <f t="shared" si="55"/>
+        <v>4902.5225137166262</v>
+      </c>
+      <c r="Q24" s="56">
+        <f t="shared" si="55"/>
+        <v>5726.0382585504376</v>
+      </c>
+      <c r="R24" s="56">
+        <f t="shared" ref="R24" si="56">Q41*$F$3</f>
+        <v>6645.693846370179</v>
+      </c>
+      <c r="S24" s="56">
+        <f t="shared" ref="S24" si="57">R41*$F$3</f>
+        <v>7670.9911244113673</v>
+      </c>
+      <c r="T24" s="56">
+        <f t="shared" ref="T24" si="58">S41*$F$3</f>
+        <v>8812.3856764007887</v>
+      </c>
+      <c r="U24" s="56">
+        <f t="shared" ref="U24" si="59">T41*$F$3</f>
+        <v>10081.382135642481</v>
+      </c>
+      <c r="V24" s="56">
+        <f t="shared" ref="V24" si="60">U41*$F$3</f>
+        <v>11490.639030707358</v>
+      </c>
     </row>
     <row r="25" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="55">
         <f>B23+B24</f>
         <v>6194</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <f>C23+C24</f>
         <v>12533</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <f>D23+D24</f>
         <v>20594</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <f>E23+E24</f>
         <v>25361</v>
       </c>
-      <c r="F25" s="58">
-        <f t="shared" ref="F25:G25" si="29">F23+F24</f>
-        <v>32028.215000000004</v>
-      </c>
-      <c r="G25" s="58">
-        <f t="shared" si="29"/>
-        <v>40778.230095000006</v>
-      </c>
-      <c r="H25" s="58">
-        <f t="shared" ref="H25:P25" si="30">H23+H24</f>
-        <v>51861.507701385002</v>
-      </c>
-      <c r="I25" s="58">
-        <f t="shared" si="30"/>
-        <v>65894.287717292958</v>
-      </c>
-      <c r="J25" s="58">
-        <f t="shared" si="30"/>
-        <v>83653.859633416083</v>
-      </c>
-      <c r="K25" s="58">
-        <f t="shared" si="30"/>
-        <v>83382.247945495605</v>
-      </c>
-      <c r="L25" s="58">
-        <f t="shared" si="30"/>
-        <v>82366.490355377071</v>
-      </c>
-      <c r="M25" s="58">
-        <f t="shared" si="30"/>
-        <v>80455.590854283626</v>
-      </c>
-      <c r="N25" s="58">
-        <f t="shared" si="30"/>
-        <v>77471.60868356179</v>
-      </c>
-      <c r="O25" s="58">
-        <f t="shared" si="30"/>
-        <v>73204.769429496053</v>
-      </c>
-      <c r="P25" s="58">
-        <f t="shared" si="30"/>
-        <v>67407.657079888508</v>
-      </c>
-      <c r="Q25" s="58">
+      <c r="F25" s="19">
+        <f>F23+F24</f>
+        <v>24812</v>
+      </c>
+      <c r="G25" s="56">
+        <f t="shared" ref="G25" si="61">G23+G24</f>
+        <v>35982.802500000013</v>
+      </c>
+      <c r="H25" s="56">
+        <f t="shared" ref="H25:P25" si="62">H23+H24</f>
+        <v>41048.106813750004</v>
+      </c>
+      <c r="I25" s="56">
+        <f t="shared" si="62"/>
+        <v>46398.936229963139</v>
+      </c>
+      <c r="J25" s="56">
+        <f t="shared" si="62"/>
+        <v>51871.076326809358</v>
+      </c>
+      <c r="K25" s="56">
+        <f t="shared" si="62"/>
+        <v>57200.88907032174</v>
+      </c>
+      <c r="L25" s="56">
+        <f t="shared" si="62"/>
+        <v>64721.533475620068</v>
+      </c>
+      <c r="M25" s="56">
+        <f t="shared" si="62"/>
+        <v>72977.885882970382</v>
+      </c>
+      <c r="N25" s="56">
+        <f t="shared" si="62"/>
+        <v>82044.001458719271</v>
+      </c>
+      <c r="O25" s="56">
+        <f t="shared" si="62"/>
+        <v>92001.332456424308</v>
+      </c>
+      <c r="P25" s="56">
+        <f t="shared" si="62"/>
+        <v>102939.46810422643</v>
+      </c>
+      <c r="Q25" s="56">
         <f>Q23+Q24</f>
-        <v>59788.309546019351</v>
-      </c>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
+        <v>114956.94847746771</v>
+      </c>
+      <c r="R25" s="56">
+        <f t="shared" ref="R25:V25" si="63">R23+R24</f>
+        <v>128162.1597551486</v>
+      </c>
+      <c r="S25" s="56">
+        <f t="shared" si="63"/>
+        <v>142674.3189986776</v>
+      </c>
+      <c r="T25" s="56">
+        <f t="shared" si="63"/>
+        <v>158624.55740521147</v>
+      </c>
+      <c r="U25" s="56">
+        <f t="shared" si="63"/>
+        <v>176157.1118831097</v>
+      </c>
+      <c r="V25" s="56">
+        <f>V23+V24</f>
+        <v>195430.63578178122</v>
+      </c>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="50">
         <f>SUM(Reports!B19:E19)</f>
         <v>2505</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="50">
         <f>SUM(Reports!F19:I19)</f>
         <v>3021</v>
       </c>
@@ -2076,73 +2306,88 @@
         <f>SUM(Reports!J19:M19)</f>
         <v>4661</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="40">
         <f>SUM(Reports!N19:Q19)</f>
         <v>3248</v>
       </c>
-      <c r="F26" s="58">
-        <f>F25*0.2</f>
-        <v>6405.6430000000009</v>
-      </c>
-      <c r="G26" s="58">
-        <f t="shared" ref="G26:Q26" si="31">G25*0.2</f>
-        <v>8155.6460190000016</v>
-      </c>
-      <c r="H26" s="58">
-        <f t="shared" si="31"/>
-        <v>10372.301540277002</v>
-      </c>
-      <c r="I26" s="58">
-        <f t="shared" si="31"/>
-        <v>13178.857543458593</v>
-      </c>
-      <c r="J26" s="58">
-        <f t="shared" si="31"/>
-        <v>16730.771926683217</v>
-      </c>
-      <c r="K26" s="58">
-        <f t="shared" si="31"/>
-        <v>16676.44958909912</v>
-      </c>
-      <c r="L26" s="58">
-        <f t="shared" si="31"/>
-        <v>16473.298071075416</v>
-      </c>
-      <c r="M26" s="58">
-        <f t="shared" si="31"/>
-        <v>16091.118170856726</v>
-      </c>
-      <c r="N26" s="58">
-        <f t="shared" si="31"/>
-        <v>15494.321736712358</v>
-      </c>
-      <c r="O26" s="58">
-        <f t="shared" si="31"/>
-        <v>14640.953885899211</v>
-      </c>
-      <c r="P26" s="58">
-        <f t="shared" si="31"/>
-        <v>13481.531415977703</v>
-      </c>
-      <c r="Q26" s="58">
-        <f t="shared" si="31"/>
-        <v>11957.661909203871</v>
-      </c>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
+      <c r="F26" s="40">
+        <f>SUM(Reports!R19:U19)</f>
+        <v>6327</v>
+      </c>
+      <c r="G26" s="56">
+        <f t="shared" ref="G26:Q26" si="64">G25*0.2</f>
+        <v>7196.5605000000032</v>
+      </c>
+      <c r="H26" s="56">
+        <f t="shared" si="64"/>
+        <v>8209.6213627500019</v>
+      </c>
+      <c r="I26" s="56">
+        <f t="shared" si="64"/>
+        <v>9279.7872459926275</v>
+      </c>
+      <c r="J26" s="56">
+        <f t="shared" si="64"/>
+        <v>10374.215265361872</v>
+      </c>
+      <c r="K26" s="56">
+        <f t="shared" si="64"/>
+        <v>11440.177814064349</v>
+      </c>
+      <c r="L26" s="56">
+        <f t="shared" si="64"/>
+        <v>12944.306695124014</v>
+      </c>
+      <c r="M26" s="56">
+        <f t="shared" si="64"/>
+        <v>14595.577176594077</v>
+      </c>
+      <c r="N26" s="56">
+        <f t="shared" si="64"/>
+        <v>16408.800291743853</v>
+      </c>
+      <c r="O26" s="56">
+        <f t="shared" si="64"/>
+        <v>18400.266491284863</v>
+      </c>
+      <c r="P26" s="56">
+        <f t="shared" si="64"/>
+        <v>20587.893620845287</v>
+      </c>
+      <c r="Q26" s="56">
+        <f t="shared" si="64"/>
+        <v>22991.389695493544</v>
+      </c>
+      <c r="R26" s="56">
+        <f t="shared" ref="R26:V26" si="65">R25*0.2</f>
+        <v>25632.431951029721</v>
+      </c>
+      <c r="S26" s="56">
+        <f t="shared" si="65"/>
+        <v>28534.863799735522</v>
+      </c>
+      <c r="T26" s="56">
+        <f t="shared" si="65"/>
+        <v>31724.911481042294</v>
+      </c>
+      <c r="U26" s="56">
+        <f t="shared" si="65"/>
+        <v>35231.422376621944</v>
+      </c>
+      <c r="V26" s="56">
+        <f t="shared" si="65"/>
+        <v>39086.127156356248</v>
+      </c>
     </row>
     <row r="27" spans="1:122" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="53">
         <f>B25-B26</f>
         <v>3689</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="53">
         <f>C25-C26</f>
         <v>9512</v>
       </c>
@@ -2150,562 +2395,577 @@
         <f>D25-D26</f>
         <v>15933</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="53">
         <f>E25-E26</f>
         <v>22113</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="53">
         <f>F25-F26</f>
-        <v>25622.572000000004</v>
-      </c>
-      <c r="G27" s="55">
-        <f t="shared" ref="G27" si="32">G25-G26</f>
-        <v>32622.584076000006</v>
-      </c>
-      <c r="H27" s="55">
-        <f t="shared" ref="H27:P27" si="33">H25-H26</f>
-        <v>41489.206161107999</v>
-      </c>
-      <c r="I27" s="55">
-        <f t="shared" si="33"/>
-        <v>52715.430173834364</v>
-      </c>
-      <c r="J27" s="55">
-        <f t="shared" si="33"/>
-        <v>66923.087706732869</v>
-      </c>
-      <c r="K27" s="55">
-        <f t="shared" si="33"/>
-        <v>66705.798356396481</v>
-      </c>
-      <c r="L27" s="55">
-        <f t="shared" si="33"/>
-        <v>65893.192284301651</v>
-      </c>
-      <c r="M27" s="55">
-        <f t="shared" si="33"/>
-        <v>64364.472683426902</v>
-      </c>
-      <c r="N27" s="55">
-        <f t="shared" si="33"/>
-        <v>61977.286946849432</v>
-      </c>
-      <c r="O27" s="55">
-        <f t="shared" si="33"/>
-        <v>58563.815543596844</v>
-      </c>
-      <c r="P27" s="55">
-        <f t="shared" si="33"/>
-        <v>53926.125663910803</v>
-      </c>
-      <c r="Q27" s="55">
+        <v>18485</v>
+      </c>
+      <c r="G27" s="53">
+        <f>G25-G26</f>
+        <v>28786.242000000009</v>
+      </c>
+      <c r="H27" s="53">
+        <f t="shared" ref="H27:P27" si="66">H25-H26</f>
+        <v>32838.485451</v>
+      </c>
+      <c r="I27" s="53">
+        <f t="shared" si="66"/>
+        <v>37119.14898397051</v>
+      </c>
+      <c r="J27" s="53">
+        <f t="shared" si="66"/>
+        <v>41496.861061447489</v>
+      </c>
+      <c r="K27" s="53">
+        <f t="shared" si="66"/>
+        <v>45760.711256257389</v>
+      </c>
+      <c r="L27" s="53">
+        <f t="shared" si="66"/>
+        <v>51777.226780496057</v>
+      </c>
+      <c r="M27" s="53">
+        <f t="shared" si="66"/>
+        <v>58382.308706376309</v>
+      </c>
+      <c r="N27" s="53">
+        <f t="shared" si="66"/>
+        <v>65635.201166975414</v>
+      </c>
+      <c r="O27" s="53">
+        <f t="shared" si="66"/>
+        <v>73601.065965139453</v>
+      </c>
+      <c r="P27" s="53">
+        <f t="shared" si="66"/>
+        <v>82351.574483381148</v>
+      </c>
+      <c r="Q27" s="53">
         <f>Q25-Q26</f>
-        <v>47830.647636815484</v>
-      </c>
-      <c r="R27" s="55">
-        <f>Q27*($F$2+1)</f>
-        <v>46874.034684079175</v>
-      </c>
-      <c r="S27" s="55">
-        <f t="shared" ref="S27:CD27" si="34">R27*($F$2+1)</f>
-        <v>45936.553990397588</v>
-      </c>
-      <c r="T27" s="55">
-        <f t="shared" si="34"/>
-        <v>45017.822910589632</v>
-      </c>
-      <c r="U27" s="55">
-        <f t="shared" si="34"/>
-        <v>44117.466452377841</v>
-      </c>
-      <c r="V27" s="55">
-        <f t="shared" si="34"/>
-        <v>43235.117123330281</v>
-      </c>
-      <c r="W27" s="55">
-        <f t="shared" si="34"/>
-        <v>42370.414780863677</v>
-      </c>
-      <c r="X27" s="55">
-        <f t="shared" si="34"/>
-        <v>41523.006485246406</v>
-      </c>
-      <c r="Y27" s="55">
-        <f t="shared" si="34"/>
-        <v>40692.546355541475</v>
-      </c>
-      <c r="Z27" s="55">
-        <f t="shared" si="34"/>
-        <v>39878.695428430648</v>
-      </c>
-      <c r="AA27" s="55">
-        <f t="shared" si="34"/>
-        <v>39081.121519862034</v>
-      </c>
-      <c r="AB27" s="55">
-        <f t="shared" si="34"/>
-        <v>38299.499089464793</v>
-      </c>
-      <c r="AC27" s="55">
-        <f t="shared" si="34"/>
-        <v>37533.509107675498</v>
-      </c>
-      <c r="AD27" s="55">
-        <f t="shared" si="34"/>
-        <v>36782.838925521988</v>
-      </c>
-      <c r="AE27" s="55">
-        <f t="shared" si="34"/>
-        <v>36047.182147011546</v>
-      </c>
-      <c r="AF27" s="55">
-        <f t="shared" si="34"/>
-        <v>35326.238504071312</v>
-      </c>
-      <c r="AG27" s="55">
-        <f t="shared" si="34"/>
-        <v>34619.713733989884</v>
-      </c>
-      <c r="AH27" s="55">
-        <f t="shared" si="34"/>
-        <v>33927.319459310085</v>
-      </c>
-      <c r="AI27" s="55">
-        <f t="shared" si="34"/>
-        <v>33248.773070123883</v>
-      </c>
-      <c r="AJ27" s="55">
-        <f t="shared" si="34"/>
-        <v>32583.797608721405</v>
-      </c>
-      <c r="AK27" s="55">
-        <f t="shared" si="34"/>
-        <v>31932.121656546977</v>
-      </c>
-      <c r="AL27" s="55">
-        <f t="shared" si="34"/>
-        <v>31293.479223416038</v>
-      </c>
-      <c r="AM27" s="55">
-        <f t="shared" si="34"/>
-        <v>30667.609638947717</v>
-      </c>
-      <c r="AN27" s="55">
-        <f t="shared" si="34"/>
-        <v>30054.257446168762</v>
-      </c>
-      <c r="AO27" s="55">
-        <f t="shared" si="34"/>
-        <v>29453.172297245386</v>
-      </c>
-      <c r="AP27" s="55">
-        <f t="shared" si="34"/>
-        <v>28864.10885130048</v>
-      </c>
-      <c r="AQ27" s="55">
-        <f t="shared" si="34"/>
-        <v>28286.826674274471</v>
-      </c>
-      <c r="AR27" s="55">
-        <f t="shared" si="34"/>
-        <v>27721.09014078898</v>
-      </c>
-      <c r="AS27" s="55">
-        <f t="shared" si="34"/>
-        <v>27166.668337973199</v>
-      </c>
-      <c r="AT27" s="55">
-        <f t="shared" si="34"/>
-        <v>26623.334971213735</v>
-      </c>
-      <c r="AU27" s="55">
-        <f t="shared" si="34"/>
-        <v>26090.868271789459</v>
-      </c>
-      <c r="AV27" s="55">
-        <f t="shared" si="34"/>
-        <v>25569.05090635367</v>
-      </c>
-      <c r="AW27" s="55">
-        <f t="shared" si="34"/>
-        <v>25057.669888226596</v>
-      </c>
-      <c r="AX27" s="55">
-        <f t="shared" si="34"/>
-        <v>24556.516490462061</v>
-      </c>
-      <c r="AY27" s="55">
-        <f t="shared" si="34"/>
-        <v>24065.386160652819</v>
-      </c>
-      <c r="AZ27" s="55">
-        <f t="shared" si="34"/>
-        <v>23584.078437439763</v>
-      </c>
-      <c r="BA27" s="55">
-        <f t="shared" si="34"/>
-        <v>23112.396868690968</v>
-      </c>
-      <c r="BB27" s="55">
-        <f t="shared" si="34"/>
-        <v>22650.148931317148</v>
-      </c>
-      <c r="BC27" s="55">
-        <f t="shared" si="34"/>
-        <v>22197.145952690804</v>
-      </c>
-      <c r="BD27" s="55">
-        <f t="shared" si="34"/>
-        <v>21753.203033636986</v>
-      </c>
-      <c r="BE27" s="55">
-        <f t="shared" si="34"/>
-        <v>21318.138972964247</v>
-      </c>
-      <c r="BF27" s="55">
-        <f t="shared" si="34"/>
-        <v>20891.77619350496</v>
-      </c>
-      <c r="BG27" s="55">
-        <f t="shared" si="34"/>
-        <v>20473.94066963486</v>
-      </c>
-      <c r="BH27" s="55">
-        <f t="shared" si="34"/>
-        <v>20064.461856242164</v>
-      </c>
-      <c r="BI27" s="55">
-        <f t="shared" si="34"/>
-        <v>19663.172619117318</v>
-      </c>
-      <c r="BJ27" s="55">
-        <f t="shared" si="34"/>
-        <v>19269.909166734971</v>
-      </c>
-      <c r="BK27" s="55">
-        <f t="shared" si="34"/>
-        <v>18884.510983400272</v>
-      </c>
-      <c r="BL27" s="55">
-        <f t="shared" si="34"/>
-        <v>18506.820763732267</v>
-      </c>
-      <c r="BM27" s="55">
-        <f t="shared" si="34"/>
-        <v>18136.68434845762</v>
-      </c>
-      <c r="BN27" s="55">
-        <f t="shared" si="34"/>
-        <v>17773.950661488467</v>
-      </c>
-      <c r="BO27" s="55">
-        <f t="shared" si="34"/>
-        <v>17418.471648258695</v>
-      </c>
-      <c r="BP27" s="55">
-        <f t="shared" si="34"/>
-        <v>17070.102215293522</v>
-      </c>
-      <c r="BQ27" s="55">
-        <f t="shared" si="34"/>
-        <v>16728.700170987649</v>
-      </c>
-      <c r="BR27" s="55">
-        <f t="shared" si="34"/>
-        <v>16394.126167567898</v>
-      </c>
-      <c r="BS27" s="55">
-        <f t="shared" si="34"/>
-        <v>16066.24364421654</v>
-      </c>
-      <c r="BT27" s="55">
-        <f t="shared" si="34"/>
-        <v>15744.918771332208</v>
-      </c>
-      <c r="BU27" s="55">
-        <f t="shared" si="34"/>
-        <v>15430.020395905563</v>
-      </c>
-      <c r="BV27" s="55">
-        <f t="shared" si="34"/>
-        <v>15121.419987987452</v>
-      </c>
-      <c r="BW27" s="55">
-        <f t="shared" si="34"/>
-        <v>14818.991588227704</v>
-      </c>
-      <c r="BX27" s="55">
-        <f t="shared" si="34"/>
-        <v>14522.61175646315</v>
-      </c>
-      <c r="BY27" s="55">
-        <f t="shared" si="34"/>
-        <v>14232.159521333886</v>
-      </c>
-      <c r="BZ27" s="55">
-        <f t="shared" si="34"/>
-        <v>13947.516330907209</v>
-      </c>
-      <c r="CA27" s="55">
-        <f t="shared" si="34"/>
-        <v>13668.566004289065</v>
-      </c>
-      <c r="CB27" s="55">
-        <f t="shared" si="34"/>
-        <v>13395.194684203283</v>
-      </c>
-      <c r="CC27" s="55">
-        <f t="shared" si="34"/>
-        <v>13127.290790519217</v>
-      </c>
-      <c r="CD27" s="55">
-        <f t="shared" si="34"/>
-        <v>12864.744974708832</v>
-      </c>
-      <c r="CE27" s="55">
-        <f t="shared" ref="CE27:DR27" si="35">CD27*($F$2+1)</f>
-        <v>12607.450075214656</v>
-      </c>
-      <c r="CF27" s="55">
-        <f t="shared" si="35"/>
-        <v>12355.301073710363</v>
-      </c>
-      <c r="CG27" s="55">
-        <f t="shared" si="35"/>
-        <v>12108.195052236155</v>
-      </c>
-      <c r="CH27" s="55">
-        <f t="shared" si="35"/>
-        <v>11866.031151191431</v>
-      </c>
-      <c r="CI27" s="55">
-        <f t="shared" si="35"/>
-        <v>11628.710528167603</v>
-      </c>
-      <c r="CJ27" s="55">
-        <f t="shared" si="35"/>
-        <v>11396.136317604251</v>
-      </c>
-      <c r="CK27" s="55">
-        <f t="shared" si="35"/>
-        <v>11168.213591252164</v>
-      </c>
-      <c r="CL27" s="55">
-        <f t="shared" si="35"/>
-        <v>10944.849319427121</v>
-      </c>
-      <c r="CM27" s="55">
-        <f t="shared" si="35"/>
-        <v>10725.952333038578</v>
-      </c>
-      <c r="CN27" s="55">
-        <f t="shared" si="35"/>
-        <v>10511.433286377807</v>
-      </c>
-      <c r="CO27" s="55">
-        <f t="shared" si="35"/>
-        <v>10301.204620650251</v>
-      </c>
-      <c r="CP27" s="55">
-        <f t="shared" si="35"/>
-        <v>10095.180528237246</v>
-      </c>
-      <c r="CQ27" s="55">
-        <f t="shared" si="35"/>
-        <v>9893.2769176725014</v>
-      </c>
-      <c r="CR27" s="55">
-        <f t="shared" si="35"/>
-        <v>9695.4113793190518</v>
-      </c>
-      <c r="CS27" s="55">
-        <f t="shared" si="35"/>
-        <v>9501.5031517326697</v>
-      </c>
-      <c r="CT27" s="55">
-        <f t="shared" si="35"/>
-        <v>9311.473088698016</v>
-      </c>
-      <c r="CU27" s="55">
-        <f t="shared" si="35"/>
-        <v>9125.2436269240552</v>
-      </c>
-      <c r="CV27" s="55">
-        <f t="shared" si="35"/>
-        <v>8942.7387543855748</v>
-      </c>
-      <c r="CW27" s="55">
-        <f t="shared" si="35"/>
-        <v>8763.8839792978633</v>
-      </c>
-      <c r="CX27" s="55">
-        <f t="shared" si="35"/>
-        <v>8588.6062997119061</v>
-      </c>
-      <c r="CY27" s="55">
-        <f t="shared" si="35"/>
-        <v>8416.834173717667</v>
-      </c>
-      <c r="CZ27" s="55">
-        <f t="shared" si="35"/>
-        <v>8248.4974902433132</v>
-      </c>
-      <c r="DA27" s="55">
-        <f t="shared" si="35"/>
-        <v>8083.5275404384465</v>
-      </c>
-      <c r="DB27" s="55">
-        <f t="shared" si="35"/>
-        <v>7921.8569896296776</v>
-      </c>
-      <c r="DC27" s="55">
-        <f t="shared" si="35"/>
-        <v>7763.4198498370843</v>
-      </c>
-      <c r="DD27" s="55">
-        <f t="shared" si="35"/>
-        <v>7608.1514528403422</v>
-      </c>
-      <c r="DE27" s="55">
-        <f t="shared" si="35"/>
-        <v>7455.9884237835349</v>
-      </c>
-      <c r="DF27" s="55">
-        <f t="shared" si="35"/>
-        <v>7306.8686553078642</v>
-      </c>
-      <c r="DG27" s="55">
-        <f t="shared" si="35"/>
-        <v>7160.7312822017066</v>
-      </c>
-      <c r="DH27" s="55">
-        <f t="shared" si="35"/>
-        <v>7017.5166565576719</v>
-      </c>
-      <c r="DI27" s="55">
-        <f t="shared" si="35"/>
-        <v>6877.1663234265179</v>
-      </c>
-      <c r="DJ27" s="55">
-        <f t="shared" si="35"/>
-        <v>6739.6229969579872</v>
-      </c>
-      <c r="DK27" s="55">
-        <f t="shared" si="35"/>
-        <v>6604.8305370188273</v>
-      </c>
-      <c r="DL27" s="55">
-        <f t="shared" si="35"/>
-        <v>6472.7339262784508</v>
-      </c>
-      <c r="DM27" s="55">
-        <f t="shared" si="35"/>
-        <v>6343.2792477528819</v>
-      </c>
-      <c r="DN27" s="55">
-        <f t="shared" si="35"/>
-        <v>6216.4136627978241</v>
-      </c>
-      <c r="DO27" s="55">
-        <f t="shared" si="35"/>
-        <v>6092.0853895418677</v>
-      </c>
-      <c r="DP27" s="55">
-        <f t="shared" si="35"/>
-        <v>5970.2436817510306</v>
-      </c>
-      <c r="DQ27" s="55">
-        <f t="shared" si="35"/>
-        <v>5850.8388081160101</v>
-      </c>
-      <c r="DR27" s="55">
-        <f t="shared" si="35"/>
-        <v>5733.8220319536895</v>
+        <v>91965.558781974163</v>
+      </c>
+      <c r="R27" s="53">
+        <f t="shared" ref="R27:V27" si="67">R25-R26</f>
+        <v>102529.72780411888</v>
+      </c>
+      <c r="S27" s="53">
+        <f t="shared" si="67"/>
+        <v>114139.45519894207</v>
+      </c>
+      <c r="T27" s="53">
+        <f t="shared" si="67"/>
+        <v>126899.64592416918</v>
+      </c>
+      <c r="U27" s="53">
+        <f t="shared" si="67"/>
+        <v>140925.68950648775</v>
+      </c>
+      <c r="V27" s="53">
+        <f>V25-V26</f>
+        <v>156344.50862542499</v>
+      </c>
+      <c r="W27" s="53">
+        <f t="shared" ref="S27:CD27" si="68">V27*($F$2+1)</f>
+        <v>154781.06353917075</v>
+      </c>
+      <c r="X27" s="53">
+        <f t="shared" si="68"/>
+        <v>153233.25290377904</v>
+      </c>
+      <c r="Y27" s="53">
+        <f t="shared" si="68"/>
+        <v>151700.92037474125</v>
+      </c>
+      <c r="Z27" s="53">
+        <f t="shared" si="68"/>
+        <v>150183.91117099384</v>
+      </c>
+      <c r="AA27" s="53">
+        <f t="shared" si="68"/>
+        <v>148682.07205928391</v>
+      </c>
+      <c r="AB27" s="53">
+        <f t="shared" si="68"/>
+        <v>147195.25133869107</v>
+      </c>
+      <c r="AC27" s="53">
+        <f t="shared" si="68"/>
+        <v>145723.29882530417</v>
+      </c>
+      <c r="AD27" s="53">
+        <f t="shared" si="68"/>
+        <v>144266.06583705114</v>
+      </c>
+      <c r="AE27" s="53">
+        <f t="shared" si="68"/>
+        <v>142823.40517868064</v>
+      </c>
+      <c r="AF27" s="53">
+        <f t="shared" si="68"/>
+        <v>141395.17112689384</v>
+      </c>
+      <c r="AG27" s="53">
+        <f t="shared" si="68"/>
+        <v>139981.21941562489</v>
+      </c>
+      <c r="AH27" s="53">
+        <f t="shared" si="68"/>
+        <v>138581.40722146863</v>
+      </c>
+      <c r="AI27" s="53">
+        <f t="shared" si="68"/>
+        <v>137195.59314925395</v>
+      </c>
+      <c r="AJ27" s="53">
+        <f t="shared" si="68"/>
+        <v>135823.63721776142</v>
+      </c>
+      <c r="AK27" s="53">
+        <f t="shared" si="68"/>
+        <v>134465.40084558382</v>
+      </c>
+      <c r="AL27" s="53">
+        <f t="shared" si="68"/>
+        <v>133120.74683712798</v>
+      </c>
+      <c r="AM27" s="53">
+        <f t="shared" si="68"/>
+        <v>131789.5393687567</v>
+      </c>
+      <c r="AN27" s="53">
+        <f t="shared" si="68"/>
+        <v>130471.64397506914</v>
+      </c>
+      <c r="AO27" s="53">
+        <f t="shared" si="68"/>
+        <v>129166.92753531845</v>
+      </c>
+      <c r="AP27" s="53">
+        <f t="shared" si="68"/>
+        <v>127875.25825996527</v>
+      </c>
+      <c r="AQ27" s="53">
+        <f t="shared" si="68"/>
+        <v>126596.50567736561</v>
+      </c>
+      <c r="AR27" s="53">
+        <f t="shared" si="68"/>
+        <v>125330.54062059196</v>
+      </c>
+      <c r="AS27" s="53">
+        <f t="shared" si="68"/>
+        <v>124077.23521438603</v>
+      </c>
+      <c r="AT27" s="53">
+        <f t="shared" si="68"/>
+        <v>122836.46286224217</v>
+      </c>
+      <c r="AU27" s="53">
+        <f t="shared" si="68"/>
+        <v>121608.09823361975</v>
+      </c>
+      <c r="AV27" s="53">
+        <f t="shared" si="68"/>
+        <v>120392.01725128356</v>
+      </c>
+      <c r="AW27" s="53">
+        <f t="shared" si="68"/>
+        <v>119188.09707877072</v>
+      </c>
+      <c r="AX27" s="53">
+        <f t="shared" si="68"/>
+        <v>117996.21610798301</v>
+      </c>
+      <c r="AY27" s="53">
+        <f t="shared" si="68"/>
+        <v>116816.25394690318</v>
+      </c>
+      <c r="AZ27" s="53">
+        <f t="shared" si="68"/>
+        <v>115648.09140743414</v>
+      </c>
+      <c r="BA27" s="53">
+        <f t="shared" si="68"/>
+        <v>114491.6104933598</v>
+      </c>
+      <c r="BB27" s="53">
+        <f t="shared" si="68"/>
+        <v>113346.6943884262</v>
+      </c>
+      <c r="BC27" s="53">
+        <f t="shared" si="68"/>
+        <v>112213.22744454193</v>
+      </c>
+      <c r="BD27" s="53">
+        <f t="shared" si="68"/>
+        <v>111091.09517009651</v>
+      </c>
+      <c r="BE27" s="53">
+        <f t="shared" si="68"/>
+        <v>109980.18421839555</v>
+      </c>
+      <c r="BF27" s="53">
+        <f t="shared" si="68"/>
+        <v>108880.38237621159</v>
+      </c>
+      <c r="BG27" s="53">
+        <f t="shared" si="68"/>
+        <v>107791.57855244947</v>
+      </c>
+      <c r="BH27" s="53">
+        <f t="shared" si="68"/>
+        <v>106713.66276692497</v>
+      </c>
+      <c r="BI27" s="53">
+        <f t="shared" si="68"/>
+        <v>105646.52613925571</v>
+      </c>
+      <c r="BJ27" s="53">
+        <f t="shared" si="68"/>
+        <v>104590.06087786316</v>
+      </c>
+      <c r="BK27" s="53">
+        <f t="shared" si="68"/>
+        <v>103544.16026908453</v>
+      </c>
+      <c r="BL27" s="53">
+        <f t="shared" si="68"/>
+        <v>102508.71866639369</v>
+      </c>
+      <c r="BM27" s="53">
+        <f t="shared" si="68"/>
+        <v>101483.63147972975</v>
+      </c>
+      <c r="BN27" s="53">
+        <f t="shared" si="68"/>
+        <v>100468.79516493245</v>
+      </c>
+      <c r="BO27" s="53">
+        <f t="shared" si="68"/>
+        <v>99464.107213283132</v>
+      </c>
+      <c r="BP27" s="53">
+        <f t="shared" si="68"/>
+        <v>98469.466141150304</v>
+      </c>
+      <c r="BQ27" s="53">
+        <f t="shared" si="68"/>
+        <v>97484.771479738803</v>
+      </c>
+      <c r="BR27" s="53">
+        <f t="shared" si="68"/>
+        <v>96509.923764941414</v>
+      </c>
+      <c r="BS27" s="53">
+        <f t="shared" si="68"/>
+        <v>95544.824527292003</v>
+      </c>
+      <c r="BT27" s="53">
+        <f t="shared" si="68"/>
+        <v>94589.376282019075</v>
+      </c>
+      <c r="BU27" s="53">
+        <f t="shared" si="68"/>
+        <v>93643.482519198878</v>
+      </c>
+      <c r="BV27" s="53">
+        <f t="shared" si="68"/>
+        <v>92707.047694006891</v>
+      </c>
+      <c r="BW27" s="53">
+        <f t="shared" si="68"/>
+        <v>91779.977217066815</v>
+      </c>
+      <c r="BX27" s="53">
+        <f t="shared" si="68"/>
+        <v>90862.177444896151</v>
+      </c>
+      <c r="BY27" s="53">
+        <f t="shared" si="68"/>
+        <v>89953.555670447182</v>
+      </c>
+      <c r="BZ27" s="53">
+        <f t="shared" si="68"/>
+        <v>89054.020113742707</v>
+      </c>
+      <c r="CA27" s="53">
+        <f t="shared" si="68"/>
+        <v>88163.479912605282</v>
+      </c>
+      <c r="CB27" s="53">
+        <f t="shared" si="68"/>
+        <v>87281.845113479227</v>
+      </c>
+      <c r="CC27" s="53">
+        <f t="shared" si="68"/>
+        <v>86409.026662344433</v>
+      </c>
+      <c r="CD27" s="53">
+        <f t="shared" si="68"/>
+        <v>85544.936395720986</v>
+      </c>
+      <c r="CE27" s="53">
+        <f t="shared" ref="CE27:DR27" si="69">CD27*($F$2+1)</f>
+        <v>84689.487031763769</v>
+      </c>
+      <c r="CF27" s="53">
+        <f t="shared" si="69"/>
+        <v>83842.592161446126</v>
+      </c>
+      <c r="CG27" s="53">
+        <f t="shared" si="69"/>
+        <v>83004.166239831669</v>
+      </c>
+      <c r="CH27" s="53">
+        <f t="shared" si="69"/>
+        <v>82174.124577433351</v>
+      </c>
+      <c r="CI27" s="53">
+        <f t="shared" si="69"/>
+        <v>81352.383331659017</v>
+      </c>
+      <c r="CJ27" s="53">
+        <f t="shared" si="69"/>
+        <v>80538.859498342426</v>
+      </c>
+      <c r="CK27" s="53">
+        <f t="shared" si="69"/>
+        <v>79733.470903359004</v>
+      </c>
+      <c r="CL27" s="53">
+        <f t="shared" si="69"/>
+        <v>78936.136194325416</v>
+      </c>
+      <c r="CM27" s="53">
+        <f t="shared" si="69"/>
+        <v>78146.774832382158</v>
+      </c>
+      <c r="CN27" s="53">
+        <f t="shared" si="69"/>
+        <v>77365.307084058339</v>
+      </c>
+      <c r="CO27" s="53">
+        <f t="shared" si="69"/>
+        <v>76591.654013217762</v>
+      </c>
+      <c r="CP27" s="53">
+        <f t="shared" si="69"/>
+        <v>75825.737473085581</v>
+      </c>
+      <c r="CQ27" s="53">
+        <f t="shared" si="69"/>
+        <v>75067.480098354717</v>
+      </c>
+      <c r="CR27" s="53">
+        <f t="shared" si="69"/>
+        <v>74316.805297371175</v>
+      </c>
+      <c r="CS27" s="53">
+        <f t="shared" si="69"/>
+        <v>73573.637244397469</v>
+      </c>
+      <c r="CT27" s="53">
+        <f t="shared" si="69"/>
+        <v>72837.90087195349</v>
+      </c>
+      <c r="CU27" s="53">
+        <f t="shared" si="69"/>
+        <v>72109.521863233953</v>
+      </c>
+      <c r="CV27" s="53">
+        <f t="shared" si="69"/>
+        <v>71388.426644601612</v>
+      </c>
+      <c r="CW27" s="53">
+        <f t="shared" si="69"/>
+        <v>70674.542378155602</v>
+      </c>
+      <c r="CX27" s="53">
+        <f t="shared" si="69"/>
+        <v>69967.796954374047</v>
+      </c>
+      <c r="CY27" s="53">
+        <f t="shared" si="69"/>
+        <v>69268.118984830304</v>
+      </c>
+      <c r="CZ27" s="53">
+        <f t="shared" si="69"/>
+        <v>68575.437794982005</v>
+      </c>
+      <c r="DA27" s="53">
+        <f t="shared" si="69"/>
+        <v>67889.683417032182</v>
+      </c>
+      <c r="DB27" s="53">
+        <f t="shared" si="69"/>
+        <v>67210.786582861852</v>
+      </c>
+      <c r="DC27" s="53">
+        <f t="shared" si="69"/>
+        <v>66538.678717033239</v>
+      </c>
+      <c r="DD27" s="53">
+        <f t="shared" si="69"/>
+        <v>65873.291929862913</v>
+      </c>
+      <c r="DE27" s="53">
+        <f t="shared" si="69"/>
+        <v>65214.559010564284</v>
+      </c>
+      <c r="DF27" s="53">
+        <f t="shared" si="69"/>
+        <v>64562.413420458637</v>
+      </c>
+      <c r="DG27" s="53">
+        <f t="shared" si="69"/>
+        <v>63916.789286254047</v>
+      </c>
+      <c r="DH27" s="53">
+        <f t="shared" si="69"/>
+        <v>63277.621393391506</v>
+      </c>
+      <c r="DI27" s="53">
+        <f t="shared" si="69"/>
+        <v>62644.845179457589</v>
+      </c>
+      <c r="DJ27" s="53">
+        <f t="shared" si="69"/>
+        <v>62018.396727663014</v>
+      </c>
+      <c r="DK27" s="53">
+        <f t="shared" si="69"/>
+        <v>61398.212760386385</v>
+      </c>
+      <c r="DL27" s="53">
+        <f t="shared" si="69"/>
+        <v>60784.230632782521</v>
+      </c>
+      <c r="DM27" s="53">
+        <f t="shared" si="69"/>
+        <v>60176.388326454697</v>
+      </c>
+      <c r="DN27" s="53">
+        <f t="shared" si="69"/>
+        <v>59574.62444319015</v>
+      </c>
+      <c r="DO27" s="53">
+        <f t="shared" si="69"/>
+        <v>58978.878198758248</v>
+      </c>
+      <c r="DP27" s="53">
+        <f t="shared" si="69"/>
+        <v>58389.089416770665</v>
+      </c>
+      <c r="DQ27" s="53">
+        <f t="shared" si="69"/>
+        <v>57805.198522602957</v>
+      </c>
+      <c r="DR27" s="53">
+        <f t="shared" si="69"/>
+        <v>57227.146537376924</v>
       </c>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="57">
         <f>B27/B29</f>
         <v>1.2817929117442668</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="57">
         <f>C27/C29</f>
         <v>3.2375765827093259</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="22">
         <f>D27/D29</f>
         <v>5.4846815834767639</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <f>E27/E29</f>
         <v>7.6621621621621623</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="22">
         <f>F27/F29</f>
-        <v>8.8782300762300768</v>
-      </c>
-      <c r="G28" s="60">
-        <f t="shared" ref="G28" si="36">G27/G29</f>
-        <v>11.303736686070689</v>
-      </c>
-      <c r="H28" s="60">
+        <v>6.4385231626610935</v>
+      </c>
+      <c r="G28" s="58">
+        <f t="shared" ref="G28" si="70">G27/G29</f>
+        <v>10.026555903866251</v>
+      </c>
+      <c r="H28" s="58">
         <f>H27/H29</f>
-        <v>14.376024310848232</v>
-      </c>
-      <c r="I28" s="60">
-        <f t="shared" ref="I28:Q28" si="37">I27/I29</f>
-        <v>18.265914821148428</v>
-      </c>
-      <c r="J28" s="60">
-        <f t="shared" si="37"/>
-        <v>23.18887307925602</v>
-      </c>
-      <c r="K28" s="60">
-        <f t="shared" si="37"/>
-        <v>23.113582244073626</v>
-      </c>
-      <c r="L28" s="60">
-        <f t="shared" si="37"/>
-        <v>22.832013958524481</v>
-      </c>
-      <c r="M28" s="60">
-        <f t="shared" si="37"/>
-        <v>22.30231208711951</v>
-      </c>
-      <c r="N28" s="60">
-        <f t="shared" si="37"/>
-        <v>21.475151402234729</v>
-      </c>
-      <c r="O28" s="60">
-        <f t="shared" si="37"/>
-        <v>20.292382378238685</v>
-      </c>
-      <c r="P28" s="60">
-        <f t="shared" si="37"/>
-        <v>18.685421227966323</v>
-      </c>
-      <c r="Q28" s="60">
-        <f t="shared" si="37"/>
-        <v>16.573335979492544</v>
-      </c>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
+        <v>11.437995629049112</v>
+      </c>
+      <c r="I28" s="58">
+        <f t="shared" ref="I28:Q28" si="71">I27/I29</f>
+        <v>12.928996511309826</v>
+      </c>
+      <c r="J28" s="58">
+        <f t="shared" si="71"/>
+        <v>14.45380043937565</v>
+      </c>
+      <c r="K28" s="58">
+        <f t="shared" si="71"/>
+        <v>15.938945056167674</v>
+      </c>
+      <c r="L28" s="58">
+        <f t="shared" si="71"/>
+        <v>18.034561748692461</v>
+      </c>
+      <c r="M28" s="58">
+        <f t="shared" si="71"/>
+        <v>20.335182412530934</v>
+      </c>
+      <c r="N28" s="58">
+        <f t="shared" si="71"/>
+        <v>22.861442412739606</v>
+      </c>
+      <c r="O28" s="58">
+        <f t="shared" si="71"/>
+        <v>25.636038302033946</v>
+      </c>
+      <c r="P28" s="58">
+        <f t="shared" si="71"/>
+        <v>28.683933989335127</v>
+      </c>
+      <c r="Q28" s="58">
+        <f t="shared" si="71"/>
+        <v>32.032587524198597</v>
+      </c>
+      <c r="R28" s="58">
+        <f t="shared" ref="R28:V28" si="72">R27/R29</f>
+        <v>35.712200558731759</v>
+      </c>
+      <c r="S28" s="58">
+        <f t="shared" si="72"/>
+        <v>39.755992754769096</v>
+      </c>
+      <c r="T28" s="58">
+        <f t="shared" si="72"/>
+        <v>44.200503630849589</v>
+      </c>
+      <c r="U28" s="58">
+        <f t="shared" si="72"/>
+        <v>49.085924592994687</v>
+      </c>
+      <c r="V28" s="58">
+        <f t="shared" si="72"/>
+        <v>54.456464167685475</v>
+      </c>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="50">
         <f>Reports!E22</f>
         <v>2878</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="50">
         <f>Reports!I22</f>
         <v>2938</v>
       </c>
@@ -2713,1025 +2973,1503 @@
         <f>Reports!M22</f>
         <v>2905</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="50">
         <f>Reports!Q22</f>
         <v>2886</v>
       </c>
-      <c r="F29" s="52">
-        <f>E29</f>
-        <v>2886</v>
-      </c>
-      <c r="G29" s="52">
-        <f t="shared" ref="G29" si="38">F29</f>
-        <v>2886</v>
-      </c>
-      <c r="H29" s="52">
-        <f t="shared" ref="H29" si="39">G29</f>
-        <v>2886</v>
-      </c>
-      <c r="I29" s="52">
-        <f t="shared" ref="I29" si="40">H29</f>
-        <v>2886</v>
-      </c>
-      <c r="J29" s="52">
-        <f t="shared" ref="J29" si="41">I29</f>
-        <v>2886</v>
-      </c>
-      <c r="K29" s="52">
-        <f t="shared" ref="K29" si="42">J29</f>
-        <v>2886</v>
-      </c>
-      <c r="L29" s="52">
-        <f t="shared" ref="L29" si="43">K29</f>
-        <v>2886</v>
-      </c>
-      <c r="M29" s="52">
-        <f t="shared" ref="M29" si="44">L29</f>
-        <v>2886</v>
-      </c>
-      <c r="N29" s="52">
-        <f t="shared" ref="N29" si="45">M29</f>
-        <v>2886</v>
-      </c>
-      <c r="O29" s="52">
-        <f t="shared" ref="O29" si="46">N29</f>
-        <v>2886</v>
-      </c>
-      <c r="P29" s="52">
-        <f t="shared" ref="P29" si="47">O29</f>
-        <v>2886</v>
-      </c>
-      <c r="Q29" s="52">
-        <f t="shared" ref="Q29" si="48">P29</f>
-        <v>2886</v>
-      </c>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
+      <c r="F29" s="50">
+        <f>Reports!U22</f>
+        <v>2871</v>
+      </c>
+      <c r="G29" s="50">
+        <f t="shared" ref="G29" si="73">F29</f>
+        <v>2871</v>
+      </c>
+      <c r="H29" s="50">
+        <f t="shared" ref="H29" si="74">G29</f>
+        <v>2871</v>
+      </c>
+      <c r="I29" s="50">
+        <f t="shared" ref="I29" si="75">H29</f>
+        <v>2871</v>
+      </c>
+      <c r="J29" s="50">
+        <f t="shared" ref="J29" si="76">I29</f>
+        <v>2871</v>
+      </c>
+      <c r="K29" s="50">
+        <f t="shared" ref="K29" si="77">J29</f>
+        <v>2871</v>
+      </c>
+      <c r="L29" s="50">
+        <f t="shared" ref="L29" si="78">K29</f>
+        <v>2871</v>
+      </c>
+      <c r="M29" s="50">
+        <f t="shared" ref="M29" si="79">L29</f>
+        <v>2871</v>
+      </c>
+      <c r="N29" s="50">
+        <f t="shared" ref="N29" si="80">M29</f>
+        <v>2871</v>
+      </c>
+      <c r="O29" s="50">
+        <f t="shared" ref="O29" si="81">N29</f>
+        <v>2871</v>
+      </c>
+      <c r="P29" s="50">
+        <f t="shared" ref="P29" si="82">O29</f>
+        <v>2871</v>
+      </c>
+      <c r="Q29" s="50">
+        <f t="shared" ref="Q29" si="83">P29</f>
+        <v>2871</v>
+      </c>
+      <c r="R29" s="50">
+        <f t="shared" ref="R29" si="84">Q29</f>
+        <v>2871</v>
+      </c>
+      <c r="S29" s="50">
+        <f t="shared" ref="S29" si="85">R29</f>
+        <v>2871</v>
+      </c>
+      <c r="T29" s="50">
+        <f t="shared" ref="T29" si="86">S29</f>
+        <v>2871</v>
+      </c>
+      <c r="U29" s="50">
+        <f t="shared" ref="U29" si="87">T29</f>
+        <v>2871</v>
+      </c>
+      <c r="V29" s="50">
+        <f t="shared" ref="V29" si="88">U29</f>
+        <v>2871</v>
+      </c>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60">
         <f>C16/B16-1</f>
         <v>0.54169688179840469</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="61">
         <f>D16/C16-1</f>
         <v>0.47090961719371882</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="60">
         <f>E16/D16-1</f>
         <v>0.37352716896661997</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="60">
         <f>F16/E16-1</f>
-        <v>0.27499999999999991</v>
-      </c>
-      <c r="G31" s="63">
-        <f t="shared" ref="G31:Q31" si="49">G16/F16-1</f>
-        <v>0.27499999999999991</v>
-      </c>
-      <c r="H31" s="63">
-        <f t="shared" si="49"/>
-        <v>0.27499999999999991</v>
-      </c>
-      <c r="I31" s="63">
-        <f t="shared" si="49"/>
-        <v>0.27499999999999991</v>
-      </c>
-      <c r="J31" s="63">
-        <f t="shared" si="49"/>
-        <v>0.27500000000000013</v>
-      </c>
-      <c r="K31" s="63">
-        <f t="shared" si="49"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="L31" s="63">
-        <f t="shared" si="49"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="M31" s="63">
-        <f t="shared" si="49"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="N31" s="63">
-        <f t="shared" si="49"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="O31" s="63">
-        <f t="shared" si="49"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="P31" s="63">
-        <f t="shared" si="49"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="Q31" s="63">
-        <f t="shared" si="49"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
+        <v>0.26610910132884413</v>
+      </c>
+      <c r="G31" s="60">
+        <f t="shared" ref="G31:Q31" si="89">G16/F16-1</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="H31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="I31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="J31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.2074999999999998</v>
+      </c>
+      <c r="K31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.20750000000000024</v>
+      </c>
+      <c r="L31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="M31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="N31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q31" s="60">
+        <f t="shared" si="89"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R31" s="60">
+        <f t="shared" ref="R31" si="90">R16/Q16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S31" s="60">
+        <f t="shared" ref="S31" si="91">S16/R16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T31" s="60">
+        <f t="shared" ref="T31" si="92">T16/S16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U31" s="60">
+        <f t="shared" ref="U31" si="93">U16/T16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="V31" s="60">
+        <f t="shared" ref="V31" si="94">V16/U16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67">
+        <v>69</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63">
         <f>C19/B19-1</f>
         <v>0.22648951629644998</v>
       </c>
-      <c r="D32" s="35">
-        <f t="shared" ref="D32:Q32" si="50">D19/C19-1</f>
+      <c r="D32" s="33">
+        <f t="shared" ref="D32:Q32" si="95">D19/C19-1</f>
         <v>0.3124576844955993</v>
       </c>
-      <c r="E32" s="67">
-        <f t="shared" si="50"/>
+      <c r="E32" s="63">
+        <f t="shared" si="95"/>
         <v>0.3248645860201187</v>
       </c>
-      <c r="F32" s="67">
-        <f t="shared" si="50"/>
+      <c r="F32" s="63">
+        <f t="shared" si="95"/>
+        <v>0.32385865861968277</v>
+      </c>
+      <c r="G32" s="63">
+        <f t="shared" si="95"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G32" s="67">
-        <f t="shared" si="50"/>
+      <c r="H32" s="63">
+        <f t="shared" si="95"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H32" s="67">
-        <f t="shared" si="50"/>
+      <c r="I32" s="63">
+        <f t="shared" si="95"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I32" s="67">
-        <f t="shared" si="50"/>
+      <c r="J32" s="63">
+        <f t="shared" si="95"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J32" s="67">
-        <f t="shared" si="50"/>
+      <c r="K32" s="63">
+        <f t="shared" si="95"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K32" s="67">
-        <f t="shared" si="50"/>
+      <c r="L32" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L32" s="67">
-        <f t="shared" si="50"/>
+      <c r="M32" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M32" s="67">
-        <f t="shared" si="50"/>
+      <c r="N32" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N32" s="67">
-        <f t="shared" si="50"/>
+      <c r="O32" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O32" s="67">
-        <f t="shared" si="50"/>
+      <c r="P32" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P32" s="67">
-        <f t="shared" si="50"/>
+      <c r="Q32" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q32" s="67">
-        <f t="shared" si="50"/>
+      <c r="R32" s="63">
+        <f t="shared" ref="R32:R34" si="96">R19/Q19-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
+      <c r="S32" s="63">
+        <f t="shared" ref="S32:S34" si="97">S19/R19-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T32" s="63">
+        <f t="shared" ref="T32:T34" si="98">T19/S19-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U32" s="63">
+        <f t="shared" ref="U32:U34" si="99">U19/T19-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="V32" s="63">
+        <f t="shared" ref="V32:V34" si="100">V19/U19-1</f>
+        <v>0.10000000000000009</v>
+      </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67">
+        <v>70</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63">
         <f>C20/B20-1</f>
         <v>0.38325991189427322</v>
       </c>
-      <c r="D33" s="35">
-        <f t="shared" ref="D33:Q33" si="51">D20/C20-1</f>
+      <c r="D33" s="33">
+        <f t="shared" ref="D33:Q33" si="101">D20/C20-1</f>
         <v>0.25398089171974525</v>
       </c>
-      <c r="E33" s="67">
-        <f t="shared" si="51"/>
+      <c r="E33" s="63">
+        <f t="shared" si="101"/>
         <v>0.66031746031746041</v>
       </c>
-      <c r="F33" s="67">
-        <f t="shared" si="51"/>
+      <c r="F33" s="63">
+        <f t="shared" si="101"/>
+        <v>0.25889101338432119</v>
+      </c>
+      <c r="G33" s="63">
+        <f t="shared" si="101"/>
         <v>0.25</v>
       </c>
-      <c r="G33" s="67">
-        <f t="shared" si="51"/>
+      <c r="H33" s="63">
+        <f t="shared" si="101"/>
         <v>0.25</v>
       </c>
-      <c r="H33" s="67">
-        <f t="shared" si="51"/>
+      <c r="I33" s="63">
+        <f t="shared" si="101"/>
         <v>0.25</v>
       </c>
-      <c r="I33" s="67">
-        <f t="shared" si="51"/>
+      <c r="J33" s="63">
+        <f t="shared" si="101"/>
         <v>0.25</v>
       </c>
-      <c r="J33" s="67">
-        <f t="shared" si="51"/>
+      <c r="K33" s="63">
+        <f t="shared" si="101"/>
         <v>0.25</v>
       </c>
-      <c r="K33" s="67">
-        <f t="shared" si="51"/>
+      <c r="L33" s="63">
+        <f t="shared" si="101"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L33" s="67">
-        <f t="shared" si="51"/>
+      <c r="M33" s="63">
+        <f t="shared" si="101"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M33" s="67">
-        <f t="shared" si="51"/>
+      <c r="N33" s="63">
+        <f t="shared" si="101"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N33" s="67">
-        <f t="shared" si="51"/>
+      <c r="O33" s="63">
+        <f t="shared" si="101"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O33" s="67">
-        <f t="shared" si="51"/>
+      <c r="P33" s="63">
+        <f t="shared" si="101"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P33" s="67">
-        <f t="shared" si="51"/>
+      <c r="Q33" s="63">
+        <f t="shared" si="101"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q33" s="67">
-        <f t="shared" si="51"/>
+      <c r="R33" s="63">
+        <f t="shared" si="96"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
+      <c r="S33" s="63">
+        <f t="shared" si="97"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T33" s="63">
+        <f t="shared" si="98"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U33" s="63">
+        <f t="shared" si="99"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="V33" s="63">
+        <f t="shared" si="100"/>
+        <v>0.10000000000000009</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67">
+        <v>71</v>
+      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63">
         <f>C21/B21-1</f>
         <v>0.33667953667953676</v>
       </c>
-      <c r="D34" s="35">
-        <f t="shared" ref="D34:Q34" si="52">D21/C21-1</f>
+      <c r="D34" s="33">
+        <f t="shared" ref="D34:Q34" si="102">D21/C21-1</f>
         <v>0.45407279029462733</v>
       </c>
-      <c r="E34" s="67">
-        <f t="shared" si="52"/>
+      <c r="E34" s="63">
+        <f t="shared" si="102"/>
         <v>0.37147397695669437</v>
       </c>
-      <c r="F34" s="67">
-        <f t="shared" si="52"/>
+      <c r="F34" s="63">
+        <f t="shared" si="102"/>
+        <v>2.0315758980301273</v>
+      </c>
+      <c r="G34" s="63">
+        <f t="shared" si="102"/>
+        <v>-0.57118012422360243</v>
+      </c>
+      <c r="H34" s="63">
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G34" s="67">
-        <f t="shared" si="52"/>
+      <c r="I34" s="63">
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H34" s="67">
-        <f t="shared" si="52"/>
+      <c r="J34" s="63">
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I34" s="67">
-        <f t="shared" si="52"/>
+      <c r="K34" s="63">
+        <f t="shared" si="102"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J34" s="67">
-        <f t="shared" si="52"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="K34" s="67">
-        <f t="shared" si="52"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="L34" s="67">
-        <f t="shared" si="52"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="M34" s="67">
-        <f t="shared" si="52"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="N34" s="67">
-        <f t="shared" si="52"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="O34" s="67">
-        <f t="shared" si="52"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="P34" s="67">
-        <f t="shared" si="52"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="Q34" s="67">
-        <f t="shared" si="52"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="L34" s="63">
+        <f t="shared" si="102"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="M34" s="63">
+        <f t="shared" si="102"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="N34" s="63">
+        <f t="shared" si="102"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O34" s="63">
+        <f t="shared" si="102"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="P34" s="63">
+        <f t="shared" si="102"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="Q34" s="63">
+        <f t="shared" si="102"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="R34" s="63">
+        <f t="shared" si="96"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="S34" s="63">
+        <f t="shared" si="97"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="T34" s="63">
+        <f t="shared" si="98"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="U34" s="63">
+        <f t="shared" si="99"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="V34" s="63">
+        <f t="shared" si="100"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="91">
+        <f>C22/B22-1</f>
+        <v>0.29096876414667272</v>
+      </c>
+      <c r="D35" s="91">
+        <f>D22/C22-1</f>
+        <v>0.31463136670465497</v>
+      </c>
+      <c r="E35" s="91">
+        <f>E22/D22-1</f>
+        <v>0.43838356895172037</v>
+      </c>
+      <c r="F35" s="91">
+        <f>F22/E22-1</f>
+        <v>0.5735280482151135</v>
+      </c>
+      <c r="G35" s="91">
+        <f>G22/F22-1</f>
+        <v>1.6840988774638355E-2</v>
+      </c>
+      <c r="H35" s="91">
+        <f>H22/G22-1</f>
+        <v>0.28211522748213724</v>
+      </c>
+      <c r="I35" s="91">
+        <f t="shared" ref="I35:Q35" si="103">I22/H22-1</f>
+        <v>0.28256321649713767</v>
+      </c>
+      <c r="J35" s="91">
+        <f t="shared" si="103"/>
+        <v>0.28300592197076613</v>
+      </c>
+      <c r="K35" s="91">
+        <f t="shared" si="103"/>
+        <v>0.283443102504225</v>
+      </c>
+      <c r="L35" s="91">
+        <f t="shared" si="103"/>
+        <v>8.3541888633064998E-2</v>
+      </c>
+      <c r="M35" s="91">
+        <f t="shared" si="103"/>
+        <v>8.5114604881640687E-2</v>
+      </c>
+      <c r="N35" s="91">
+        <f t="shared" si="103"/>
+        <v>8.655654697636006E-2</v>
+      </c>
+      <c r="O35" s="91">
+        <f t="shared" si="103"/>
+        <v>8.7874921006339424E-2</v>
+      </c>
+      <c r="P35" s="91">
+        <f t="shared" si="103"/>
+        <v>8.9077257702755874E-2</v>
+      </c>
+      <c r="Q35" s="91">
+        <f t="shared" si="103"/>
+        <v>9.0171232228392739E-2</v>
+      </c>
+      <c r="R35" s="91">
+        <f t="shared" ref="R35:V35" si="104">R22/Q22-1</f>
+        <v>9.1164514223617488E-2</v>
+      </c>
+      <c r="S35" s="91">
+        <f t="shared" si="104"/>
+        <v>9.2064646578966736E-2</v>
+      </c>
+      <c r="T35" s="91">
+        <f t="shared" si="104"/>
+        <v>9.2878950548418437E-2</v>
+      </c>
+      <c r="U35" s="91">
+        <f t="shared" si="104"/>
+        <v>9.3614454318981855E-2</v>
+      </c>
+      <c r="V35" s="91">
+        <f t="shared" si="104"/>
+        <v>9.4277841937180362E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B37" s="64">
         <f>IFERROR(B18/B16,0)</f>
         <v>0.84012941373347461</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C37" s="64">
         <f>IFERROR(C18/C16,0)</f>
         <v>0.86294232578334173</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D37" s="30">
         <f>IFERROR(D18/D16,0)</f>
         <v>0.86581556096721024</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E37" s="64">
         <f>IFERROR(E18/E16,0)</f>
         <v>0.8324617643898421</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F37" s="64">
         <f>IFERROR(F18/F16,0)</f>
-        <v>0.8324617643898421</v>
-      </c>
-      <c r="G36" s="68">
-        <f t="shared" ref="G36:Q36" si="53">IFERROR(G18/G16,0)</f>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="H36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="I36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="J36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="K36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="L36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="M36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="N36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="O36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="P36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="Q36" s="68">
-        <f t="shared" si="53"/>
-        <v>0.83246176438984221</v>
-      </c>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+        <v>0.81936998741106415</v>
+      </c>
+      <c r="G37" s="64">
+        <f t="shared" ref="G37:Q37" si="105">IFERROR(G18/G16,0)</f>
+        <v>0.81936998741106415</v>
+      </c>
+      <c r="H37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="I37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="J37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="K37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="L37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="M37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="N37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="O37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="P37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="Q37" s="64">
+        <f t="shared" si="105"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="R37" s="64">
+        <f t="shared" ref="R37:V37" si="106">IFERROR(R18/R16,0)</f>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="S37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="T37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106437</v>
+      </c>
+      <c r="U37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106437</v>
+      </c>
+      <c r="V37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="67">
+      <c r="B38" s="63">
         <f>IFERROR(B23/B16,0)</f>
         <v>0.34724159089641321</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C38" s="63">
         <f>IFERROR(C23/C16,0)</f>
         <v>0.45021347420218538</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D38" s="33">
         <f>IFERROR(D23/D16,0)</f>
         <v>0.49693749538779425</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E38" s="63">
         <f>IFERROR(E23/E16,0)</f>
         <v>0.44616569361366809</v>
       </c>
-      <c r="F37" s="67">
-        <f t="shared" ref="F37:Q37" si="54">IFERROR(F23/F16,0)</f>
-        <v>0.44410089692239957</v>
-      </c>
-      <c r="G37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.4418875819417129</v>
-      </c>
-      <c r="H37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.4395249548243606</v>
-      </c>
-      <c r="I37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.43701216462263759</v>
-      </c>
-      <c r="J37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.43434830298317323</v>
-      </c>
-      <c r="K37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.4089024200580349</v>
-      </c>
-      <c r="L37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.38131795712951422</v>
-      </c>
-      <c r="M37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.35136066686992717</v>
-      </c>
-      <c r="N37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.31876623157627137</v>
-      </c>
-      <c r="O37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.28323612899892536</v>
-      </c>
-      <c r="P37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.24443291526952421</v>
-      </c>
-      <c r="Q37" s="67">
-        <f t="shared" si="54"/>
-        <v>0.20197484202289623</v>
-      </c>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+      <c r="F38" s="63">
+        <f t="shared" ref="F38:Q38" si="107">IFERROR(F23/F16,0)</f>
+        <v>0.33927889443682191</v>
+      </c>
+      <c r="G38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.41508319512797914</v>
+      </c>
+      <c r="H38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.39010104111205701</v>
+      </c>
+      <c r="I38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.36341590003417668</v>
+      </c>
+      <c r="J38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.33490473337270155</v>
+      </c>
+      <c r="K38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.30443533838539671</v>
+      </c>
+      <c r="L38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.31213974911299497</v>
+      </c>
+      <c r="M38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.31900367867030988</v>
+      </c>
+      <c r="N38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.32511881591228114</v>
+      </c>
+      <c r="O38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.33056684727331032</v>
+      </c>
+      <c r="P38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.33542054794040899</v>
+      </c>
+      <c r="Q38" s="63">
+        <f t="shared" si="107"/>
+        <v>0.33974475398927861</v>
+      </c>
+      <c r="R38" s="63">
+        <f t="shared" ref="R38:V38" si="108">IFERROR(R23/R16,0)</f>
+        <v>0.34359722846918078</v>
+      </c>
+      <c r="S38" s="63">
+        <f t="shared" si="108"/>
+        <v>0.34702943300582073</v>
+      </c>
+      <c r="T38" s="63">
+        <f t="shared" si="108"/>
+        <v>0.35008721522937281</v>
+      </c>
+      <c r="U38" s="63">
+        <f t="shared" si="108"/>
+        <v>0.35281142121035558</v>
+      </c>
+      <c r="V38" s="63">
+        <f t="shared" si="108"/>
+        <v>0.35523844108432201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B39" s="63">
         <f>IFERROR(B26/B25,0)</f>
         <v>0.40442363577655793</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C39" s="63">
         <f>IFERROR(C26/C25,0)</f>
         <v>0.24104364477778664</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D39" s="33">
         <f>IFERROR(D26/D25,0)</f>
         <v>0.22632805671554823</v>
       </c>
-      <c r="E38" s="67">
-        <f t="shared" ref="E38:Q38" si="55">IFERROR(E26/E25,0)</f>
+      <c r="E39" s="63">
+        <f t="shared" ref="E39:Q39" si="109">IFERROR(E26/E25,0)</f>
         <v>0.12807065967430306</v>
       </c>
-      <c r="F38" s="67">
-        <f t="shared" si="55"/>
+      <c r="F39" s="63">
+        <f t="shared" si="109"/>
+        <v>0.25499758181525067</v>
+      </c>
+      <c r="G39" s="63">
+        <f t="shared" si="109"/>
         <v>0.2</v>
       </c>
-      <c r="G38" s="67">
-        <f t="shared" si="55"/>
+      <c r="H39" s="63">
+        <f t="shared" si="109"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="I39" s="63">
+        <f t="shared" si="109"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="J39" s="63">
+        <f t="shared" si="109"/>
         <v>0.2</v>
       </c>
-      <c r="H38" s="67">
-        <f t="shared" si="55"/>
+      <c r="K39" s="63">
+        <f t="shared" si="109"/>
         <v>0.2</v>
       </c>
-      <c r="I38" s="67">
-        <f t="shared" si="55"/>
+      <c r="L39" s="63">
+        <f t="shared" si="109"/>
         <v>0.2</v>
       </c>
-      <c r="J38" s="67">
-        <f t="shared" si="55"/>
+      <c r="M39" s="63">
+        <f t="shared" si="109"/>
         <v>0.2</v>
       </c>
-      <c r="K38" s="67">
-        <f t="shared" si="55"/>
+      <c r="N39" s="63">
+        <f t="shared" si="109"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="L38" s="67">
-        <f t="shared" si="55"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="M38" s="67">
-        <f t="shared" si="55"/>
+      <c r="O39" s="63">
+        <f t="shared" si="109"/>
         <v>0.2</v>
       </c>
-      <c r="N38" s="67">
-        <f t="shared" si="55"/>
+      <c r="P39" s="63">
+        <f t="shared" si="109"/>
         <v>0.2</v>
       </c>
-      <c r="O38" s="67">
-        <f t="shared" si="55"/>
+      <c r="Q39" s="63">
+        <f t="shared" si="109"/>
         <v>0.2</v>
       </c>
-      <c r="P38" s="67">
-        <f t="shared" si="55"/>
+      <c r="R39" s="63">
+        <f t="shared" ref="R39:V39" si="110">IFERROR(R26/R25,0)</f>
         <v>0.2</v>
       </c>
-      <c r="Q38" s="67">
-        <f t="shared" si="55"/>
+      <c r="S39" s="63">
+        <f t="shared" si="110"/>
         <v>0.2</v>
       </c>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="T39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.2</v>
+      </c>
+      <c r="U39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.2</v>
+      </c>
+      <c r="V39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="70">
-        <f>Reports!E33</f>
+      <c r="B41" s="53">
+        <f>B42-B43</f>
         <v>18434</v>
       </c>
-      <c r="C40" s="70">
-        <f>Reports!I33</f>
+      <c r="C41" s="53">
+        <f>C42-C43</f>
         <v>29449</v>
       </c>
-      <c r="D40" s="19">
-        <f>Reports!M33</f>
+      <c r="D41" s="53">
+        <f>D42-D43</f>
         <v>41711</v>
       </c>
-      <c r="E40" s="70">
-        <f>Reports!Q33</f>
+      <c r="E41" s="53">
+        <f>E42-E43</f>
         <v>41114</v>
       </c>
-      <c r="F40" s="70">
-        <f>E40+F27</f>
-        <v>66736.572</v>
-      </c>
-      <c r="G40" s="70">
-        <f>F40+G27</f>
-        <v>99359.156076000014</v>
-      </c>
-      <c r="H40" s="70">
-        <f t="shared" ref="H40:Q40" si="56">G40+H27</f>
-        <v>140848.362237108</v>
-      </c>
-      <c r="I40" s="70">
-        <f t="shared" si="56"/>
-        <v>193563.79241094238</v>
-      </c>
-      <c r="J40" s="70">
-        <f t="shared" si="56"/>
-        <v>260486.88011767523</v>
-      </c>
-      <c r="K40" s="70">
-        <f t="shared" si="56"/>
-        <v>327192.67847407173</v>
-      </c>
-      <c r="L40" s="70">
-        <f t="shared" si="56"/>
-        <v>393085.87075837341</v>
-      </c>
-      <c r="M40" s="70">
-        <f t="shared" si="56"/>
-        <v>457450.34344180033</v>
-      </c>
-      <c r="N40" s="70">
-        <f t="shared" si="56"/>
-        <v>519427.63038864976</v>
-      </c>
-      <c r="O40" s="70">
-        <f t="shared" si="56"/>
-        <v>577991.44593224663</v>
-      </c>
-      <c r="P40" s="70">
-        <f t="shared" si="56"/>
-        <v>631917.57159615739</v>
-      </c>
-      <c r="Q40" s="70">
-        <f t="shared" si="56"/>
-        <v>679748.21923297283</v>
-      </c>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="71">
-        <f>B24/B40</f>
-        <v>-1.6816751654551373E-3</v>
-      </c>
-      <c r="C41" s="71">
-        <f>C24/C40</f>
-        <v>3.0561309382321979E-3</v>
-      </c>
-      <c r="D41" s="72">
-        <f t="shared" ref="D41:Q41" si="57">D24/D40</f>
-        <v>9.3980005274388045E-3</v>
-      </c>
-      <c r="E41" s="71">
-        <f>E24/E40</f>
-        <v>1.0896531595077103E-2</v>
-      </c>
-      <c r="F41" s="71">
-        <f t="shared" si="57"/>
-        <v>6.1606400760290773E-3</v>
-      </c>
-      <c r="G41" s="71">
-        <f t="shared" si="57"/>
-        <v>6.7167007687699226E-3</v>
-      </c>
-      <c r="H41" s="71">
-        <f t="shared" si="57"/>
-        <v>7.0543352082955771E-3</v>
-      </c>
-      <c r="I41" s="71">
-        <f t="shared" si="57"/>
-        <v>7.2765862087513884E-3</v>
-      </c>
-      <c r="J41" s="71">
-        <f t="shared" si="57"/>
-        <v>7.4308461264344572E-3</v>
-      </c>
-      <c r="K41" s="71">
-        <f t="shared" si="57"/>
-        <v>7.9612686118927748E-3</v>
-      </c>
-      <c r="L41" s="71">
-        <f t="shared" si="57"/>
-        <v>8.3236947144099804E-3</v>
-      </c>
-      <c r="M41" s="71">
-        <f t="shared" si="57"/>
-        <v>8.5929735630067179E-3</v>
-      </c>
-      <c r="N41" s="71">
-        <f t="shared" si="57"/>
-        <v>8.8068157463923047E-3</v>
-      </c>
-      <c r="O41" s="71">
-        <f t="shared" si="57"/>
-        <v>8.9867702029890976E-3</v>
-      </c>
-      <c r="P41" s="71">
-        <f t="shared" si="57"/>
-        <v>9.146627217095752E-3</v>
-      </c>
-      <c r="Q41" s="71">
-        <f t="shared" si="57"/>
-        <v>9.2963475845396475E-3</v>
-      </c>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+      <c r="F41" s="53">
+        <f>F42-F43</f>
+        <v>54855</v>
+      </c>
+      <c r="G41" s="65">
+        <f>F41+G27</f>
+        <v>83641.242000000013</v>
+      </c>
+      <c r="H41" s="65">
+        <f t="shared" ref="H41:Q41" si="111">G41+H27</f>
+        <v>116479.72745100001</v>
+      </c>
+      <c r="I41" s="65">
+        <f t="shared" si="111"/>
+        <v>153598.87643497053</v>
+      </c>
+      <c r="J41" s="65">
+        <f t="shared" si="111"/>
+        <v>195095.73749641801</v>
+      </c>
+      <c r="K41" s="65">
+        <f t="shared" si="111"/>
+        <v>240856.44875267538</v>
+      </c>
+      <c r="L41" s="65">
+        <f t="shared" si="111"/>
+        <v>292633.67553317145</v>
+      </c>
+      <c r="M41" s="65">
+        <f t="shared" si="111"/>
+        <v>351015.98423954775</v>
+      </c>
+      <c r="N41" s="65">
+        <f t="shared" si="111"/>
+        <v>416651.18540652317</v>
+      </c>
+      <c r="O41" s="65">
+        <f t="shared" si="111"/>
+        <v>490252.2513716626</v>
+      </c>
+      <c r="P41" s="65">
+        <f t="shared" si="111"/>
+        <v>572603.82585504372</v>
+      </c>
+      <c r="Q41" s="65">
+        <f t="shared" si="111"/>
+        <v>664569.38463701785</v>
+      </c>
+      <c r="R41" s="65">
+        <f t="shared" ref="R41" si="112">Q41+R27</f>
+        <v>767099.11244113673</v>
+      </c>
+      <c r="S41" s="65">
+        <f t="shared" ref="S41" si="113">R41+S27</f>
+        <v>881238.56764007884</v>
+      </c>
+      <c r="T41" s="65">
+        <f t="shared" ref="T41" si="114">S41+T27</f>
+        <v>1008138.2135642481</v>
+      </c>
+      <c r="U41" s="65">
+        <f t="shared" ref="U41" si="115">T41+U27</f>
+        <v>1149063.9030707357</v>
+      </c>
+      <c r="V41" s="65">
+        <f t="shared" ref="V41" si="116">U41+V27</f>
+        <v>1305408.4116961607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="89">
+        <f>Reports!E34</f>
+        <v>18434</v>
+      </c>
+      <c r="C42" s="89">
+        <f>Reports!I34</f>
+        <v>29449</v>
+      </c>
+      <c r="D42" s="10">
+        <f>Reports!M34</f>
+        <v>41711</v>
+      </c>
+      <c r="E42" s="89">
+        <f>Reports!Q34</f>
+        <v>41114</v>
+      </c>
+      <c r="F42" s="89">
+        <f>Reports!U34</f>
+        <v>54855</v>
+      </c>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="89"/>
+    </row>
+    <row r="43" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="89">
+        <f>Reports!E35</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="89">
+        <f>Reports!I35</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <f>Reports!M35</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="89">
+        <f>Reports!Q35</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="89">
+        <f>Reports!U35</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="89"/>
+      <c r="V43" s="89"/>
+    </row>
+    <row r="44" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+    </row>
+    <row r="45" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="10">
+        <f>Reports!M37</f>
+        <v>20105</v>
+      </c>
+      <c r="E45" s="89">
+        <f>Reports!Q37</f>
+        <v>19595</v>
+      </c>
+      <c r="F45" s="89">
+        <f>Reports!U37</f>
+        <v>19609</v>
+      </c>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="89"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="89"/>
+      <c r="V45" s="89"/>
+    </row>
+    <row r="46" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="10">
+        <f>Reports!M38</f>
+        <v>84524</v>
+      </c>
+      <c r="E46" s="89">
+        <f>Reports!Q38</f>
+        <v>97334</v>
+      </c>
+      <c r="F46" s="89">
+        <f>Reports!U38</f>
+        <v>133376</v>
+      </c>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
+    </row>
+    <row r="47" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="10">
+        <f>Reports!M39</f>
+        <v>10177</v>
+      </c>
+      <c r="E47" s="89">
+        <f>Reports!Q39</f>
+        <v>13207</v>
+      </c>
+      <c r="F47" s="89">
+        <f>Reports!U39</f>
+        <v>32322</v>
+      </c>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+    </row>
+    <row r="48" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+    </row>
+    <row r="49" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="21">
+        <f>D46-D45-D42</f>
+        <v>22708</v>
+      </c>
+      <c r="E49" s="21">
+        <f>E46-E45-E42</f>
+        <v>36625</v>
+      </c>
+      <c r="F49" s="21">
+        <f>F46-F45-F42</f>
+        <v>58912</v>
+      </c>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+    </row>
+    <row r="50" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="21">
+        <f>D46-D47</f>
+        <v>74347</v>
+      </c>
+      <c r="E50" s="21">
+        <f>E46-E47</f>
+        <v>84127</v>
+      </c>
+      <c r="F50" s="21">
+        <f>F46-F47</f>
+        <v>101054</v>
+      </c>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="66"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="32">
+        <f>D27/D50</f>
+        <v>0.21430588994848482</v>
+      </c>
+      <c r="E52" s="32">
+        <f>E27/E50</f>
+        <v>0.2628525919146053</v>
+      </c>
+      <c r="F52" s="32">
+        <f>F27/F50</f>
+        <v>0.18292200209788825</v>
+      </c>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="66"/>
+      <c r="U52" s="66"/>
+      <c r="V52" s="66"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="32">
+        <f>D27/D46</f>
+        <v>0.18850267379679145</v>
+      </c>
+      <c r="E53" s="32">
+        <f>E27/E46</f>
+        <v>0.22718680009041034</v>
+      </c>
+      <c r="F53" s="32">
+        <f>F27/F46</f>
+        <v>0.13859315019193857</v>
+      </c>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="66"/>
+      <c r="V53" s="66"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="32">
+        <f>D27/(D50-D45)</f>
+        <v>0.29373916890970098</v>
+      </c>
+      <c r="E54" s="32">
+        <f>E27/(E50-E45)</f>
+        <v>0.34266720386784849</v>
+      </c>
+      <c r="F54" s="32">
+        <f>F27/(F50-F45)</f>
+        <v>0.22696298115292529</v>
+      </c>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="66"/>
+      <c r="V54" s="66"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="34">
-        <f>Reports!M45</f>
-        <v>0.21430588994848482</v>
-      </c>
-      <c r="E43" s="79">
-        <f>Reports!Q45</f>
-        <v>0.2628525919146053</v>
-      </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="34">
-        <f>Reports!M46</f>
-        <v>0.18850267379679145</v>
-      </c>
-      <c r="E44" s="79">
-        <f>Reports!Q46</f>
-        <v>0.22718680009041034</v>
-      </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="73"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="73"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="73"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="34">
-        <f>Reports!M47</f>
-        <v>0.29373916890970098</v>
-      </c>
-      <c r="E45" s="79">
-        <f>Reports!Q47</f>
-        <v>0.34266720386784849</v>
-      </c>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="73"/>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="75">
-        <f>Reports!M48</f>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="70">
+        <f>D27/D49</f>
         <v>0.70164699665316188</v>
       </c>
-      <c r="E46" s="79">
-        <f>Reports!Q48</f>
+      <c r="E55" s="70">
+        <f>E27/E49</f>
         <v>0.6037679180887372</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
-      <c r="V46" s="73"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="73"/>
-      <c r="S47" s="73"/>
-      <c r="T47" s="73"/>
-      <c r="U47" s="73"/>
-      <c r="V47" s="73"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="51">
+      <c r="F55" s="70">
+        <f>F27/F49</f>
+        <v>0.31377308527973929</v>
+      </c>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A57" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="49">
         <f>C13/B13-1</f>
         <v>0.18269230769230771</v>
       </c>
-      <c r="D48" s="75">
+      <c r="D57" s="70">
         <f>D13/C13-1</f>
         <v>0.13821138211382111</v>
       </c>
-      <c r="E48" s="51">
-        <f t="shared" ref="E48:I48" si="58">E13/D13-1</f>
+      <c r="E57" s="49">
+        <f t="shared" ref="E57:K57" si="117">E13/D13-1</f>
         <v>8.5714285714285632E-2</v>
       </c>
-      <c r="F48" s="51">
-        <f t="shared" si="58"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="G48" s="51">
-        <f t="shared" si="58"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="H48" s="51">
-        <f t="shared" si="58"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="I48" s="51">
-        <f t="shared" si="58"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="51">
+      <c r="F57" s="49">
+        <f t="shared" si="117"/>
+        <v>9.210526315789469E-2</v>
+      </c>
+      <c r="G57" s="49">
+        <f t="shared" si="117"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="H57" s="49">
+        <f t="shared" si="117"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I57" s="49">
+        <f t="shared" si="117"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J57" s="49">
+        <f t="shared" si="117"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K57" s="49">
+        <f t="shared" si="117"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="49">
         <f>C14/B14-1</f>
         <v>0.30354858298401677</v>
       </c>
-      <c r="D49" s="75">
+      <c r="D58" s="70">
         <f>D14/C14-1</f>
         <v>0.29229916367733866</v>
       </c>
-      <c r="E49" s="51">
-        <f t="shared" ref="E49:I49" si="59">E14/D14-1</f>
+      <c r="E58" s="49">
+        <f t="shared" ref="E58:K58" si="118">E14/D14-1</f>
         <v>0.26509081352188679</v>
       </c>
-      <c r="F49" s="51">
-        <f t="shared" si="59"/>
-        <v>0.25</v>
-      </c>
-      <c r="G49" s="51">
-        <f t="shared" si="59"/>
-        <v>0.25</v>
-      </c>
-      <c r="H49" s="51">
-        <f t="shared" si="59"/>
-        <v>0.25</v>
-      </c>
-      <c r="I49" s="51">
-        <f t="shared" si="59"/>
-        <v>0.25</v>
+      <c r="F58" s="49">
+        <f t="shared" si="118"/>
+        <v>0.15932881567460444</v>
+      </c>
+      <c r="G58" s="49">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H58" s="49">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="I58" s="49">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="J58" s="49">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="K58" s="49">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -3748,18 +4486,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2" customWidth="1"/>
@@ -3769,11 +4507,13 @@
     <col min="14" max="14" width="10.83203125" style="3"/>
     <col min="15" max="17" width="10.83203125" style="2"/>
     <col min="18" max="18" width="10.83203125" style="6"/>
-    <col min="19" max="16384" width="10.83203125" style="7"/>
+    <col min="19" max="21" width="10.83203125" style="7"/>
+    <col min="22" max="22" width="10.83203125" style="6"/>
+    <col min="23" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="76" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3824,9 +4564,33 @@
       <c r="Q1" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+      <c r="R1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="76"/>
       <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
@@ -3875,9 +4639,30 @@
       <c r="Q2" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="R2" s="87">
+        <v>43555</v>
+      </c>
+      <c r="S2" s="86">
+        <v>43646</v>
+      </c>
+      <c r="T2" s="86">
+        <v>43738</v>
+      </c>
+      <c r="U2" s="86">
+        <v>43830</v>
+      </c>
+      <c r="V2" s="87">
+        <v>43921</v>
+      </c>
+      <c r="W2" s="86">
+        <v>44012</v>
+      </c>
+      <c r="X2" s="86">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="78" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="5">
@@ -3928,10 +4713,31 @@
       <c r="Q3" s="9">
         <v>16640</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>75</v>
+      <c r="R3" s="88">
+        <v>14912</v>
+      </c>
+      <c r="S3" s="40">
+        <v>16624</v>
+      </c>
+      <c r="T3" s="40">
+        <v>17383</v>
+      </c>
+      <c r="U3" s="40">
+        <v>20736</v>
+      </c>
+      <c r="V3" s="88">
+        <v>17440</v>
+      </c>
+      <c r="W3" s="40">
+        <v>18321</v>
+      </c>
+      <c r="X3" s="40">
+        <v>21221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="5">
         <v>226</v>
@@ -3981,8 +4787,30 @@
       <c r="Q4" s="9">
         <v>274</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R4" s="88">
+        <v>165</v>
+      </c>
+      <c r="S4" s="40">
+        <v>262</v>
+      </c>
+      <c r="T4" s="40">
+        <v>269</v>
+      </c>
+      <c r="U4" s="40">
+        <v>346</v>
+      </c>
+      <c r="V4" s="88">
+        <v>297</v>
+      </c>
+      <c r="W4" s="40">
+        <v>366</v>
+      </c>
+      <c r="X4" s="40">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3999,9 +4827,11 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="R5" s="88"/>
+      <c r="V5" s="88"/>
+    </row>
+    <row r="6" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="78" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="5">
@@ -4052,77 +4882,126 @@
       <c r="Q6" s="10">
         <v>1520</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="R6" s="88">
+        <v>1560</v>
+      </c>
+      <c r="S6" s="40">
+        <v>1590</v>
+      </c>
+      <c r="T6" s="40">
+        <v>1620</v>
+      </c>
+      <c r="U6" s="40">
+        <v>1660</v>
+      </c>
+      <c r="V6" s="88">
+        <v>1730</v>
+      </c>
+      <c r="W6" s="40">
+        <v>1790</v>
+      </c>
+      <c r="X6" s="40">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="83" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="80">
         <f>SUM(B3:B4)/B6</f>
         <v>3.7852564102564101</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="80">
         <f t="shared" ref="C7:M7" si="0">C9/C6</f>
         <v>4.1756198347107434</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="80">
         <f t="shared" si="0"/>
         <v>4.4564356435643564</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="80">
         <f t="shared" si="0"/>
         <v>5.6163461538461537</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="81">
         <f t="shared" si="0"/>
         <v>4.9376146788990827</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="80">
         <f t="shared" si="0"/>
         <v>5.6955752212389381</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="80">
         <f t="shared" si="0"/>
         <v>5.9415254237288133</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="80">
         <f t="shared" si="0"/>
         <v>7.1617886178861792</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="81">
         <f t="shared" si="0"/>
         <v>6.2750000000000004</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="80">
         <f t="shared" si="0"/>
         <v>7.0613636363636365</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="80">
         <f t="shared" si="0"/>
         <v>7.5386861313868616</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="80">
         <f t="shared" si="0"/>
         <v>9.2657142857142851</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="81">
         <f>SUM(N3:N4)/N6</f>
         <v>8.2524137931034485</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="82">
         <f>SUM(O3:O4)/O6</f>
         <v>9.000680272108843</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="82">
         <f>SUM(P3:P4)/P6</f>
         <v>9.2127516778523493</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="82">
         <f>SUM(Q3:Q4)/Q6</f>
         <v>11.127631578947369</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R7" s="81">
+        <f>SUM(R3:R4)/R6</f>
+        <v>9.6647435897435905</v>
+      </c>
+      <c r="S7" s="82">
+        <f>SUM(S3:S4)/S6</f>
+        <v>10.620125786163522</v>
+      </c>
+      <c r="T7" s="82">
+        <f>SUM(T3:T4)/T6</f>
+        <v>10.896296296296295</v>
+      </c>
+      <c r="U7" s="82">
+        <f>SUM(U3:U4)/U6</f>
+        <v>12.7</v>
+      </c>
+      <c r="V7" s="81">
+        <f>SUM(V3:V4)/V6</f>
+        <v>10.252601156069364</v>
+      </c>
+      <c r="W7" s="82">
+        <f>SUM(W3:W4)/W6</f>
+        <v>10.439664804469274</v>
+      </c>
+      <c r="X7" s="82">
+        <f>SUM(X3:X4)/X6</f>
+        <v>11.796703296703297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="I8" s="5"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -4131,8 +5010,8 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="16">
@@ -4199,10 +5078,37 @@
         <f>SUM(Q3:Q4)</f>
         <v>16914</v>
       </c>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="R9" s="17">
+        <f>SUM(R3:R4)</f>
+        <v>15077</v>
+      </c>
+      <c r="S9" s="16">
+        <f>SUM(S3:S4)</f>
+        <v>16886</v>
+      </c>
+      <c r="T9" s="16">
+        <f>SUM(T3:T4)</f>
+        <v>17652</v>
+      </c>
+      <c r="U9" s="16">
+        <f>SUM(U3:U4)</f>
+        <v>21082</v>
+      </c>
+      <c r="V9" s="17">
+        <f>SUM(V3:V4)</f>
+        <v>17737</v>
+      </c>
+      <c r="W9" s="16">
+        <f>SUM(W3:W4)</f>
+        <v>18687</v>
+      </c>
+      <c r="X9" s="16">
+        <f>SUM(X3:X4)</f>
+        <v>21470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="8">
@@ -4253,78 +5159,127 @@
       <c r="Q10" s="9">
         <v>2796</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="R10" s="88">
+        <v>2816</v>
+      </c>
+      <c r="S10" s="40">
+        <v>3307</v>
+      </c>
+      <c r="T10" s="40">
+        <v>3155</v>
+      </c>
+      <c r="U10" s="40">
+        <v>3492</v>
+      </c>
+      <c r="V10" s="88">
+        <v>3459</v>
+      </c>
+      <c r="W10" s="40">
+        <v>3829</v>
+      </c>
+      <c r="X10" s="40">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <f>B9-B10</f>
         <v>2889</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <f>C9-C10</f>
         <v>3374</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <f>D9-D10</f>
         <v>3781</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <f>E9-E10</f>
         <v>5017</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <f>F9-F10</f>
         <v>4544</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <f t="shared" ref="G11:L11" si="3">G9-G10</f>
         <v>5520</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="21">
         <f t="shared" si="3"/>
         <v>6024</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="21">
         <f t="shared" si="3"/>
         <v>7762</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="20">
         <f t="shared" si="3"/>
         <v>6873</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <f t="shared" si="3"/>
         <v>8084</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="19">
         <f t="shared" si="3"/>
         <v>8880</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="19">
         <f t="shared" ref="M11:Q11" si="4">M9-M10</f>
         <v>11361</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <f t="shared" si="4"/>
         <v>10039</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="19">
         <f t="shared" si="4"/>
         <v>11017</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="19">
         <f t="shared" si="4"/>
         <v>11309</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="19">
         <f t="shared" si="4"/>
         <v>14118</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="R11" s="20">
+        <f t="shared" ref="R11:T11" si="5">R9-R10</f>
+        <v>12261</v>
+      </c>
+      <c r="S11" s="19">
+        <f t="shared" si="5"/>
+        <v>13579</v>
+      </c>
+      <c r="T11" s="19">
+        <f t="shared" si="5"/>
+        <v>14497</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" ref="U11:X11" si="6">U9-U10</f>
+        <v>17590</v>
+      </c>
+      <c r="V11" s="20">
+        <f t="shared" si="6"/>
+        <v>14278</v>
+      </c>
+      <c r="W11" s="19">
+        <f t="shared" si="6"/>
+        <v>14858</v>
+      </c>
+      <c r="X11" s="19">
+        <f t="shared" si="6"/>
+        <v>17276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="8">
@@ -4375,9 +5330,30 @@
       <c r="Q12" s="9">
         <v>2855</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="R12" s="88">
+        <v>2860</v>
+      </c>
+      <c r="S12" s="40">
+        <v>3315</v>
+      </c>
+      <c r="T12" s="40">
+        <v>3548</v>
+      </c>
+      <c r="U12" s="40">
+        <v>3877</v>
+      </c>
+      <c r="V12" s="88">
+        <v>4015</v>
+      </c>
+      <c r="W12" s="40">
+        <v>4462</v>
+      </c>
+      <c r="X12" s="40">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="8">
@@ -4428,9 +5404,30 @@
       <c r="Q13" s="9">
         <v>2467</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="R13" s="88">
+        <v>2020</v>
+      </c>
+      <c r="S13" s="40">
+        <v>2414</v>
+      </c>
+      <c r="T13" s="40">
+        <v>2416</v>
+      </c>
+      <c r="U13" s="40">
+        <v>3026</v>
+      </c>
+      <c r="V13" s="88">
+        <v>2787</v>
+      </c>
+      <c r="W13" s="40">
+        <v>2840</v>
+      </c>
+      <c r="X13" s="40">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="78" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8">
@@ -4481,147 +5478,224 @@
       <c r="Q14" s="9">
         <v>976</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="R14" s="88">
+        <v>4064</v>
+      </c>
+      <c r="S14" s="40">
+        <v>3224</v>
+      </c>
+      <c r="T14" s="40">
+        <v>1348</v>
+      </c>
+      <c r="U14" s="40">
+        <v>1829</v>
+      </c>
+      <c r="V14" s="88">
+        <v>1583</v>
+      </c>
+      <c r="W14" s="40">
+        <v>1593</v>
+      </c>
+      <c r="X14" s="40">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="19">
         <f>SUM(B12:B14)</f>
         <v>1956</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <f>SUM(C12:C14)</f>
         <v>2101</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <f>SUM(D12:D14)</f>
         <v>2322</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <f>SUM(E12:E14)</f>
         <v>2457</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <f>SUM(F12:F14)</f>
         <v>2535</v>
       </c>
-      <c r="G15" s="23">
-        <f t="shared" ref="G15:L15" si="5">SUM(G12:G14)</f>
+      <c r="G15" s="21">
+        <f t="shared" ref="G15:L15" si="7">SUM(G12:G14)</f>
         <v>2774</v>
       </c>
-      <c r="H15" s="23">
-        <f t="shared" si="5"/>
+      <c r="H15" s="21">
+        <f t="shared" si="7"/>
         <v>2902</v>
       </c>
-      <c r="I15" s="23">
-        <f t="shared" si="5"/>
+      <c r="I15" s="21">
+        <f t="shared" si="7"/>
         <v>3196</v>
       </c>
-      <c r="J15" s="22">
-        <f t="shared" si="5"/>
+      <c r="J15" s="20">
+        <f t="shared" si="7"/>
         <v>3546</v>
       </c>
-      <c r="K15" s="21">
-        <f t="shared" si="5"/>
+      <c r="K15" s="19">
+        <f t="shared" si="7"/>
         <v>3683</v>
       </c>
-      <c r="L15" s="21">
-        <f t="shared" si="5"/>
+      <c r="L15" s="19">
+        <f t="shared" si="7"/>
         <v>3758</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="19">
         <f>SUM(M12:M14)</f>
         <v>4009</v>
       </c>
-      <c r="N15" s="22">
-        <f t="shared" ref="N15:P15" si="6">SUM(N12:N14)</f>
+      <c r="N15" s="20">
+        <f t="shared" ref="N15:P15" si="8">SUM(N12:N14)</f>
         <v>4590</v>
       </c>
-      <c r="O15" s="21">
-        <f t="shared" si="6"/>
+      <c r="O15" s="19">
+        <f t="shared" si="8"/>
         <v>5154</v>
       </c>
-      <c r="P15" s="21">
-        <f t="shared" si="6"/>
+      <c r="P15" s="19">
+        <f t="shared" si="8"/>
         <v>5528</v>
       </c>
-      <c r="Q15" s="21">
-        <f t="shared" ref="Q15" si="7">SUM(Q12:Q14)</f>
+      <c r="Q15" s="19">
+        <f t="shared" ref="Q15:R15" si="9">SUM(Q12:Q14)</f>
         <v>6298</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="R15" s="20">
+        <f t="shared" si="9"/>
+        <v>8944</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" ref="S15:T15" si="10">SUM(S12:S14)</f>
+        <v>8953</v>
+      </c>
+      <c r="T15" s="19">
+        <f t="shared" si="10"/>
+        <v>7312</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" ref="U15:V15" si="11">SUM(U12:U14)</f>
+        <v>8732</v>
+      </c>
+      <c r="V15" s="20">
+        <f t="shared" si="11"/>
+        <v>8385</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" ref="W15:X15" si="12">SUM(W12:W14)</f>
+        <v>8895</v>
+      </c>
+      <c r="X15" s="19">
+        <f t="shared" si="12"/>
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="19">
         <f>B11-B15</f>
         <v>933</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <f>C11-C15</f>
         <v>1273</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <f>D11-D15</f>
         <v>1459</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <f>E11-E15</f>
         <v>2560</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="20">
         <f>F11-F15</f>
         <v>2009</v>
       </c>
-      <c r="G16" s="23">
-        <f t="shared" ref="G16:H16" si="8">G11-G15</f>
+      <c r="G16" s="21">
+        <f t="shared" ref="G16:H16" si="13">G11-G15</f>
         <v>2746</v>
       </c>
-      <c r="H16" s="23">
-        <f t="shared" si="8"/>
+      <c r="H16" s="21">
+        <f t="shared" si="13"/>
         <v>3122</v>
       </c>
-      <c r="I16" s="23">
-        <f t="shared" ref="I16:P16" si="9">I11-I15</f>
+      <c r="I16" s="21">
+        <f t="shared" ref="I16:P16" si="14">I11-I15</f>
         <v>4566</v>
       </c>
-      <c r="J16" s="22">
-        <f t="shared" si="9"/>
+      <c r="J16" s="20">
+        <f t="shared" si="14"/>
         <v>3327</v>
       </c>
-      <c r="K16" s="21">
-        <f t="shared" si="9"/>
+      <c r="K16" s="19">
+        <f t="shared" si="14"/>
         <v>4401</v>
       </c>
-      <c r="L16" s="21">
-        <f t="shared" si="9"/>
+      <c r="L16" s="19">
+        <f t="shared" si="14"/>
         <v>5122</v>
       </c>
-      <c r="M16" s="21">
-        <f t="shared" si="9"/>
+      <c r="M16" s="19">
+        <f t="shared" si="14"/>
         <v>7352</v>
       </c>
-      <c r="N16" s="22">
-        <f t="shared" si="9"/>
+      <c r="N16" s="20">
+        <f t="shared" si="14"/>
         <v>5449</v>
       </c>
-      <c r="O16" s="21">
-        <f t="shared" si="9"/>
+      <c r="O16" s="19">
+        <f t="shared" si="14"/>
         <v>5863</v>
       </c>
-      <c r="P16" s="21">
-        <f t="shared" si="9"/>
+      <c r="P16" s="19">
+        <f t="shared" si="14"/>
         <v>5781</v>
       </c>
-      <c r="Q16" s="21">
-        <f t="shared" ref="Q16" si="10">Q11-Q15</f>
+      <c r="Q16" s="19">
+        <f t="shared" ref="Q16:R16" si="15">Q11-Q15</f>
         <v>7820</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="R16" s="20">
+        <f t="shared" si="15"/>
+        <v>3317</v>
+      </c>
+      <c r="S16" s="19">
+        <f t="shared" ref="S16:T16" si="16">S11-S15</f>
+        <v>4626</v>
+      </c>
+      <c r="T16" s="19">
+        <f t="shared" si="16"/>
+        <v>7185</v>
+      </c>
+      <c r="U16" s="19">
+        <f t="shared" ref="U16:V16" si="17">U11-U15</f>
+        <v>8858</v>
+      </c>
+      <c r="V16" s="20">
+        <f t="shared" si="17"/>
+        <v>5893</v>
+      </c>
+      <c r="W16" s="19">
+        <f t="shared" ref="W16:X16" si="18">W11-W15</f>
+        <v>5963</v>
+      </c>
+      <c r="X16" s="19">
+        <f t="shared" si="18"/>
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="78" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="8">
@@ -4672,78 +5746,127 @@
       <c r="Q17" s="9">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="R17" s="88">
+        <v>165</v>
+      </c>
+      <c r="S17" s="40">
+        <v>206</v>
+      </c>
+      <c r="T17" s="40">
+        <v>144</v>
+      </c>
+      <c r="U17" s="40">
+        <v>311</v>
+      </c>
+      <c r="V17" s="88">
+        <v>-32</v>
+      </c>
+      <c r="W17" s="40">
+        <v>168</v>
+      </c>
+      <c r="X17" s="40">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="19">
         <f>B16+B17</f>
         <v>932</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <f>C16+C17</f>
         <v>1273</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <f>D16+D17</f>
         <v>1432</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <f>E16+E17</f>
         <v>2557</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <f>F16+F17</f>
         <v>2065</v>
       </c>
-      <c r="G18" s="23">
-        <f t="shared" ref="G18:I18" si="11">G16+G17</f>
+      <c r="G18" s="21">
+        <f t="shared" ref="G18:I18" si="19">G16+G17</f>
         <v>2766</v>
       </c>
-      <c r="H18" s="23">
-        <f t="shared" si="11"/>
+      <c r="H18" s="21">
+        <f t="shared" si="19"/>
         <v>3169</v>
       </c>
-      <c r="I18" s="23">
-        <f t="shared" si="11"/>
+      <c r="I18" s="21">
+        <f t="shared" si="19"/>
         <v>4533</v>
       </c>
-      <c r="J18" s="22">
-        <f t="shared" ref="J18:K18" si="12">J16+J17</f>
+      <c r="J18" s="20">
+        <f t="shared" ref="J18:K18" si="20">J16+J17</f>
         <v>3408</v>
       </c>
-      <c r="K18" s="21">
-        <f t="shared" si="12"/>
+      <c r="K18" s="19">
+        <f t="shared" si="20"/>
         <v>4488</v>
       </c>
-      <c r="L18" s="21">
-        <f t="shared" ref="L18:O18" si="13">L16+L17</f>
+      <c r="L18" s="19">
+        <f t="shared" ref="L18:O18" si="21">L16+L17</f>
         <v>5236</v>
       </c>
-      <c r="M18" s="21">
-        <f t="shared" si="13"/>
+      <c r="M18" s="19">
+        <f t="shared" si="21"/>
         <v>7462</v>
       </c>
-      <c r="N18" s="22">
-        <f t="shared" si="13"/>
+      <c r="N18" s="20">
+        <f t="shared" si="21"/>
         <v>5610</v>
       </c>
-      <c r="O18" s="21">
-        <f t="shared" si="13"/>
+      <c r="O18" s="19">
+        <f t="shared" si="21"/>
         <v>5868</v>
       </c>
-      <c r="P18" s="21">
-        <f t="shared" ref="P18:Q18" si="14">P16+P17</f>
+      <c r="P18" s="19">
+        <f t="shared" ref="P18:T18" si="22">P16+P17</f>
         <v>5912</v>
       </c>
-      <c r="Q18" s="21">
-        <f t="shared" si="14"/>
+      <c r="Q18" s="19">
+        <f t="shared" si="22"/>
         <v>7971</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="R18" s="20">
+        <f t="shared" si="22"/>
+        <v>3482</v>
+      </c>
+      <c r="S18" s="19">
+        <f t="shared" si="22"/>
+        <v>4832</v>
+      </c>
+      <c r="T18" s="19">
+        <f t="shared" si="22"/>
+        <v>7329</v>
+      </c>
+      <c r="U18" s="19">
+        <f t="shared" ref="U18:X18" si="23">U16+U17</f>
+        <v>9169</v>
+      </c>
+      <c r="V18" s="20">
+        <f t="shared" si="23"/>
+        <v>5861</v>
+      </c>
+      <c r="W18" s="19">
+        <f t="shared" si="23"/>
+        <v>6131</v>
+      </c>
+      <c r="X18" s="19">
+        <f t="shared" si="23"/>
+        <v>8133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="78" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="8">
@@ -4794,9 +5917,30 @@
       <c r="Q19" s="9">
         <v>1089</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+      <c r="R19" s="88">
+        <v>1053</v>
+      </c>
+      <c r="S19" s="40">
+        <v>2216</v>
+      </c>
+      <c r="T19" s="40">
+        <v>1238</v>
+      </c>
+      <c r="U19" s="40">
+        <v>1820</v>
+      </c>
+      <c r="V19" s="88">
+        <v>959</v>
+      </c>
+      <c r="W19" s="40">
+        <v>953</v>
+      </c>
+      <c r="X19" s="40">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="84" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="16">
@@ -4820,122 +5964,177 @@
         <v>1510</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" ref="G20:H20" si="15">G18-G19</f>
+        <f t="shared" ref="G20:H20" si="24">G18-G19</f>
         <v>2055</v>
       </c>
       <c r="H20" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>2379</v>
       </c>
       <c r="I20" s="18">
-        <f t="shared" ref="I20:P20" si="16">I18-I19</f>
+        <f t="shared" ref="I20:P20" si="25">I18-I19</f>
         <v>3568</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>3064</v>
       </c>
       <c r="K20" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>3894</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>4707</v>
       </c>
       <c r="M20" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>4268</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>4988</v>
       </c>
       <c r="O20" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>5106</v>
       </c>
       <c r="P20" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>5137</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" ref="Q20" si="17">Q18-Q19</f>
+        <f t="shared" ref="Q20:R20" si="26">Q18-Q19</f>
         <v>6882</v>
       </c>
-      <c r="R20" s="20"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="R20" s="17">
+        <f t="shared" si="26"/>
+        <v>2429</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" ref="S20:T20" si="27">S18-S19</f>
+        <v>2616</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="27"/>
+        <v>6091</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" ref="U20:V20" si="28">U18-U19</f>
+        <v>7349</v>
+      </c>
+      <c r="V20" s="17">
+        <f t="shared" si="28"/>
+        <v>4902</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" ref="W20:X20" si="29">W18-W19</f>
+        <v>5178</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="29"/>
+        <v>7846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="24">
-        <f t="shared" ref="B21:H21" si="18">IFERROR(B20/B22,0)</f>
+      <c r="B21" s="22">
+        <f t="shared" ref="B21:H21" si="30">IFERROR(B20/B22,0)</f>
         <v>0.18053596614950634</v>
       </c>
-      <c r="C21" s="24">
-        <f t="shared" si="18"/>
+      <c r="C21" s="22">
+        <f t="shared" si="30"/>
         <v>0.25228070175438594</v>
       </c>
-      <c r="D21" s="24">
-        <f t="shared" si="18"/>
+      <c r="D21" s="22">
+        <f t="shared" si="30"/>
         <v>0.31295843520782396</v>
       </c>
-      <c r="E21" s="24">
-        <f t="shared" si="18"/>
+      <c r="E21" s="22">
+        <f t="shared" si="30"/>
         <v>0.54273801250868658</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.52285318559556782</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.7076446280991735</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.81612349914236704</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21:L21" si="19">IFERROR(I20/I22,0)</f>
+        <f t="shared" ref="I21:L21" si="31">IFERROR(I20/I22,0)</f>
         <v>1.2144315861130019</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.0407608695652173</v>
       </c>
-      <c r="K21" s="24">
-        <f t="shared" si="19"/>
+      <c r="K21" s="22">
+        <f t="shared" si="31"/>
         <v>1.3195526940020332</v>
       </c>
-      <c r="L21" s="24">
-        <f t="shared" si="19"/>
+      <c r="L21" s="22">
+        <f t="shared" si="31"/>
         <v>1.5923545331529094</v>
       </c>
-      <c r="M21" s="24">
-        <f t="shared" ref="M21:P21" si="20">IFERROR(M20/M22,0)</f>
+      <c r="M21" s="22">
+        <f t="shared" ref="M21:P21" si="32">IFERROR(M20/M22,0)</f>
         <v>1.4691910499139416</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.6937181663837011</v>
       </c>
-      <c r="O21" s="24">
-        <f t="shared" si="20"/>
+      <c r="O21" s="22">
+        <f t="shared" si="32"/>
         <v>1.7426621160409557</v>
       </c>
-      <c r="P21" s="24">
-        <f t="shared" si="20"/>
+      <c r="P21" s="22">
+        <f t="shared" si="32"/>
         <v>1.7634740817027119</v>
       </c>
-      <c r="Q21" s="24">
-        <f t="shared" ref="Q21" si="21">IFERROR(Q20/Q22,0)</f>
+      <c r="Q21" s="22">
+        <f t="shared" ref="Q21:R21" si="33">IFERROR(Q20/Q22,0)</f>
         <v>2.3846153846153846</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="R21" s="12">
+        <f t="shared" si="33"/>
+        <v>0.84663645869640991</v>
+      </c>
+      <c r="S21" s="22">
+        <f t="shared" ref="S21:T21" si="34">IFERROR(S20/S22,0)</f>
+        <v>0.90991304347826085</v>
+      </c>
+      <c r="T21" s="22">
+        <f t="shared" si="34"/>
+        <v>2.1193458594293668</v>
+      </c>
+      <c r="U21" s="22">
+        <f t="shared" ref="U21:V21" si="35">IFERROR(U20/U22,0)</f>
+        <v>2.559735283873215</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" si="35"/>
+        <v>1.7092050209205021</v>
+      </c>
+      <c r="W21" s="22">
+        <f t="shared" ref="W21:X21" si="36">IFERROR(W20/W22,0)</f>
+        <v>1.7985411601250434</v>
+      </c>
+      <c r="X21" s="22">
+        <f t="shared" si="36"/>
+        <v>2.7139398132134209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="78" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="8">
@@ -4987,8 +6186,29 @@
       <c r="Q22" s="9">
         <v>2886</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R22" s="88">
+        <v>2869</v>
+      </c>
+      <c r="S22" s="40">
+        <v>2875</v>
+      </c>
+      <c r="T22" s="40">
+        <v>2874</v>
+      </c>
+      <c r="U22" s="40">
+        <v>2871</v>
+      </c>
+      <c r="V22" s="88">
+        <v>2868</v>
+      </c>
+      <c r="W22" s="40">
+        <v>2879</v>
+      </c>
+      <c r="X22" s="40">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -5000,464 +6220,663 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24">
         <f>F9/B9-1</f>
         <v>0.51905165114309915</v>
       </c>
-      <c r="G24" s="25">
-        <f t="shared" ref="G24:O24" si="22">G9/C9-1</f>
+      <c r="G24" s="23">
+        <f t="shared" ref="G24:O24" si="37">G9/C9-1</f>
         <v>0.5922810489856507</v>
       </c>
-      <c r="H24" s="25">
-        <f t="shared" si="22"/>
+      <c r="H24" s="23">
+        <f t="shared" si="37"/>
         <v>0.55765385469895579</v>
       </c>
-      <c r="I24" s="25">
-        <f t="shared" si="22"/>
+      <c r="I24" s="23">
+        <f t="shared" si="37"/>
         <v>0.5081321691491183</v>
       </c>
-      <c r="J24" s="26">
-        <f t="shared" si="22"/>
+      <c r="J24" s="24">
+        <f t="shared" si="37"/>
         <v>0.49238201412114457</v>
       </c>
-      <c r="K24" s="25">
-        <f t="shared" si="22"/>
+      <c r="K24" s="23">
+        <f t="shared" si="37"/>
         <v>0.44825978868862637</v>
       </c>
-      <c r="L24" s="25">
-        <f t="shared" si="22"/>
+      <c r="L24" s="23">
+        <f t="shared" si="37"/>
         <v>0.47311367850520614</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="23">
         <f>M9/I9-1</f>
         <v>0.47258485639686687</v>
       </c>
-      <c r="N24" s="26">
-        <f t="shared" si="22"/>
+      <c r="N24" s="24">
+        <f t="shared" si="37"/>
         <v>0.48979083665338652</v>
       </c>
-      <c r="O24" s="25">
-        <f t="shared" si="22"/>
+      <c r="O24" s="23">
+        <f t="shared" si="37"/>
         <v>0.41948288810213485</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24" s="23">
         <f>P9/L9-1</f>
         <v>0.32910534469403574</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="Q24" s="23">
         <f>Q9/M9-1</f>
         <v>0.30388529139685483</v>
       </c>
-      <c r="R24" s="20"/>
-    </row>
-    <row r="25" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27">
+      <c r="R24" s="24">
+        <f>R9/N9-1</f>
+        <v>0.25998662878154777</v>
+      </c>
+      <c r="S24" s="23">
+        <f>S9/O9-1</f>
+        <v>0.2762451817700855</v>
+      </c>
+      <c r="T24" s="23">
+        <f>T9/P9-1</f>
+        <v>0.2859328331026445</v>
+      </c>
+      <c r="U24" s="23">
+        <f>U9/Q9-1</f>
+        <v>0.2464230814709707</v>
+      </c>
+      <c r="V24" s="24">
+        <f>V9/R9-1</f>
+        <v>0.17642767128739134</v>
+      </c>
+      <c r="W24" s="23">
+        <f>W9/S9-1</f>
+        <v>0.10665640175293145</v>
+      </c>
+      <c r="X24" s="23">
+        <f>X9/T9-1</f>
+        <v>0.21629277135735325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="25">
         <f>F12/B12-1</f>
         <v>0.26459510357815441</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="26">
         <f>G12/C12-1</f>
         <v>0.25042735042735043</v>
       </c>
-      <c r="H25" s="28">
-        <f t="shared" ref="H25" si="23">H12/D12-1</f>
+      <c r="H25" s="26">
+        <f t="shared" ref="H25" si="38">H12/D12-1</f>
         <v>0.21085759244689228</v>
       </c>
-      <c r="I25" s="28">
-        <f t="shared" ref="I25:I27" si="24">I12/E12-1</f>
+      <c r="I25" s="26">
+        <f t="shared" ref="I25:I27" si="39">I12/E12-1</f>
         <v>0.18949771689497719</v>
       </c>
-      <c r="J25" s="27">
-        <f t="shared" ref="J25:J27" si="25">J12/F12-1</f>
+      <c r="J25" s="25">
+        <f t="shared" ref="J25:J27" si="40">J12/F12-1</f>
         <v>0.36559940431868942</v>
       </c>
-      <c r="K25" s="28">
-        <f t="shared" ref="K25:K27" si="26">K12/G12-1</f>
+      <c r="K25" s="26">
+        <f t="shared" ref="K25:K27" si="41">K12/G12-1</f>
         <v>0.31168831168831179</v>
       </c>
-      <c r="L25" s="28">
-        <f t="shared" ref="L25:L27" si="27">L12/H12-1</f>
+      <c r="L25" s="26">
+        <f t="shared" ref="L25:L27" si="42">L12/H12-1</f>
         <v>0.33333333333333326</v>
       </c>
-      <c r="M25" s="28">
-        <f t="shared" ref="M25:M27" si="28">M12/I12-1</f>
+      <c r="M25" s="26">
+        <f t="shared" ref="M25:M27" si="43">M12/I12-1</f>
         <v>0.24696097248880355</v>
       </c>
-      <c r="N25" s="27">
-        <f t="shared" ref="N25:N27" si="29">N12/J12-1</f>
+      <c r="N25" s="25">
+        <f t="shared" ref="N25:N27" si="44">N12/J12-1</f>
         <v>0.22028353326063255</v>
       </c>
-      <c r="O25" s="28">
-        <f t="shared" ref="O25:O27" si="30">O12/K12-1</f>
+      <c r="O25" s="26">
+        <f t="shared" ref="O25:O27" si="45">O12/K12-1</f>
         <v>0.31474726420010413</v>
       </c>
-      <c r="P25" s="28">
-        <f t="shared" ref="P25:P27" si="31">P12/L12-1</f>
+      <c r="P25" s="26">
+        <f t="shared" ref="P25:P27" si="46">P12/L12-1</f>
         <v>0.29483430799220267</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="26">
         <f>Q12/M12-1</f>
         <v>0.46485377116469984</v>
       </c>
-      <c r="R25" s="20"/>
-    </row>
-    <row r="26" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="27">
+      <c r="R25" s="25">
+        <f>R12/N12-1</f>
+        <v>0.27792672028596965</v>
+      </c>
+      <c r="S25" s="26">
+        <f>S12/O12-1</f>
+        <v>0.31391200951248521</v>
+      </c>
+      <c r="T25" s="26">
+        <f>T12/P12-1</f>
+        <v>0.33534060971019941</v>
+      </c>
+      <c r="U25" s="26">
+        <f>U12/Q12-1</f>
+        <v>0.35796847635726792</v>
+      </c>
+      <c r="V25" s="25">
+        <f>V12/R12-1</f>
+        <v>0.40384615384615374</v>
+      </c>
+      <c r="W25" s="26">
+        <f>W12/S12-1</f>
+        <v>0.34600301659125199</v>
+      </c>
+      <c r="X25" s="26">
+        <f>X12/T12-1</f>
+        <v>0.34244644870349483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="25">
         <f>F13/B13-1</f>
         <v>0.33225806451612905</v>
       </c>
-      <c r="G26" s="28">
-        <f t="shared" ref="G26:H26" si="32">G13/C13-1</f>
+      <c r="G26" s="26">
+        <f t="shared" ref="G26:H26" si="47">G13/C13-1</f>
         <v>0.4361022364217253</v>
       </c>
-      <c r="H26" s="28">
-        <f t="shared" si="32"/>
+      <c r="H26" s="26">
+        <f t="shared" si="47"/>
         <v>0.31019830028328621</v>
       </c>
-      <c r="I26" s="28">
-        <f t="shared" si="24"/>
+      <c r="I26" s="26">
+        <f t="shared" si="39"/>
         <v>0.44818652849740936</v>
       </c>
-      <c r="J26" s="27">
-        <f t="shared" si="25"/>
+      <c r="J26" s="25">
+        <f t="shared" si="40"/>
         <v>0.27966101694915246</v>
       </c>
-      <c r="K26" s="28">
-        <f t="shared" si="26"/>
+      <c r="K26" s="26">
+        <f t="shared" si="41"/>
         <v>0.25027808676307006</v>
       </c>
-      <c r="L26" s="28">
-        <f t="shared" si="27"/>
+      <c r="L26" s="26">
+        <f t="shared" si="42"/>
         <v>0.26486486486486482</v>
       </c>
-      <c r="M26" s="28">
-        <f t="shared" si="28"/>
+      <c r="M26" s="26">
+        <f t="shared" si="43"/>
         <v>0.22898032200357776</v>
       </c>
-      <c r="N26" s="27">
-        <f t="shared" si="29"/>
+      <c r="N26" s="25">
+        <f t="shared" si="44"/>
         <v>0.50898770104068114</v>
       </c>
-      <c r="O26" s="28">
-        <f t="shared" si="30"/>
+      <c r="O26" s="26">
+        <f t="shared" si="45"/>
         <v>0.6503558718861211</v>
       </c>
-      <c r="P26" s="28">
-        <f t="shared" si="31"/>
+      <c r="P26" s="26">
+        <f t="shared" si="46"/>
         <v>0.64786324786324778</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="26">
         <f>Q13/M13-1</f>
         <v>0.79548762736535661</v>
       </c>
-      <c r="R26" s="20"/>
-    </row>
-    <row r="27" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="27">
+      <c r="R26" s="25">
+        <f>R13/N13-1</f>
+        <v>0.26645768025078365</v>
+      </c>
+      <c r="S26" s="26">
+        <f>S13/O13-1</f>
+        <v>0.30134770889487861</v>
+      </c>
+      <c r="T26" s="26">
+        <f>T13/P13-1</f>
+        <v>0.25311203319502074</v>
+      </c>
+      <c r="U26" s="26">
+        <f>U13/Q13-1</f>
+        <v>0.22659100121605191</v>
+      </c>
+      <c r="V26" s="25">
+        <f>V13/R13-1</f>
+        <v>0.3797029702970296</v>
+      </c>
+      <c r="W26" s="26">
+        <f>W13/S13-1</f>
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="X26" s="26">
+        <f>X13/T13-1</f>
+        <v>0.11051324503311255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="25">
         <f>F14/B14-1</f>
         <v>0.33576642335766427</v>
       </c>
-      <c r="G27" s="28">
-        <f t="shared" ref="G27:H27" si="33">G14/C14-1</f>
+      <c r="G27" s="26">
+        <f t="shared" ref="G27:H27" si="48">G14/C14-1</f>
         <v>0.35081967213114762</v>
       </c>
-      <c r="H27" s="28">
-        <f t="shared" si="33"/>
+      <c r="H27" s="26">
+        <f t="shared" si="48"/>
         <v>0.26956521739130435</v>
       </c>
-      <c r="I27" s="28">
-        <f t="shared" si="24"/>
+      <c r="I27" s="26">
+        <f t="shared" si="39"/>
         <v>0.38814016172506749</v>
       </c>
-      <c r="J27" s="27">
-        <f t="shared" si="25"/>
+      <c r="J27" s="25">
+        <f t="shared" si="40"/>
         <v>0.78961748633879791</v>
       </c>
-      <c r="K27" s="28">
-        <f t="shared" si="26"/>
+      <c r="K27" s="26">
+        <f t="shared" si="41"/>
         <v>0.55339805825242716</v>
       </c>
-      <c r="L27" s="28">
-        <f t="shared" si="27"/>
+      <c r="L27" s="26">
+        <f t="shared" si="42"/>
         <v>0.22374429223744285</v>
       </c>
-      <c r="M27" s="28">
-        <f t="shared" si="28"/>
+      <c r="M27" s="26">
+        <f t="shared" si="43"/>
         <v>0.33203883495145625</v>
       </c>
-      <c r="N27" s="27">
-        <f t="shared" si="29"/>
+      <c r="N27" s="25">
+        <f t="shared" si="44"/>
         <v>0.1557251908396946</v>
       </c>
-      <c r="O27" s="28">
-        <f t="shared" si="30"/>
+      <c r="O27" s="26">
+        <f t="shared" si="45"/>
         <v>0.21249999999999991</v>
       </c>
-      <c r="P27" s="28">
-        <f t="shared" si="31"/>
+      <c r="P27" s="26">
+        <f t="shared" si="46"/>
         <v>0.75932835820895517</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="26">
         <f>Q14/M14-1</f>
         <v>0.42274052478134116</v>
       </c>
-      <c r="R27" s="20"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R27" s="25">
+        <f>R14/N14-1</f>
+        <v>4.3685601056803174</v>
+      </c>
+      <c r="S27" s="26">
+        <f>S14/O14-1</f>
+        <v>3.1546391752577323</v>
+      </c>
+      <c r="T27" s="26">
+        <f>T14/P14-1</f>
+        <v>0.42948038176033942</v>
+      </c>
+      <c r="U27" s="26">
+        <f>U14/Q14-1</f>
+        <v>0.87397540983606548</v>
+      </c>
+      <c r="V27" s="25">
+        <f>V14/R14-1</f>
+        <v>-0.6104822834645669</v>
+      </c>
+      <c r="W27" s="26">
+        <f>W14/S14-1</f>
+        <v>-0.50589330024813894</v>
+      </c>
+      <c r="X27" s="26">
+        <f>X14/T14-1</f>
+        <v>0.32789317507418403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="30"/>
+      <c r="N28" s="28"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="R28" s="28"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="30">
         <f>IFERROR(B11/B9,0)</f>
         <v>0.81541066892464009</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="30">
         <f>IFERROR(C11/C9,0)</f>
         <v>0.83473527956457194</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="30">
         <f>IFERROR(D11/D9,0)</f>
         <v>0.84003554765607646</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="30">
         <f>IFERROR(E11/E9,0)</f>
         <v>0.85892826570792669</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="31">
         <f>IFERROR(F11/F9,0)</f>
         <v>0.84429580081753997</v>
       </c>
-      <c r="G29" s="34">
-        <f t="shared" ref="G29:K29" si="34">IFERROR(G11/G9,0)</f>
+      <c r="G29" s="32">
+        <f t="shared" ref="G29:K29" si="49">IFERROR(G11/G9,0)</f>
         <v>0.8576755748912368</v>
       </c>
-      <c r="H29" s="34">
-        <f t="shared" si="34"/>
+      <c r="H29" s="32">
+        <f t="shared" si="49"/>
         <v>0.85922122379118526</v>
       </c>
-      <c r="I29" s="34">
-        <f t="shared" si="34"/>
+      <c r="I29" s="32">
+        <f t="shared" si="49"/>
         <v>0.88114428425473945</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="31">
         <f>IFERROR(J11/J9,0)</f>
         <v>0.85570219123505975</v>
       </c>
-      <c r="K29" s="32">
-        <f t="shared" si="34"/>
+      <c r="K29" s="30">
+        <f t="shared" si="49"/>
         <v>0.86728891749812254</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="30">
         <f>IFERROR(L11/L9,0)</f>
         <v>0.85979860573199074</v>
       </c>
-      <c r="M29" s="32">
-        <f t="shared" ref="M29" si="35">IFERROR(M11/M9,0)</f>
+      <c r="M29" s="30">
+        <f t="shared" ref="M29" si="50">IFERROR(M11/M9,0)</f>
         <v>0.87580943570767811</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="31">
         <f>IFERROR(N11/N9,0)</f>
         <v>0.8389603877653351</v>
       </c>
-      <c r="O29" s="32">
-        <f t="shared" ref="O29" si="36">IFERROR(O11/O9,0)</f>
+      <c r="O29" s="30">
+        <f t="shared" ref="O29" si="51">IFERROR(O11/O9,0)</f>
         <v>0.83266570931902351</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="30">
         <f>IFERROR(P11/P9,0)</f>
         <v>0.82385080498288044</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29" s="30">
         <f>IFERROR(Q11/Q9,0)</f>
         <v>0.83469315360056762</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+      <c r="R29" s="31">
+        <f>IFERROR(R11/R9,0)</f>
+        <v>0.81322544272733299</v>
+      </c>
+      <c r="S29" s="30">
+        <f>IFERROR(S11/S9,0)</f>
+        <v>0.80415729006277392</v>
+      </c>
+      <c r="T29" s="30">
+        <f>IFERROR(T11/T9,0)</f>
+        <v>0.82126671198731027</v>
+      </c>
+      <c r="U29" s="30">
+        <f>IFERROR(U11/U9,0)</f>
+        <v>0.83436106631249407</v>
+      </c>
+      <c r="V29" s="31">
+        <f>IFERROR(V11/V9,0)</f>
+        <v>0.80498393189378137</v>
+      </c>
+      <c r="W29" s="30">
+        <f>IFERROR(W11/W9,0)</f>
+        <v>0.7950981966072671</v>
+      </c>
+      <c r="X29" s="30">
+        <f>IFERROR(X11/X9,0)</f>
+        <v>0.80465766185374943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="33">
         <f>IFERROR(B16/B9,0)</f>
         <v>0.26333615580016934</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <f>IFERROR(C16/C9,0)</f>
         <v>0.31494309747649679</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <f>IFERROR(D16/D9,0)</f>
         <v>0.32415018884692293</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="33">
         <f>IFERROR(E16/E9,0)</f>
         <v>0.43828111624721794</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="34">
         <f>IFERROR(F16/F9,0)</f>
         <v>0.37328130806391674</v>
       </c>
-      <c r="G30" s="37">
-        <f t="shared" ref="G30:L30" si="37">IFERROR(G16/G9,0)</f>
+      <c r="G30" s="35">
+        <f t="shared" ref="G30:L30" si="52">IFERROR(G16/G9,0)</f>
         <v>0.42666252330640148</v>
       </c>
-      <c r="H30" s="37">
-        <f t="shared" si="37"/>
+      <c r="H30" s="35">
+        <f t="shared" si="52"/>
         <v>0.445300242476109</v>
       </c>
-      <c r="I30" s="37">
-        <f t="shared" si="37"/>
+      <c r="I30" s="35">
+        <f t="shared" si="52"/>
         <v>0.5183335225337723</v>
       </c>
-      <c r="J30" s="36">
-        <f t="shared" si="37"/>
+      <c r="J30" s="34">
+        <f t="shared" si="52"/>
         <v>0.41421812749003983</v>
       </c>
-      <c r="K30" s="35">
-        <f t="shared" si="37"/>
+      <c r="K30" s="33">
+        <f t="shared" si="52"/>
         <v>0.47215963952365625</v>
       </c>
-      <c r="L30" s="35">
-        <f t="shared" si="37"/>
+      <c r="L30" s="33">
+        <f t="shared" si="52"/>
         <v>0.49593338497288925</v>
       </c>
-      <c r="M30" s="35">
-        <f t="shared" ref="M30:P30" si="38">IFERROR(M16/M9,0)</f>
+      <c r="M30" s="33">
+        <f t="shared" ref="M30:P30" si="53">IFERROR(M16/M9,0)</f>
         <v>0.56675917360468697</v>
       </c>
-      <c r="N30" s="36">
-        <f t="shared" si="38"/>
+      <c r="N30" s="34">
+        <f t="shared" si="53"/>
         <v>0.45537355841551064</v>
       </c>
-      <c r="O30" s="35">
-        <f t="shared" si="38"/>
+      <c r="O30" s="33">
+        <f t="shared" si="53"/>
         <v>0.44312599198851182</v>
       </c>
-      <c r="P30" s="35">
-        <f t="shared" si="38"/>
+      <c r="P30" s="33">
+        <f t="shared" si="53"/>
         <v>0.42114081736723247</v>
       </c>
-      <c r="Q30" s="35">
+      <c r="Q30" s="33">
         <f>IFERROR(Q16/Q9,0)</f>
         <v>0.46233889085964291</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="R30" s="34">
+        <f>IFERROR(R16/R9,0)</f>
+        <v>0.22000397957153281</v>
+      </c>
+      <c r="S30" s="33">
+        <f>IFERROR(S16/S9,0)</f>
+        <v>0.27395475541869002</v>
+      </c>
+      <c r="T30" s="33">
+        <f>IFERROR(T16/T9,0)</f>
+        <v>0.40703602991162474</v>
+      </c>
+      <c r="U30" s="33">
+        <f>IFERROR(U16/U9,0)</f>
+        <v>0.42016886443411439</v>
+      </c>
+      <c r="V30" s="34">
+        <f>IFERROR(V16/V9,0)</f>
+        <v>0.33224333314540228</v>
+      </c>
+      <c r="W30" s="33">
+        <f>IFERROR(W16/W9,0)</f>
+        <v>0.31909883876491679</v>
+      </c>
+      <c r="X30" s="33">
+        <f>IFERROR(X16/X9,0)</f>
+        <v>0.37447601304145317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <f>IFERROR(B19/B18,0)</f>
         <v>0.45064377682403434</v>
       </c>
-      <c r="C31" s="35">
-        <f t="shared" ref="C31" si="39">IFERROR(C19/C18,0)</f>
+      <c r="C31" s="33">
+        <f t="shared" ref="C31" si="54">IFERROR(C19/C18,0)</f>
         <v>0.43519245875883739</v>
       </c>
-      <c r="D31" s="35">
-        <f t="shared" ref="D31:E31" si="40">IFERROR(D19/D18,0)</f>
+      <c r="D31" s="33">
+        <f t="shared" ref="D31:E31" si="55">IFERROR(D19/D18,0)</f>
         <v>0.37430167597765363</v>
       </c>
-      <c r="E31" s="35">
-        <f t="shared" si="40"/>
+      <c r="E31" s="33">
+        <f t="shared" si="55"/>
         <v>0.38912788423934297</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="34">
         <f>IFERROR(F19/F18,0)</f>
         <v>0.26876513317191281</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="35">
         <f>IFERROR(G19/G18,0)</f>
         <v>0.25704989154013014</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="35">
         <f>IFERROR(H19/H18,0)</f>
         <v>0.24928999684443043</v>
       </c>
-      <c r="I31" s="37">
-        <f t="shared" ref="I31:K31" si="41">IFERROR(I19/I18,0)</f>
+      <c r="I31" s="35">
+        <f t="shared" ref="I31:K31" si="56">IFERROR(I19/I18,0)</f>
         <v>0.21288330024266491</v>
       </c>
-      <c r="J31" s="36">
-        <f t="shared" si="41"/>
+      <c r="J31" s="34">
+        <f t="shared" si="56"/>
         <v>0.10093896713615023</v>
       </c>
-      <c r="K31" s="35">
-        <f t="shared" si="41"/>
+      <c r="K31" s="33">
+        <f t="shared" si="56"/>
         <v>0.13235294117647059</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="33">
         <f>IFERROR(L19/L18,0)</f>
         <v>0.10103132161955691</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="33">
         <f>IFERROR(M19/M18,0)</f>
         <v>0.42803537925489143</v>
       </c>
-      <c r="N31" s="36">
-        <f t="shared" ref="N31:O31" si="42">IFERROR(N19/N18,0)</f>
+      <c r="N31" s="34">
+        <f t="shared" ref="N31:O31" si="57">IFERROR(N19/N18,0)</f>
         <v>0.11087344028520499</v>
       </c>
-      <c r="O31" s="35">
-        <f t="shared" si="42"/>
+      <c r="O31" s="33">
+        <f t="shared" si="57"/>
         <v>0.12985685071574643</v>
       </c>
-      <c r="P31" s="35">
+      <c r="P31" s="33">
         <f>IFERROR(P19/P18,0)</f>
         <v>0.13108930987821379</v>
       </c>
-      <c r="Q31" s="35">
+      <c r="Q31" s="33">
         <f>IFERROR(Q19/Q18,0)</f>
         <v>0.13662024840045164</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R31" s="34">
+        <f>IFERROR(R19/R18,0)</f>
+        <v>0.30241240666283747</v>
+      </c>
+      <c r="S31" s="33">
+        <f>IFERROR(S19/S18,0)</f>
+        <v>0.45860927152317882</v>
+      </c>
+      <c r="T31" s="33">
+        <f>IFERROR(T19/T18,0)</f>
+        <v>0.16891799699822621</v>
+      </c>
+      <c r="U31" s="33">
+        <f>IFERROR(U19/U18,0)</f>
+        <v>0.19849492856363835</v>
+      </c>
+      <c r="V31" s="34">
+        <f>IFERROR(V19/V18,0)</f>
+        <v>0.16362395495649207</v>
+      </c>
+      <c r="W31" s="33">
+        <f>IFERROR(W19/W18,0)</f>
+        <v>0.15543956940140272</v>
+      </c>
+      <c r="X31" s="33">
+        <f>IFERROR(X19/X18,0)</f>
+        <v>3.5288331488995447E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -5469,8 +6888,8 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:24" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="84" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="16">
@@ -5494,23 +6913,23 @@
         <v>20621</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" ref="G33:K33" si="43">G34-G35</f>
+        <f t="shared" ref="G33:K33" si="58">G34-G35</f>
         <v>23293</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>26140</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>29449</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>32306</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>35452</v>
       </c>
       <c r="L33" s="16">
@@ -5522,7 +6941,7 @@
         <v>41711</v>
       </c>
       <c r="N33" s="17">
-        <f t="shared" ref="N33" si="44">N34-N35</f>
+        <f t="shared" ref="N33" si="59">N34-N35</f>
         <v>43956</v>
       </c>
       <c r="O33" s="16">
@@ -5537,10 +6956,37 @@
         <f>Q34-Q35</f>
         <v>41114</v>
       </c>
-      <c r="R33" s="20"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+      <c r="R33" s="17">
+        <f>R34-R35</f>
+        <v>45243</v>
+      </c>
+      <c r="S33" s="16">
+        <f>S34-S35</f>
+        <v>48596</v>
+      </c>
+      <c r="T33" s="16">
+        <f>T34-T35</f>
+        <v>52269</v>
+      </c>
+      <c r="U33" s="16">
+        <f>U34-U35</f>
+        <v>54855</v>
+      </c>
+      <c r="V33" s="17">
+        <f>V34-V35</f>
+        <v>60289</v>
+      </c>
+      <c r="W33" s="16">
+        <f>W34-W35</f>
+        <v>58240</v>
+      </c>
+      <c r="X33" s="16">
+        <f>X34-X35</f>
+        <v>55620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="8">
@@ -5607,9 +7053,37 @@
         <f>10019+31095</f>
         <v>41114</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="R34" s="88">
+        <f>11076+34167</f>
+        <v>45243</v>
+      </c>
+      <c r="S34" s="40">
+        <f>13877+34719</f>
+        <v>48596</v>
+      </c>
+      <c r="T34" s="40">
+        <f>15979+36290</f>
+        <v>52269</v>
+      </c>
+      <c r="U34" s="40">
+        <f>19079+35776</f>
+        <v>54855</v>
+      </c>
+      <c r="V34" s="88">
+        <f>23618+36671</f>
+        <v>60289</v>
+      </c>
+      <c r="W34" s="40">
+        <f>21045+37195</f>
+        <v>58240</v>
+      </c>
+      <c r="X34" s="40">
+        <f>11617+44003</f>
+        <v>55620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="78" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="8">
@@ -5660,8 +7134,30 @@
       <c r="Q35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R35" s="88">
+        <v>0</v>
+      </c>
+      <c r="S35" s="40">
+        <v>0</v>
+      </c>
+      <c r="T35" s="40">
+        <v>0</v>
+      </c>
+      <c r="U35" s="40">
+        <v>0</v>
+      </c>
+      <c r="V35" s="88">
+        <v>0</v>
+      </c>
+      <c r="W35" s="40">
+        <v>0</v>
+      </c>
+      <c r="X35" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="78"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -5678,10 +7174,12 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>86</v>
+      <c r="R36" s="88"/>
+      <c r="V36" s="88"/>
+    </row>
+    <row r="37" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="78" t="s">
+        <v>83</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5714,10 +7212,38 @@
         <f>1294+18301</f>
         <v>19595</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
-        <v>87</v>
+      <c r="R37" s="88">
+        <f>1150+18333</f>
+        <v>19483</v>
+      </c>
+      <c r="S37" s="40">
+        <f>994+18334</f>
+        <v>19328</v>
+      </c>
+      <c r="T37" s="40">
+        <f>853+18338</f>
+        <v>19191</v>
+      </c>
+      <c r="U37" s="40">
+        <f>894+18715</f>
+        <v>19609</v>
+      </c>
+      <c r="V37" s="88">
+        <f>838+18811</f>
+        <v>19649</v>
+      </c>
+      <c r="W37" s="40">
+        <f>859+19029</f>
+        <v>19888</v>
+      </c>
+      <c r="X37" s="40">
+        <f>744+19031</f>
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="78" t="s">
+        <v>84</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5745,10 +7271,31 @@
       <c r="Q38" s="9">
         <v>97334</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>88</v>
+      <c r="R38" s="88">
+        <v>109477</v>
+      </c>
+      <c r="S38" s="40">
+        <v>117006</v>
+      </c>
+      <c r="T38" s="40">
+        <v>124418</v>
+      </c>
+      <c r="U38" s="40">
+        <v>133376</v>
+      </c>
+      <c r="V38" s="88">
+        <v>138371</v>
+      </c>
+      <c r="W38" s="40">
+        <v>139691</v>
+      </c>
+      <c r="X38" s="40">
+        <v>146437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="78" t="s">
+        <v>85</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5776,8 +7323,30 @@
       <c r="Q39" s="9">
         <v>13207</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R39" s="88">
+        <v>22961</v>
+      </c>
+      <c r="S39" s="40">
+        <v>28244</v>
+      </c>
+      <c r="T39" s="40">
+        <v>30419</v>
+      </c>
+      <c r="U39" s="40">
+        <v>32322</v>
+      </c>
+      <c r="V39" s="88">
+        <v>33067</v>
+      </c>
+      <c r="W39" s="40">
+        <v>29244</v>
+      </c>
+      <c r="X39" s="40">
+        <v>28706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="78"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -5794,10 +7363,12 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="9"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>89</v>
+      <c r="R40" s="88"/>
+      <c r="V40" s="88"/>
+    </row>
+    <row r="41" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="78" t="s">
+        <v>86</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5810,30 +7381,58 @@
       <c r="J41" s="4"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="21">
+      <c r="M41" s="19">
         <f>M38-M37-M34</f>
         <v>22708</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="20">
         <f>N38-N37-N34</f>
         <v>24986</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="19">
         <f>O38-O37-O34</f>
         <v>28146</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="19">
         <f>P38-P37-P34</f>
         <v>31491</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41" s="19">
         <f>Q38-Q37-Q34</f>
         <v>36625</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>90</v>
+      <c r="R41" s="20">
+        <f>R38-R37-R34</f>
+        <v>44751</v>
+      </c>
+      <c r="S41" s="19">
+        <f>S38-S37-S34</f>
+        <v>49082</v>
+      </c>
+      <c r="T41" s="19">
+        <f>T38-T37-T34</f>
+        <v>52958</v>
+      </c>
+      <c r="U41" s="19">
+        <f>U38-U37-U34</f>
+        <v>58912</v>
+      </c>
+      <c r="V41" s="20">
+        <f>V38-V37-V34</f>
+        <v>58433</v>
+      </c>
+      <c r="W41" s="19">
+        <f>W38-W37-W34</f>
+        <v>61563</v>
+      </c>
+      <c r="X41" s="19">
+        <f>X38-X37-X34</f>
+        <v>71042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="78" t="s">
+        <v>87</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5846,28 +7445,57 @@
       <c r="J42" s="4"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="21">
+      <c r="M42" s="19">
         <f>M38-M39</f>
         <v>74347</v>
       </c>
-      <c r="N42" s="22">
+      <c r="N42" s="20">
         <f>N38-N39</f>
         <v>77620</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42" s="19">
         <f>O38-O39</f>
         <v>79382</v>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="19">
         <f>P38-P39</f>
         <v>80342</v>
       </c>
-      <c r="Q42" s="21">
+      <c r="Q42" s="19">
         <f>Q38-Q39</f>
         <v>84127</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R42" s="20">
+        <f>R38-R39</f>
+        <v>86516</v>
+      </c>
+      <c r="S42" s="19">
+        <f>S38-S39</f>
+        <v>88762</v>
+      </c>
+      <c r="T42" s="19">
+        <f>T38-T39</f>
+        <v>93999</v>
+      </c>
+      <c r="U42" s="19">
+        <f>U38-U39</f>
+        <v>101054</v>
+      </c>
+      <c r="V42" s="20">
+        <f>V38-V39</f>
+        <v>105304</v>
+      </c>
+      <c r="W42" s="19">
+        <f>W38-W39</f>
+        <v>110447</v>
+      </c>
+      <c r="X42" s="19">
+        <f>X38-X39</f>
+        <v>117731</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="78"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -5884,71 +7512,100 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="9"/>
-    </row>
-    <row r="44" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
+      <c r="R43" s="88"/>
+      <c r="V43" s="88"/>
+    </row>
+    <row r="44" spans="1:24" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="16">
-        <f t="shared" ref="E44:P44" si="45">SUM(B20:E20)</f>
+        <f t="shared" ref="E44:P44" si="60">SUM(B20:E20)</f>
         <v>3689</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>4687</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>6023</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>7506</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>9512</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>11066</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>12905</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>15233</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>15933</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>17857</v>
       </c>
       <c r="O44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>19069</v>
       </c>
       <c r="P44" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>19499</v>
       </c>
       <c r="Q44" s="16">
         <f>SUM(N20:Q20)</f>
         <v>22113</v>
       </c>
-      <c r="R44" s="20"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>82</v>
+      <c r="R44" s="17">
+        <f>SUM(O20:R20)</f>
+        <v>19554</v>
+      </c>
+      <c r="S44" s="16">
+        <f>SUM(P20:S20)</f>
+        <v>17064</v>
+      </c>
+      <c r="T44" s="16">
+        <f>SUM(Q20:T20)</f>
+        <v>18018</v>
+      </c>
+      <c r="U44" s="16">
+        <f>SUM(R20:U20)</f>
+        <v>18485</v>
+      </c>
+      <c r="V44" s="17">
+        <f>SUM(S20:V20)</f>
+        <v>20958</v>
+      </c>
+      <c r="W44" s="16">
+        <f>SUM(T20:W20)</f>
+        <v>23520</v>
+      </c>
+      <c r="X44" s="16">
+        <f>SUM(U20:X20)</f>
+        <v>25275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A45" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -5961,30 +7618,58 @@
       <c r="J45" s="4"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="77">
+      <c r="M45" s="72">
         <f>M44/M42</f>
         <v>0.21430588994848482</v>
       </c>
-      <c r="N45" s="78">
+      <c r="N45" s="73">
         <f>N44/N42</f>
         <v>0.2300566864210255</v>
       </c>
-      <c r="O45" s="77">
+      <c r="O45" s="72">
         <f>O44/O42</f>
         <v>0.24021818548285506</v>
       </c>
-      <c r="P45" s="77">
+      <c r="P45" s="72">
         <f>P44/P42</f>
         <v>0.2426999576809141</v>
       </c>
-      <c r="Q45" s="77">
+      <c r="Q45" s="72">
         <f>Q44/Q42</f>
         <v>0.2628525919146053</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>83</v>
+      <c r="R45" s="73">
+        <f>R44/R42</f>
+        <v>0.22601599704100975</v>
+      </c>
+      <c r="S45" s="72">
+        <f>S44/S42</f>
+        <v>0.19224442892228658</v>
+      </c>
+      <c r="T45" s="72">
+        <f>T44/T42</f>
+        <v>0.19168289024351323</v>
+      </c>
+      <c r="U45" s="72">
+        <f>U44/U42</f>
+        <v>0.18292200209788825</v>
+      </c>
+      <c r="V45" s="73">
+        <f>V44/V42</f>
+        <v>0.19902377877383576</v>
+      </c>
+      <c r="W45" s="72">
+        <f>W44/W42</f>
+        <v>0.21295281899915797</v>
+      </c>
+      <c r="X45" s="72">
+        <f>X44/X42</f>
+        <v>0.21468432273572804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A46" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -5997,30 +7682,58 @@
       <c r="J46" s="4"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="77">
+      <c r="M46" s="72">
         <f>M44/M38</f>
         <v>0.18850267379679145</v>
       </c>
-      <c r="N46" s="78">
+      <c r="N46" s="73">
         <f>N44/N38</f>
         <v>0.20076451739839227</v>
       </c>
-      <c r="O46" s="77">
+      <c r="O46" s="72">
         <f>O44/O38</f>
         <v>0.21119491422179398</v>
       </c>
-      <c r="P46" s="77">
+      <c r="P46" s="72">
         <f>P44/P38</f>
         <v>0.21090944490113789</v>
       </c>
-      <c r="Q46" s="77">
+      <c r="Q46" s="72">
         <f>Q44/Q38</f>
         <v>0.22718680009041034</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>84</v>
+      <c r="R46" s="73">
+        <f>R44/R38</f>
+        <v>0.17861285932204937</v>
+      </c>
+      <c r="S46" s="72">
+        <f>S44/S38</f>
+        <v>0.14583867493974667</v>
+      </c>
+      <c r="T46" s="72">
+        <f>T44/T38</f>
+        <v>0.14481827388320018</v>
+      </c>
+      <c r="U46" s="72">
+        <f>U44/U38</f>
+        <v>0.13859315019193857</v>
+      </c>
+      <c r="V46" s="73">
+        <f>V44/V38</f>
+        <v>0.1514623728960548</v>
+      </c>
+      <c r="W46" s="72">
+        <f>W44/W38</f>
+        <v>0.16837162021891175</v>
+      </c>
+      <c r="X46" s="72">
+        <f>X44/X38</f>
+        <v>0.17259982108346933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A47" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6033,30 +7746,58 @@
       <c r="J47" s="4"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="77">
+      <c r="M47" s="72">
         <f>M44/(M42-M37)</f>
         <v>0.29373916890970098</v>
       </c>
-      <c r="N47" s="78">
+      <c r="N47" s="73">
         <f>N44/(N42-N37)</f>
         <v>0.30992588992831976</v>
       </c>
-      <c r="O47" s="77">
+      <c r="O47" s="72">
         <f>O44/(O42-O37)</f>
         <v>0.3202398145971182</v>
       </c>
-      <c r="P47" s="77">
+      <c r="P47" s="72">
         <f>P44/(P42-P37)</f>
         <v>0.3218347170185023</v>
       </c>
-      <c r="Q47" s="77">
+      <c r="Q47" s="72">
         <f>Q44/(Q42-Q37)</f>
         <v>0.34266720386784849</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>85</v>
+      <c r="R47" s="73">
+        <f>R44/(R42-R37)</f>
+        <v>0.29170706965226084</v>
+      </c>
+      <c r="S47" s="72">
+        <f>S44/(S42-S37)</f>
+        <v>0.245758562087738</v>
+      </c>
+      <c r="T47" s="72">
+        <f>T44/(T42-T37)</f>
+        <v>0.24085659287776709</v>
+      </c>
+      <c r="U47" s="72">
+        <f>U44/(U42-U37)</f>
+        <v>0.22696298115292529</v>
+      </c>
+      <c r="V47" s="73">
+        <f>V44/(V42-V37)</f>
+        <v>0.24467923647189305</v>
+      </c>
+      <c r="W47" s="72">
+        <f>W44/(W42-W37)</f>
+        <v>0.2597201824225091</v>
+      </c>
+      <c r="X47" s="72">
+        <f>X44/(X42-X37)</f>
+        <v>0.25802401078035037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A48" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6069,147 +7810,232 @@
       <c r="J48" s="4"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="77">
+      <c r="M48" s="72">
         <f>M44/M41</f>
         <v>0.70164699665316188</v>
       </c>
-      <c r="N48" s="78">
+      <c r="N48" s="73">
         <f>N44/N41</f>
         <v>0.7146802209237173</v>
       </c>
-      <c r="O48" s="77">
+      <c r="O48" s="72">
         <f>O44/O41</f>
         <v>0.67750301996731332</v>
       </c>
-      <c r="P48" s="77">
+      <c r="P48" s="72">
         <f>P44/P41</f>
         <v>0.61919278524022736</v>
       </c>
-      <c r="Q48" s="77">
+      <c r="Q48" s="72">
         <f>Q44/Q41</f>
         <v>0.6037679180887372</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q49" s="31"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="33">
-        <f t="shared" ref="F50:Q50" si="46">F6/B6-1</f>
+      <c r="R48" s="73">
+        <f>R44/R41</f>
+        <v>0.43695112958369647</v>
+      </c>
+      <c r="S48" s="72">
+        <f>S44/S41</f>
+        <v>0.34766309441343057</v>
+      </c>
+      <c r="T48" s="72">
+        <f>T44/T41</f>
+        <v>0.34023188186865061</v>
+      </c>
+      <c r="U48" s="72">
+        <f>U44/U41</f>
+        <v>0.31377308527973929</v>
+      </c>
+      <c r="V48" s="73">
+        <f>V44/V41</f>
+        <v>0.35866719148426401</v>
+      </c>
+      <c r="W48" s="72">
+        <f>W44/W41</f>
+        <v>0.38204765849617467</v>
+      </c>
+      <c r="X48" s="72">
+        <f>X44/X41</f>
+        <v>0.35577545677205036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Q49" s="29"/>
+      <c r="X49" s="29"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A50" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="31">
+        <f t="shared" ref="F50:Q50" si="61">F6/B6-1</f>
         <v>0.16452991452991461</v>
       </c>
-      <c r="G50" s="34">
-        <f t="shared" si="46"/>
+      <c r="G50" s="32">
+        <f t="shared" si="61"/>
         <v>0.1673553719008265</v>
       </c>
-      <c r="H50" s="34">
-        <f t="shared" si="46"/>
+      <c r="H50" s="32">
+        <f t="shared" si="61"/>
         <v>0.16831683168316824</v>
       </c>
-      <c r="I50" s="34">
-        <f t="shared" si="46"/>
+      <c r="I50" s="32">
+        <f t="shared" si="61"/>
         <v>0.18269230769230771</v>
       </c>
-      <c r="J50" s="33">
-        <f t="shared" si="46"/>
+      <c r="J50" s="31">
+        <f t="shared" si="61"/>
         <v>0.17431192660550465</v>
       </c>
-      <c r="K50" s="34">
-        <f t="shared" si="46"/>
+      <c r="K50" s="32">
+        <f t="shared" si="61"/>
         <v>0.16814159292035402</v>
       </c>
-      <c r="L50" s="34">
-        <f t="shared" si="46"/>
+      <c r="L50" s="32">
+        <f t="shared" si="61"/>
         <v>0.16101694915254239</v>
       </c>
-      <c r="M50" s="34">
-        <f t="shared" si="46"/>
+      <c r="M50" s="32">
+        <f t="shared" si="61"/>
         <v>0.13821138211382111</v>
       </c>
-      <c r="N50" s="33">
-        <f t="shared" si="46"/>
+      <c r="N50" s="31">
+        <f t="shared" si="61"/>
         <v>0.1328125</v>
       </c>
-      <c r="O50" s="34">
-        <f t="shared" si="46"/>
+      <c r="O50" s="32">
+        <f t="shared" si="61"/>
         <v>0.11363636363636354</v>
       </c>
-      <c r="P50" s="34">
-        <f t="shared" si="46"/>
+      <c r="P50" s="32">
+        <f t="shared" si="61"/>
         <v>8.7591240875912302E-2</v>
       </c>
-      <c r="Q50" s="34">
-        <f t="shared" si="46"/>
+      <c r="Q50" s="32">
+        <f t="shared" si="61"/>
         <v>8.5714285714285632E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="31"/>
+      <c r="R50" s="31">
+        <f t="shared" ref="R50:U50" si="62">R6/N6-1</f>
+        <v>7.5862068965517171E-2</v>
+      </c>
+      <c r="S50" s="32">
+        <f t="shared" si="62"/>
+        <v>8.163265306122458E-2</v>
+      </c>
+      <c r="T50" s="32">
+        <f t="shared" si="62"/>
+        <v>8.7248322147650992E-2</v>
+      </c>
+      <c r="U50" s="32">
+        <f t="shared" si="62"/>
+        <v>9.210526315789469E-2</v>
+      </c>
+      <c r="V50" s="31">
+        <f t="shared" ref="V50:X51" si="63">V6/R6-1</f>
+        <v>0.10897435897435903</v>
+      </c>
+      <c r="W50" s="32">
+        <f t="shared" si="63"/>
+        <v>0.12578616352201255</v>
+      </c>
+      <c r="X50" s="32">
+        <f t="shared" si="63"/>
+        <v>0.12345679012345689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A51" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="29"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="33">
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="31">
         <f>F7/B7-1</f>
         <v>0.30443334446783554</v>
       </c>
-      <c r="G51" s="32">
+      <c r="G51" s="30">
         <f>G7/C7-1</f>
         <v>0.36400712868859286</v>
       </c>
-      <c r="H51" s="32">
-        <f t="shared" ref="H51:P51" si="47">H7/D7-1</f>
+      <c r="H51" s="30">
+        <f t="shared" ref="H51:P51" si="64">H7/D7-1</f>
         <v>0.33324609597114008</v>
       </c>
-      <c r="I51" s="32">
-        <f t="shared" si="47"/>
+      <c r="I51" s="30">
+        <f t="shared" si="64"/>
         <v>0.27516866334559609</v>
       </c>
-      <c r="J51" s="33">
-        <f t="shared" si="47"/>
+      <c r="J51" s="31">
+        <f t="shared" si="64"/>
         <v>0.27085655890003713</v>
       </c>
-      <c r="K51" s="32">
-        <f t="shared" si="47"/>
+      <c r="K51" s="30">
+        <f t="shared" si="64"/>
         <v>0.23979815243799085</v>
       </c>
-      <c r="L51" s="32">
-        <f t="shared" si="47"/>
+      <c r="L51" s="30">
+        <f t="shared" si="64"/>
         <v>0.26881324134025064</v>
       </c>
-      <c r="M51" s="32">
-        <f t="shared" si="47"/>
+      <c r="M51" s="30">
+        <f t="shared" si="64"/>
         <v>0.29377098097724708</v>
       </c>
-      <c r="N51" s="33">
-        <f t="shared" si="47"/>
+      <c r="N51" s="31">
+        <f t="shared" si="64"/>
         <v>0.31512570408023066</v>
       </c>
-      <c r="O51" s="32">
-        <f t="shared" si="47"/>
+      <c r="O51" s="30">
+        <f t="shared" si="64"/>
         <v>0.2746376954386518</v>
       </c>
-      <c r="P51" s="32">
-        <f t="shared" si="47"/>
+      <c r="P51" s="30">
+        <f t="shared" si="64"/>
         <v>0.22206330351062342</v>
       </c>
-      <c r="Q51" s="32">
+      <c r="Q51" s="30">
         <f>Q7/M7-1</f>
         <v>0.20094697891815594</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R51" s="31">
+        <f>R7/N7-1</f>
+        <v>0.17114141777772063</v>
+      </c>
+      <c r="S51" s="30">
+        <f>S7/O7-1</f>
+        <v>0.17992479069309786</v>
+      </c>
+      <c r="T51" s="30">
+        <f>T7/P7-1</f>
+        <v>0.18274069217465438</v>
+      </c>
+      <c r="U51" s="30">
+        <f>U7/Q7-1</f>
+        <v>0.14130306255173219</v>
+      </c>
+      <c r="V51" s="31">
+        <f>V7/R7-1</f>
+        <v>6.0824952143543554E-2</v>
+      </c>
+      <c r="W51" s="30">
+        <f>W7/S7-1</f>
+        <v>-1.69923582194631E-2</v>
+      </c>
+      <c r="X51" s="30">
+        <f>X7/T7-1</f>
+        <v>8.2634225054347477E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F52" s="4"/>
-      <c r="Q52" s="31"/>
+      <c r="Q52" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6217,4 +8043,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C961FB94-0AB3-414C-B878-F515704013C0}">
+  <dimension ref="B4:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FB.xlsx
+++ b/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E0FC09-260B-0C45-A03E-B59327049EB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55902F6-F386-EC45-8F9C-6C8C8EB01AA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25760" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25760" windowHeight="20320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -2270,7 +2270,7 @@
         <v>114956.94847746771</v>
       </c>
       <c r="R25" s="56">
-        <f t="shared" ref="R25:V25" si="63">R23+R24</f>
+        <f t="shared" ref="R25:U25" si="63">R23+R24</f>
         <v>128162.1597551486</v>
       </c>
       <c r="S25" s="56">
@@ -2384,63 +2384,63 @@
         <v>15</v>
       </c>
       <c r="B27" s="53">
-        <f>B25-B26</f>
+        <f t="shared" ref="B27:G27" si="66">B25-B26</f>
         <v>3689</v>
       </c>
       <c r="C27" s="53">
-        <f>C25-C26</f>
+        <f t="shared" si="66"/>
         <v>9512</v>
       </c>
       <c r="D27" s="16">
-        <f>D25-D26</f>
+        <f t="shared" si="66"/>
         <v>15933</v>
       </c>
       <c r="E27" s="53">
-        <f>E25-E26</f>
+        <f t="shared" si="66"/>
         <v>22113</v>
       </c>
       <c r="F27" s="53">
-        <f>F25-F26</f>
+        <f t="shared" si="66"/>
         <v>18485</v>
       </c>
       <c r="G27" s="53">
-        <f>G25-G26</f>
+        <f t="shared" si="66"/>
         <v>28786.242000000009</v>
       </c>
       <c r="H27" s="53">
-        <f t="shared" ref="H27:P27" si="66">H25-H26</f>
+        <f t="shared" ref="H27:P27" si="67">H25-H26</f>
         <v>32838.485451</v>
       </c>
       <c r="I27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>37119.14898397051</v>
       </c>
       <c r="J27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>41496.861061447489</v>
       </c>
       <c r="K27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>45760.711256257389</v>
       </c>
       <c r="L27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>51777.226780496057</v>
       </c>
       <c r="M27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>58382.308706376309</v>
       </c>
       <c r="N27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>65635.201166975414</v>
       </c>
       <c r="O27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>73601.065965139453</v>
       </c>
       <c r="P27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>82351.574483381148</v>
       </c>
       <c r="Q27" s="53">
@@ -2448,19 +2448,19 @@
         <v>91965.558781974163</v>
       </c>
       <c r="R27" s="53">
-        <f t="shared" ref="R27:V27" si="67">R25-R26</f>
+        <f t="shared" ref="R27:U27" si="68">R25-R26</f>
         <v>102529.72780411888</v>
       </c>
       <c r="S27" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>114139.45519894207</v>
       </c>
       <c r="T27" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>126899.64592416918</v>
       </c>
       <c r="U27" s="53">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>140925.68950648775</v>
       </c>
       <c r="V27" s="53">
@@ -2468,403 +2468,403 @@
         <v>156344.50862542499</v>
       </c>
       <c r="W27" s="53">
-        <f t="shared" ref="S27:CD27" si="68">V27*($F$2+1)</f>
+        <f t="shared" ref="W27:CD27" si="69">V27*($F$2+1)</f>
         <v>154781.06353917075</v>
       </c>
       <c r="X27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>153233.25290377904</v>
       </c>
       <c r="Y27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>151700.92037474125</v>
       </c>
       <c r="Z27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>150183.91117099384</v>
       </c>
       <c r="AA27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>148682.07205928391</v>
       </c>
       <c r="AB27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>147195.25133869107</v>
       </c>
       <c r="AC27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>145723.29882530417</v>
       </c>
       <c r="AD27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>144266.06583705114</v>
       </c>
       <c r="AE27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>142823.40517868064</v>
       </c>
       <c r="AF27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>141395.17112689384</v>
       </c>
       <c r="AG27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>139981.21941562489</v>
       </c>
       <c r="AH27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>138581.40722146863</v>
       </c>
       <c r="AI27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>137195.59314925395</v>
       </c>
       <c r="AJ27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>135823.63721776142</v>
       </c>
       <c r="AK27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>134465.40084558382</v>
       </c>
       <c r="AL27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>133120.74683712798</v>
       </c>
       <c r="AM27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>131789.5393687567</v>
       </c>
       <c r="AN27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>130471.64397506914</v>
       </c>
       <c r="AO27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>129166.92753531845</v>
       </c>
       <c r="AP27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>127875.25825996527</v>
       </c>
       <c r="AQ27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>126596.50567736561</v>
       </c>
       <c r="AR27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>125330.54062059196</v>
       </c>
       <c r="AS27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>124077.23521438603</v>
       </c>
       <c r="AT27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>122836.46286224217</v>
       </c>
       <c r="AU27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>121608.09823361975</v>
       </c>
       <c r="AV27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>120392.01725128356</v>
       </c>
       <c r="AW27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>119188.09707877072</v>
       </c>
       <c r="AX27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>117996.21610798301</v>
       </c>
       <c r="AY27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>116816.25394690318</v>
       </c>
       <c r="AZ27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>115648.09140743414</v>
       </c>
       <c r="BA27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>114491.6104933598</v>
       </c>
       <c r="BB27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>113346.6943884262</v>
       </c>
       <c r="BC27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>112213.22744454193</v>
       </c>
       <c r="BD27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>111091.09517009651</v>
       </c>
       <c r="BE27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>109980.18421839555</v>
       </c>
       <c r="BF27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>108880.38237621159</v>
       </c>
       <c r="BG27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>107791.57855244947</v>
       </c>
       <c r="BH27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>106713.66276692497</v>
       </c>
       <c r="BI27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>105646.52613925571</v>
       </c>
       <c r="BJ27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>104590.06087786316</v>
       </c>
       <c r="BK27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>103544.16026908453</v>
       </c>
       <c r="BL27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>102508.71866639369</v>
       </c>
       <c r="BM27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>101483.63147972975</v>
       </c>
       <c r="BN27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>100468.79516493245</v>
       </c>
       <c r="BO27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>99464.107213283132</v>
       </c>
       <c r="BP27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>98469.466141150304</v>
       </c>
       <c r="BQ27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>97484.771479738803</v>
       </c>
       <c r="BR27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>96509.923764941414</v>
       </c>
       <c r="BS27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>95544.824527292003</v>
       </c>
       <c r="BT27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>94589.376282019075</v>
       </c>
       <c r="BU27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>93643.482519198878</v>
       </c>
       <c r="BV27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>92707.047694006891</v>
       </c>
       <c r="BW27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>91779.977217066815</v>
       </c>
       <c r="BX27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>90862.177444896151</v>
       </c>
       <c r="BY27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>89953.555670447182</v>
       </c>
       <c r="BZ27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>89054.020113742707</v>
       </c>
       <c r="CA27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>88163.479912605282</v>
       </c>
       <c r="CB27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>87281.845113479227</v>
       </c>
       <c r="CC27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>86409.026662344433</v>
       </c>
       <c r="CD27" s="53">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>85544.936395720986</v>
       </c>
       <c r="CE27" s="53">
-        <f t="shared" ref="CE27:DR27" si="69">CD27*($F$2+1)</f>
+        <f t="shared" ref="CE27:DR27" si="70">CD27*($F$2+1)</f>
         <v>84689.487031763769</v>
       </c>
       <c r="CF27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>83842.592161446126</v>
       </c>
       <c r="CG27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>83004.166239831669</v>
       </c>
       <c r="CH27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>82174.124577433351</v>
       </c>
       <c r="CI27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>81352.383331659017</v>
       </c>
       <c r="CJ27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>80538.859498342426</v>
       </c>
       <c r="CK27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>79733.470903359004</v>
       </c>
       <c r="CL27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>78936.136194325416</v>
       </c>
       <c r="CM27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>78146.774832382158</v>
       </c>
       <c r="CN27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>77365.307084058339</v>
       </c>
       <c r="CO27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>76591.654013217762</v>
       </c>
       <c r="CP27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>75825.737473085581</v>
       </c>
       <c r="CQ27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>75067.480098354717</v>
       </c>
       <c r="CR27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>74316.805297371175</v>
       </c>
       <c r="CS27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>73573.637244397469</v>
       </c>
       <c r="CT27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>72837.90087195349</v>
       </c>
       <c r="CU27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>72109.521863233953</v>
       </c>
       <c r="CV27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>71388.426644601612</v>
       </c>
       <c r="CW27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>70674.542378155602</v>
       </c>
       <c r="CX27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>69967.796954374047</v>
       </c>
       <c r="CY27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>69268.118984830304</v>
       </c>
       <c r="CZ27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>68575.437794982005</v>
       </c>
       <c r="DA27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>67889.683417032182</v>
       </c>
       <c r="DB27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>67210.786582861852</v>
       </c>
       <c r="DC27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>66538.678717033239</v>
       </c>
       <c r="DD27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>65873.291929862913</v>
       </c>
       <c r="DE27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>65214.559010564284</v>
       </c>
       <c r="DF27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>64562.413420458637</v>
       </c>
       <c r="DG27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>63916.789286254047</v>
       </c>
       <c r="DH27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>63277.621393391506</v>
       </c>
       <c r="DI27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>62644.845179457589</v>
       </c>
       <c r="DJ27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>62018.396727663014</v>
       </c>
       <c r="DK27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>61398.212760386385</v>
       </c>
       <c r="DL27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>60784.230632782521</v>
       </c>
       <c r="DM27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>60176.388326454697</v>
       </c>
       <c r="DN27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>59574.62444319015</v>
       </c>
       <c r="DO27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>58978.878198758248</v>
       </c>
       <c r="DP27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>58389.089416770665</v>
       </c>
       <c r="DQ27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>57805.198522602957</v>
       </c>
       <c r="DR27" s="53">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>57227.146537376924</v>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
         <v>6.4385231626610935</v>
       </c>
       <c r="G28" s="58">
-        <f t="shared" ref="G28" si="70">G27/G29</f>
+        <f t="shared" ref="G28" si="71">G27/G29</f>
         <v>10.026555903866251</v>
       </c>
       <c r="H28" s="58">
@@ -2901,59 +2901,59 @@
         <v>11.437995629049112</v>
       </c>
       <c r="I28" s="58">
-        <f t="shared" ref="I28:Q28" si="71">I27/I29</f>
+        <f t="shared" ref="I28:Q28" si="72">I27/I29</f>
         <v>12.928996511309826</v>
       </c>
       <c r="J28" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>14.45380043937565</v>
       </c>
       <c r="K28" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>15.938945056167674</v>
       </c>
       <c r="L28" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>18.034561748692461</v>
       </c>
       <c r="M28" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>20.335182412530934</v>
       </c>
       <c r="N28" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>22.861442412739606</v>
       </c>
       <c r="O28" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>25.636038302033946</v>
       </c>
       <c r="P28" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>28.683933989335127</v>
       </c>
       <c r="Q28" s="58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>32.032587524198597</v>
       </c>
       <c r="R28" s="58">
-        <f t="shared" ref="R28:V28" si="72">R27/R29</f>
+        <f t="shared" ref="R28:V28" si="73">R27/R29</f>
         <v>35.712200558731759</v>
       </c>
       <c r="S28" s="58">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>39.755992754769096</v>
       </c>
       <c r="T28" s="58">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>44.200503630849589</v>
       </c>
       <c r="U28" s="58">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>49.085924592994687</v>
       </c>
       <c r="V28" s="58">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>54.456464167685475</v>
       </c>
     </row>
@@ -2982,67 +2982,67 @@
         <v>2871</v>
       </c>
       <c r="G29" s="50">
-        <f t="shared" ref="G29" si="73">F29</f>
+        <f t="shared" ref="G29" si="74">F29</f>
         <v>2871</v>
       </c>
       <c r="H29" s="50">
-        <f t="shared" ref="H29" si="74">G29</f>
+        <f t="shared" ref="H29" si="75">G29</f>
         <v>2871</v>
       </c>
       <c r="I29" s="50">
-        <f t="shared" ref="I29" si="75">H29</f>
+        <f t="shared" ref="I29" si="76">H29</f>
         <v>2871</v>
       </c>
       <c r="J29" s="50">
-        <f t="shared" ref="J29" si="76">I29</f>
+        <f t="shared" ref="J29" si="77">I29</f>
         <v>2871</v>
       </c>
       <c r="K29" s="50">
-        <f t="shared" ref="K29" si="77">J29</f>
+        <f t="shared" ref="K29" si="78">J29</f>
         <v>2871</v>
       </c>
       <c r="L29" s="50">
-        <f t="shared" ref="L29" si="78">K29</f>
+        <f t="shared" ref="L29" si="79">K29</f>
         <v>2871</v>
       </c>
       <c r="M29" s="50">
-        <f t="shared" ref="M29" si="79">L29</f>
+        <f t="shared" ref="M29" si="80">L29</f>
         <v>2871</v>
       </c>
       <c r="N29" s="50">
-        <f t="shared" ref="N29" si="80">M29</f>
+        <f t="shared" ref="N29" si="81">M29</f>
         <v>2871</v>
       </c>
       <c r="O29" s="50">
-        <f t="shared" ref="O29" si="81">N29</f>
+        <f t="shared" ref="O29" si="82">N29</f>
         <v>2871</v>
       </c>
       <c r="P29" s="50">
-        <f t="shared" ref="P29" si="82">O29</f>
+        <f t="shared" ref="P29" si="83">O29</f>
         <v>2871</v>
       </c>
       <c r="Q29" s="50">
-        <f t="shared" ref="Q29" si="83">P29</f>
+        <f t="shared" ref="Q29" si="84">P29</f>
         <v>2871</v>
       </c>
       <c r="R29" s="50">
-        <f t="shared" ref="R29" si="84">Q29</f>
+        <f t="shared" ref="R29" si="85">Q29</f>
         <v>2871</v>
       </c>
       <c r="S29" s="50">
-        <f t="shared" ref="S29" si="85">R29</f>
+        <f t="shared" ref="S29" si="86">R29</f>
         <v>2871</v>
       </c>
       <c r="T29" s="50">
-        <f t="shared" ref="T29" si="86">S29</f>
+        <f t="shared" ref="T29" si="87">S29</f>
         <v>2871</v>
       </c>
       <c r="U29" s="50">
-        <f t="shared" ref="U29" si="87">T29</f>
+        <f t="shared" ref="U29" si="88">T29</f>
         <v>2871</v>
       </c>
       <c r="V29" s="50">
-        <f t="shared" ref="V29" si="88">U29</f>
+        <f t="shared" ref="V29" si="89">U29</f>
         <v>2871</v>
       </c>
     </row>
@@ -3091,67 +3091,67 @@
         <v>0.26610910132884413</v>
       </c>
       <c r="G31" s="60">
-        <f t="shared" ref="G31:Q31" si="89">G16/F16-1</f>
+        <f t="shared" ref="G31:Q31" si="90">G16/F16-1</f>
         <v>0.20750000000000002</v>
       </c>
       <c r="H31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.20750000000000002</v>
       </c>
       <c r="I31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.20750000000000002</v>
       </c>
       <c r="J31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.2074999999999998</v>
       </c>
       <c r="K31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.20750000000000024</v>
       </c>
       <c r="L31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q31" s="60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R31" s="60">
-        <f t="shared" ref="R31" si="90">R16/Q16-1</f>
+        <f t="shared" ref="R31" si="91">R16/Q16-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="S31" s="60">
-        <f t="shared" ref="S31" si="91">S16/R16-1</f>
+        <f t="shared" ref="S31" si="92">S16/R16-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="T31" s="60">
-        <f t="shared" ref="T31" si="92">T16/S16-1</f>
+        <f t="shared" ref="T31" si="93">T16/S16-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="U31" s="60">
-        <f t="shared" ref="U31" si="93">U16/T16-1</f>
+        <f t="shared" ref="U31" si="94">U16/T16-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="V31" s="60">
-        <f t="shared" ref="V31" si="94">V16/U16-1</f>
+        <f t="shared" ref="V31" si="95">V16/U16-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3165,79 +3165,79 @@
         <v>0.22648951629644998</v>
       </c>
       <c r="D32" s="33">
-        <f t="shared" ref="D32:Q32" si="95">D19/C19-1</f>
+        <f t="shared" ref="D32:Q32" si="96">D19/C19-1</f>
         <v>0.3124576844955993</v>
       </c>
       <c r="E32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.3248645860201187</v>
       </c>
       <c r="F32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.32385865861968277</v>
       </c>
       <c r="G32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="H32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q32" s="63">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R32" s="63">
-        <f t="shared" ref="R32:R34" si="96">R19/Q19-1</f>
+        <f t="shared" ref="R32:R34" si="97">R19/Q19-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="S32" s="63">
-        <f t="shared" ref="S32:S34" si="97">S19/R19-1</f>
+        <f t="shared" ref="S32:S34" si="98">S19/R19-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="T32" s="63">
-        <f t="shared" ref="T32:T34" si="98">T19/S19-1</f>
+        <f t="shared" ref="T32:T34" si="99">T19/S19-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="U32" s="63">
-        <f t="shared" ref="U32:U34" si="99">U19/T19-1</f>
+        <f t="shared" ref="U32:U34" si="100">U19/T19-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="V32" s="63">
-        <f t="shared" ref="V32:V34" si="100">V19/U19-1</f>
+        <f t="shared" ref="V32:V34" si="101">V19/U19-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3251,79 +3251,79 @@
         <v>0.38325991189427322</v>
       </c>
       <c r="D33" s="33">
-        <f t="shared" ref="D33:Q33" si="101">D20/C20-1</f>
+        <f t="shared" ref="D33:Q33" si="102">D20/C20-1</f>
         <v>0.25398089171974525</v>
       </c>
       <c r="E33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.66031746031746041</v>
       </c>
       <c r="F33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.25889101338432119</v>
       </c>
       <c r="G33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.25</v>
       </c>
       <c r="H33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.25</v>
       </c>
       <c r="I33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.25</v>
       </c>
       <c r="J33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.25</v>
       </c>
       <c r="K33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.25</v>
       </c>
       <c r="L33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R33" s="63">
-        <f t="shared" si="96"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S33" s="63">
         <f t="shared" si="97"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T33" s="63">
+      <c r="S33" s="63">
         <f t="shared" si="98"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U33" s="63">
+      <c r="T33" s="63">
         <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
+      <c r="U33" s="63">
+        <f t="shared" si="100"/>
+        <v>0.10000000000000009</v>
+      </c>
       <c r="V33" s="63">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3337,79 +3337,79 @@
         <v>0.33667953667953676</v>
       </c>
       <c r="D34" s="33">
-        <f t="shared" ref="D34:Q34" si="102">D21/C21-1</f>
+        <f t="shared" ref="D34:Q34" si="103">D21/C21-1</f>
         <v>0.45407279029462733</v>
       </c>
       <c r="E34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.37147397695669437</v>
       </c>
       <c r="F34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2.0315758980301273</v>
       </c>
       <c r="G34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-0.57118012422360243</v>
       </c>
       <c r="H34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="N34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q34" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R34" s="63">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="S34" s="63">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T34" s="63">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="U34" s="63">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V34" s="63">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>-2.0000000000000018E-2</v>
       </c>
     </row>
@@ -3443,59 +3443,59 @@
         <v>0.28211522748213724</v>
       </c>
       <c r="I35" s="91">
-        <f t="shared" ref="I35:Q35" si="103">I22/H22-1</f>
+        <f t="shared" ref="I35:Q35" si="104">I22/H22-1</f>
         <v>0.28256321649713767</v>
       </c>
       <c r="J35" s="91">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.28300592197076613</v>
       </c>
       <c r="K35" s="91">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.283443102504225</v>
       </c>
       <c r="L35" s="91">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>8.3541888633064998E-2</v>
       </c>
       <c r="M35" s="91">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>8.5114604881640687E-2</v>
       </c>
       <c r="N35" s="91">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>8.655654697636006E-2</v>
       </c>
       <c r="O35" s="91">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>8.7874921006339424E-2</v>
       </c>
       <c r="P35" s="91">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>8.9077257702755874E-2</v>
       </c>
       <c r="Q35" s="91">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>9.0171232228392739E-2</v>
       </c>
       <c r="R35" s="91">
-        <f t="shared" ref="R35:V35" si="104">R22/Q22-1</f>
+        <f t="shared" ref="R35:V35" si="105">R22/Q22-1</f>
         <v>9.1164514223617488E-2</v>
       </c>
       <c r="S35" s="91">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9.2064646578966736E-2</v>
       </c>
       <c r="T35" s="91">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9.2878950548418437E-2</v>
       </c>
       <c r="U35" s="91">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9.3614454318981855E-2</v>
       </c>
       <c r="V35" s="91">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9.4277841937180362E-2</v>
       </c>
     </row>
@@ -3547,67 +3547,67 @@
         <v>0.81936998741106415</v>
       </c>
       <c r="G37" s="64">
-        <f t="shared" ref="G37:Q37" si="105">IFERROR(G18/G16,0)</f>
+        <f t="shared" ref="G37:Q37" si="106">IFERROR(G18/G16,0)</f>
         <v>0.81936998741106415</v>
       </c>
       <c r="H37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="I37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="J37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="K37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="L37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="M37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="N37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="O37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="P37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="Q37" s="64">
-        <f t="shared" si="105"/>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="R37" s="64">
-        <f t="shared" ref="R37:V37" si="106">IFERROR(R18/R16,0)</f>
-        <v>0.81936998741106426</v>
-      </c>
-      <c r="S37" s="64">
         <f t="shared" si="106"/>
         <v>0.81936998741106426</v>
       </c>
+      <c r="I37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="J37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="K37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="L37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="M37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="N37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="O37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="P37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="Q37" s="64">
+        <f t="shared" si="106"/>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="R37" s="64">
+        <f t="shared" ref="R37:V37" si="107">IFERROR(R18/R16,0)</f>
+        <v>0.81936998741106426</v>
+      </c>
+      <c r="S37" s="64">
+        <f t="shared" si="107"/>
+        <v>0.81936998741106426</v>
+      </c>
       <c r="T37" s="64">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.81936998741106437</v>
       </c>
       <c r="U37" s="64">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.81936998741106437</v>
       </c>
       <c r="V37" s="64">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.81936998741106437</v>
       </c>
     </row>
@@ -3632,71 +3632,71 @@
         <v>0.44616569361366809</v>
       </c>
       <c r="F38" s="63">
-        <f t="shared" ref="F38:Q38" si="107">IFERROR(F23/F16,0)</f>
+        <f t="shared" ref="F38:Q38" si="108">IFERROR(F23/F16,0)</f>
         <v>0.33927889443682191</v>
       </c>
       <c r="G38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.41508319512797914</v>
       </c>
       <c r="H38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.39010104111205701</v>
       </c>
       <c r="I38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.36341590003417668</v>
       </c>
       <c r="J38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.33490473337270155</v>
       </c>
       <c r="K38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.30443533838539671</v>
       </c>
       <c r="L38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.31213974911299497</v>
       </c>
       <c r="M38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.31900367867030988</v>
       </c>
       <c r="N38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.32511881591228114</v>
       </c>
       <c r="O38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.33056684727331032</v>
       </c>
       <c r="P38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.33542054794040899</v>
       </c>
       <c r="Q38" s="63">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.33974475398927861</v>
       </c>
       <c r="R38" s="63">
-        <f t="shared" ref="R38:V38" si="108">IFERROR(R23/R16,0)</f>
+        <f t="shared" ref="R38:V38" si="109">IFERROR(R23/R16,0)</f>
         <v>0.34359722846918078</v>
       </c>
       <c r="S38" s="63">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.34702943300582073</v>
       </c>
       <c r="T38" s="63">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.35008721522937281</v>
       </c>
       <c r="U38" s="63">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.35281142121035558</v>
       </c>
       <c r="V38" s="63">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.35523844108432201</v>
       </c>
     </row>
@@ -3717,75 +3717,75 @@
         <v>0.22632805671554823</v>
       </c>
       <c r="E39" s="63">
-        <f t="shared" ref="E39:Q39" si="109">IFERROR(E26/E25,0)</f>
+        <f t="shared" ref="E39:Q39" si="110">IFERROR(E26/E25,0)</f>
         <v>0.12807065967430306</v>
       </c>
       <c r="F39" s="63">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.25499758181525067</v>
       </c>
       <c r="G39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.2</v>
-      </c>
-      <c r="H39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="I39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="J39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.2</v>
-      </c>
-      <c r="K39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.2</v>
-      </c>
-      <c r="L39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.2</v>
-      </c>
-      <c r="M39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.2</v>
-      </c>
-      <c r="N39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="O39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.2</v>
-      </c>
-      <c r="P39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q39" s="63">
-        <f t="shared" si="109"/>
-        <v>0.2</v>
-      </c>
-      <c r="R39" s="63">
-        <f t="shared" ref="R39:V39" si="110">IFERROR(R26/R25,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="S39" s="63">
         <f t="shared" si="110"/>
         <v>0.2</v>
       </c>
-      <c r="T39" s="63">
+      <c r="H39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="I39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="J39" s="63">
         <f t="shared" si="110"/>
         <v>0.2</v>
       </c>
-      <c r="U39" s="63">
+      <c r="K39" s="63">
         <f t="shared" si="110"/>
         <v>0.2</v>
       </c>
+      <c r="L39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.2</v>
+      </c>
+      <c r="M39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.2</v>
+      </c>
+      <c r="N39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="O39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.2</v>
+      </c>
+      <c r="P39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q39" s="63">
+        <f t="shared" si="110"/>
+        <v>0.2</v>
+      </c>
+      <c r="R39" s="63">
+        <f t="shared" ref="R39:V39" si="111">IFERROR(R26/R25,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="S39" s="63">
+        <f t="shared" si="111"/>
+        <v>0.2</v>
+      </c>
+      <c r="T39" s="63">
+        <f t="shared" si="111"/>
+        <v>0.2</v>
+      </c>
+      <c r="U39" s="63">
+        <f t="shared" si="111"/>
+        <v>0.2</v>
+      </c>
       <c r="V39" s="63">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3841,63 +3841,63 @@
         <v>83641.242000000013</v>
       </c>
       <c r="H41" s="65">
-        <f t="shared" ref="H41:Q41" si="111">G41+H27</f>
+        <f t="shared" ref="H41:Q41" si="112">G41+H27</f>
         <v>116479.72745100001</v>
       </c>
       <c r="I41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>153598.87643497053</v>
       </c>
       <c r="J41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>195095.73749641801</v>
       </c>
       <c r="K41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>240856.44875267538</v>
       </c>
       <c r="L41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>292633.67553317145</v>
       </c>
       <c r="M41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>351015.98423954775</v>
       </c>
       <c r="N41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>416651.18540652317</v>
       </c>
       <c r="O41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>490252.2513716626</v>
       </c>
       <c r="P41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>572603.82585504372</v>
       </c>
       <c r="Q41" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>664569.38463701785</v>
       </c>
       <c r="R41" s="65">
-        <f t="shared" ref="R41" si="112">Q41+R27</f>
+        <f t="shared" ref="R41" si="113">Q41+R27</f>
         <v>767099.11244113673</v>
       </c>
       <c r="S41" s="65">
-        <f t="shared" ref="S41" si="113">R41+S27</f>
+        <f t="shared" ref="S41" si="114">R41+S27</f>
         <v>881238.56764007884</v>
       </c>
       <c r="T41" s="65">
-        <f t="shared" ref="T41" si="114">S41+T27</f>
+        <f t="shared" ref="T41" si="115">S41+T27</f>
         <v>1008138.2135642481</v>
       </c>
       <c r="U41" s="65">
-        <f t="shared" ref="U41" si="115">T41+U27</f>
+        <f t="shared" ref="U41" si="116">T41+U27</f>
         <v>1149063.9030707357</v>
       </c>
       <c r="V41" s="65">
-        <f t="shared" ref="V41" si="116">U41+V27</f>
+        <f t="shared" ref="V41" si="117">U41+V27</f>
         <v>1305408.4116961607</v>
       </c>
     </row>
@@ -4403,31 +4403,31 @@
         <v>0.13821138211382111</v>
       </c>
       <c r="E57" s="49">
-        <f t="shared" ref="E57:K57" si="117">E13/D13-1</f>
+        <f t="shared" ref="E57:K57" si="118">E13/D13-1</f>
         <v>8.5714285714285632E-2</v>
       </c>
       <c r="F57" s="49">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>9.210526315789469E-2</v>
       </c>
       <c r="G57" s="49">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="H57" s="49">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I57" s="49">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="J57" s="49">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K57" s="49">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -4444,31 +4444,31 @@
         <v>0.29229916367733866</v>
       </c>
       <c r="E58" s="49">
-        <f t="shared" ref="E58:K58" si="118">E14/D14-1</f>
+        <f t="shared" ref="E58:K58" si="119">E14/D14-1</f>
         <v>0.26509081352188679</v>
       </c>
       <c r="F58" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.15932881567460444</v>
       </c>
       <c r="G58" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="H58" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I58" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J58" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K58" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.14999999999999991</v>
       </c>
     </row>
@@ -4488,11 +4488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4957,47 +4957,47 @@
         <v>9.2657142857142851</v>
       </c>
       <c r="N7" s="81">
-        <f>SUM(N3:N4)/N6</f>
+        <f t="shared" ref="N7:X7" si="1">SUM(N3:N4)/N6</f>
         <v>8.2524137931034485</v>
       </c>
       <c r="O7" s="82">
-        <f>SUM(O3:O4)/O6</f>
+        <f t="shared" si="1"/>
         <v>9.000680272108843</v>
       </c>
       <c r="P7" s="82">
-        <f>SUM(P3:P4)/P6</f>
+        <f t="shared" si="1"/>
         <v>9.2127516778523493</v>
       </c>
       <c r="Q7" s="82">
-        <f>SUM(Q3:Q4)/Q6</f>
+        <f t="shared" si="1"/>
         <v>11.127631578947369</v>
       </c>
       <c r="R7" s="81">
-        <f>SUM(R3:R4)/R6</f>
+        <f t="shared" si="1"/>
         <v>9.6647435897435905</v>
       </c>
       <c r="S7" s="82">
-        <f>SUM(S3:S4)/S6</f>
+        <f t="shared" si="1"/>
         <v>10.620125786163522</v>
       </c>
       <c r="T7" s="82">
-        <f>SUM(T3:T4)/T6</f>
+        <f t="shared" si="1"/>
         <v>10.896296296296295</v>
       </c>
       <c r="U7" s="82">
-        <f>SUM(U3:U4)/U6</f>
+        <f t="shared" si="1"/>
         <v>12.7</v>
       </c>
       <c r="V7" s="81">
-        <f>SUM(V3:V4)/V6</f>
+        <f t="shared" si="1"/>
         <v>10.252601156069364</v>
       </c>
       <c r="W7" s="82">
-        <f>SUM(W3:W4)/W6</f>
+        <f t="shared" si="1"/>
         <v>10.439664804469274</v>
       </c>
       <c r="X7" s="82">
-        <f>SUM(X3:X4)/X6</f>
+        <f t="shared" si="1"/>
         <v>11.796703296703297</v>
       </c>
     </row>
@@ -5023,39 +5023,39 @@
         <v>4042</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" ref="D9:L9" si="1">SUM(D3:D4)</f>
+        <f t="shared" ref="D9:L9" si="2">SUM(D3:D4)</f>
         <v>4501</v>
       </c>
       <c r="E9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5841</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5382</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6436</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7011</v>
       </c>
       <c r="I9" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8809</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8032</v>
       </c>
       <c r="K9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9321</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10328</v>
       </c>
       <c r="M9" s="16">
@@ -5063,48 +5063,51 @@
         <v>12972</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" ref="N9:P9" si="2">SUM(N3:N4)</f>
+        <f t="shared" ref="N9:P9" si="3">SUM(N3:N4)</f>
         <v>11966</v>
       </c>
       <c r="O9" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13231</v>
       </c>
       <c r="P9" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13727</v>
       </c>
       <c r="Q9" s="16">
-        <f>SUM(Q3:Q4)</f>
+        <f t="shared" ref="Q9:X9" si="4">SUM(Q3:Q4)</f>
         <v>16914</v>
       </c>
       <c r="R9" s="17">
-        <f>SUM(R3:R4)</f>
+        <f t="shared" si="4"/>
         <v>15077</v>
       </c>
       <c r="S9" s="16">
-        <f>SUM(S3:S4)</f>
+        <f t="shared" si="4"/>
         <v>16886</v>
       </c>
       <c r="T9" s="16">
-        <f>SUM(T3:T4)</f>
+        <f t="shared" si="4"/>
         <v>17652</v>
       </c>
       <c r="U9" s="16">
-        <f>SUM(U3:U4)</f>
+        <f t="shared" si="4"/>
         <v>21082</v>
       </c>
       <c r="V9" s="17">
-        <f>SUM(V3:V4)</f>
+        <f t="shared" si="4"/>
         <v>17737</v>
       </c>
       <c r="W9" s="16">
-        <f>SUM(W3:W4)</f>
+        <f t="shared" si="4"/>
         <v>18687</v>
       </c>
       <c r="X9" s="16">
-        <f>SUM(X3:X4)</f>
+        <f t="shared" si="4"/>
         <v>21470</v>
+      </c>
+      <c r="Y9" s="85">
+        <v>28072</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -5206,75 +5209,75 @@
         <v>4544</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" ref="G11:L11" si="3">G9-G10</f>
+        <f t="shared" ref="G11:L11" si="5">G9-G10</f>
         <v>5520</v>
       </c>
       <c r="H11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6024</v>
       </c>
       <c r="I11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7762</v>
       </c>
       <c r="J11" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6873</v>
       </c>
       <c r="K11" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8084</v>
       </c>
       <c r="L11" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8880</v>
       </c>
       <c r="M11" s="19">
-        <f t="shared" ref="M11:Q11" si="4">M9-M10</f>
+        <f t="shared" ref="M11:Q11" si="6">M9-M10</f>
         <v>11361</v>
       </c>
       <c r="N11" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10039</v>
       </c>
       <c r="O11" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11017</v>
       </c>
       <c r="P11" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11309</v>
       </c>
       <c r="Q11" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14118</v>
       </c>
       <c r="R11" s="20">
-        <f t="shared" ref="R11:T11" si="5">R9-R10</f>
+        <f t="shared" ref="R11:T11" si="7">R9-R10</f>
         <v>12261</v>
       </c>
       <c r="S11" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13579</v>
       </c>
       <c r="T11" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14497</v>
       </c>
       <c r="U11" s="19">
-        <f t="shared" ref="U11:X11" si="6">U9-U10</f>
+        <f t="shared" ref="U11:X11" si="8">U9-U10</f>
         <v>17590</v>
       </c>
       <c r="V11" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14278</v>
       </c>
       <c r="W11" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14858</v>
       </c>
       <c r="X11" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17276</v>
       </c>
     </row>
@@ -5525,27 +5528,27 @@
         <v>2535</v>
       </c>
       <c r="G15" s="21">
-        <f t="shared" ref="G15:L15" si="7">SUM(G12:G14)</f>
+        <f t="shared" ref="G15:L15" si="9">SUM(G12:G14)</f>
         <v>2774</v>
       </c>
       <c r="H15" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2902</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3196</v>
       </c>
       <c r="J15" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3546</v>
       </c>
       <c r="K15" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3683</v>
       </c>
       <c r="L15" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3758</v>
       </c>
       <c r="M15" s="19">
@@ -5553,47 +5556,47 @@
         <v>4009</v>
       </c>
       <c r="N15" s="20">
-        <f t="shared" ref="N15:P15" si="8">SUM(N12:N14)</f>
+        <f t="shared" ref="N15:P15" si="10">SUM(N12:N14)</f>
         <v>4590</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5154</v>
       </c>
       <c r="P15" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5528</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" ref="Q15:R15" si="9">SUM(Q12:Q14)</f>
+        <f t="shared" ref="Q15:R15" si="11">SUM(Q12:Q14)</f>
         <v>6298</v>
       </c>
       <c r="R15" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8944</v>
       </c>
       <c r="S15" s="19">
-        <f t="shared" ref="S15:T15" si="10">SUM(S12:S14)</f>
+        <f t="shared" ref="S15:T15" si="12">SUM(S12:S14)</f>
         <v>8953</v>
       </c>
       <c r="T15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7312</v>
       </c>
       <c r="U15" s="19">
-        <f t="shared" ref="U15:V15" si="11">SUM(U12:U14)</f>
+        <f t="shared" ref="U15:V15" si="13">SUM(U12:U14)</f>
         <v>8732</v>
       </c>
       <c r="V15" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8385</v>
       </c>
       <c r="W15" s="19">
-        <f t="shared" ref="W15:X15" si="12">SUM(W12:W14)</f>
+        <f t="shared" ref="W15:X15" si="14">SUM(W12:W14)</f>
         <v>8895</v>
       </c>
       <c r="X15" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9236</v>
       </c>
     </row>
@@ -5622,79 +5625,79 @@
         <v>2009</v>
       </c>
       <c r="G16" s="21">
-        <f t="shared" ref="G16:H16" si="13">G11-G15</f>
+        <f t="shared" ref="G16:H16" si="15">G11-G15</f>
         <v>2746</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3122</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" ref="I16:P16" si="14">I11-I15</f>
+        <f t="shared" ref="I16:P16" si="16">I11-I15</f>
         <v>4566</v>
       </c>
       <c r="J16" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3327</v>
       </c>
       <c r="K16" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4401</v>
       </c>
       <c r="L16" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5122</v>
       </c>
       <c r="M16" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7352</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5449</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5863</v>
       </c>
       <c r="P16" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5781</v>
       </c>
       <c r="Q16" s="19">
-        <f t="shared" ref="Q16:R16" si="15">Q11-Q15</f>
+        <f t="shared" ref="Q16:R16" si="17">Q11-Q15</f>
         <v>7820</v>
       </c>
       <c r="R16" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3317</v>
       </c>
       <c r="S16" s="19">
-        <f t="shared" ref="S16:T16" si="16">S11-S15</f>
+        <f t="shared" ref="S16:T16" si="18">S11-S15</f>
         <v>4626</v>
       </c>
       <c r="T16" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7185</v>
       </c>
       <c r="U16" s="19">
-        <f t="shared" ref="U16:V16" si="17">U11-U15</f>
+        <f t="shared" ref="U16:V16" si="19">U11-U15</f>
         <v>8858</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5893</v>
       </c>
       <c r="W16" s="19">
-        <f t="shared" ref="W16:X16" si="18">W11-W15</f>
+        <f t="shared" ref="W16:X16" si="20">W11-W15</f>
         <v>5963</v>
       </c>
       <c r="X16" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8040</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="78" t="s">
         <v>12</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
         <v>13</v>
       </c>
@@ -5793,79 +5796,79 @@
         <v>2065</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" ref="G18:I18" si="19">G16+G17</f>
+        <f t="shared" ref="G18:I18" si="21">G16+G17</f>
         <v>2766</v>
       </c>
       <c r="H18" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3169</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4533</v>
       </c>
       <c r="J18" s="20">
-        <f t="shared" ref="J18:K18" si="20">J16+J17</f>
+        <f t="shared" ref="J18:K18" si="22">J16+J17</f>
         <v>3408</v>
       </c>
       <c r="K18" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4488</v>
       </c>
       <c r="L18" s="19">
-        <f t="shared" ref="L18:O18" si="21">L16+L17</f>
+        <f t="shared" ref="L18:O18" si="23">L16+L17</f>
         <v>5236</v>
       </c>
       <c r="M18" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7462</v>
       </c>
       <c r="N18" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5610</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5868</v>
       </c>
       <c r="P18" s="19">
-        <f t="shared" ref="P18:T18" si="22">P16+P17</f>
+        <f t="shared" ref="P18:T18" si="24">P16+P17</f>
         <v>5912</v>
       </c>
       <c r="Q18" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7971</v>
       </c>
       <c r="R18" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3482</v>
       </c>
       <c r="S18" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4832</v>
       </c>
       <c r="T18" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7329</v>
       </c>
       <c r="U18" s="19">
-        <f t="shared" ref="U18:X18" si="23">U16+U17</f>
+        <f t="shared" ref="U18:X18" si="25">U16+U17</f>
         <v>9169</v>
       </c>
       <c r="V18" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5861</v>
       </c>
       <c r="W18" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6131</v>
       </c>
       <c r="X18" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8133</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="78" t="s">
         <v>14</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="84" t="s">
         <v>15</v>
       </c>
@@ -5964,176 +5967,176 @@
         <v>1510</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" ref="G20:H20" si="24">G18-G19</f>
+        <f t="shared" ref="G20:H20" si="26">G18-G19</f>
         <v>2055</v>
       </c>
       <c r="H20" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2379</v>
       </c>
       <c r="I20" s="18">
-        <f t="shared" ref="I20:P20" si="25">I18-I19</f>
+        <f t="shared" ref="I20:P20" si="27">I18-I19</f>
         <v>3568</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3064</v>
       </c>
       <c r="K20" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3894</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4707</v>
       </c>
       <c r="M20" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4268</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4988</v>
       </c>
       <c r="O20" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5106</v>
       </c>
       <c r="P20" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5137</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" ref="Q20:R20" si="26">Q18-Q19</f>
+        <f t="shared" ref="Q20:R20" si="28">Q18-Q19</f>
         <v>6882</v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2429</v>
       </c>
       <c r="S20" s="16">
-        <f t="shared" ref="S20:T20" si="27">S18-S19</f>
+        <f t="shared" ref="S20:T20" si="29">S18-S19</f>
         <v>2616</v>
       </c>
       <c r="T20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6091</v>
       </c>
       <c r="U20" s="16">
-        <f t="shared" ref="U20:V20" si="28">U18-U19</f>
+        <f t="shared" ref="U20:V20" si="30">U18-U19</f>
         <v>7349</v>
       </c>
       <c r="V20" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4902</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" ref="W20:X20" si="29">W18-W19</f>
+        <f t="shared" ref="W20:X20" si="31">W18-W19</f>
         <v>5178</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7846</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="22">
-        <f t="shared" ref="B21:H21" si="30">IFERROR(B20/B22,0)</f>
+        <f t="shared" ref="B21:H21" si="32">IFERROR(B20/B22,0)</f>
         <v>0.18053596614950634</v>
       </c>
       <c r="C21" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.25228070175438594</v>
       </c>
       <c r="D21" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.31295843520782396</v>
       </c>
       <c r="E21" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.54273801250868658</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.52285318559556782</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.7076446280991735</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.81612349914236704</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21:L21" si="31">IFERROR(I20/I22,0)</f>
+        <f t="shared" ref="I21:L21" si="33">IFERROR(I20/I22,0)</f>
         <v>1.2144315861130019</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0407608695652173</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.3195526940020332</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.5923545331529094</v>
       </c>
       <c r="M21" s="22">
-        <f t="shared" ref="M21:P21" si="32">IFERROR(M20/M22,0)</f>
+        <f t="shared" ref="M21:P21" si="34">IFERROR(M20/M22,0)</f>
         <v>1.4691910499139416</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.6937181663837011</v>
       </c>
       <c r="O21" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="P21" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.7634740817027119</v>
       </c>
       <c r="Q21" s="22">
-        <f t="shared" ref="Q21:R21" si="33">IFERROR(Q20/Q22,0)</f>
+        <f t="shared" ref="Q21:R21" si="35">IFERROR(Q20/Q22,0)</f>
         <v>2.3846153846153846</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.84663645869640991</v>
       </c>
       <c r="S21" s="22">
-        <f t="shared" ref="S21:T21" si="34">IFERROR(S20/S22,0)</f>
+        <f t="shared" ref="S21:T21" si="36">IFERROR(S20/S22,0)</f>
         <v>0.90991304347826085</v>
       </c>
       <c r="T21" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2.1193458594293668</v>
       </c>
       <c r="U21" s="22">
-        <f t="shared" ref="U21:V21" si="35">IFERROR(U20/U22,0)</f>
+        <f t="shared" ref="U21:V21" si="37">IFERROR(U20/U22,0)</f>
         <v>2.559735283873215</v>
       </c>
       <c r="V21" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.7092050209205021</v>
       </c>
       <c r="W21" s="22">
-        <f t="shared" ref="W21:X21" si="36">IFERROR(W20/W22,0)</f>
+        <f t="shared" ref="W21:X21" si="38">IFERROR(W20/W22,0)</f>
         <v>1.7985411601250434</v>
       </c>
       <c r="X21" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.7139398132134209</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="78" t="s">
         <v>17</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -6220,7 +6223,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="77" t="s">
         <v>18</v>
       </c>
@@ -6233,27 +6236,27 @@
         <v>0.51905165114309915</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" ref="G24:O24" si="37">G9/C9-1</f>
+        <f t="shared" ref="G24:O24" si="39">G9/C9-1</f>
         <v>0.5922810489856507</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.55765385469895579</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.5081321691491183</v>
       </c>
       <c r="J24" s="24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.49238201412114457</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.44825978868862637</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.47311367850520614</v>
       </c>
       <c r="M24" s="23">
@@ -6261,51 +6264,55 @@
         <v>0.47258485639686687</v>
       </c>
       <c r="N24" s="24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.48979083665338652</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.41948288810213485</v>
       </c>
       <c r="P24" s="23">
-        <f>P9/L9-1</f>
+        <f t="shared" ref="P24:Y24" si="40">P9/L9-1</f>
         <v>0.32910534469403574</v>
       </c>
       <c r="Q24" s="23">
-        <f>Q9/M9-1</f>
+        <f t="shared" si="40"/>
         <v>0.30388529139685483</v>
       </c>
       <c r="R24" s="24">
-        <f>R9/N9-1</f>
+        <f t="shared" si="40"/>
         <v>0.25998662878154777</v>
       </c>
       <c r="S24" s="23">
-        <f>S9/O9-1</f>
+        <f t="shared" si="40"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="T24" s="23">
-        <f>T9/P9-1</f>
+        <f t="shared" si="40"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="U24" s="23">
-        <f>U9/Q9-1</f>
+        <f t="shared" si="40"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="V24" s="24">
-        <f>V9/R9-1</f>
+        <f t="shared" si="40"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="W24" s="23">
-        <f>W9/S9-1</f>
+        <f t="shared" si="40"/>
         <v>0.10665640175293145</v>
       </c>
       <c r="X24" s="23">
-        <f>X9/T9-1</f>
+        <f t="shared" si="40"/>
         <v>0.21629277135735325</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y24" s="23">
+        <f t="shared" si="40"/>
+        <v>0.33156247035385644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36" t="s">
         <v>69</v>
       </c>
@@ -6322,75 +6329,75 @@
         <v>0.25042735042735043</v>
       </c>
       <c r="H25" s="26">
-        <f t="shared" ref="H25" si="38">H12/D12-1</f>
+        <f t="shared" ref="H25" si="41">H12/D12-1</f>
         <v>0.21085759244689228</v>
       </c>
       <c r="I25" s="26">
-        <f t="shared" ref="I25:I27" si="39">I12/E12-1</f>
+        <f t="shared" ref="I25:I27" si="42">I12/E12-1</f>
         <v>0.18949771689497719</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" ref="J25:J27" si="40">J12/F12-1</f>
+        <f t="shared" ref="J25:J27" si="43">J12/F12-1</f>
         <v>0.36559940431868942</v>
       </c>
       <c r="K25" s="26">
-        <f t="shared" ref="K25:K27" si="41">K12/G12-1</f>
+        <f t="shared" ref="K25:K27" si="44">K12/G12-1</f>
         <v>0.31168831168831179</v>
       </c>
       <c r="L25" s="26">
-        <f t="shared" ref="L25:L27" si="42">L12/H12-1</f>
+        <f t="shared" ref="L25:L27" si="45">L12/H12-1</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" ref="M25:M27" si="43">M12/I12-1</f>
+        <f t="shared" ref="M25:M27" si="46">M12/I12-1</f>
         <v>0.24696097248880355</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" ref="N25:N27" si="44">N12/J12-1</f>
+        <f t="shared" ref="N25:N27" si="47">N12/J12-1</f>
         <v>0.22028353326063255</v>
       </c>
       <c r="O25" s="26">
-        <f t="shared" ref="O25:O27" si="45">O12/K12-1</f>
+        <f t="shared" ref="O25:O27" si="48">O12/K12-1</f>
         <v>0.31474726420010413</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" ref="P25:P27" si="46">P12/L12-1</f>
+        <f t="shared" ref="P25:P27" si="49">P12/L12-1</f>
         <v>0.29483430799220267</v>
       </c>
       <c r="Q25" s="26">
-        <f>Q12/M12-1</f>
+        <f t="shared" ref="Q25:X27" si="50">Q12/M12-1</f>
         <v>0.46485377116469984</v>
       </c>
       <c r="R25" s="25">
-        <f>R12/N12-1</f>
+        <f t="shared" si="50"/>
         <v>0.27792672028596965</v>
       </c>
       <c r="S25" s="26">
-        <f>S12/O12-1</f>
+        <f t="shared" si="50"/>
         <v>0.31391200951248521</v>
       </c>
       <c r="T25" s="26">
-        <f>T12/P12-1</f>
+        <f t="shared" si="50"/>
         <v>0.33534060971019941</v>
       </c>
       <c r="U25" s="26">
-        <f>U12/Q12-1</f>
+        <f t="shared" si="50"/>
         <v>0.35796847635726792</v>
       </c>
       <c r="V25" s="25">
-        <f>V12/R12-1</f>
+        <f t="shared" si="50"/>
         <v>0.40384615384615374</v>
       </c>
       <c r="W25" s="26">
-        <f>W12/S12-1</f>
+        <f t="shared" si="50"/>
         <v>0.34600301659125199</v>
       </c>
       <c r="X25" s="26">
-        <f>X12/T12-1</f>
+        <f t="shared" si="50"/>
         <v>0.34244644870349483</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36" t="s">
         <v>70</v>
       </c>
@@ -6403,79 +6410,79 @@
         <v>0.33225806451612905</v>
       </c>
       <c r="G26" s="26">
-        <f t="shared" ref="G26:H26" si="47">G13/C13-1</f>
+        <f t="shared" ref="G26:H26" si="51">G13/C13-1</f>
         <v>0.4361022364217253</v>
       </c>
       <c r="H26" s="26">
+        <f t="shared" si="51"/>
+        <v>0.31019830028328621</v>
+      </c>
+      <c r="I26" s="26">
+        <f t="shared" si="42"/>
+        <v>0.44818652849740936</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="43"/>
+        <v>0.27966101694915246</v>
+      </c>
+      <c r="K26" s="26">
+        <f t="shared" si="44"/>
+        <v>0.25027808676307006</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="45"/>
+        <v>0.26486486486486482</v>
+      </c>
+      <c r="M26" s="26">
+        <f t="shared" si="46"/>
+        <v>0.22898032200357776</v>
+      </c>
+      <c r="N26" s="25">
         <f t="shared" si="47"/>
-        <v>0.31019830028328621</v>
-      </c>
-      <c r="I26" s="26">
-        <f t="shared" si="39"/>
-        <v>0.44818652849740936</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="40"/>
-        <v>0.27966101694915246</v>
-      </c>
-      <c r="K26" s="26">
-        <f t="shared" si="41"/>
-        <v>0.25027808676307006</v>
-      </c>
-      <c r="L26" s="26">
-        <f t="shared" si="42"/>
-        <v>0.26486486486486482</v>
-      </c>
-      <c r="M26" s="26">
-        <f t="shared" si="43"/>
-        <v>0.22898032200357776</v>
-      </c>
-      <c r="N26" s="25">
-        <f t="shared" si="44"/>
         <v>0.50898770104068114</v>
       </c>
       <c r="O26" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.6503558718861211</v>
       </c>
       <c r="P26" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.64786324786324778</v>
       </c>
       <c r="Q26" s="26">
-        <f>Q13/M13-1</f>
+        <f t="shared" si="50"/>
         <v>0.79548762736535661</v>
       </c>
       <c r="R26" s="25">
-        <f>R13/N13-1</f>
+        <f t="shared" si="50"/>
         <v>0.26645768025078365</v>
       </c>
       <c r="S26" s="26">
-        <f>S13/O13-1</f>
+        <f t="shared" si="50"/>
         <v>0.30134770889487861</v>
       </c>
       <c r="T26" s="26">
-        <f>T13/P13-1</f>
+        <f t="shared" si="50"/>
         <v>0.25311203319502074</v>
       </c>
       <c r="U26" s="26">
-        <f>U13/Q13-1</f>
+        <f t="shared" si="50"/>
         <v>0.22659100121605191</v>
       </c>
       <c r="V26" s="25">
-        <f>V13/R13-1</f>
+        <f t="shared" si="50"/>
         <v>0.3797029702970296</v>
       </c>
       <c r="W26" s="26">
-        <f>W13/S13-1</f>
+        <f t="shared" si="50"/>
         <v>0.17647058823529416</v>
       </c>
       <c r="X26" s="26">
-        <f>X13/T13-1</f>
+        <f t="shared" si="50"/>
         <v>0.11051324503311255</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36" t="s">
         <v>71</v>
       </c>
@@ -6488,79 +6495,79 @@
         <v>0.33576642335766427</v>
       </c>
       <c r="G27" s="26">
-        <f t="shared" ref="G27:H27" si="48">G14/C14-1</f>
+        <f t="shared" ref="G27:H27" si="52">G14/C14-1</f>
         <v>0.35081967213114762</v>
       </c>
       <c r="H27" s="26">
+        <f t="shared" si="52"/>
+        <v>0.26956521739130435</v>
+      </c>
+      <c r="I27" s="26">
+        <f t="shared" si="42"/>
+        <v>0.38814016172506749</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" si="43"/>
+        <v>0.78961748633879791</v>
+      </c>
+      <c r="K27" s="26">
+        <f t="shared" si="44"/>
+        <v>0.55339805825242716</v>
+      </c>
+      <c r="L27" s="26">
+        <f t="shared" si="45"/>
+        <v>0.22374429223744285</v>
+      </c>
+      <c r="M27" s="26">
+        <f t="shared" si="46"/>
+        <v>0.33203883495145625</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="47"/>
+        <v>0.1557251908396946</v>
+      </c>
+      <c r="O27" s="26">
         <f t="shared" si="48"/>
-        <v>0.26956521739130435</v>
-      </c>
-      <c r="I27" s="26">
-        <f t="shared" si="39"/>
-        <v>0.38814016172506749</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" si="40"/>
-        <v>0.78961748633879791</v>
-      </c>
-      <c r="K27" s="26">
-        <f t="shared" si="41"/>
-        <v>0.55339805825242716</v>
-      </c>
-      <c r="L27" s="26">
-        <f t="shared" si="42"/>
-        <v>0.22374429223744285</v>
-      </c>
-      <c r="M27" s="26">
-        <f t="shared" si="43"/>
-        <v>0.33203883495145625</v>
-      </c>
-      <c r="N27" s="25">
-        <f t="shared" si="44"/>
-        <v>0.1557251908396946</v>
-      </c>
-      <c r="O27" s="26">
-        <f t="shared" si="45"/>
         <v>0.21249999999999991</v>
       </c>
       <c r="P27" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.75932835820895517</v>
       </c>
       <c r="Q27" s="26">
-        <f>Q14/M14-1</f>
+        <f t="shared" si="50"/>
         <v>0.42274052478134116</v>
       </c>
       <c r="R27" s="25">
-        <f>R14/N14-1</f>
+        <f t="shared" si="50"/>
         <v>4.3685601056803174</v>
       </c>
       <c r="S27" s="26">
-        <f>S14/O14-1</f>
+        <f t="shared" si="50"/>
         <v>3.1546391752577323</v>
       </c>
       <c r="T27" s="26">
-        <f>T14/P14-1</f>
+        <f t="shared" si="50"/>
         <v>0.42948038176033942</v>
       </c>
       <c r="U27" s="26">
-        <f>U14/Q14-1</f>
+        <f t="shared" si="50"/>
         <v>0.87397540983606548</v>
       </c>
       <c r="V27" s="25">
-        <f>V14/R14-1</f>
+        <f t="shared" si="50"/>
         <v>-0.6104822834645669</v>
       </c>
       <c r="W27" s="26">
-        <f>W14/S14-1</f>
+        <f t="shared" si="50"/>
         <v>-0.50589330024813894</v>
       </c>
       <c r="X27" s="26">
-        <f>X14/T14-1</f>
+        <f t="shared" si="50"/>
         <v>0.32789317507418403</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -6585,7 +6592,7 @@
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="36" t="s">
         <v>19</v>
       </c>
@@ -6610,15 +6617,15 @@
         <v>0.84429580081753997</v>
       </c>
       <c r="G29" s="32">
-        <f t="shared" ref="G29:K29" si="49">IFERROR(G11/G9,0)</f>
+        <f t="shared" ref="G29:K29" si="53">IFERROR(G11/G9,0)</f>
         <v>0.8576755748912368</v>
       </c>
       <c r="H29" s="32">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.85922122379118526</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.88114428425473945</v>
       </c>
       <c r="J29" s="31">
@@ -6626,7 +6633,7 @@
         <v>0.85570219123505975</v>
       </c>
       <c r="K29" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.86728891749812254</v>
       </c>
       <c r="L29" s="30">
@@ -6634,7 +6641,7 @@
         <v>0.85979860573199074</v>
       </c>
       <c r="M29" s="30">
-        <f t="shared" ref="M29" si="50">IFERROR(M11/M9,0)</f>
+        <f t="shared" ref="M29" si="54">IFERROR(M11/M9,0)</f>
         <v>0.87580943570767811</v>
       </c>
       <c r="N29" s="31">
@@ -6642,47 +6649,47 @@
         <v>0.8389603877653351</v>
       </c>
       <c r="O29" s="30">
-        <f t="shared" ref="O29" si="51">IFERROR(O11/O9,0)</f>
+        <f t="shared" ref="O29" si="55">IFERROR(O11/O9,0)</f>
         <v>0.83266570931902351</v>
       </c>
       <c r="P29" s="30">
-        <f>IFERROR(P11/P9,0)</f>
+        <f t="shared" ref="P29:X29" si="56">IFERROR(P11/P9,0)</f>
         <v>0.82385080498288044</v>
       </c>
       <c r="Q29" s="30">
-        <f>IFERROR(Q11/Q9,0)</f>
+        <f t="shared" si="56"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="R29" s="31">
-        <f>IFERROR(R11/R9,0)</f>
+        <f t="shared" si="56"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="S29" s="30">
-        <f>IFERROR(S11/S9,0)</f>
+        <f t="shared" si="56"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="T29" s="30">
-        <f>IFERROR(T11/T9,0)</f>
+        <f t="shared" si="56"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="U29" s="30">
-        <f>IFERROR(U11/U9,0)</f>
+        <f t="shared" si="56"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="V29" s="31">
-        <f>IFERROR(V11/V9,0)</f>
+        <f t="shared" si="56"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="W29" s="30">
-        <f>IFERROR(W11/W9,0)</f>
+        <f t="shared" si="56"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="X29" s="30">
-        <f>IFERROR(X11/X9,0)</f>
+        <f t="shared" si="56"/>
         <v>0.80465766185374943</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="36" t="s">
         <v>20</v>
       </c>
@@ -6707,79 +6714,79 @@
         <v>0.37328130806391674</v>
       </c>
       <c r="G30" s="35">
-        <f t="shared" ref="G30:L30" si="52">IFERROR(G16/G9,0)</f>
+        <f t="shared" ref="G30:L30" si="57">IFERROR(G16/G9,0)</f>
         <v>0.42666252330640148</v>
       </c>
       <c r="H30" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.445300242476109</v>
       </c>
       <c r="I30" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.5183335225337723</v>
       </c>
       <c r="J30" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.41421812749003983</v>
       </c>
       <c r="K30" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.47215963952365625</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.49593338497288925</v>
       </c>
       <c r="M30" s="33">
-        <f t="shared" ref="M30:P30" si="53">IFERROR(M16/M9,0)</f>
+        <f t="shared" ref="M30:P30" si="58">IFERROR(M16/M9,0)</f>
         <v>0.56675917360468697</v>
       </c>
       <c r="N30" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.45537355841551064</v>
       </c>
       <c r="O30" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="Q30" s="33">
-        <f>IFERROR(Q16/Q9,0)</f>
+        <f t="shared" ref="Q30:X30" si="59">IFERROR(Q16/Q9,0)</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="R30" s="34">
-        <f>IFERROR(R16/R9,0)</f>
+        <f t="shared" si="59"/>
         <v>0.22000397957153281</v>
       </c>
       <c r="S30" s="33">
-        <f>IFERROR(S16/S9,0)</f>
+        <f t="shared" si="59"/>
         <v>0.27395475541869002</v>
       </c>
       <c r="T30" s="33">
-        <f>IFERROR(T16/T9,0)</f>
+        <f t="shared" si="59"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="U30" s="33">
-        <f>IFERROR(U16/U9,0)</f>
+        <f t="shared" si="59"/>
         <v>0.42016886443411439</v>
       </c>
       <c r="V30" s="34">
-        <f>IFERROR(V16/V9,0)</f>
+        <f t="shared" si="59"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="W30" s="33">
-        <f>IFERROR(W16/W9,0)</f>
+        <f t="shared" si="59"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="X30" s="33">
-        <f>IFERROR(X16/X9,0)</f>
+        <f t="shared" si="59"/>
         <v>0.37447601304145317</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="36" t="s">
         <v>21</v>
       </c>
@@ -6788,15 +6795,15 @@
         <v>0.45064377682403434</v>
       </c>
       <c r="C31" s="33">
-        <f t="shared" ref="C31" si="54">IFERROR(C19/C18,0)</f>
+        <f t="shared" ref="C31" si="60">IFERROR(C19/C18,0)</f>
         <v>0.43519245875883739</v>
       </c>
       <c r="D31" s="33">
-        <f t="shared" ref="D31:E31" si="55">IFERROR(D19/D18,0)</f>
+        <f t="shared" ref="D31:E31" si="61">IFERROR(D19/D18,0)</f>
         <v>0.37430167597765363</v>
       </c>
       <c r="E31" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.38912788423934297</v>
       </c>
       <c r="F31" s="34">
@@ -6812,15 +6819,15 @@
         <v>0.24928999684443043</v>
       </c>
       <c r="I31" s="35">
-        <f t="shared" ref="I31:K31" si="56">IFERROR(I19/I18,0)</f>
+        <f t="shared" ref="I31:K31" si="62">IFERROR(I19/I18,0)</f>
         <v>0.21288330024266491</v>
       </c>
       <c r="J31" s="34">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.10093896713615023</v>
       </c>
       <c r="K31" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.13235294117647059</v>
       </c>
       <c r="L31" s="33">
@@ -6832,51 +6839,51 @@
         <v>0.42803537925489143</v>
       </c>
       <c r="N31" s="34">
-        <f t="shared" ref="N31:O31" si="57">IFERROR(N19/N18,0)</f>
+        <f t="shared" ref="N31:O31" si="63">IFERROR(N19/N18,0)</f>
         <v>0.11087344028520499</v>
       </c>
       <c r="O31" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="P31" s="33">
-        <f>IFERROR(P19/P18,0)</f>
+        <f t="shared" ref="P31:X31" si="64">IFERROR(P19/P18,0)</f>
         <v>0.13108930987821379</v>
       </c>
       <c r="Q31" s="33">
-        <f>IFERROR(Q19/Q18,0)</f>
+        <f t="shared" si="64"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="R31" s="34">
-        <f>IFERROR(R19/R18,0)</f>
+        <f t="shared" si="64"/>
         <v>0.30241240666283747</v>
       </c>
       <c r="S31" s="33">
-        <f>IFERROR(S19/S18,0)</f>
+        <f t="shared" si="64"/>
         <v>0.45860927152317882</v>
       </c>
       <c r="T31" s="33">
-        <f>IFERROR(T19/T18,0)</f>
+        <f t="shared" si="64"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="U31" s="33">
-        <f>IFERROR(U19/U18,0)</f>
+        <f t="shared" si="64"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="V31" s="34">
-        <f>IFERROR(V19/V18,0)</f>
+        <f t="shared" si="64"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="W31" s="33">
-        <f>IFERROR(W19/W18,0)</f>
+        <f t="shared" si="64"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="X31" s="33">
-        <f>IFERROR(X19/X18,0)</f>
+        <f t="shared" si="64"/>
         <v>3.5288331488995447E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -6888,7 +6895,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:24" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="84" t="s">
         <v>33</v>
       </c>
@@ -6913,23 +6920,23 @@
         <v>20621</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" ref="G33:K33" si="58">G34-G35</f>
+        <f t="shared" ref="G33:K33" si="65">G34-G35</f>
         <v>23293</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>26140</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>29449</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>32306</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>35452</v>
       </c>
       <c r="L33" s="16">
@@ -6941,51 +6948,55 @@
         <v>41711</v>
       </c>
       <c r="N33" s="17">
-        <f t="shared" ref="N33" si="59">N34-N35</f>
+        <f t="shared" ref="N33" si="66">N34-N35</f>
         <v>43956</v>
       </c>
       <c r="O33" s="16">
-        <f>O34-O35</f>
+        <f t="shared" ref="O33:Y33" si="67">O34-O35</f>
         <v>42309</v>
       </c>
       <c r="P33" s="16">
-        <f>P34-P35</f>
+        <f t="shared" si="67"/>
         <v>41206</v>
       </c>
       <c r="Q33" s="16">
-        <f>Q34-Q35</f>
+        <f t="shared" si="67"/>
         <v>41114</v>
       </c>
       <c r="R33" s="17">
-        <f>R34-R35</f>
+        <f t="shared" si="67"/>
         <v>45243</v>
       </c>
       <c r="S33" s="16">
-        <f>S34-S35</f>
+        <f t="shared" si="67"/>
         <v>48596</v>
       </c>
       <c r="T33" s="16">
-        <f>T34-T35</f>
+        <f t="shared" si="67"/>
         <v>52269</v>
       </c>
       <c r="U33" s="16">
-        <f>U34-U35</f>
+        <f t="shared" si="67"/>
         <v>54855</v>
       </c>
       <c r="V33" s="17">
-        <f>V34-V35</f>
+        <f t="shared" si="67"/>
         <v>60289</v>
       </c>
       <c r="W33" s="16">
-        <f>W34-W35</f>
+        <f t="shared" si="67"/>
         <v>58240</v>
       </c>
       <c r="X33" s="16">
-        <f>X34-X35</f>
+        <f t="shared" si="67"/>
         <v>55620</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y33" s="16">
+        <f t="shared" si="67"/>
+        <v>68189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="78" t="s">
         <v>34</v>
       </c>
@@ -7081,8 +7092,12 @@
         <f>11617+44003</f>
         <v>55620</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y34" s="40">
+        <f>17576+44379+6234</f>
+        <v>68189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="78" t="s">
         <v>35</v>
       </c>
@@ -7155,8 +7170,11 @@
       <c r="X35" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y35" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="78"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -7177,7 +7195,7 @@
       <c r="R36" s="88"/>
       <c r="V36" s="88"/>
     </row>
-    <row r="37" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="78" t="s">
         <v>83</v>
       </c>
@@ -7240,8 +7258,12 @@
         <f>744+19031</f>
         <v>19775</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y37" s="40">
+        <f>623+19050</f>
+        <v>19673</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="78" t="s">
         <v>84</v>
       </c>
@@ -7292,8 +7314,11 @@
       <c r="X38" s="40">
         <v>146437</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y38" s="40">
+        <v>159316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="78" t="s">
         <v>85</v>
       </c>
@@ -7344,8 +7369,11 @@
       <c r="X39" s="40">
         <v>28706</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y39" s="40">
+        <v>31026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="78"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -7366,7 +7394,7 @@
       <c r="R40" s="88"/>
       <c r="V40" s="88"/>
     </row>
-    <row r="41" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="78" t="s">
         <v>86</v>
       </c>
@@ -7382,55 +7410,59 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="19">
-        <f>M38-M37-M34</f>
+        <f t="shared" ref="M41:X41" si="68">M38-M37-M34</f>
         <v>22708</v>
       </c>
       <c r="N41" s="20">
-        <f>N38-N37-N34</f>
+        <f t="shared" si="68"/>
         <v>24986</v>
       </c>
       <c r="O41" s="19">
-        <f>O38-O37-O34</f>
+        <f t="shared" si="68"/>
         <v>28146</v>
       </c>
       <c r="P41" s="19">
-        <f>P38-P37-P34</f>
+        <f t="shared" si="68"/>
         <v>31491</v>
       </c>
       <c r="Q41" s="19">
-        <f>Q38-Q37-Q34</f>
+        <f t="shared" si="68"/>
         <v>36625</v>
       </c>
       <c r="R41" s="20">
-        <f>R38-R37-R34</f>
+        <f t="shared" si="68"/>
         <v>44751</v>
       </c>
       <c r="S41" s="19">
-        <f>S38-S37-S34</f>
+        <f t="shared" si="68"/>
         <v>49082</v>
       </c>
       <c r="T41" s="19">
-        <f>T38-T37-T34</f>
+        <f t="shared" si="68"/>
         <v>52958</v>
       </c>
       <c r="U41" s="19">
-        <f>U38-U37-U34</f>
+        <f t="shared" si="68"/>
         <v>58912</v>
       </c>
       <c r="V41" s="20">
-        <f>V38-V37-V34</f>
+        <f t="shared" si="68"/>
         <v>58433</v>
       </c>
       <c r="W41" s="19">
-        <f>W38-W37-W34</f>
+        <f t="shared" si="68"/>
         <v>61563</v>
       </c>
       <c r="X41" s="19">
-        <f>X38-X37-X34</f>
+        <f t="shared" si="68"/>
         <v>71042</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y41" s="19">
+        <f>Y38-Y37-Y34</f>
+        <v>71454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="78" t="s">
         <v>87</v>
       </c>
@@ -7446,55 +7478,59 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="19">
-        <f>M38-M39</f>
+        <f t="shared" ref="M42:X42" si="69">M38-M39</f>
         <v>74347</v>
       </c>
       <c r="N42" s="20">
-        <f>N38-N39</f>
+        <f t="shared" si="69"/>
         <v>77620</v>
       </c>
       <c r="O42" s="19">
-        <f>O38-O39</f>
+        <f t="shared" si="69"/>
         <v>79382</v>
       </c>
       <c r="P42" s="19">
-        <f>P38-P39</f>
+        <f t="shared" si="69"/>
         <v>80342</v>
       </c>
       <c r="Q42" s="19">
-        <f>Q38-Q39</f>
+        <f t="shared" si="69"/>
         <v>84127</v>
       </c>
       <c r="R42" s="20">
-        <f>R38-R39</f>
+        <f t="shared" si="69"/>
         <v>86516</v>
       </c>
       <c r="S42" s="19">
-        <f>S38-S39</f>
+        <f t="shared" si="69"/>
         <v>88762</v>
       </c>
       <c r="T42" s="19">
-        <f>T38-T39</f>
+        <f t="shared" si="69"/>
         <v>93999</v>
       </c>
       <c r="U42" s="19">
-        <f>U38-U39</f>
+        <f t="shared" si="69"/>
         <v>101054</v>
       </c>
       <c r="V42" s="20">
-        <f>V38-V39</f>
+        <f t="shared" si="69"/>
         <v>105304</v>
       </c>
       <c r="W42" s="19">
-        <f>W38-W39</f>
+        <f t="shared" si="69"/>
         <v>110447</v>
       </c>
       <c r="X42" s="19">
-        <f>X38-X39</f>
+        <f t="shared" si="69"/>
         <v>117731</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y42" s="19">
+        <f>Y38-Y39</f>
+        <v>128290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="78"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7515,7 +7551,7 @@
       <c r="R43" s="88"/>
       <c r="V43" s="88"/>
     </row>
-    <row r="44" spans="1:24" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="84" t="s">
         <v>78</v>
       </c>
@@ -7523,87 +7559,91 @@
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
       <c r="E44" s="16">
-        <f t="shared" ref="E44:P44" si="60">SUM(B20:E20)</f>
+        <f t="shared" ref="E44:P44" si="70">SUM(B20:E20)</f>
         <v>3689</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>4687</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>6023</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>7506</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>9512</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>11066</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>12905</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>15233</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>15933</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>17857</v>
       </c>
       <c r="O44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>19069</v>
       </c>
       <c r="P44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>19499</v>
       </c>
       <c r="Q44" s="16">
-        <f>SUM(N20:Q20)</f>
+        <f t="shared" ref="Q44:Y44" si="71">SUM(N20:Q20)</f>
         <v>22113</v>
       </c>
       <c r="R44" s="17">
-        <f>SUM(O20:R20)</f>
+        <f t="shared" si="71"/>
         <v>19554</v>
       </c>
       <c r="S44" s="16">
-        <f>SUM(P20:S20)</f>
+        <f t="shared" si="71"/>
         <v>17064</v>
       </c>
       <c r="T44" s="16">
-        <f>SUM(Q20:T20)</f>
+        <f t="shared" si="71"/>
         <v>18018</v>
       </c>
       <c r="U44" s="16">
-        <f>SUM(R20:U20)</f>
+        <f t="shared" si="71"/>
         <v>18485</v>
       </c>
       <c r="V44" s="17">
-        <f>SUM(S20:V20)</f>
+        <f t="shared" si="71"/>
         <v>20958</v>
       </c>
       <c r="W44" s="16">
-        <f>SUM(T20:W20)</f>
+        <f t="shared" si="71"/>
         <v>23520</v>
       </c>
       <c r="X44" s="16">
-        <f>SUM(U20:X20)</f>
+        <f t="shared" si="71"/>
         <v>25275</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y44" s="16">
+        <f>SUM(V20:Y20)</f>
+        <v>17926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="36" t="s">
         <v>79</v>
       </c>
@@ -7619,55 +7659,59 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="72">
-        <f>M44/M42</f>
+        <f t="shared" ref="M45:Y45" si="72">M44/M42</f>
         <v>0.21430588994848482</v>
       </c>
       <c r="N45" s="73">
-        <f>N44/N42</f>
+        <f t="shared" si="72"/>
         <v>0.2300566864210255</v>
       </c>
       <c r="O45" s="72">
-        <f>O44/O42</f>
+        <f t="shared" si="72"/>
         <v>0.24021818548285506</v>
       </c>
       <c r="P45" s="72">
-        <f>P44/P42</f>
+        <f t="shared" si="72"/>
         <v>0.2426999576809141</v>
       </c>
       <c r="Q45" s="72">
-        <f>Q44/Q42</f>
+        <f t="shared" si="72"/>
         <v>0.2628525919146053</v>
       </c>
       <c r="R45" s="73">
-        <f>R44/R42</f>
+        <f t="shared" si="72"/>
         <v>0.22601599704100975</v>
       </c>
       <c r="S45" s="72">
-        <f>S44/S42</f>
+        <f t="shared" si="72"/>
         <v>0.19224442892228658</v>
       </c>
       <c r="T45" s="72">
-        <f>T44/T42</f>
+        <f t="shared" si="72"/>
         <v>0.19168289024351323</v>
       </c>
       <c r="U45" s="72">
-        <f>U44/U42</f>
+        <f t="shared" si="72"/>
         <v>0.18292200209788825</v>
       </c>
       <c r="V45" s="73">
-        <f>V44/V42</f>
+        <f t="shared" si="72"/>
         <v>0.19902377877383576</v>
       </c>
       <c r="W45" s="72">
-        <f>W44/W42</f>
+        <f t="shared" si="72"/>
         <v>0.21295281899915797</v>
       </c>
       <c r="X45" s="72">
-        <f>X44/X42</f>
+        <f t="shared" si="72"/>
         <v>0.21468432273572804</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y45" s="72">
+        <f t="shared" si="72"/>
+        <v>0.13973029854236496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="36" t="s">
         <v>80</v>
       </c>
@@ -7683,55 +7727,59 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="72">
-        <f>M44/M38</f>
+        <f t="shared" ref="M46:X46" si="73">M44/M38</f>
         <v>0.18850267379679145</v>
       </c>
       <c r="N46" s="73">
-        <f>N44/N38</f>
+        <f t="shared" si="73"/>
         <v>0.20076451739839227</v>
       </c>
       <c r="O46" s="72">
-        <f>O44/O38</f>
+        <f t="shared" si="73"/>
         <v>0.21119491422179398</v>
       </c>
       <c r="P46" s="72">
-        <f>P44/P38</f>
+        <f t="shared" si="73"/>
         <v>0.21090944490113789</v>
       </c>
       <c r="Q46" s="72">
-        <f>Q44/Q38</f>
+        <f t="shared" si="73"/>
         <v>0.22718680009041034</v>
       </c>
       <c r="R46" s="73">
-        <f>R44/R38</f>
+        <f t="shared" si="73"/>
         <v>0.17861285932204937</v>
       </c>
       <c r="S46" s="72">
-        <f>S44/S38</f>
+        <f t="shared" si="73"/>
         <v>0.14583867493974667</v>
       </c>
       <c r="T46" s="72">
-        <f>T44/T38</f>
+        <f t="shared" si="73"/>
         <v>0.14481827388320018</v>
       </c>
       <c r="U46" s="72">
-        <f>U44/U38</f>
+        <f t="shared" si="73"/>
         <v>0.13859315019193857</v>
       </c>
       <c r="V46" s="73">
-        <f>V44/V38</f>
+        <f t="shared" si="73"/>
         <v>0.1514623728960548</v>
       </c>
       <c r="W46" s="72">
-        <f>W44/W38</f>
+        <f t="shared" si="73"/>
         <v>0.16837162021891175</v>
       </c>
       <c r="X46" s="72">
-        <f>X44/X38</f>
+        <f t="shared" si="73"/>
         <v>0.17259982108346933</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y46" s="72">
+        <f t="shared" ref="Y46" si="74">Y44/Y38</f>
+        <v>0.11251851665871601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="36" t="s">
         <v>81</v>
       </c>
@@ -7747,55 +7795,59 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="72">
-        <f>M44/(M42-M37)</f>
+        <f t="shared" ref="M47:X47" si="75">M44/(M42-M37)</f>
         <v>0.29373916890970098</v>
       </c>
       <c r="N47" s="73">
-        <f>N44/(N42-N37)</f>
+        <f t="shared" si="75"/>
         <v>0.30992588992831976</v>
       </c>
       <c r="O47" s="72">
-        <f>O44/(O42-O37)</f>
+        <f t="shared" si="75"/>
         <v>0.3202398145971182</v>
       </c>
       <c r="P47" s="72">
-        <f>P44/(P42-P37)</f>
+        <f t="shared" si="75"/>
         <v>0.3218347170185023</v>
       </c>
       <c r="Q47" s="72">
-        <f>Q44/(Q42-Q37)</f>
+        <f t="shared" si="75"/>
         <v>0.34266720386784849</v>
       </c>
       <c r="R47" s="73">
-        <f>R44/(R42-R37)</f>
+        <f t="shared" si="75"/>
         <v>0.29170706965226084</v>
       </c>
       <c r="S47" s="72">
-        <f>S44/(S42-S37)</f>
+        <f t="shared" si="75"/>
         <v>0.245758562087738</v>
       </c>
       <c r="T47" s="72">
-        <f>T44/(T42-T37)</f>
+        <f t="shared" si="75"/>
         <v>0.24085659287776709</v>
       </c>
       <c r="U47" s="72">
-        <f>U44/(U42-U37)</f>
+        <f t="shared" si="75"/>
         <v>0.22696298115292529</v>
       </c>
       <c r="V47" s="73">
-        <f>V44/(V42-V37)</f>
+        <f t="shared" si="75"/>
         <v>0.24467923647189305</v>
       </c>
       <c r="W47" s="72">
-        <f>W44/(W42-W37)</f>
+        <f t="shared" si="75"/>
         <v>0.2597201824225091</v>
       </c>
       <c r="X47" s="72">
         <f>X44/(X42-X37)</f>
         <v>0.25802401078035037</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y47" s="72">
+        <f t="shared" ref="Y47" si="76">Y44/(Y42-Y37)</f>
+        <v>0.16503862194684074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="36" t="s">
         <v>82</v>
       </c>
@@ -7811,59 +7863,64 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="72">
-        <f>M44/M41</f>
+        <f t="shared" ref="M48:X48" si="77">M44/M41</f>
         <v>0.70164699665316188</v>
       </c>
       <c r="N48" s="73">
-        <f>N44/N41</f>
+        <f t="shared" si="77"/>
         <v>0.7146802209237173</v>
       </c>
       <c r="O48" s="72">
-        <f>O44/O41</f>
+        <f t="shared" si="77"/>
         <v>0.67750301996731332</v>
       </c>
       <c r="P48" s="72">
-        <f>P44/P41</f>
+        <f t="shared" si="77"/>
         <v>0.61919278524022736</v>
       </c>
       <c r="Q48" s="72">
-        <f>Q44/Q41</f>
+        <f t="shared" si="77"/>
         <v>0.6037679180887372</v>
       </c>
       <c r="R48" s="73">
-        <f>R44/R41</f>
+        <f t="shared" si="77"/>
         <v>0.43695112958369647</v>
       </c>
       <c r="S48" s="72">
-        <f>S44/S41</f>
+        <f t="shared" si="77"/>
         <v>0.34766309441343057</v>
       </c>
       <c r="T48" s="72">
-        <f>T44/T41</f>
+        <f t="shared" si="77"/>
         <v>0.34023188186865061</v>
       </c>
       <c r="U48" s="72">
-        <f>U44/U41</f>
+        <f t="shared" si="77"/>
         <v>0.31377308527973929</v>
       </c>
       <c r="V48" s="73">
-        <f>V44/V41</f>
+        <f t="shared" si="77"/>
         <v>0.35866719148426401</v>
       </c>
       <c r="W48" s="72">
-        <f>W44/W41</f>
+        <f t="shared" si="77"/>
         <v>0.38204765849617467</v>
       </c>
       <c r="X48" s="72">
-        <f>X44/X41</f>
+        <f t="shared" si="77"/>
         <v>0.35577545677205036</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y48" s="72">
+        <f t="shared" ref="Y48" si="78">Y44/Y41</f>
+        <v>0.25087468861085455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="Q49" s="29"/>
       <c r="X49" s="29"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y49" s="29"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A50" s="36" t="s">
         <v>73</v>
       </c>
@@ -7872,83 +7929,87 @@
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="31">
-        <f t="shared" ref="F50:Q50" si="61">F6/B6-1</f>
+        <f t="shared" ref="F50:Q50" si="79">F6/B6-1</f>
         <v>0.16452991452991461</v>
       </c>
       <c r="G50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.1673553719008265</v>
       </c>
       <c r="H50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.16831683168316824</v>
       </c>
       <c r="I50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.18269230769230771</v>
       </c>
       <c r="J50" s="31">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.17431192660550465</v>
       </c>
       <c r="K50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.16814159292035402</v>
       </c>
       <c r="L50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.16101694915254239</v>
       </c>
       <c r="M50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.13821138211382111</v>
       </c>
       <c r="N50" s="31">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.1328125</v>
       </c>
       <c r="O50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>0.11363636363636354</v>
       </c>
       <c r="P50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>8.7591240875912302E-2</v>
       </c>
       <c r="Q50" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="79"/>
         <v>8.5714285714285632E-2</v>
       </c>
       <c r="R50" s="31">
-        <f t="shared" ref="R50:U50" si="62">R6/N6-1</f>
+        <f t="shared" ref="R50:U50" si="80">R6/N6-1</f>
         <v>7.5862068965517171E-2</v>
       </c>
       <c r="S50" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="80"/>
         <v>8.163265306122458E-2</v>
       </c>
       <c r="T50" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="80"/>
         <v>8.7248322147650992E-2</v>
       </c>
       <c r="U50" s="32">
-        <f t="shared" si="62"/>
+        <f t="shared" si="80"/>
         <v>9.210526315789469E-2</v>
       </c>
       <c r="V50" s="31">
-        <f t="shared" ref="V50:X51" si="63">V6/R6-1</f>
+        <f t="shared" ref="V50:Y50" si="81">V6/R6-1</f>
         <v>0.10897435897435903</v>
       </c>
       <c r="W50" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="81"/>
         <v>0.12578616352201255</v>
       </c>
       <c r="X50" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="81"/>
         <v>0.12345679012345689</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y50" s="32">
+        <f t="shared" si="81"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A51" s="36" t="s">
         <v>75</v>
       </c>
@@ -7965,75 +8026,79 @@
         <v>0.36400712868859286</v>
       </c>
       <c r="H51" s="30">
-        <f t="shared" ref="H51:P51" si="64">H7/D7-1</f>
+        <f t="shared" ref="H51:P51" si="82">H7/D7-1</f>
         <v>0.33324609597114008</v>
       </c>
       <c r="I51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="82"/>
         <v>0.27516866334559609</v>
       </c>
       <c r="J51" s="31">
-        <f t="shared" si="64"/>
+        <f t="shared" si="82"/>
         <v>0.27085655890003713</v>
       </c>
       <c r="K51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="82"/>
         <v>0.23979815243799085</v>
       </c>
       <c r="L51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="82"/>
         <v>0.26881324134025064</v>
       </c>
       <c r="M51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="82"/>
         <v>0.29377098097724708</v>
       </c>
       <c r="N51" s="31">
-        <f t="shared" si="64"/>
+        <f t="shared" si="82"/>
         <v>0.31512570408023066</v>
       </c>
       <c r="O51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="82"/>
         <v>0.2746376954386518</v>
       </c>
       <c r="P51" s="30">
-        <f t="shared" si="64"/>
+        <f t="shared" si="82"/>
         <v>0.22206330351062342</v>
       </c>
       <c r="Q51" s="30">
-        <f>Q7/M7-1</f>
+        <f t="shared" ref="Q51:Y51" si="83">Q7/M7-1</f>
         <v>0.20094697891815594</v>
       </c>
       <c r="R51" s="31">
-        <f>R7/N7-1</f>
+        <f t="shared" si="83"/>
         <v>0.17114141777772063</v>
       </c>
       <c r="S51" s="30">
-        <f>S7/O7-1</f>
+        <f t="shared" si="83"/>
         <v>0.17992479069309786</v>
       </c>
       <c r="T51" s="30">
-        <f>T7/P7-1</f>
+        <f t="shared" si="83"/>
         <v>0.18274069217465438</v>
       </c>
       <c r="U51" s="30">
-        <f>U7/Q7-1</f>
+        <f t="shared" si="83"/>
         <v>0.14130306255173219</v>
       </c>
       <c r="V51" s="31">
-        <f>V7/R7-1</f>
+        <f t="shared" si="83"/>
         <v>6.0824952143543554E-2</v>
       </c>
       <c r="W51" s="30">
-        <f>W7/S7-1</f>
+        <f t="shared" si="83"/>
         <v>-1.69923582194631E-2</v>
       </c>
       <c r="X51" s="30">
-        <f>X7/T7-1</f>
+        <f t="shared" si="83"/>
         <v>8.2634225054347477E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y51" s="30">
+        <f t="shared" si="83"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F52" s="4"/>
       <c r="Q52" s="29"/>
     </row>

--- a/FB.xlsx
+++ b/FB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55902F6-F386-EC45-8F9C-6C8C8EB01AA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB0637-ACAC-D34A-B3B1-EC485EF07000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25760" windowHeight="20320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46100" yWindow="-580" windowWidth="25760" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1006,11 +1006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR58"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4488,11 +4488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7607,7 +7607,7 @@
         <v>19499</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" ref="Q44:Y44" si="71">SUM(N20:Q20)</f>
+        <f t="shared" ref="Q44:X44" si="71">SUM(N20:Q20)</f>
         <v>22113</v>
       </c>
       <c r="R44" s="17">
@@ -7795,7 +7795,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="72">
-        <f t="shared" ref="M47:X47" si="75">M44/(M42-M37)</f>
+        <f t="shared" ref="M47:W47" si="75">M44/(M42-M37)</f>
         <v>0.29373916890970098</v>
       </c>
       <c r="N47" s="73">

--- a/FB.xlsx
+++ b/FB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB0637-ACAC-D34A-B3B1-EC485EF07000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4625A3D-A6E0-BB45-8BE2-E9DAEB310D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46100" yWindow="-580" windowWidth="25760" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52260" yWindow="-5940" windowWidth="26120" windowHeight="26740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>Q117</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Facebook Inc (FB)</t>
   </si>
   <si>
-    <t>NI 12M</t>
-  </si>
-  <si>
     <t>ROE</t>
   </si>
   <si>
@@ -344,16 +341,28 @@
     <t>Q420</t>
   </si>
   <si>
-    <t>Net present value on future net income (terminal value)</t>
-  </si>
-  <si>
-    <t>Risk-free rate + market premium (opportunity cost)</t>
-  </si>
-  <si>
-    <t>Expected return on invested capital (innovation grade)</t>
-  </si>
-  <si>
     <t>OE y/y</t>
+  </si>
+  <si>
+    <t>Net Income TTM</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Revenue TTM</t>
+  </si>
+  <si>
+    <t>Revenue TTM y/y</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -664,6 +673,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -689,14 +717,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117719</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117719</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -713,8 +741,64 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5674783" y="1380067"/>
-          <a:ext cx="0" cy="7099300"/>
+          <a:off x="6428642" y="1354015"/>
+          <a:ext cx="0" cy="8457223"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>136769</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>136769</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5DFE5E-3241-5B4C-9BC7-C33A297FEE37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21375077" y="166077"/>
+          <a:ext cx="0" cy="8450385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1006,11 +1090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1036,16 +1120,16 @@
         <v>65</v>
       </c>
       <c r="C2" s="7">
-        <v>268.98</v>
+        <v>257.62</v>
       </c>
       <c r="D2" s="90">
-        <v>44200</v>
+        <v>44253</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="38">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="I2" s="40"/>
       <c r="L2" s="39"/>
@@ -1058,8 +1142,8 @@
         <v>17</v>
       </c>
       <c r="C3" s="40">
-        <f>Reports!X22</f>
-        <v>2891</v>
+        <f>Reports!Y22</f>
+        <v>2890</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>99</v>
@@ -1068,11 +1152,9 @@
         <v>38</v>
       </c>
       <c r="F3" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>103</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="41"/>
       <c r="I3" s="40"/>
       <c r="L3" s="39"/>
     </row>
@@ -1085,7 +1167,7 @@
       </c>
       <c r="C4" s="42">
         <f>C3*C2</f>
-        <v>777621.18</v>
+        <v>744521.8</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="37" t="s">
@@ -1095,9 +1177,7 @@
         <f>7%</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>102</v>
-      </c>
+      <c r="G4" s="41"/>
       <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -1105,8 +1185,8 @@
         <v>33</v>
       </c>
       <c r="C5" s="40">
-        <f>Reports!X33</f>
-        <v>55620</v>
+        <f>Reports!Y33</f>
+        <v>68189</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>99</v>
@@ -1115,12 +1195,10 @@
         <v>40</v>
       </c>
       <c r="F5" s="43">
-        <f>NPV(F4,G27:DR27)</f>
-        <v>1286053.2455488422</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>101</v>
-      </c>
+        <f>NPV(F4,H27:DR27)</f>
+        <v>789417.91782290803</v>
+      </c>
+      <c r="G5" s="41"/>
       <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -1132,14 +1210,14 @@
       </c>
       <c r="C6" s="42">
         <f>C4-C5</f>
-        <v>722001.18</v>
+        <v>676332.8</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="45">
         <f>F5+C5</f>
-        <v>1341673.2455488422</v>
+        <v>857606.91782290803</v>
       </c>
       <c r="I6" s="49"/>
     </row>
@@ -1152,18 +1230,18 @@
       </c>
       <c r="C7" s="46">
         <f>C6/C3</f>
-        <v>249.74098235904532</v>
+        <v>234.0251903114187</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="48">
         <f>F6/C3</f>
-        <v>464.08621430260888</v>
+        <v>296.74979855463948</v>
       </c>
       <c r="G7" s="49">
         <f>F7/C2-1</f>
-        <v>0.72535584170796663</v>
+        <v>0.15188959923390843</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1278,7 +1356,10 @@
         <f>SUM(Reports!R3:U3)</f>
         <v>69655</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="40">
+        <f>SUM(Reports!V3:Y3)</f>
+        <v>84169</v>
+      </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
     </row>
@@ -1306,7 +1387,10 @@
         <f>SUM(Reports!R4:U4)</f>
         <v>1042</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40">
+        <f>SUM(Reports!V4:Y4)</f>
+        <v>1797</v>
+      </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
@@ -1335,24 +1419,28 @@
         <v>1660</v>
       </c>
       <c r="G13" s="40">
-        <f>F13*1.05</f>
-        <v>1743</v>
+        <f>Reports!Y6</f>
+        <v>1840</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" ref="H13:K13" si="6">G13*1.05</f>
-        <v>1830.15</v>
+        <v>1932</v>
       </c>
       <c r="I13" s="40">
-        <f t="shared" si="6"/>
-        <v>1921.6575000000003</v>
+        <f t="shared" ref="I13" si="7">H13*1.05</f>
+        <v>2028.6000000000001</v>
       </c>
       <c r="J13" s="40">
-        <f t="shared" si="6"/>
-        <v>2017.7403750000003</v>
+        <f t="shared" ref="J13" si="8">I13*1.05</f>
+        <v>2130.0300000000002</v>
       </c>
       <c r="K13" s="40">
-        <f t="shared" si="6"/>
-        <v>2118.6273937500005</v>
+        <f t="shared" ref="K13" si="9">J13*1.05</f>
+        <v>2236.5315000000005</v>
+      </c>
+      <c r="L13" s="40">
+        <f t="shared" ref="L13" si="10">K13*1.05</f>
+        <v>2348.3580750000006</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -1379,25 +1467,29 @@
         <f>F16/F13</f>
         <v>42.588554216867472</v>
       </c>
-      <c r="G14" s="52">
-        <f>F14*1.15</f>
-        <v>48.976837349397591</v>
+      <c r="G14" s="11">
+        <f>G16/G13</f>
+        <v>46.720652173913045</v>
       </c>
       <c r="H14" s="52">
-        <f t="shared" ref="H14:K14" si="7">G14*1.15</f>
-        <v>56.323362951807226</v>
+        <f t="shared" ref="H14:L14" si="11">G14*1.1</f>
+        <v>51.392717391304352</v>
       </c>
       <c r="I14" s="52">
-        <f t="shared" si="7"/>
-        <v>64.771867394578308</v>
+        <f t="shared" si="11"/>
+        <v>56.531989130434795</v>
       </c>
       <c r="J14" s="52">
-        <f t="shared" si="7"/>
-        <v>74.487647503765047</v>
+        <f t="shared" si="11"/>
+        <v>62.185188043478277</v>
       </c>
       <c r="K14" s="52">
-        <f t="shared" si="7"/>
-        <v>85.6607946293298</v>
+        <f t="shared" si="11"/>
+        <v>68.403706847826115</v>
+      </c>
+      <c r="L14" s="52">
+        <f t="shared" si="11"/>
+        <v>75.244077532608728</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -1424,69 +1516,69 @@
         <f>SUM(F10:F11)</f>
         <v>70697</v>
       </c>
-      <c r="G16" s="54">
-        <f t="shared" ref="G16:K16" si="8">G13*G14</f>
-        <v>85366.627500000002</v>
+      <c r="G16" s="16">
+        <f>SUM(G10:G11)</f>
+        <v>85966</v>
       </c>
       <c r="H16" s="54">
-        <f t="shared" si="8"/>
-        <v>103080.20270625</v>
+        <f t="shared" ref="G16:L16" si="12">H13*H14</f>
+        <v>99290.73000000001</v>
       </c>
       <c r="I16" s="54">
-        <f t="shared" si="8"/>
-        <v>124469.34476779688</v>
+        <f t="shared" si="12"/>
+        <v>114680.79315000003</v>
       </c>
       <c r="J16" s="54">
-        <f t="shared" si="8"/>
-        <v>150296.73380711471</v>
+        <f t="shared" si="12"/>
+        <v>132456.31608825005</v>
       </c>
       <c r="K16" s="54">
-        <f t="shared" si="8"/>
-        <v>181483.30607209104</v>
+        <f t="shared" si="12"/>
+        <v>152987.04508192884</v>
       </c>
       <c r="L16" s="54">
-        <f>K16*1.1</f>
-        <v>199631.63667930017</v>
+        <f t="shared" si="12"/>
+        <v>176700.03706962781</v>
       </c>
       <c r="M16" s="54">
-        <f t="shared" ref="M16:Q16" si="9">L16*1.1</f>
-        <v>219594.80034723019</v>
+        <f t="shared" ref="M16:Q16" si="13">L16*1.1</f>
+        <v>194370.04077659061</v>
       </c>
       <c r="N16" s="54">
-        <f t="shared" si="9"/>
-        <v>241554.28038195323</v>
+        <f t="shared" si="13"/>
+        <v>213807.04485424969</v>
       </c>
       <c r="O16" s="54">
-        <f t="shared" si="9"/>
-        <v>265709.70842014858</v>
+        <f t="shared" si="13"/>
+        <v>235187.74933967469</v>
       </c>
       <c r="P16" s="54">
-        <f t="shared" si="9"/>
-        <v>292280.67926216347</v>
+        <f t="shared" si="13"/>
+        <v>258706.52427364216</v>
       </c>
       <c r="Q16" s="54">
-        <f t="shared" si="9"/>
-        <v>321508.74718837981</v>
+        <f t="shared" si="13"/>
+        <v>284577.17670100642</v>
       </c>
       <c r="R16" s="54">
-        <f t="shared" ref="R16:V16" si="10">Q16*1.1</f>
-        <v>353659.62190721784</v>
+        <f t="shared" ref="R16:V16" si="14">Q16*1.1</f>
+        <v>313034.8943711071</v>
       </c>
       <c r="S16" s="54">
-        <f t="shared" si="10"/>
-        <v>389025.58409793966</v>
+        <f t="shared" si="14"/>
+        <v>344338.38380821783</v>
       </c>
       <c r="T16" s="54">
-        <f t="shared" si="10"/>
-        <v>427928.14250773366</v>
+        <f t="shared" si="14"/>
+        <v>378772.22218903963</v>
       </c>
       <c r="U16" s="54">
-        <f t="shared" si="10"/>
-        <v>470720.95675850706</v>
+        <f t="shared" si="14"/>
+        <v>416649.44440794364</v>
       </c>
       <c r="V16" s="54">
-        <f t="shared" si="10"/>
-        <v>517793.05243435781</v>
+        <f t="shared" si="14"/>
+        <v>458314.38884873805</v>
       </c>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
@@ -1513,69 +1605,69 @@
         <f>SUM(Reports!R10:U10)</f>
         <v>12770</v>
       </c>
-      <c r="G17" s="50">
-        <f t="shared" ref="G17" si="11">G16-G18</f>
-        <v>15419.774999999994</v>
+      <c r="G17" s="40">
+        <f>SUM(Reports!V10:Y10)</f>
+        <v>16692</v>
       </c>
       <c r="H17" s="50">
-        <f t="shared" ref="H17:Q17" si="12">H16-H18</f>
-        <v>18619.37831249999</v>
+        <f t="shared" ref="H17:Q17" si="15">H16-H18</f>
+        <v>19279.259999999995</v>
       </c>
       <c r="I17" s="50">
-        <f t="shared" si="12"/>
-        <v>22482.899312343739</v>
+        <f t="shared" si="15"/>
+        <v>22267.545299999998</v>
       </c>
       <c r="J17" s="50">
-        <f t="shared" si="12"/>
-        <v>27148.100919655059</v>
+        <f t="shared" si="15"/>
+        <v>25719.014821500008</v>
       </c>
       <c r="K17" s="50">
-        <f t="shared" si="12"/>
-        <v>32781.331860483479</v>
+        <f t="shared" si="15"/>
+        <v>29705.462118832511</v>
       </c>
       <c r="L17" s="50">
-        <f t="shared" si="12"/>
-        <v>36059.465046531841</v>
+        <f t="shared" si="15"/>
+        <v>34309.808747251547</v>
       </c>
       <c r="M17" s="50">
-        <f t="shared" si="12"/>
-        <v>39665.41155118501</v>
+        <f t="shared" si="15"/>
+        <v>37740.789621976699</v>
       </c>
       <c r="N17" s="50">
-        <f t="shared" si="12"/>
-        <v>43631.952706303535</v>
+        <f t="shared" si="15"/>
+        <v>41514.868584174372</v>
       </c>
       <c r="O17" s="50">
-        <f t="shared" si="12"/>
-        <v>47995.147976933891</v>
+        <f t="shared" si="15"/>
+        <v>45666.355442591826</v>
       </c>
       <c r="P17" s="50">
-        <f t="shared" si="12"/>
-        <v>52794.662774627272</v>
+        <f t="shared" si="15"/>
+        <v>50232.990986851015</v>
       </c>
       <c r="Q17" s="50">
-        <f t="shared" si="12"/>
-        <v>58074.129052089993</v>
+        <f t="shared" si="15"/>
+        <v>55256.290085536108</v>
       </c>
       <c r="R17" s="50">
-        <f t="shared" ref="R17:V17" si="13">R16-R18</f>
-        <v>63881.541957298992</v>
+        <f t="shared" ref="R17:V17" si="16">R16-R18</f>
+        <v>60781.919094089739</v>
       </c>
       <c r="S17" s="50">
-        <f t="shared" si="13"/>
-        <v>70269.696153028926</v>
+        <f t="shared" si="16"/>
+        <v>66860.111003498721</v>
       </c>
       <c r="T17" s="50">
-        <f t="shared" si="13"/>
-        <v>77296.66576833179</v>
+        <f t="shared" si="16"/>
+        <v>73546.122103848611</v>
       </c>
       <c r="U17" s="50">
-        <f t="shared" si="13"/>
-        <v>85026.332345164963</v>
+        <f t="shared" si="16"/>
+        <v>80900.734314233472</v>
       </c>
       <c r="V17" s="50">
-        <f t="shared" si="13"/>
-        <v>93528.965579681448</v>
+        <f t="shared" si="16"/>
+        <v>88990.807745656813</v>
       </c>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
@@ -1602,69 +1694,69 @@
         <f>F16-F17</f>
         <v>57927</v>
       </c>
-      <c r="G18" s="50">
-        <f t="shared" ref="G18" si="14">G16*F37</f>
-        <v>69946.852500000008</v>
+      <c r="G18" s="19">
+        <f>G16-G17</f>
+        <v>69274</v>
       </c>
       <c r="H18" s="50">
-        <f t="shared" ref="H18" si="15">H16*G37</f>
-        <v>84460.824393750008</v>
+        <f t="shared" ref="H18" si="17">H16*G37</f>
+        <v>80011.470000000016</v>
       </c>
       <c r="I18" s="50">
-        <f t="shared" ref="I18" si="16">I16*H37</f>
-        <v>101986.44545545314</v>
+        <f t="shared" ref="I18" si="18">I16*H37</f>
+        <v>92413.247850000029</v>
       </c>
       <c r="J18" s="50">
-        <f t="shared" ref="J18" si="17">J16*I37</f>
-        <v>123148.63288745965</v>
+        <f t="shared" ref="J18" si="19">J16*I37</f>
+        <v>106737.30126675004</v>
       </c>
       <c r="K18" s="50">
-        <f t="shared" ref="K18" si="18">K16*J37</f>
-        <v>148701.97421160756</v>
+        <f t="shared" ref="K18" si="20">K16*J37</f>
+        <v>123281.58296309633</v>
       </c>
       <c r="L18" s="50">
-        <f t="shared" ref="L18" si="19">L16*K37</f>
-        <v>163572.17163276832</v>
+        <f t="shared" ref="L18" si="21">L16*K37</f>
+        <v>142390.22832237626</v>
       </c>
       <c r="M18" s="50">
-        <f t="shared" ref="M18" si="20">M16*L37</f>
-        <v>179929.38879604518</v>
+        <f t="shared" ref="M18" si="22">M16*L37</f>
+        <v>156629.25115461391</v>
       </c>
       <c r="N18" s="50">
-        <f t="shared" ref="N18" si="21">N16*M37</f>
-        <v>197922.32767564969</v>
+        <f t="shared" ref="N18" si="23">N16*M37</f>
+        <v>172292.17627007532</v>
       </c>
       <c r="O18" s="50">
-        <f t="shared" ref="O18" si="22">O16*N37</f>
-        <v>217714.56044321469</v>
+        <f t="shared" ref="O18" si="24">O16*N37</f>
+        <v>189521.39389708286</v>
       </c>
       <c r="P18" s="50">
-        <f t="shared" ref="P18" si="23">P16*O37</f>
-        <v>239486.0164875362</v>
+        <f t="shared" ref="P18" si="25">P16*O37</f>
+        <v>208473.53328679115</v>
       </c>
       <c r="Q18" s="50">
-        <f t="shared" ref="Q18" si="24">Q16*P37</f>
-        <v>263434.61813628982</v>
+        <f t="shared" ref="Q18" si="26">Q16*P37</f>
+        <v>229320.88661547031</v>
       </c>
       <c r="R18" s="50">
-        <f t="shared" ref="R18" si="25">R16*Q37</f>
-        <v>289778.07994991884</v>
+        <f t="shared" ref="R18" si="27">R16*Q37</f>
+        <v>252252.97527701737</v>
       </c>
       <c r="S18" s="50">
-        <f t="shared" ref="S18" si="26">S16*R37</f>
-        <v>318755.88794491073</v>
+        <f t="shared" ref="S18" si="28">S16*R37</f>
+        <v>277478.2728047191</v>
       </c>
       <c r="T18" s="50">
-        <f t="shared" ref="T18" si="27">T16*S37</f>
-        <v>350631.47673940187</v>
+        <f t="shared" ref="T18" si="29">T16*S37</f>
+        <v>305226.10008519102</v>
       </c>
       <c r="U18" s="50">
-        <f t="shared" ref="U18" si="28">U16*T37</f>
-        <v>385694.6244133421</v>
+        <f t="shared" ref="U18" si="30">U16*T37</f>
+        <v>335748.71009371016</v>
       </c>
       <c r="V18" s="50">
-        <f t="shared" ref="V18" si="29">V16*U37</f>
-        <v>424264.08685467637</v>
+        <f t="shared" ref="V18" si="31">V16*U37</f>
+        <v>369323.58110308123</v>
       </c>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
@@ -1691,69 +1783,69 @@
         <f>SUM(Reports!R12:U12)</f>
         <v>13600</v>
       </c>
-      <c r="G19" s="50">
-        <f t="shared" ref="G19" si="30">F19*1.3</f>
-        <v>17680</v>
+      <c r="G19" s="40">
+        <f>SUM(Reports!V12:Y12)</f>
+        <v>18448</v>
       </c>
       <c r="H19" s="50">
-        <f t="shared" ref="H19" si="31">G19*1.3</f>
-        <v>22984</v>
+        <f t="shared" ref="H19" si="32">G19*1.3</f>
+        <v>23982.400000000001</v>
       </c>
       <c r="I19" s="50">
-        <f t="shared" ref="I19" si="32">H19*1.3</f>
-        <v>29879.200000000001</v>
+        <f t="shared" ref="I19" si="33">H19*1.3</f>
+        <v>31177.120000000003</v>
       </c>
       <c r="J19" s="50">
-        <f t="shared" ref="J19" si="33">I19*1.3</f>
-        <v>38842.959999999999</v>
+        <f t="shared" ref="J19" si="34">I19*1.3</f>
+        <v>40530.256000000001</v>
       </c>
       <c r="K19" s="50">
-        <f t="shared" ref="K19" si="34">J19*1.3</f>
-        <v>50495.847999999998</v>
+        <f t="shared" ref="K19" si="35">J19*1.3</f>
+        <v>52689.332800000004</v>
       </c>
       <c r="L19" s="50">
-        <f t="shared" ref="L19:Q19" si="35">K19*1.1</f>
-        <v>55545.432800000002</v>
+        <f t="shared" ref="L19" si="36">K19*1.3</f>
+        <v>68496.132640000011</v>
       </c>
       <c r="M19" s="50">
-        <f t="shared" si="35"/>
-        <v>61099.976080000008</v>
+        <f t="shared" ref="L19:Q19" si="37">L19*1.1</f>
+        <v>75345.745904000025</v>
       </c>
       <c r="N19" s="50">
-        <f t="shared" si="35"/>
-        <v>67209.973688000013</v>
+        <f t="shared" si="37"/>
+        <v>82880.320494400032</v>
       </c>
       <c r="O19" s="50">
-        <f t="shared" si="35"/>
-        <v>73930.971056800016</v>
+        <f t="shared" si="37"/>
+        <v>91168.352543840039</v>
       </c>
       <c r="P19" s="50">
-        <f t="shared" si="35"/>
-        <v>81324.06816248002</v>
+        <f t="shared" si="37"/>
+        <v>100285.18779822405</v>
       </c>
       <c r="Q19" s="50">
-        <f t="shared" si="35"/>
-        <v>89456.474978728031</v>
+        <f t="shared" si="37"/>
+        <v>110313.70657804648</v>
       </c>
       <c r="R19" s="50">
-        <f t="shared" ref="R19:R20" si="36">Q19*1.1</f>
-        <v>98402.122476600838</v>
+        <f t="shared" ref="R19:R20" si="38">Q19*1.1</f>
+        <v>121345.07723585113</v>
       </c>
       <c r="S19" s="50">
-        <f t="shared" ref="S19:S20" si="37">R19*1.1</f>
-        <v>108242.33472426093</v>
+        <f t="shared" ref="S19:S20" si="39">R19*1.1</f>
+        <v>133479.58495943627</v>
       </c>
       <c r="T19" s="50">
-        <f t="shared" ref="T19:T20" si="38">S19*1.1</f>
-        <v>119066.56819668703</v>
+        <f t="shared" ref="T19:T20" si="40">S19*1.1</f>
+        <v>146827.5434553799</v>
       </c>
       <c r="U19" s="50">
-        <f t="shared" ref="U19:U20" si="39">T19*1.1</f>
-        <v>130973.22501635575</v>
+        <f t="shared" ref="U19:U20" si="41">T19*1.1</f>
+        <v>161510.29780091791</v>
       </c>
       <c r="V19" s="50">
-        <f t="shared" ref="V19:V20" si="40">U19*1.1</f>
-        <v>144070.54751799133</v>
+        <f t="shared" ref="V19:V20" si="42">U19*1.1</f>
+        <v>177661.32758100971</v>
       </c>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
@@ -1780,69 +1872,69 @@
         <f>SUM(Reports!R13:U13)</f>
         <v>9876</v>
       </c>
-      <c r="G20" s="50">
-        <f t="shared" ref="G20" si="41">F20*1.25</f>
-        <v>12345</v>
+      <c r="G20" s="40">
+        <f>SUM(Reports!V13:Y13)</f>
+        <v>11590</v>
       </c>
       <c r="H20" s="50">
-        <f t="shared" ref="H20" si="42">G20*1.25</f>
-        <v>15431.25</v>
+        <f>G20*1.15</f>
+        <v>13328.499999999998</v>
       </c>
       <c r="I20" s="50">
-        <f t="shared" ref="I20" si="43">H20*1.25</f>
-        <v>19289.0625</v>
+        <f t="shared" ref="I20:L20" si="43">H20*1.15</f>
+        <v>15327.774999999996</v>
       </c>
       <c r="J20" s="50">
-        <f t="shared" ref="J20" si="44">I20*1.25</f>
-        <v>24111.328125</v>
+        <f t="shared" si="43"/>
+        <v>17626.941249999993</v>
       </c>
       <c r="K20" s="50">
-        <f t="shared" ref="K20" si="45">J20*1.25</f>
-        <v>30139.16015625</v>
+        <f t="shared" si="43"/>
+        <v>20270.982437499992</v>
       </c>
       <c r="L20" s="50">
-        <f t="shared" ref="L20:Q20" si="46">K20*1.1</f>
-        <v>33153.076171875</v>
+        <f t="shared" si="43"/>
+        <v>23311.62980312499</v>
       </c>
       <c r="M20" s="50">
-        <f t="shared" si="46"/>
-        <v>36468.3837890625</v>
+        <f t="shared" ref="L20:Q20" si="44">L20*1.1</f>
+        <v>25642.79278343749</v>
       </c>
       <c r="N20" s="50">
-        <f t="shared" si="46"/>
-        <v>40115.22216796875</v>
+        <f t="shared" si="44"/>
+        <v>28207.07206178124</v>
       </c>
       <c r="O20" s="50">
-        <f t="shared" si="46"/>
-        <v>44126.744384765625</v>
+        <f t="shared" si="44"/>
+        <v>31027.779267959366</v>
       </c>
       <c r="P20" s="50">
-        <f t="shared" si="46"/>
-        <v>48539.418823242195</v>
+        <f t="shared" si="44"/>
+        <v>34130.557194755303</v>
       </c>
       <c r="Q20" s="50">
-        <f t="shared" si="46"/>
-        <v>53393.360705566418</v>
+        <f t="shared" si="44"/>
+        <v>37543.612914230835</v>
       </c>
       <c r="R20" s="50">
-        <f t="shared" si="36"/>
-        <v>58732.696776123063</v>
+        <f t="shared" si="38"/>
+        <v>41297.974205653918</v>
       </c>
       <c r="S20" s="50">
-        <f t="shared" si="37"/>
-        <v>64605.966453735375</v>
+        <f t="shared" si="39"/>
+        <v>45427.771626219313</v>
       </c>
       <c r="T20" s="50">
-        <f t="shared" si="38"/>
-        <v>71066.563099108913</v>
+        <f t="shared" si="40"/>
+        <v>49970.548788841246</v>
       </c>
       <c r="U20" s="50">
-        <f t="shared" si="39"/>
-        <v>78173.219409019817</v>
+        <f t="shared" si="41"/>
+        <v>54967.603667725372</v>
       </c>
       <c r="V20" s="50">
-        <f t="shared" si="40"/>
-        <v>85990.541349921812</v>
+        <f t="shared" si="42"/>
+        <v>60464.364034497914</v>
       </c>
     </row>
     <row r="21" spans="1:122" x14ac:dyDescent="0.15">
@@ -1869,69 +1961,69 @@
         <f>SUM(Reports!R14:U14)</f>
         <v>10465</v>
       </c>
-      <c r="G21" s="50">
-        <f>E21*1.3</f>
-        <v>4487.6000000000004</v>
+      <c r="G21" s="40">
+        <f>SUM(Reports!V14:Y14)</f>
+        <v>6565</v>
       </c>
       <c r="H21" s="50">
         <f>G21*1.3</f>
-        <v>5833.880000000001</v>
+        <v>8534.5</v>
       </c>
       <c r="I21" s="50">
-        <f t="shared" ref="I21:K21" si="47">H21*1.3</f>
-        <v>7584.0440000000017</v>
+        <f t="shared" ref="I21:L21" si="45">H21*1.3</f>
+        <v>11094.85</v>
       </c>
       <c r="J21" s="50">
-        <f t="shared" si="47"/>
-        <v>9859.2572000000018</v>
+        <f t="shared" si="45"/>
+        <v>14423.305</v>
       </c>
       <c r="K21" s="50">
-        <f t="shared" si="47"/>
-        <v>12817.034360000003</v>
+        <f t="shared" si="45"/>
+        <v>18750.2965</v>
       </c>
       <c r="L21" s="50">
-        <f>K21*0.98</f>
-        <v>12560.693672800004</v>
+        <f t="shared" si="45"/>
+        <v>24375.385450000002</v>
       </c>
       <c r="M21" s="50">
-        <f t="shared" ref="M21:V21" si="48">L21*0.98</f>
-        <v>12309.479799344004</v>
+        <f t="shared" ref="M21:V21" si="46">L21*0.98</f>
+        <v>23887.877741</v>
       </c>
       <c r="N21" s="50">
-        <f t="shared" si="48"/>
-        <v>12063.290203357124</v>
+        <f t="shared" si="46"/>
+        <v>23410.12018618</v>
       </c>
       <c r="O21" s="50">
-        <f t="shared" si="48"/>
-        <v>11822.024399289981</v>
+        <f t="shared" si="46"/>
+        <v>22941.917782456399</v>
       </c>
       <c r="P21" s="50">
-        <f t="shared" si="48"/>
-        <v>11585.583911304182</v>
+        <f t="shared" si="46"/>
+        <v>22483.079426807271</v>
       </c>
       <c r="Q21" s="50">
-        <f t="shared" si="48"/>
-        <v>11353.872233078098</v>
+        <f t="shared" si="46"/>
+        <v>22033.417838271125</v>
       </c>
       <c r="R21" s="50">
-        <f t="shared" si="48"/>
-        <v>11126.794788416537</v>
+        <f t="shared" si="46"/>
+        <v>21592.749481505703</v>
       </c>
       <c r="S21" s="50">
-        <f t="shared" si="48"/>
-        <v>10904.258892648206</v>
+        <f t="shared" si="46"/>
+        <v>21160.894491875588</v>
       </c>
       <c r="T21" s="50">
-        <f t="shared" si="48"/>
-        <v>10686.173714795241</v>
+        <f t="shared" si="46"/>
+        <v>20737.676602038075</v>
       </c>
       <c r="U21" s="50">
-        <f t="shared" si="48"/>
-        <v>10472.450240499336</v>
+        <f t="shared" si="46"/>
+        <v>20322.923069997312</v>
       </c>
       <c r="V21" s="50">
-        <f t="shared" si="48"/>
-        <v>10263.001235689349</v>
+        <f t="shared" si="46"/>
+        <v>19916.464608597365</v>
       </c>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
@@ -1958,69 +2050,69 @@
         <f>SUM(F19:F21)</f>
         <v>33941</v>
       </c>
-      <c r="G22" s="56">
-        <f t="shared" ref="G22" si="49">SUM(G19:G21)</f>
-        <v>34512.6</v>
+      <c r="G22" s="19">
+        <f>SUM(G19:G21)</f>
+        <v>36603</v>
       </c>
       <c r="H22" s="56">
-        <f t="shared" ref="H22:Q22" si="50">SUM(H19:H21)</f>
-        <v>44249.130000000005</v>
+        <f t="shared" ref="H22:Q22" si="47">SUM(H19:H21)</f>
+        <v>45845.4</v>
       </c>
       <c r="I22" s="56">
-        <f t="shared" si="50"/>
-        <v>56752.306499999999</v>
+        <f t="shared" si="47"/>
+        <v>57599.744999999995</v>
       </c>
       <c r="J22" s="56">
-        <f t="shared" si="50"/>
-        <v>72813.545324999999</v>
+        <f t="shared" si="47"/>
+        <v>72580.50224999999</v>
       </c>
       <c r="K22" s="56">
-        <f t="shared" si="50"/>
-        <v>93452.042516250003</v>
+        <f t="shared" si="47"/>
+        <v>91710.611737499989</v>
       </c>
       <c r="L22" s="56">
-        <f t="shared" si="50"/>
-        <v>101259.20264467501</v>
+        <f t="shared" si="47"/>
+        <v>116183.147893125</v>
       </c>
       <c r="M22" s="56">
-        <f t="shared" si="50"/>
-        <v>109877.83966840651</v>
+        <f t="shared" si="47"/>
+        <v>124876.41642843751</v>
       </c>
       <c r="N22" s="56">
-        <f t="shared" si="50"/>
-        <v>119388.48605932589</v>
+        <f t="shared" si="47"/>
+        <v>134497.51274236126</v>
       </c>
       <c r="O22" s="56">
-        <f t="shared" si="50"/>
-        <v>129879.73984085562</v>
+        <f t="shared" si="47"/>
+        <v>145138.0495942558</v>
       </c>
       <c r="P22" s="56">
-        <f t="shared" si="50"/>
-        <v>141449.07089702639</v>
+        <f t="shared" si="47"/>
+        <v>156898.82441978663</v>
       </c>
       <c r="Q22" s="56">
-        <f t="shared" si="50"/>
-        <v>154203.70791737255</v>
+        <f t="shared" si="47"/>
+        <v>169890.73733054844</v>
       </c>
       <c r="R22" s="56">
-        <f t="shared" ref="R22:V22" si="51">SUM(R19:R21)</f>
-        <v>168261.61404114042</v>
+        <f t="shared" ref="R22:V22" si="48">SUM(R19:R21)</f>
+        <v>184235.80092301077</v>
       </c>
       <c r="S22" s="56">
-        <f t="shared" si="51"/>
-        <v>183752.56007064451</v>
+        <f t="shared" si="48"/>
+        <v>200068.2510775312</v>
       </c>
       <c r="T22" s="56">
-        <f t="shared" si="51"/>
-        <v>200819.3050105912</v>
+        <f t="shared" si="48"/>
+        <v>217535.76884625922</v>
       </c>
       <c r="U22" s="56">
-        <f t="shared" si="51"/>
-        <v>219618.89466587489</v>
+        <f t="shared" si="48"/>
+        <v>236800.82453864059</v>
       </c>
       <c r="V22" s="56">
-        <f t="shared" si="51"/>
-        <v>240324.0901036025</v>
+        <f t="shared" si="48"/>
+        <v>258042.15622410498</v>
       </c>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
@@ -2047,69 +2139,69 @@
         <f>F18-F22</f>
         <v>23986</v>
       </c>
-      <c r="G23" s="56">
-        <f t="shared" ref="G23" si="52">G18-G22</f>
-        <v>35434.25250000001</v>
+      <c r="G23" s="19">
+        <f>G18-G22</f>
+        <v>32671</v>
       </c>
       <c r="H23" s="56">
-        <f t="shared" ref="H23:Q23" si="53">H18-H22</f>
-        <v>40211.694393750004</v>
+        <f t="shared" ref="H23:Q23" si="49">H18-H22</f>
+        <v>34166.070000000014</v>
       </c>
       <c r="I23" s="56">
-        <f t="shared" si="53"/>
-        <v>45234.138955453142</v>
+        <f t="shared" si="49"/>
+        <v>34813.502850000034</v>
       </c>
       <c r="J23" s="56">
-        <f t="shared" si="53"/>
-        <v>50335.087562459652</v>
+        <f t="shared" si="49"/>
+        <v>34156.799016750054</v>
       </c>
       <c r="K23" s="56">
-        <f t="shared" si="53"/>
-        <v>55249.931695357562</v>
+        <f t="shared" si="49"/>
+        <v>31570.971225596339</v>
       </c>
       <c r="L23" s="56">
-        <f t="shared" si="53"/>
-        <v>62312.968988093315</v>
+        <f t="shared" si="49"/>
+        <v>26207.080429251262</v>
       </c>
       <c r="M23" s="56">
-        <f t="shared" si="53"/>
-        <v>70051.549127638675</v>
+        <f t="shared" si="49"/>
+        <v>31752.834726176399</v>
       </c>
       <c r="N23" s="56">
-        <f t="shared" si="53"/>
-        <v>78533.8416163238</v>
+        <f t="shared" si="49"/>
+        <v>37794.663527714059</v>
       </c>
       <c r="O23" s="56">
-        <f t="shared" si="53"/>
-        <v>87834.820602359076</v>
+        <f t="shared" si="49"/>
+        <v>44383.344302827056</v>
       </c>
       <c r="P23" s="56">
-        <f t="shared" si="53"/>
-        <v>98036.9455905098</v>
+        <f t="shared" si="49"/>
+        <v>51574.70886700452</v>
       </c>
       <c r="Q23" s="56">
-        <f t="shared" si="53"/>
-        <v>109230.91021891727</v>
+        <f t="shared" si="49"/>
+        <v>59430.149284921878</v>
       </c>
       <c r="R23" s="56">
-        <f t="shared" ref="R23:V23" si="54">R18-R22</f>
-        <v>121516.46590877842</v>
+        <f t="shared" ref="R23:V23" si="50">R18-R22</f>
+        <v>68017.174354006595</v>
       </c>
       <c r="S23" s="56">
-        <f t="shared" si="54"/>
-        <v>135003.32787426622</v>
+        <f t="shared" si="50"/>
+        <v>77410.021727187908</v>
       </c>
       <c r="T23" s="56">
-        <f t="shared" si="54"/>
-        <v>149812.17172881067</v>
+        <f t="shared" si="50"/>
+        <v>87690.331238931802</v>
       </c>
       <c r="U23" s="56">
-        <f t="shared" si="54"/>
-        <v>166075.72974746721</v>
+        <f t="shared" si="50"/>
+        <v>98947.885555069573</v>
       </c>
       <c r="V23" s="56">
-        <f t="shared" si="54"/>
-        <v>183939.99675107386</v>
+        <f t="shared" si="50"/>
+        <v>111281.42487897625</v>
       </c>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
@@ -2136,69 +2228,69 @@
         <f>SUM(Reports!R17:U17)</f>
         <v>826</v>
       </c>
-      <c r="G24" s="56">
-        <f t="shared" ref="G24:Q24" si="55">F41*$F$3</f>
-        <v>548.55000000000007</v>
+      <c r="G24" s="40">
+        <f>SUM(Reports!V17:Y17)</f>
+        <v>509</v>
       </c>
       <c r="H24" s="56">
-        <f t="shared" si="55"/>
-        <v>836.41242000000011</v>
+        <f t="shared" ref="G24:Q24" si="51">G41*$F$3</f>
+        <v>1363.78</v>
       </c>
       <c r="I24" s="56">
-        <f t="shared" si="55"/>
-        <v>1164.7972745100001</v>
+        <f t="shared" si="51"/>
+        <v>1932.2576000000001</v>
       </c>
       <c r="J24" s="56">
-        <f t="shared" si="55"/>
-        <v>1535.9887643497054</v>
+        <f t="shared" si="51"/>
+        <v>2520.1897672000009</v>
       </c>
       <c r="K24" s="56">
-        <f t="shared" si="55"/>
-        <v>1950.9573749641802</v>
+        <f t="shared" si="51"/>
+        <v>3107.0215877432015</v>
       </c>
       <c r="L24" s="56">
-        <f t="shared" si="55"/>
-        <v>2408.564487526754</v>
+        <f t="shared" si="51"/>
+        <v>3661.8694727566344</v>
       </c>
       <c r="M24" s="56">
-        <f t="shared" si="55"/>
-        <v>2926.3367553317144</v>
+        <f t="shared" si="51"/>
+        <v>4139.7726711887608</v>
       </c>
       <c r="N24" s="56">
-        <f t="shared" si="55"/>
-        <v>3510.1598423954774</v>
+        <f t="shared" si="51"/>
+        <v>4714.0543895466035</v>
       </c>
       <c r="O24" s="56">
-        <f t="shared" si="55"/>
-        <v>4166.511854065232</v>
+        <f t="shared" si="51"/>
+        <v>5394.1938762227737</v>
       </c>
       <c r="P24" s="56">
-        <f t="shared" si="55"/>
-        <v>4902.5225137166262</v>
+        <f t="shared" si="51"/>
+        <v>6190.634487087571</v>
       </c>
       <c r="Q24" s="56">
-        <f t="shared" si="55"/>
-        <v>5726.0382585504376</v>
+        <f t="shared" si="51"/>
+        <v>7114.8799807530449</v>
       </c>
       <c r="R24" s="56">
-        <f t="shared" ref="R24" si="56">Q41*$F$3</f>
-        <v>6645.693846370179</v>
+        <f t="shared" ref="R24" si="52">Q41*$F$3</f>
+        <v>8179.6004490038431</v>
       </c>
       <c r="S24" s="56">
-        <f t="shared" ref="S24" si="57">R41*$F$3</f>
-        <v>7670.9911244113673</v>
+        <f t="shared" ref="S24" si="53">R41*$F$3</f>
+        <v>9398.7488458520093</v>
       </c>
       <c r="T24" s="56">
-        <f t="shared" ref="T24" si="58">S41*$F$3</f>
-        <v>8812.3856764007887</v>
+        <f t="shared" ref="T24" si="54">S41*$F$3</f>
+        <v>10787.689175020647</v>
       </c>
       <c r="U24" s="56">
-        <f t="shared" ref="U24" si="59">T41*$F$3</f>
-        <v>10081.382135642481</v>
+        <f t="shared" ref="U24" si="55">T41*$F$3</f>
+        <v>12363.337501643888</v>
       </c>
       <c r="V24" s="56">
-        <f t="shared" ref="V24" si="60">U41*$F$3</f>
-        <v>11490.639030707358</v>
+        <f t="shared" ref="V24" si="56">U41*$F$3</f>
+        <v>14144.317070551304</v>
       </c>
     </row>
     <row r="25" spans="1:122" x14ac:dyDescent="0.15">
@@ -2225,69 +2317,69 @@
         <f>F23+F24</f>
         <v>24812</v>
       </c>
-      <c r="G25" s="56">
-        <f t="shared" ref="G25" si="61">G23+G24</f>
-        <v>35982.802500000013</v>
+      <c r="G25" s="19">
+        <f>G23+G24</f>
+        <v>33180</v>
       </c>
       <c r="H25" s="56">
-        <f t="shared" ref="H25:P25" si="62">H23+H24</f>
-        <v>41048.106813750004</v>
+        <f t="shared" ref="H25:P25" si="57">H23+H24</f>
+        <v>35529.850000000013</v>
       </c>
       <c r="I25" s="56">
-        <f t="shared" si="62"/>
-        <v>46398.936229963139</v>
+        <f t="shared" si="57"/>
+        <v>36745.760450000031</v>
       </c>
       <c r="J25" s="56">
-        <f t="shared" si="62"/>
-        <v>51871.076326809358</v>
+        <f t="shared" si="57"/>
+        <v>36676.988783950052</v>
       </c>
       <c r="K25" s="56">
-        <f t="shared" si="62"/>
-        <v>57200.88907032174</v>
+        <f t="shared" si="57"/>
+        <v>34677.992813339537</v>
       </c>
       <c r="L25" s="56">
-        <f t="shared" si="62"/>
-        <v>64721.533475620068</v>
+        <f t="shared" si="57"/>
+        <v>29868.949902007895</v>
       </c>
       <c r="M25" s="56">
-        <f t="shared" si="62"/>
-        <v>72977.885882970382</v>
+        <f t="shared" si="57"/>
+        <v>35892.607397365158</v>
       </c>
       <c r="N25" s="56">
-        <f t="shared" si="62"/>
-        <v>82044.001458719271</v>
+        <f t="shared" si="57"/>
+        <v>42508.717917260663</v>
       </c>
       <c r="O25" s="56">
-        <f t="shared" si="62"/>
-        <v>92001.332456424308</v>
+        <f t="shared" si="57"/>
+        <v>49777.538179049829</v>
       </c>
       <c r="P25" s="56">
-        <f t="shared" si="62"/>
-        <v>102939.46810422643</v>
+        <f t="shared" si="57"/>
+        <v>57765.343354092089</v>
       </c>
       <c r="Q25" s="56">
         <f>Q23+Q24</f>
-        <v>114956.94847746771</v>
+        <v>66545.029265674922</v>
       </c>
       <c r="R25" s="56">
-        <f t="shared" ref="R25:U25" si="63">R23+R24</f>
-        <v>128162.1597551486</v>
+        <f t="shared" ref="R25:U25" si="58">R23+R24</f>
+        <v>76196.774803010441</v>
       </c>
       <c r="S25" s="56">
-        <f t="shared" si="63"/>
-        <v>142674.3189986776</v>
+        <f t="shared" si="58"/>
+        <v>86808.770573039918</v>
       </c>
       <c r="T25" s="56">
-        <f t="shared" si="63"/>
-        <v>158624.55740521147</v>
+        <f t="shared" si="58"/>
+        <v>98478.020413952443</v>
       </c>
       <c r="U25" s="56">
-        <f t="shared" si="63"/>
-        <v>176157.1118831097</v>
+        <f t="shared" si="58"/>
+        <v>111311.22305671347</v>
       </c>
       <c r="V25" s="56">
         <f>V23+V24</f>
-        <v>195430.63578178122</v>
+        <v>125425.74194952755</v>
       </c>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
@@ -2314,69 +2406,69 @@
         <f>SUM(Reports!R19:U19)</f>
         <v>6327</v>
       </c>
-      <c r="G26" s="56">
-        <f t="shared" ref="G26:Q26" si="64">G25*0.2</f>
-        <v>7196.5605000000032</v>
+      <c r="G26" s="40">
+        <f>SUM(Reports!V19:Y19)</f>
+        <v>4035</v>
       </c>
       <c r="H26" s="56">
-        <f t="shared" si="64"/>
-        <v>8209.6213627500019</v>
+        <f t="shared" ref="G26:Q26" si="59">H25*0.2</f>
+        <v>7105.970000000003</v>
       </c>
       <c r="I26" s="56">
-        <f t="shared" si="64"/>
-        <v>9279.7872459926275</v>
+        <f t="shared" si="59"/>
+        <v>7349.1520900000069</v>
       </c>
       <c r="J26" s="56">
-        <f t="shared" si="64"/>
-        <v>10374.215265361872</v>
+        <f t="shared" si="59"/>
+        <v>7335.397756790011</v>
       </c>
       <c r="K26" s="56">
-        <f t="shared" si="64"/>
-        <v>11440.177814064349</v>
+        <f t="shared" si="59"/>
+        <v>6935.5985626679076</v>
       </c>
       <c r="L26" s="56">
-        <f t="shared" si="64"/>
-        <v>12944.306695124014</v>
+        <f t="shared" si="59"/>
+        <v>5973.7899804015797</v>
       </c>
       <c r="M26" s="56">
-        <f t="shared" si="64"/>
-        <v>14595.577176594077</v>
+        <f t="shared" si="59"/>
+        <v>7178.5214794730318</v>
       </c>
       <c r="N26" s="56">
-        <f t="shared" si="64"/>
-        <v>16408.800291743853</v>
+        <f t="shared" si="59"/>
+        <v>8501.743583452133</v>
       </c>
       <c r="O26" s="56">
-        <f t="shared" si="64"/>
-        <v>18400.266491284863</v>
+        <f t="shared" si="59"/>
+        <v>9955.5076358099668</v>
       </c>
       <c r="P26" s="56">
-        <f t="shared" si="64"/>
-        <v>20587.893620845287</v>
+        <f t="shared" si="59"/>
+        <v>11553.068670818418</v>
       </c>
       <c r="Q26" s="56">
-        <f t="shared" si="64"/>
-        <v>22991.389695493544</v>
+        <f t="shared" si="59"/>
+        <v>13309.005853134986</v>
       </c>
       <c r="R26" s="56">
-        <f t="shared" ref="R26:V26" si="65">R25*0.2</f>
-        <v>25632.431951029721</v>
+        <f t="shared" ref="R26:V26" si="60">R25*0.2</f>
+        <v>15239.35496060209</v>
       </c>
       <c r="S26" s="56">
-        <f t="shared" si="65"/>
-        <v>28534.863799735522</v>
+        <f t="shared" si="60"/>
+        <v>17361.754114607986</v>
       </c>
       <c r="T26" s="56">
-        <f t="shared" si="65"/>
-        <v>31724.911481042294</v>
+        <f t="shared" si="60"/>
+        <v>19695.604082790491</v>
       </c>
       <c r="U26" s="56">
-        <f t="shared" si="65"/>
-        <v>35231.422376621944</v>
+        <f t="shared" si="60"/>
+        <v>22262.244611342696</v>
       </c>
       <c r="V26" s="56">
-        <f t="shared" si="65"/>
-        <v>39086.127156356248</v>
+        <f t="shared" si="60"/>
+        <v>25085.148389905513</v>
       </c>
     </row>
     <row r="27" spans="1:122" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2384,488 +2476,488 @@
         <v>15</v>
       </c>
       <c r="B27" s="53">
-        <f t="shared" ref="B27:G27" si="66">B25-B26</f>
+        <f t="shared" ref="B27:G27" si="61">B25-B26</f>
         <v>3689</v>
       </c>
       <c r="C27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>9512</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>15933</v>
       </c>
       <c r="E27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>22113</v>
       </c>
       <c r="F27" s="53">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>18485</v>
       </c>
       <c r="G27" s="53">
-        <f t="shared" si="66"/>
-        <v>28786.242000000009</v>
+        <f t="shared" si="61"/>
+        <v>29145</v>
       </c>
       <c r="H27" s="53">
-        <f t="shared" ref="H27:P27" si="67">H25-H26</f>
-        <v>32838.485451</v>
+        <f t="shared" ref="H27:P27" si="62">H25-H26</f>
+        <v>28423.880000000012</v>
       </c>
       <c r="I27" s="53">
-        <f t="shared" si="67"/>
-        <v>37119.14898397051</v>
+        <f t="shared" si="62"/>
+        <v>29396.608360000024</v>
       </c>
       <c r="J27" s="53">
-        <f t="shared" si="67"/>
-        <v>41496.861061447489</v>
+        <f t="shared" si="62"/>
+        <v>29341.591027160041</v>
       </c>
       <c r="K27" s="53">
-        <f t="shared" si="67"/>
-        <v>45760.711256257389</v>
+        <f t="shared" si="62"/>
+        <v>27742.39425067163</v>
       </c>
       <c r="L27" s="53">
-        <f t="shared" si="67"/>
-        <v>51777.226780496057</v>
+        <f t="shared" si="62"/>
+        <v>23895.159921606315</v>
       </c>
       <c r="M27" s="53">
-        <f t="shared" si="67"/>
-        <v>58382.308706376309</v>
+        <f t="shared" si="62"/>
+        <v>28714.085917892127</v>
       </c>
       <c r="N27" s="53">
-        <f t="shared" si="67"/>
-        <v>65635.201166975414</v>
+        <f t="shared" si="62"/>
+        <v>34006.974333808532</v>
       </c>
       <c r="O27" s="53">
-        <f t="shared" si="67"/>
-        <v>73601.065965139453</v>
+        <f t="shared" si="62"/>
+        <v>39822.03054323986</v>
       </c>
       <c r="P27" s="53">
-        <f t="shared" si="67"/>
-        <v>82351.574483381148</v>
+        <f t="shared" si="62"/>
+        <v>46212.274683273674</v>
       </c>
       <c r="Q27" s="53">
         <f>Q25-Q26</f>
-        <v>91965.558781974163</v>
+        <v>53236.023412539937</v>
       </c>
       <c r="R27" s="53">
-        <f t="shared" ref="R27:U27" si="68">R25-R26</f>
-        <v>102529.72780411888</v>
+        <f t="shared" ref="R27:U27" si="63">R25-R26</f>
+        <v>60957.419842408352</v>
       </c>
       <c r="S27" s="53">
-        <f t="shared" si="68"/>
-        <v>114139.45519894207</v>
+        <f t="shared" si="63"/>
+        <v>69447.016458431928</v>
       </c>
       <c r="T27" s="53">
-        <f t="shared" si="68"/>
-        <v>126899.64592416918</v>
+        <f t="shared" si="63"/>
+        <v>78782.416331161949</v>
       </c>
       <c r="U27" s="53">
-        <f t="shared" si="68"/>
-        <v>140925.68950648775</v>
+        <f t="shared" si="63"/>
+        <v>89048.978445370769</v>
       </c>
       <c r="V27" s="53">
         <f>V25-V26</f>
-        <v>156344.50862542499</v>
+        <v>100340.59355962204</v>
       </c>
       <c r="W27" s="53">
-        <f t="shared" ref="W27:CD27" si="69">V27*($F$2+1)</f>
-        <v>154781.06353917075</v>
+        <f t="shared" ref="W27:CD27" si="64">V27*($F$2+1)</f>
+        <v>98333.78168842959</v>
       </c>
       <c r="X27" s="53">
-        <f t="shared" si="69"/>
-        <v>153233.25290377904</v>
+        <f t="shared" si="64"/>
+        <v>96367.106054660995</v>
       </c>
       <c r="Y27" s="53">
-        <f t="shared" si="69"/>
-        <v>151700.92037474125</v>
+        <f t="shared" si="64"/>
+        <v>94439.763933567767</v>
       </c>
       <c r="Z27" s="53">
-        <f t="shared" si="69"/>
-        <v>150183.91117099384</v>
+        <f t="shared" si="64"/>
+        <v>92550.968654896409</v>
       </c>
       <c r="AA27" s="53">
-        <f t="shared" si="69"/>
-        <v>148682.07205928391</v>
+        <f t="shared" si="64"/>
+        <v>90699.949281798486</v>
       </c>
       <c r="AB27" s="53">
-        <f t="shared" si="69"/>
-        <v>147195.25133869107</v>
+        <f t="shared" si="64"/>
+        <v>88885.950296162511</v>
       </c>
       <c r="AC27" s="53">
-        <f t="shared" si="69"/>
-        <v>145723.29882530417</v>
+        <f t="shared" si="64"/>
+        <v>87108.231290239259</v>
       </c>
       <c r="AD27" s="53">
-        <f t="shared" si="69"/>
-        <v>144266.06583705114</v>
+        <f t="shared" si="64"/>
+        <v>85366.066664434475</v>
       </c>
       <c r="AE27" s="53">
-        <f t="shared" si="69"/>
-        <v>142823.40517868064</v>
+        <f t="shared" si="64"/>
+        <v>83658.745331145779</v>
       </c>
       <c r="AF27" s="53">
-        <f t="shared" si="69"/>
-        <v>141395.17112689384</v>
+        <f t="shared" si="64"/>
+        <v>81985.570424522855</v>
       </c>
       <c r="AG27" s="53">
-        <f t="shared" si="69"/>
-        <v>139981.21941562489</v>
+        <f t="shared" si="64"/>
+        <v>80345.859016032395</v>
       </c>
       <c r="AH27" s="53">
-        <f t="shared" si="69"/>
-        <v>138581.40722146863</v>
+        <f t="shared" si="64"/>
+        <v>78738.941835711739</v>
       </c>
       <c r="AI27" s="53">
-        <f t="shared" si="69"/>
-        <v>137195.59314925395</v>
+        <f t="shared" si="64"/>
+        <v>77164.162998997504</v>
       </c>
       <c r="AJ27" s="53">
-        <f t="shared" si="69"/>
-        <v>135823.63721776142</v>
+        <f t="shared" si="64"/>
+        <v>75620.879739017546</v>
       </c>
       <c r="AK27" s="53">
-        <f t="shared" si="69"/>
-        <v>134465.40084558382</v>
+        <f t="shared" si="64"/>
+        <v>74108.462144237201</v>
       </c>
       <c r="AL27" s="53">
-        <f t="shared" si="69"/>
-        <v>133120.74683712798</v>
+        <f t="shared" si="64"/>
+        <v>72626.292901352455</v>
       </c>
       <c r="AM27" s="53">
-        <f t="shared" si="69"/>
-        <v>131789.5393687567</v>
+        <f t="shared" si="64"/>
+        <v>71173.76704332541</v>
       </c>
       <c r="AN27" s="53">
-        <f t="shared" si="69"/>
-        <v>130471.64397506914</v>
+        <f t="shared" si="64"/>
+        <v>69750.291702458897</v>
       </c>
       <c r="AO27" s="53">
-        <f t="shared" si="69"/>
-        <v>129166.92753531845</v>
+        <f t="shared" si="64"/>
+        <v>68355.285868409715</v>
       </c>
       <c r="AP27" s="53">
-        <f t="shared" si="69"/>
-        <v>127875.25825996527</v>
+        <f t="shared" si="64"/>
+        <v>66988.180151041524</v>
       </c>
       <c r="AQ27" s="53">
-        <f t="shared" si="69"/>
-        <v>126596.50567736561</v>
+        <f t="shared" si="64"/>
+        <v>65648.416548020687</v>
       </c>
       <c r="AR27" s="53">
-        <f t="shared" si="69"/>
-        <v>125330.54062059196</v>
+        <f t="shared" si="64"/>
+        <v>64335.448217060271</v>
       </c>
       <c r="AS27" s="53">
-        <f t="shared" si="69"/>
-        <v>124077.23521438603</v>
+        <f t="shared" si="64"/>
+        <v>63048.739252719068</v>
       </c>
       <c r="AT27" s="53">
-        <f t="shared" si="69"/>
-        <v>122836.46286224217</v>
+        <f t="shared" si="64"/>
+        <v>61787.764467664689</v>
       </c>
       <c r="AU27" s="53">
-        <f t="shared" si="69"/>
-        <v>121608.09823361975</v>
+        <f t="shared" si="64"/>
+        <v>60552.009178311397</v>
       </c>
       <c r="AV27" s="53">
-        <f t="shared" si="69"/>
-        <v>120392.01725128356</v>
+        <f t="shared" si="64"/>
+        <v>59340.96899474517</v>
       </c>
       <c r="AW27" s="53">
-        <f t="shared" si="69"/>
-        <v>119188.09707877072</v>
+        <f t="shared" si="64"/>
+        <v>58154.149614850263</v>
       </c>
       <c r="AX27" s="53">
-        <f t="shared" si="69"/>
-        <v>117996.21610798301</v>
+        <f t="shared" si="64"/>
+        <v>56991.066622553255</v>
       </c>
       <c r="AY27" s="53">
-        <f t="shared" si="69"/>
-        <v>116816.25394690318</v>
+        <f t="shared" si="64"/>
+        <v>55851.24529010219</v>
       </c>
       <c r="AZ27" s="53">
-        <f t="shared" si="69"/>
-        <v>115648.09140743414</v>
+        <f t="shared" si="64"/>
+        <v>54734.220384300148</v>
       </c>
       <c r="BA27" s="53">
-        <f t="shared" si="69"/>
-        <v>114491.6104933598</v>
+        <f t="shared" si="64"/>
+        <v>53639.535976614141</v>
       </c>
       <c r="BB27" s="53">
-        <f t="shared" si="69"/>
-        <v>113346.6943884262</v>
+        <f t="shared" si="64"/>
+        <v>52566.745257081857</v>
       </c>
       <c r="BC27" s="53">
-        <f t="shared" si="69"/>
-        <v>112213.22744454193</v>
+        <f t="shared" si="64"/>
+        <v>51515.41035194022</v>
       </c>
       <c r="BD27" s="53">
-        <f t="shared" si="69"/>
-        <v>111091.09517009651</v>
+        <f t="shared" si="64"/>
+        <v>50485.102144901415</v>
       </c>
       <c r="BE27" s="53">
-        <f t="shared" si="69"/>
-        <v>109980.18421839555</v>
+        <f t="shared" si="64"/>
+        <v>49475.400102003383</v>
       </c>
       <c r="BF27" s="53">
-        <f t="shared" si="69"/>
-        <v>108880.38237621159</v>
+        <f t="shared" si="64"/>
+        <v>48485.892099963312</v>
       </c>
       <c r="BG27" s="53">
-        <f t="shared" si="69"/>
-        <v>107791.57855244947</v>
+        <f t="shared" si="64"/>
+        <v>47516.174257964041</v>
       </c>
       <c r="BH27" s="53">
-        <f t="shared" si="69"/>
-        <v>106713.66276692497</v>
+        <f t="shared" si="64"/>
+        <v>46565.850772804763</v>
       </c>
       <c r="BI27" s="53">
-        <f t="shared" si="69"/>
-        <v>105646.52613925571</v>
+        <f t="shared" si="64"/>
+        <v>45634.533757348669</v>
       </c>
       <c r="BJ27" s="53">
-        <f t="shared" si="69"/>
-        <v>104590.06087786316</v>
+        <f t="shared" si="64"/>
+        <v>44721.843082201696</v>
       </c>
       <c r="BK27" s="53">
-        <f t="shared" si="69"/>
-        <v>103544.16026908453</v>
+        <f t="shared" si="64"/>
+        <v>43827.406220557663</v>
       </c>
       <c r="BL27" s="53">
-        <f t="shared" si="69"/>
-        <v>102508.71866639369</v>
+        <f t="shared" si="64"/>
+        <v>42950.858096146512</v>
       </c>
       <c r="BM27" s="53">
-        <f t="shared" si="69"/>
-        <v>101483.63147972975</v>
+        <f t="shared" si="64"/>
+        <v>42091.840934223583</v>
       </c>
       <c r="BN27" s="53">
-        <f t="shared" si="69"/>
-        <v>100468.79516493245</v>
+        <f t="shared" si="64"/>
+        <v>41250.004115539108</v>
       </c>
       <c r="BO27" s="53">
-        <f t="shared" si="69"/>
-        <v>99464.107213283132</v>
+        <f t="shared" si="64"/>
+        <v>40425.004033228324</v>
       </c>
       <c r="BP27" s="53">
-        <f t="shared" si="69"/>
-        <v>98469.466141150304</v>
+        <f t="shared" si="64"/>
+        <v>39616.503952563755</v>
       </c>
       <c r="BQ27" s="53">
-        <f t="shared" si="69"/>
-        <v>97484.771479738803</v>
+        <f t="shared" si="64"/>
+        <v>38824.173873512482</v>
       </c>
       <c r="BR27" s="53">
-        <f t="shared" si="69"/>
-        <v>96509.923764941414</v>
+        <f t="shared" si="64"/>
+        <v>38047.690396042235</v>
       </c>
       <c r="BS27" s="53">
-        <f t="shared" si="69"/>
-        <v>95544.824527292003</v>
+        <f t="shared" si="64"/>
+        <v>37286.736588121392</v>
       </c>
       <c r="BT27" s="53">
-        <f t="shared" si="69"/>
-        <v>94589.376282019075</v>
+        <f t="shared" si="64"/>
+        <v>36541.001856358962</v>
       </c>
       <c r="BU27" s="53">
-        <f t="shared" si="69"/>
-        <v>93643.482519198878</v>
+        <f t="shared" si="64"/>
+        <v>35810.181819231781</v>
       </c>
       <c r="BV27" s="53">
-        <f t="shared" si="69"/>
-        <v>92707.047694006891</v>
+        <f t="shared" si="64"/>
+        <v>35093.978182847146</v>
       </c>
       <c r="BW27" s="53">
-        <f t="shared" si="69"/>
-        <v>91779.977217066815</v>
+        <f t="shared" si="64"/>
+        <v>34392.098619190205</v>
       </c>
       <c r="BX27" s="53">
-        <f t="shared" si="69"/>
-        <v>90862.177444896151</v>
+        <f t="shared" si="64"/>
+        <v>33704.256646806403</v>
       </c>
       <c r="BY27" s="53">
-        <f t="shared" si="69"/>
-        <v>89953.555670447182</v>
+        <f t="shared" si="64"/>
+        <v>33030.171513870271</v>
       </c>
       <c r="BZ27" s="53">
-        <f t="shared" si="69"/>
-        <v>89054.020113742707</v>
+        <f t="shared" si="64"/>
+        <v>32369.568083592865</v>
       </c>
       <c r="CA27" s="53">
-        <f t="shared" si="69"/>
-        <v>88163.479912605282</v>
+        <f t="shared" si="64"/>
+        <v>31722.176721921009</v>
       </c>
       <c r="CB27" s="53">
-        <f t="shared" si="69"/>
-        <v>87281.845113479227</v>
+        <f t="shared" si="64"/>
+        <v>31087.733187482587</v>
       </c>
       <c r="CC27" s="53">
-        <f t="shared" si="69"/>
-        <v>86409.026662344433</v>
+        <f t="shared" si="64"/>
+        <v>30465.978523732934</v>
       </c>
       <c r="CD27" s="53">
-        <f t="shared" si="69"/>
-        <v>85544.936395720986</v>
+        <f t="shared" si="64"/>
+        <v>29856.658953258277</v>
       </c>
       <c r="CE27" s="53">
-        <f t="shared" ref="CE27:DR27" si="70">CD27*($F$2+1)</f>
-        <v>84689.487031763769</v>
+        <f t="shared" ref="CE27:DR27" si="65">CD27*($F$2+1)</f>
+        <v>29259.525774193109</v>
       </c>
       <c r="CF27" s="53">
-        <f t="shared" si="70"/>
-        <v>83842.592161446126</v>
+        <f t="shared" si="65"/>
+        <v>28674.335258709245</v>
       </c>
       <c r="CG27" s="53">
-        <f t="shared" si="70"/>
-        <v>83004.166239831669</v>
+        <f t="shared" si="65"/>
+        <v>28100.848553535059</v>
       </c>
       <c r="CH27" s="53">
-        <f t="shared" si="70"/>
-        <v>82174.124577433351</v>
+        <f t="shared" si="65"/>
+        <v>27538.831582464358</v>
       </c>
       <c r="CI27" s="53">
-        <f t="shared" si="70"/>
-        <v>81352.383331659017</v>
+        <f t="shared" si="65"/>
+        <v>26988.054950815069</v>
       </c>
       <c r="CJ27" s="53">
-        <f t="shared" si="70"/>
-        <v>80538.859498342426</v>
+        <f t="shared" si="65"/>
+        <v>26448.293851798768</v>
       </c>
       <c r="CK27" s="53">
-        <f t="shared" si="70"/>
-        <v>79733.470903359004</v>
+        <f t="shared" si="65"/>
+        <v>25919.327974762793</v>
       </c>
       <c r="CL27" s="53">
-        <f t="shared" si="70"/>
-        <v>78936.136194325416</v>
+        <f t="shared" si="65"/>
+        <v>25400.941415267538</v>
       </c>
       <c r="CM27" s="53">
-        <f t="shared" si="70"/>
-        <v>78146.774832382158</v>
+        <f t="shared" si="65"/>
+        <v>24892.922586962188</v>
       </c>
       <c r="CN27" s="53">
-        <f t="shared" si="70"/>
-        <v>77365.307084058339</v>
+        <f t="shared" si="65"/>
+        <v>24395.064135222943</v>
       </c>
       <c r="CO27" s="53">
-        <f t="shared" si="70"/>
-        <v>76591.654013217762</v>
+        <f t="shared" si="65"/>
+        <v>23907.162852518482</v>
       </c>
       <c r="CP27" s="53">
-        <f t="shared" si="70"/>
-        <v>75825.737473085581</v>
+        <f t="shared" si="65"/>
+        <v>23429.019595468111</v>
       </c>
       <c r="CQ27" s="53">
-        <f t="shared" si="70"/>
-        <v>75067.480098354717</v>
+        <f t="shared" si="65"/>
+        <v>22960.439203558748</v>
       </c>
       <c r="CR27" s="53">
-        <f t="shared" si="70"/>
-        <v>74316.805297371175</v>
+        <f t="shared" si="65"/>
+        <v>22501.230419487572</v>
       </c>
       <c r="CS27" s="53">
-        <f t="shared" si="70"/>
-        <v>73573.637244397469</v>
+        <f t="shared" si="65"/>
+        <v>22051.205811097821</v>
       </c>
       <c r="CT27" s="53">
-        <f t="shared" si="70"/>
-        <v>72837.90087195349</v>
+        <f t="shared" si="65"/>
+        <v>21610.181694875864</v>
       </c>
       <c r="CU27" s="53">
-        <f t="shared" si="70"/>
-        <v>72109.521863233953</v>
+        <f t="shared" si="65"/>
+        <v>21177.978060978345</v>
       </c>
       <c r="CV27" s="53">
-        <f t="shared" si="70"/>
-        <v>71388.426644601612</v>
+        <f t="shared" si="65"/>
+        <v>20754.418499758776</v>
       </c>
       <c r="CW27" s="53">
-        <f t="shared" si="70"/>
-        <v>70674.542378155602</v>
+        <f t="shared" si="65"/>
+        <v>20339.330129763599</v>
       </c>
       <c r="CX27" s="53">
-        <f t="shared" si="70"/>
-        <v>69967.796954374047</v>
+        <f t="shared" si="65"/>
+        <v>19932.543527168327</v>
       </c>
       <c r="CY27" s="53">
-        <f t="shared" si="70"/>
-        <v>69268.118984830304</v>
+        <f t="shared" si="65"/>
+        <v>19533.892656624961</v>
       </c>
       <c r="CZ27" s="53">
-        <f t="shared" si="70"/>
-        <v>68575.437794982005</v>
+        <f t="shared" si="65"/>
+        <v>19143.214803492461</v>
       </c>
       <c r="DA27" s="53">
-        <f t="shared" si="70"/>
-        <v>67889.683417032182</v>
+        <f t="shared" si="65"/>
+        <v>18760.350507422612</v>
       </c>
       <c r="DB27" s="53">
-        <f t="shared" si="70"/>
-        <v>67210.786582861852</v>
+        <f t="shared" si="65"/>
+        <v>18385.143497274159</v>
       </c>
       <c r="DC27" s="53">
-        <f t="shared" si="70"/>
-        <v>66538.678717033239</v>
+        <f t="shared" si="65"/>
+        <v>18017.440627328677</v>
       </c>
       <c r="DD27" s="53">
-        <f t="shared" si="70"/>
-        <v>65873.291929862913</v>
+        <f t="shared" si="65"/>
+        <v>17657.091814782103</v>
       </c>
       <c r="DE27" s="53">
-        <f t="shared" si="70"/>
-        <v>65214.559010564284</v>
+        <f t="shared" si="65"/>
+        <v>17303.94997848646</v>
       </c>
       <c r="DF27" s="53">
-        <f t="shared" si="70"/>
-        <v>64562.413420458637</v>
+        <f t="shared" si="65"/>
+        <v>16957.87097891673</v>
       </c>
       <c r="DG27" s="53">
-        <f t="shared" si="70"/>
-        <v>63916.789286254047</v>
+        <f t="shared" si="65"/>
+        <v>16618.713559338394</v>
       </c>
       <c r="DH27" s="53">
-        <f t="shared" si="70"/>
-        <v>63277.621393391506</v>
+        <f t="shared" si="65"/>
+        <v>16286.339288151625</v>
       </c>
       <c r="DI27" s="53">
-        <f t="shared" si="70"/>
-        <v>62644.845179457589</v>
+        <f t="shared" si="65"/>
+        <v>15960.612502388592</v>
       </c>
       <c r="DJ27" s="53">
-        <f t="shared" si="70"/>
-        <v>62018.396727663014</v>
+        <f t="shared" si="65"/>
+        <v>15641.40025234082</v>
       </c>
       <c r="DK27" s="53">
-        <f t="shared" si="70"/>
-        <v>61398.212760386385</v>
+        <f t="shared" si="65"/>
+        <v>15328.572247294003</v>
       </c>
       <c r="DL27" s="53">
-        <f t="shared" si="70"/>
-        <v>60784.230632782521</v>
+        <f t="shared" si="65"/>
+        <v>15022.000802348122</v>
       </c>
       <c r="DM27" s="53">
-        <f t="shared" si="70"/>
-        <v>60176.388326454697</v>
+        <f t="shared" si="65"/>
+        <v>14721.560786301159</v>
       </c>
       <c r="DN27" s="53">
-        <f t="shared" si="70"/>
-        <v>59574.62444319015</v>
+        <f t="shared" si="65"/>
+        <v>14427.129570575136</v>
       </c>
       <c r="DO27" s="53">
-        <f t="shared" si="70"/>
-        <v>58978.878198758248</v>
+        <f t="shared" si="65"/>
+        <v>14138.586979163634</v>
       </c>
       <c r="DP27" s="53">
-        <f t="shared" si="70"/>
-        <v>58389.089416770665</v>
+        <f t="shared" si="65"/>
+        <v>13855.815239580361</v>
       </c>
       <c r="DQ27" s="53">
-        <f t="shared" si="70"/>
-        <v>57805.198522602957</v>
+        <f t="shared" si="65"/>
+        <v>13578.698934788754</v>
       </c>
       <c r="DR27" s="53">
-        <f t="shared" si="70"/>
-        <v>57227.146537376924</v>
+        <f t="shared" si="65"/>
+        <v>13307.124956092979</v>
       </c>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
@@ -2892,69 +2984,69 @@
         <f>F27/F29</f>
         <v>6.4385231626610935</v>
       </c>
-      <c r="G28" s="58">
-        <f t="shared" ref="G28" si="71">G27/G29</f>
-        <v>10.026555903866251</v>
+      <c r="G28" s="22">
+        <f>G27/G29</f>
+        <v>10.084775086505191</v>
       </c>
       <c r="H28" s="58">
         <f>H27/H29</f>
-        <v>11.437995629049112</v>
+        <v>9.8352525951557137</v>
       </c>
       <c r="I28" s="58">
-        <f t="shared" ref="I28:Q28" si="72">I27/I29</f>
-        <v>12.928996511309826</v>
+        <f t="shared" ref="I28:Q28" si="66">I27/I29</f>
+        <v>10.171836802768174</v>
       </c>
       <c r="J28" s="58">
-        <f t="shared" si="72"/>
-        <v>14.45380043937565</v>
+        <f t="shared" si="66"/>
+        <v>10.152799663377177</v>
       </c>
       <c r="K28" s="58">
-        <f t="shared" si="72"/>
-        <v>15.938945056167674</v>
+        <f t="shared" si="66"/>
+        <v>9.5994443773950273</v>
       </c>
       <c r="L28" s="58">
-        <f t="shared" si="72"/>
-        <v>18.034561748692461</v>
+        <f t="shared" si="66"/>
+        <v>8.2682214261613538</v>
       </c>
       <c r="M28" s="58">
-        <f t="shared" si="72"/>
-        <v>20.335182412530934</v>
+        <f t="shared" si="66"/>
+        <v>9.9356698677827424</v>
       </c>
       <c r="N28" s="58">
-        <f t="shared" si="72"/>
-        <v>22.861442412739606</v>
+        <f t="shared" si="66"/>
+        <v>11.76711914664655</v>
       </c>
       <c r="O28" s="58">
-        <f t="shared" si="72"/>
-        <v>25.636038302033946</v>
+        <f t="shared" si="66"/>
+        <v>13.779249322920366</v>
       </c>
       <c r="P28" s="58">
-        <f t="shared" si="72"/>
-        <v>28.683933989335127</v>
+        <f t="shared" si="66"/>
+        <v>15.990406464800579</v>
       </c>
       <c r="Q28" s="58">
-        <f t="shared" si="72"/>
-        <v>32.032587524198597</v>
+        <f t="shared" si="66"/>
+        <v>18.420769346899633</v>
       </c>
       <c r="R28" s="58">
-        <f t="shared" ref="R28:V28" si="73">R27/R29</f>
-        <v>35.712200558731759</v>
+        <f t="shared" ref="R28:V28" si="67">R27/R29</f>
+        <v>21.092532817442336</v>
       </c>
       <c r="S28" s="58">
-        <f t="shared" si="73"/>
-        <v>39.755992754769096</v>
+        <f t="shared" si="67"/>
+        <v>24.030109501187518</v>
       </c>
       <c r="T28" s="58">
-        <f t="shared" si="73"/>
-        <v>44.200503630849589</v>
+        <f t="shared" si="67"/>
+        <v>27.260351671682336</v>
       </c>
       <c r="U28" s="58">
-        <f t="shared" si="73"/>
-        <v>49.085924592994687</v>
+        <f t="shared" si="67"/>
+        <v>30.812795309816874</v>
       </c>
       <c r="V28" s="58">
-        <f t="shared" si="73"/>
-        <v>54.456464167685475</v>
+        <f t="shared" si="67"/>
+        <v>34.719928567343267</v>
       </c>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
@@ -2982,68 +3074,68 @@
         <v>2871</v>
       </c>
       <c r="G29" s="50">
-        <f t="shared" ref="G29" si="74">F29</f>
-        <v>2871</v>
+        <f>Reports!Y22</f>
+        <v>2890</v>
       </c>
       <c r="H29" s="50">
-        <f t="shared" ref="H29" si="75">G29</f>
-        <v>2871</v>
+        <f t="shared" ref="H29" si="68">G29</f>
+        <v>2890</v>
       </c>
       <c r="I29" s="50">
-        <f t="shared" ref="I29" si="76">H29</f>
-        <v>2871</v>
+        <f t="shared" ref="I29" si="69">H29</f>
+        <v>2890</v>
       </c>
       <c r="J29" s="50">
-        <f t="shared" ref="J29" si="77">I29</f>
-        <v>2871</v>
+        <f t="shared" ref="J29" si="70">I29</f>
+        <v>2890</v>
       </c>
       <c r="K29" s="50">
-        <f t="shared" ref="K29" si="78">J29</f>
-        <v>2871</v>
+        <f t="shared" ref="K29" si="71">J29</f>
+        <v>2890</v>
       </c>
       <c r="L29" s="50">
-        <f t="shared" ref="L29" si="79">K29</f>
-        <v>2871</v>
+        <f t="shared" ref="L29" si="72">K29</f>
+        <v>2890</v>
       </c>
       <c r="M29" s="50">
-        <f t="shared" ref="M29" si="80">L29</f>
-        <v>2871</v>
+        <f t="shared" ref="M29" si="73">L29</f>
+        <v>2890</v>
       </c>
       <c r="N29" s="50">
-        <f t="shared" ref="N29" si="81">M29</f>
-        <v>2871</v>
+        <f t="shared" ref="N29" si="74">M29</f>
+        <v>2890</v>
       </c>
       <c r="O29" s="50">
-        <f t="shared" ref="O29" si="82">N29</f>
-        <v>2871</v>
+        <f t="shared" ref="O29" si="75">N29</f>
+        <v>2890</v>
       </c>
       <c r="P29" s="50">
-        <f t="shared" ref="P29" si="83">O29</f>
-        <v>2871</v>
+        <f t="shared" ref="P29" si="76">O29</f>
+        <v>2890</v>
       </c>
       <c r="Q29" s="50">
-        <f t="shared" ref="Q29" si="84">P29</f>
-        <v>2871</v>
+        <f t="shared" ref="Q29" si="77">P29</f>
+        <v>2890</v>
       </c>
       <c r="R29" s="50">
-        <f t="shared" ref="R29" si="85">Q29</f>
-        <v>2871</v>
+        <f t="shared" ref="R29" si="78">Q29</f>
+        <v>2890</v>
       </c>
       <c r="S29" s="50">
-        <f t="shared" ref="S29" si="86">R29</f>
-        <v>2871</v>
+        <f t="shared" ref="S29" si="79">R29</f>
+        <v>2890</v>
       </c>
       <c r="T29" s="50">
-        <f t="shared" ref="T29" si="87">S29</f>
-        <v>2871</v>
+        <f t="shared" ref="T29" si="80">S29</f>
+        <v>2890</v>
       </c>
       <c r="U29" s="50">
-        <f t="shared" ref="U29" si="88">T29</f>
-        <v>2871</v>
+        <f t="shared" ref="U29" si="81">T29</f>
+        <v>2890</v>
       </c>
       <c r="V29" s="50">
-        <f t="shared" ref="V29" si="89">U29</f>
-        <v>2871</v>
+        <f t="shared" ref="V29" si="82">U29</f>
+        <v>2890</v>
       </c>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
@@ -3091,67 +3183,67 @@
         <v>0.26610910132884413</v>
       </c>
       <c r="G31" s="60">
-        <f t="shared" ref="G31:Q31" si="90">G16/F16-1</f>
-        <v>0.20750000000000002</v>
+        <f t="shared" ref="G31:Q31" si="83">G16/F16-1</f>
+        <v>0.21597804715900248</v>
       </c>
       <c r="H31" s="60">
-        <f t="shared" si="90"/>
-        <v>0.20750000000000002</v>
+        <f t="shared" si="83"/>
+        <v>0.15500000000000003</v>
       </c>
       <c r="I31" s="60">
-        <f t="shared" si="90"/>
-        <v>0.20750000000000002</v>
+        <f t="shared" si="83"/>
+        <v>0.15500000000000025</v>
       </c>
       <c r="J31" s="60">
-        <f t="shared" si="90"/>
-        <v>0.2074999999999998</v>
+        <f t="shared" si="83"/>
+        <v>0.15500000000000025</v>
       </c>
       <c r="K31" s="60">
-        <f t="shared" si="90"/>
-        <v>0.20750000000000024</v>
+        <f t="shared" si="83"/>
+        <v>0.15500000000000025</v>
       </c>
       <c r="L31" s="60">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="M31" s="60">
+        <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M31" s="60">
-        <f t="shared" si="90"/>
+      <c r="N31" s="60">
+        <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N31" s="60">
-        <f t="shared" si="90"/>
+      <c r="O31" s="60">
+        <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O31" s="60">
-        <f t="shared" si="90"/>
+      <c r="P31" s="60">
+        <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P31" s="60">
-        <f t="shared" si="90"/>
+      <c r="Q31" s="60">
+        <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q31" s="60">
-        <f t="shared" si="90"/>
+      <c r="R31" s="60">
+        <f t="shared" ref="R31" si="84">R16/Q16-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R31" s="60">
-        <f t="shared" ref="R31" si="91">R16/Q16-1</f>
+      <c r="S31" s="60">
+        <f t="shared" ref="S31" si="85">S16/R16-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S31" s="60">
-        <f t="shared" ref="S31" si="92">S16/R16-1</f>
+      <c r="T31" s="60">
+        <f t="shared" ref="T31" si="86">T16/S16-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T31" s="60">
-        <f t="shared" ref="T31" si="93">T16/S16-1</f>
+      <c r="U31" s="60">
+        <f t="shared" ref="U31" si="87">U16/T16-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U31" s="60">
-        <f t="shared" ref="U31" si="94">U16/T16-1</f>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="V31" s="60">
-        <f t="shared" ref="V31" si="95">V16/U16-1</f>
+        <f t="shared" ref="V31" si="88">V16/U16-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3165,79 +3257,79 @@
         <v>0.22648951629644998</v>
       </c>
       <c r="D32" s="33">
-        <f t="shared" ref="D32:Q32" si="96">D19/C19-1</f>
+        <f t="shared" ref="D32:Q32" si="89">D19/C19-1</f>
         <v>0.3124576844955993</v>
       </c>
       <c r="E32" s="63">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>0.3248645860201187</v>
       </c>
       <c r="F32" s="63">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>0.32385865861968277</v>
       </c>
       <c r="G32" s="63">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
+        <v>0.35647058823529409</v>
+      </c>
+      <c r="H32" s="63">
+        <f t="shared" si="89"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H32" s="63">
-        <f t="shared" si="96"/>
+      <c r="I32" s="63">
+        <f t="shared" si="89"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I32" s="63">
-        <f t="shared" si="96"/>
+      <c r="J32" s="63">
+        <f t="shared" si="89"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="K32" s="63">
+        <f t="shared" si="89"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J32" s="63">
-        <f t="shared" si="96"/>
+      <c r="L32" s="63">
+        <f t="shared" si="89"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K32" s="63">
-        <f t="shared" si="96"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="L32" s="63">
-        <f t="shared" si="96"/>
+      <c r="M32" s="63">
+        <f t="shared" si="89"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M32" s="63">
-        <f t="shared" si="96"/>
+      <c r="N32" s="63">
+        <f t="shared" si="89"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N32" s="63">
-        <f t="shared" si="96"/>
+      <c r="O32" s="63">
+        <f t="shared" si="89"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O32" s="63">
-        <f t="shared" si="96"/>
+      <c r="P32" s="63">
+        <f t="shared" si="89"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P32" s="63">
-        <f t="shared" si="96"/>
+      <c r="Q32" s="63">
+        <f t="shared" si="89"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q32" s="63">
-        <f t="shared" si="96"/>
+      <c r="R32" s="63">
+        <f t="shared" ref="R32:R34" si="90">R19/Q19-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R32" s="63">
-        <f t="shared" ref="R32:R34" si="97">R19/Q19-1</f>
+      <c r="S32" s="63">
+        <f t="shared" ref="S32:S34" si="91">S19/R19-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S32" s="63">
-        <f t="shared" ref="S32:S34" si="98">S19/R19-1</f>
+      <c r="T32" s="63">
+        <f t="shared" ref="T32:T34" si="92">T19/S19-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T32" s="63">
-        <f t="shared" ref="T32:T34" si="99">T19/S19-1</f>
+      <c r="U32" s="63">
+        <f t="shared" ref="U32:U34" si="93">U19/T19-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U32" s="63">
-        <f t="shared" ref="U32:U34" si="100">U19/T19-1</f>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="V32" s="63">
-        <f t="shared" ref="V32:V34" si="101">V19/U19-1</f>
+        <f t="shared" ref="V32:V34" si="94">V19/U19-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3251,79 +3343,79 @@
         <v>0.38325991189427322</v>
       </c>
       <c r="D33" s="33">
-        <f t="shared" ref="D33:Q33" si="102">D20/C20-1</f>
+        <f t="shared" ref="D33:Q33" si="95">D20/C20-1</f>
         <v>0.25398089171974525</v>
       </c>
       <c r="E33" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="95"/>
         <v>0.66031746031746041</v>
       </c>
       <c r="F33" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="95"/>
         <v>0.25889101338432119</v>
       </c>
       <c r="G33" s="63">
-        <f t="shared" si="102"/>
-        <v>0.25</v>
+        <f t="shared" si="95"/>
+        <v>0.17355204536249502</v>
       </c>
       <c r="H33" s="63">
-        <f t="shared" si="102"/>
-        <v>0.25</v>
+        <f t="shared" si="95"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="I33" s="63">
-        <f t="shared" si="102"/>
-        <v>0.25</v>
+        <f t="shared" si="95"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="J33" s="63">
-        <f t="shared" si="102"/>
-        <v>0.25</v>
+        <f t="shared" si="95"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="K33" s="63">
-        <f t="shared" si="102"/>
-        <v>0.25</v>
+        <f t="shared" si="95"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="L33" s="63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="95"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M33" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M33" s="63">
-        <f t="shared" si="102"/>
+      <c r="N33" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N33" s="63">
-        <f t="shared" si="102"/>
+      <c r="O33" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O33" s="63">
-        <f t="shared" si="102"/>
+      <c r="P33" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P33" s="63">
-        <f t="shared" si="102"/>
+      <c r="Q33" s="63">
+        <f t="shared" si="95"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q33" s="63">
-        <f t="shared" si="102"/>
+      <c r="R33" s="63">
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R33" s="63">
-        <f t="shared" si="97"/>
+      <c r="S33" s="63">
+        <f t="shared" si="91"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S33" s="63">
-        <f t="shared" si="98"/>
+      <c r="T33" s="63">
+        <f t="shared" si="92"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T33" s="63">
-        <f t="shared" si="99"/>
+      <c r="U33" s="63">
+        <f t="shared" si="93"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U33" s="63">
-        <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="V33" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="94"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3337,85 +3429,85 @@
         <v>0.33667953667953676</v>
       </c>
       <c r="D34" s="33">
-        <f t="shared" ref="D34:Q34" si="103">D21/C21-1</f>
+        <f t="shared" ref="D34:Q34" si="96">D21/C21-1</f>
         <v>0.45407279029462733</v>
       </c>
       <c r="E34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>0.37147397695669437</v>
       </c>
       <c r="F34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>2.0315758980301273</v>
       </c>
       <c r="G34" s="63">
-        <f t="shared" si="103"/>
-        <v>-0.57118012422360243</v>
+        <f>G21/F21-1</f>
+        <v>-0.37267080745341619</v>
       </c>
       <c r="H34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="L34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M34" s="63">
+        <f t="shared" si="96"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M34" s="63">
-        <f t="shared" si="103"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
       <c r="N34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q34" s="63">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R34" s="63">
-        <f t="shared" si="97"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="90"/>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S34" s="63">
-        <f t="shared" si="98"/>
+        <f t="shared" si="91"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T34" s="63">
-        <f t="shared" si="99"/>
-        <v>-2.0000000000000129E-2</v>
+        <f t="shared" si="92"/>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U34" s="63">
-        <f t="shared" si="100"/>
+        <f t="shared" si="93"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V34" s="63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="94"/>
         <v>-2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="91">
@@ -3436,67 +3528,67 @@
       </c>
       <c r="G35" s="91">
         <f>G22/F22-1</f>
-        <v>1.6840988774638355E-2</v>
+        <v>7.8430217141510328E-2</v>
       </c>
       <c r="H35" s="91">
         <f>H22/G22-1</f>
-        <v>0.28211522748213724</v>
+        <v>0.2525038931235144</v>
       </c>
       <c r="I35" s="91">
-        <f t="shared" ref="I35:Q35" si="104">I22/H22-1</f>
-        <v>0.28256321649713767</v>
+        <f t="shared" ref="I35:Q35" si="97">I22/H22-1</f>
+        <v>0.25639093562276671</v>
       </c>
       <c r="J35" s="91">
-        <f t="shared" si="104"/>
-        <v>0.28300592197076613</v>
+        <f t="shared" si="97"/>
+        <v>0.26008374255823519</v>
       </c>
       <c r="K35" s="91">
-        <f t="shared" si="104"/>
-        <v>0.283443102504225</v>
+        <f t="shared" si="97"/>
+        <v>0.26357091635446772</v>
       </c>
       <c r="L35" s="91">
-        <f t="shared" si="104"/>
-        <v>8.3541888633064998E-2</v>
+        <f t="shared" si="97"/>
+        <v>0.26684519590461231</v>
       </c>
       <c r="M35" s="91">
-        <f t="shared" si="104"/>
-        <v>8.5114604881640687E-2</v>
+        <f t="shared" si="97"/>
+        <v>7.4823833688077546E-2</v>
       </c>
       <c r="N35" s="91">
-        <f t="shared" si="104"/>
-        <v>8.655654697636006E-2</v>
+        <f t="shared" si="97"/>
+        <v>7.7044942424635332E-2</v>
       </c>
       <c r="O35" s="91">
-        <f t="shared" si="104"/>
-        <v>8.7874921006339424E-2</v>
+        <f t="shared" si="97"/>
+        <v>7.9113261166971816E-2</v>
       </c>
       <c r="P35" s="91">
-        <f t="shared" si="104"/>
-        <v>8.9077257702755874E-2</v>
+        <f t="shared" si="97"/>
+        <v>8.1031644413087633E-2</v>
       </c>
       <c r="Q35" s="91">
-        <f t="shared" si="104"/>
-        <v>9.0171232228392739E-2</v>
+        <f t="shared" si="97"/>
+        <v>8.2804399324252653E-2</v>
       </c>
       <c r="R35" s="91">
-        <f t="shared" ref="R35:V35" si="105">R22/Q22-1</f>
-        <v>9.1164514223617488E-2</v>
+        <f t="shared" ref="R35:V35" si="98">R22/Q22-1</f>
+        <v>8.4436996494704708E-2</v>
       </c>
       <c r="S35" s="91">
-        <f t="shared" si="105"/>
-        <v>9.2064646578966736E-2</v>
+        <f t="shared" si="98"/>
+        <v>8.5935795731344022E-2</v>
       </c>
       <c r="T35" s="91">
-        <f t="shared" si="105"/>
-        <v>9.2878950548418437E-2</v>
+        <f t="shared" si="98"/>
+        <v>8.7307794588352472E-2</v>
       </c>
       <c r="U35" s="91">
-        <f t="shared" si="105"/>
-        <v>9.3614454318981855E-2</v>
+        <f t="shared" si="98"/>
+        <v>8.8560404546604632E-2</v>
       </c>
       <c r="V35" s="91">
-        <f t="shared" si="105"/>
-        <v>9.4277841937180362E-2</v>
+        <f t="shared" si="98"/>
+        <v>8.9701257277498447E-2</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -3547,68 +3639,68 @@
         <v>0.81936998741106415</v>
       </c>
       <c r="G37" s="64">
-        <f t="shared" ref="G37:Q37" si="106">IFERROR(G18/G16,0)</f>
-        <v>0.81936998741106415</v>
+        <f t="shared" ref="G37:Q37" si="99">IFERROR(G18/G16,0)</f>
+        <v>0.80583021194425708</v>
       </c>
       <c r="H37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="I37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="J37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="K37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="L37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="M37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="N37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="O37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="P37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="Q37" s="64">
-        <f t="shared" si="106"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="99"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="R37" s="64">
-        <f t="shared" ref="R37:V37" si="107">IFERROR(R18/R16,0)</f>
-        <v>0.81936998741106426</v>
+        <f t="shared" ref="R37:V37" si="100">IFERROR(R18/R16,0)</f>
+        <v>0.80583021194425708</v>
       </c>
       <c r="S37" s="64">
-        <f t="shared" si="107"/>
-        <v>0.81936998741106426</v>
+        <f t="shared" si="100"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="T37" s="64">
-        <f t="shared" si="107"/>
-        <v>0.81936998741106437</v>
+        <f t="shared" si="100"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="U37" s="64">
-        <f t="shared" si="107"/>
-        <v>0.81936998741106437</v>
+        <f t="shared" si="100"/>
+        <v>0.80583021194425708</v>
       </c>
       <c r="V37" s="64">
-        <f t="shared" si="107"/>
-        <v>0.81936998741106437</v>
+        <f t="shared" si="100"/>
+        <v>0.80583021194425708</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -3632,72 +3724,72 @@
         <v>0.44616569361366809</v>
       </c>
       <c r="F38" s="63">
-        <f t="shared" ref="F38:Q38" si="108">IFERROR(F23/F16,0)</f>
+        <f t="shared" ref="F38:Q38" si="101">IFERROR(F23/F16,0)</f>
         <v>0.33927889443682191</v>
       </c>
       <c r="G38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.41508319512797914</v>
+        <f t="shared" si="101"/>
+        <v>0.38004559942302774</v>
       </c>
       <c r="H38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.39010104111205701</v>
+        <f t="shared" si="101"/>
+        <v>0.34410130734258887</v>
       </c>
       <c r="I38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.36341590003417668</v>
+        <f t="shared" si="101"/>
+        <v>0.30356873102948212</v>
       </c>
       <c r="J38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.33490473337270155</v>
+        <f t="shared" si="101"/>
+        <v>0.25787218024388375</v>
       </c>
       <c r="K38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.30443533838539671</v>
+        <f t="shared" si="101"/>
+        <v>0.20636369052483627</v>
       </c>
       <c r="L38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.31213974911299497</v>
+        <f t="shared" si="101"/>
+        <v>0.14831394980932849</v>
       </c>
       <c r="M38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.31900367867030988</v>
+        <f t="shared" si="101"/>
+        <v>0.16336280323505814</v>
       </c>
       <c r="N38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.32511881591228114</v>
+        <f t="shared" si="101"/>
+        <v>0.17676996355979915</v>
       </c>
       <c r="O38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.33056684727331032</v>
+        <f t="shared" si="101"/>
+        <v>0.18871452457638646</v>
       </c>
       <c r="P38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.33542054794040899</v>
+        <f t="shared" si="101"/>
+        <v>0.19935604257298242</v>
       </c>
       <c r="Q38" s="63">
-        <f t="shared" si="108"/>
-        <v>0.33974475398927861</v>
+        <f t="shared" si="101"/>
+        <v>0.20883666769722262</v>
       </c>
       <c r="R38" s="63">
-        <f t="shared" ref="R38:V38" si="109">IFERROR(R23/R16,0)</f>
-        <v>0.34359722846918078</v>
+        <f t="shared" ref="R38:V38" si="102">IFERROR(R23/R16,0)</f>
+        <v>0.21728304280790919</v>
       </c>
       <c r="S38" s="63">
-        <f t="shared" si="109"/>
-        <v>0.34702943300582073</v>
+        <f t="shared" si="102"/>
+        <v>0.22480799517924807</v>
       </c>
       <c r="T38" s="63">
-        <f t="shared" si="109"/>
-        <v>0.35008721522937281</v>
+        <f t="shared" si="102"/>
+        <v>0.23151204365553199</v>
       </c>
       <c r="U38" s="63">
-        <f t="shared" si="109"/>
-        <v>0.35281142121035558</v>
+        <f t="shared" si="102"/>
+        <v>0.23748474138894851</v>
       </c>
       <c r="V38" s="63">
-        <f t="shared" si="109"/>
-        <v>0.35523844108432201</v>
+        <f t="shared" si="102"/>
+        <v>0.24280587209690146</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
@@ -3717,75 +3809,75 @@
         <v>0.22632805671554823</v>
       </c>
       <c r="E39" s="63">
-        <f t="shared" ref="E39:Q39" si="110">IFERROR(E26/E25,0)</f>
+        <f t="shared" ref="E39:Q39" si="103">IFERROR(E26/E25,0)</f>
         <v>0.12807065967430306</v>
       </c>
       <c r="F39" s="63">
-        <f t="shared" si="110"/>
+        <f t="shared" si="103"/>
         <v>0.25499758181525067</v>
       </c>
       <c r="G39" s="63">
-        <f t="shared" si="110"/>
+        <f t="shared" si="103"/>
+        <v>0.12160940325497288</v>
+      </c>
+      <c r="H39" s="63">
+        <f t="shared" si="103"/>
         <v>0.2</v>
       </c>
-      <c r="H39" s="63">
-        <f t="shared" si="110"/>
+      <c r="I39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="J39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="K39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="L39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="M39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="N39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="O39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="P39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q39" s="63">
+        <f t="shared" si="103"/>
+        <v>0.2</v>
+      </c>
+      <c r="R39" s="63">
+        <f t="shared" ref="R39:V39" si="104">IFERROR(R26/R25,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="S39" s="63">
+        <f t="shared" si="104"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="I39" s="63">
-        <f t="shared" si="110"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="J39" s="63">
-        <f t="shared" si="110"/>
+      <c r="T39" s="63">
+        <f t="shared" si="104"/>
         <v>0.2</v>
       </c>
-      <c r="K39" s="63">
-        <f t="shared" si="110"/>
+      <c r="U39" s="63">
+        <f t="shared" si="104"/>
         <v>0.2</v>
       </c>
-      <c r="L39" s="63">
-        <f t="shared" si="110"/>
-        <v>0.2</v>
-      </c>
-      <c r="M39" s="63">
-        <f t="shared" si="110"/>
-        <v>0.2</v>
-      </c>
-      <c r="N39" s="63">
-        <f t="shared" si="110"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="O39" s="63">
-        <f t="shared" si="110"/>
-        <v>0.2</v>
-      </c>
-      <c r="P39" s="63">
-        <f t="shared" si="110"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q39" s="63">
-        <f t="shared" si="110"/>
-        <v>0.2</v>
-      </c>
-      <c r="R39" s="63">
-        <f t="shared" ref="R39:V39" si="111">IFERROR(R26/R25,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="S39" s="63">
-        <f t="shared" si="111"/>
-        <v>0.2</v>
-      </c>
-      <c r="T39" s="63">
-        <f t="shared" si="111"/>
-        <v>0.2</v>
-      </c>
-      <c r="U39" s="63">
-        <f t="shared" si="111"/>
-        <v>0.2</v>
-      </c>
       <c r="V39" s="63">
-        <f t="shared" si="111"/>
+        <f t="shared" si="104"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3836,69 +3928,69 @@
         <f>F42-F43</f>
         <v>54855</v>
       </c>
-      <c r="G41" s="65">
-        <f>F41+G27</f>
-        <v>83641.242000000013</v>
+      <c r="G41" s="53">
+        <f>G42-G43</f>
+        <v>68189</v>
       </c>
       <c r="H41" s="65">
-        <f t="shared" ref="H41:Q41" si="112">G41+H27</f>
-        <v>116479.72745100001</v>
+        <f t="shared" ref="H41:Q41" si="105">G41+H27</f>
+        <v>96612.88</v>
       </c>
       <c r="I41" s="65">
-        <f t="shared" si="112"/>
-        <v>153598.87643497053</v>
+        <f t="shared" si="105"/>
+        <v>126009.48836000003</v>
       </c>
       <c r="J41" s="65">
-        <f t="shared" si="112"/>
-        <v>195095.73749641801</v>
+        <f t="shared" si="105"/>
+        <v>155351.07938716008</v>
       </c>
       <c r="K41" s="65">
-        <f t="shared" si="112"/>
-        <v>240856.44875267538</v>
+        <f t="shared" si="105"/>
+        <v>183093.47363783172</v>
       </c>
       <c r="L41" s="65">
-        <f t="shared" si="112"/>
-        <v>292633.67553317145</v>
+        <f t="shared" si="105"/>
+        <v>206988.63355943802</v>
       </c>
       <c r="M41" s="65">
-        <f t="shared" si="112"/>
-        <v>351015.98423954775</v>
+        <f t="shared" si="105"/>
+        <v>235702.71947733016</v>
       </c>
       <c r="N41" s="65">
-        <f t="shared" si="112"/>
-        <v>416651.18540652317</v>
+        <f t="shared" si="105"/>
+        <v>269709.69381113868</v>
       </c>
       <c r="O41" s="65">
-        <f t="shared" si="112"/>
-        <v>490252.2513716626</v>
+        <f t="shared" si="105"/>
+        <v>309531.72435437853</v>
       </c>
       <c r="P41" s="65">
-        <f t="shared" si="112"/>
-        <v>572603.82585504372</v>
+        <f t="shared" si="105"/>
+        <v>355743.99903765222</v>
       </c>
       <c r="Q41" s="65">
-        <f t="shared" si="112"/>
-        <v>664569.38463701785</v>
+        <f t="shared" si="105"/>
+        <v>408980.02245019213</v>
       </c>
       <c r="R41" s="65">
-        <f t="shared" ref="R41" si="113">Q41+R27</f>
-        <v>767099.11244113673</v>
+        <f t="shared" ref="R41" si="106">Q41+R27</f>
+        <v>469937.44229260046</v>
       </c>
       <c r="S41" s="65">
-        <f t="shared" ref="S41" si="114">R41+S27</f>
-        <v>881238.56764007884</v>
+        <f t="shared" ref="S41" si="107">R41+S27</f>
+        <v>539384.45875103236</v>
       </c>
       <c r="T41" s="65">
-        <f t="shared" ref="T41" si="115">S41+T27</f>
-        <v>1008138.2135642481</v>
+        <f t="shared" ref="T41" si="108">S41+T27</f>
+        <v>618166.87508219434</v>
       </c>
       <c r="U41" s="65">
-        <f t="shared" ref="U41" si="116">T41+U27</f>
-        <v>1149063.9030707357</v>
+        <f t="shared" ref="U41" si="109">T41+U27</f>
+        <v>707215.85352756514</v>
       </c>
       <c r="V41" s="65">
-        <f t="shared" ref="V41" si="117">U41+V27</f>
-        <v>1305408.4116961607</v>
+        <f t="shared" ref="V41" si="110">U41+V27</f>
+        <v>807556.4470871872</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -3925,7 +4017,10 @@
         <f>Reports!U34</f>
         <v>54855</v>
       </c>
-      <c r="G42" s="89"/>
+      <c r="G42" s="89">
+        <f>Reports!Y34</f>
+        <v>68189</v>
+      </c>
       <c r="H42" s="89"/>
       <c r="I42" s="89"/>
       <c r="J42" s="89"/>
@@ -3966,7 +4061,10 @@
         <f>Reports!U35</f>
         <v>0</v>
       </c>
-      <c r="G43" s="89"/>
+      <c r="G43" s="89">
+        <f>Reports!Y35</f>
+        <v>0</v>
+      </c>
       <c r="H43" s="89"/>
       <c r="I43" s="89"/>
       <c r="J43" s="89"/>
@@ -4008,7 +4106,7 @@
     </row>
     <row r="45" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="89"/>
       <c r="C45" s="89"/>
@@ -4024,7 +4122,10 @@
         <f>Reports!U37</f>
         <v>19609</v>
       </c>
-      <c r="G45" s="89"/>
+      <c r="G45" s="89">
+        <f>Reports!Y37</f>
+        <v>19673</v>
+      </c>
       <c r="H45" s="89"/>
       <c r="I45" s="89"/>
       <c r="J45" s="89"/>
@@ -4043,7 +4144,7 @@
     </row>
     <row r="46" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="89"/>
       <c r="C46" s="89"/>
@@ -4059,7 +4160,10 @@
         <f>Reports!U38</f>
         <v>133376</v>
       </c>
-      <c r="G46" s="89"/>
+      <c r="G46" s="89">
+        <f>Reports!Y38</f>
+        <v>159316</v>
+      </c>
       <c r="H46" s="89"/>
       <c r="I46" s="89"/>
       <c r="J46" s="89"/>
@@ -4078,7 +4182,7 @@
     </row>
     <row r="47" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="89"/>
       <c r="C47" s="89"/>
@@ -4094,7 +4198,10 @@
         <f>Reports!U39</f>
         <v>32322</v>
       </c>
-      <c r="G47" s="89"/>
+      <c r="G47" s="89">
+        <f>Reports!Y39</f>
+        <v>31026</v>
+      </c>
       <c r="H47" s="89"/>
       <c r="I47" s="89"/>
       <c r="J47" s="89"/>
@@ -4136,7 +4243,7 @@
     </row>
     <row r="49" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="89"/>
       <c r="C49" s="89"/>
@@ -4152,7 +4259,10 @@
         <f>F46-F45-F42</f>
         <v>58912</v>
       </c>
-      <c r="G49" s="89"/>
+      <c r="G49" s="21">
+        <f>G46-G45-G42</f>
+        <v>71454</v>
+      </c>
       <c r="H49" s="89"/>
       <c r="I49" s="89"/>
       <c r="J49" s="89"/>
@@ -4171,7 +4281,7 @@
     </row>
     <row r="50" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="89"/>
       <c r="C50" s="89"/>
@@ -4187,7 +4297,10 @@
         <f>F46-F47</f>
         <v>101054</v>
       </c>
-      <c r="G50" s="89"/>
+      <c r="G50" s="21">
+        <f>G46-G47</f>
+        <v>128290</v>
+      </c>
       <c r="H50" s="89"/>
       <c r="I50" s="89"/>
       <c r="J50" s="89"/>
@@ -4229,7 +4342,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" s="66"/>
       <c r="C52" s="66"/>
@@ -4245,7 +4358,10 @@
         <f>F27/F50</f>
         <v>0.18292200209788825</v>
       </c>
-      <c r="G52" s="74"/>
+      <c r="G52" s="32">
+        <f>G27/G50</f>
+        <v>0.22718060643853769</v>
+      </c>
       <c r="H52" s="74"/>
       <c r="I52" s="74"/>
       <c r="J52" s="66"/>
@@ -4264,7 +4380,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="66"/>
       <c r="C53" s="66"/>
@@ -4280,7 +4396,10 @@
         <f>F27/F46</f>
         <v>0.13859315019193857</v>
       </c>
-      <c r="G53" s="74"/>
+      <c r="G53" s="32">
+        <f>G27/G46</f>
+        <v>0.1829383112807251</v>
+      </c>
       <c r="H53" s="74"/>
       <c r="I53" s="74"/>
       <c r="J53" s="66"/>
@@ -4299,7 +4418,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="66"/>
       <c r="C54" s="66"/>
@@ -4315,7 +4434,10 @@
         <f>F27/(F50-F45)</f>
         <v>0.22696298115292529</v>
       </c>
-      <c r="G54" s="74"/>
+      <c r="G54" s="32">
+        <f>G27/(G50-G45)</f>
+        <v>0.26832816225821005</v>
+      </c>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
       <c r="J54" s="66"/>
@@ -4334,7 +4456,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="68"/>
       <c r="C55" s="68"/>
@@ -4350,7 +4472,10 @@
         <f>F27/F49</f>
         <v>0.31377308527973929</v>
       </c>
-      <c r="G55" s="49"/>
+      <c r="G55" s="70">
+        <f>G27/G49</f>
+        <v>0.40788479301368713</v>
+      </c>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
       <c r="J55" s="68"/>
@@ -4403,31 +4528,31 @@
         <v>0.13821138211382111</v>
       </c>
       <c r="E57" s="49">
-        <f t="shared" ref="E57:K57" si="118">E13/D13-1</f>
+        <f t="shared" ref="E57:K57" si="111">E13/D13-1</f>
         <v>8.5714285714285632E-2</v>
       </c>
       <c r="F57" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="111"/>
         <v>9.210526315789469E-2</v>
       </c>
       <c r="G57" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="111"/>
+        <v>0.10843373493975905</v>
+      </c>
+      <c r="H57" s="49">
+        <f t="shared" si="111"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="H57" s="49">
-        <f t="shared" si="118"/>
+      <c r="I57" s="49">
+        <f t="shared" si="111"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="I57" s="49">
-        <f t="shared" si="118"/>
+      <c r="J57" s="49">
+        <f t="shared" si="111"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J57" s="49">
-        <f t="shared" si="118"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="K57" s="49">
-        <f t="shared" si="118"/>
+        <f t="shared" si="111"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -4444,32 +4569,32 @@
         <v>0.29229916367733866</v>
       </c>
       <c r="E58" s="49">
-        <f t="shared" ref="E58:K58" si="119">E14/D14-1</f>
+        <f t="shared" ref="E58:K58" si="112">E14/D14-1</f>
         <v>0.26509081352188679</v>
       </c>
       <c r="F58" s="49">
-        <f t="shared" si="119"/>
+        <f t="shared" si="112"/>
         <v>0.15932881567460444</v>
       </c>
       <c r="G58" s="49">
-        <f t="shared" si="119"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="112"/>
+        <v>9.7023672980404374E-2</v>
       </c>
       <c r="H58" s="49">
-        <f t="shared" si="119"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="112"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I58" s="49">
-        <f t="shared" si="119"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="112"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J58" s="49">
-        <f t="shared" si="119"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="112"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="K58" s="49">
-        <f t="shared" si="119"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="112"/>
+        <v>0.10000000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -4486,13 +4611,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4512,7 +4637,7 @@
     <col min="23" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="76" t="s">
         <v>60</v>
       </c>
@@ -4565,31 +4690,43 @@
         <v>45</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Z1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76"/>
       <c r="B2" s="2" t="s">
         <v>54</v>
@@ -4660,8 +4797,11 @@
       <c r="X2" s="86">
         <v>44104</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y2" s="86">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
         <v>58</v>
       </c>
@@ -4734,8 +4874,11 @@
       <c r="X3" s="40">
         <v>21221</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y3" s="40">
+        <v>27187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="78" t="s">
         <v>72</v>
       </c>
@@ -4808,8 +4951,11 @@
       <c r="X4" s="40">
         <v>249</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y4" s="40">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="78"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4830,7 +4976,7 @@
       <c r="R5" s="88"/>
       <c r="V5" s="88"/>
     </row>
-    <row r="6" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="78" t="s">
         <v>59</v>
       </c>
@@ -4903,8 +5049,11 @@
       <c r="X6" s="40">
         <v>1820</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" s="83" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y6" s="40">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="79" t="s">
         <v>74</v>
       </c>
@@ -4957,7 +5106,7 @@
         <v>9.2657142857142851</v>
       </c>
       <c r="N7" s="81">
-        <f t="shared" ref="N7:X7" si="1">SUM(N3:N4)/N6</f>
+        <f t="shared" ref="N7:Y7" si="1">SUM(N3:N4)/N6</f>
         <v>8.2524137931034485</v>
       </c>
       <c r="O7" s="82">
@@ -5000,8 +5149,12 @@
         <f t="shared" si="1"/>
         <v>11.796703296703297</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y7" s="82">
+        <f t="shared" si="1"/>
+        <v>15.256521739130434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="I8" s="5"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -5010,7 +5163,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84" t="s">
         <v>4</v>
       </c>
@@ -5075,7 +5228,7 @@
         <v>13727</v>
       </c>
       <c r="Q9" s="16">
-        <f t="shared" ref="Q9:X9" si="4">SUM(Q3:Q4)</f>
+        <f t="shared" ref="Q9:Y9" si="4">SUM(Q3:Q4)</f>
         <v>16914</v>
       </c>
       <c r="R9" s="17">
@@ -5106,11 +5259,12 @@
         <f t="shared" si="4"/>
         <v>21470</v>
       </c>
-      <c r="Y9" s="85">
+      <c r="Y9" s="16">
+        <f t="shared" si="4"/>
         <v>28072</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="78" t="s">
         <v>5</v>
       </c>
@@ -5183,8 +5337,11 @@
       <c r="X10" s="40">
         <v>4194</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="40">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="78" t="s">
         <v>6</v>
       </c>
@@ -5265,7 +5422,7 @@
         <v>14497</v>
       </c>
       <c r="U11" s="19">
-        <f t="shared" ref="U11:X11" si="8">U9-U10</f>
+        <f t="shared" ref="U11:Y11" si="8">U9-U10</f>
         <v>17590</v>
       </c>
       <c r="V11" s="20">
@@ -5280,8 +5437,12 @@
         <f t="shared" si="8"/>
         <v>17276</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y11" s="19">
+        <f t="shared" si="8"/>
+        <v>22862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="78" t="s">
         <v>7</v>
       </c>
@@ -5354,8 +5515,11 @@
       <c r="X12" s="40">
         <v>4763</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y12" s="40">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="78" t="s">
         <v>8</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="X13" s="40">
         <v>2683</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y13" s="40">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="78" t="s">
         <v>9</v>
       </c>
@@ -5502,8 +5669,11 @@
       <c r="X14" s="40">
         <v>1790</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y14" s="40">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="78" t="s">
         <v>10</v>
       </c>
@@ -5599,8 +5769,12 @@
         <f t="shared" si="14"/>
         <v>9236</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y15" s="19">
+        <f t="shared" ref="Y15" si="15">SUM(Y12:Y14)</f>
+        <v>10087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="78" t="s">
         <v>11</v>
       </c>
@@ -5625,76 +5799,80 @@
         <v>2009</v>
       </c>
       <c r="G16" s="21">
-        <f t="shared" ref="G16:H16" si="15">G11-G15</f>
+        <f t="shared" ref="G16:H16" si="16">G11-G15</f>
         <v>2746</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3122</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" ref="I16:P16" si="16">I11-I15</f>
+        <f t="shared" ref="I16:P16" si="17">I11-I15</f>
         <v>4566</v>
       </c>
       <c r="J16" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3327</v>
       </c>
       <c r="K16" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4401</v>
       </c>
       <c r="L16" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5122</v>
       </c>
       <c r="M16" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7352</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5449</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5863</v>
       </c>
       <c r="P16" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5781</v>
       </c>
       <c r="Q16" s="19">
-        <f t="shared" ref="Q16:R16" si="17">Q11-Q15</f>
+        <f t="shared" ref="Q16:R16" si="18">Q11-Q15</f>
         <v>7820</v>
       </c>
       <c r="R16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3317</v>
       </c>
       <c r="S16" s="19">
-        <f t="shared" ref="S16:T16" si="18">S11-S15</f>
+        <f t="shared" ref="S16:T16" si="19">S11-S15</f>
         <v>4626</v>
       </c>
       <c r="T16" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7185</v>
       </c>
       <c r="U16" s="19">
-        <f t="shared" ref="U16:V16" si="19">U11-U15</f>
+        <f t="shared" ref="U16:V16" si="20">U11-U15</f>
         <v>8858</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5893</v>
       </c>
       <c r="W16" s="19">
-        <f t="shared" ref="W16:X16" si="20">W11-W15</f>
+        <f t="shared" ref="W16:X16" si="21">W11-W15</f>
         <v>5963</v>
       </c>
       <c r="X16" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8040</v>
+      </c>
+      <c r="Y16" s="19">
+        <f t="shared" ref="Y16" si="22">Y11-Y15</f>
+        <v>12775</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -5770,6 +5948,9 @@
       <c r="X17" s="40">
         <v>93</v>
       </c>
+      <c r="Y17" s="40">
+        <v>280</v>
+      </c>
     </row>
     <row r="18" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
@@ -5796,76 +5977,80 @@
         <v>2065</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" ref="G18:I18" si="21">G16+G17</f>
+        <f t="shared" ref="G18:I18" si="23">G16+G17</f>
         <v>2766</v>
       </c>
       <c r="H18" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3169</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4533</v>
       </c>
       <c r="J18" s="20">
-        <f t="shared" ref="J18:K18" si="22">J16+J17</f>
+        <f t="shared" ref="J18:K18" si="24">J16+J17</f>
         <v>3408</v>
       </c>
       <c r="K18" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4488</v>
       </c>
       <c r="L18" s="19">
-        <f t="shared" ref="L18:O18" si="23">L16+L17</f>
+        <f t="shared" ref="L18:O18" si="25">L16+L17</f>
         <v>5236</v>
       </c>
       <c r="M18" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7462</v>
       </c>
       <c r="N18" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5610</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5868</v>
       </c>
       <c r="P18" s="19">
-        <f t="shared" ref="P18:T18" si="24">P16+P17</f>
+        <f t="shared" ref="P18:T18" si="26">P16+P17</f>
         <v>5912</v>
       </c>
       <c r="Q18" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7971</v>
       </c>
       <c r="R18" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3482</v>
       </c>
       <c r="S18" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4832</v>
       </c>
       <c r="T18" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7329</v>
       </c>
       <c r="U18" s="19">
-        <f t="shared" ref="U18:X18" si="25">U16+U17</f>
+        <f t="shared" ref="U18:Y18" si="27">U16+U17</f>
         <v>9169</v>
       </c>
       <c r="V18" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5861</v>
       </c>
       <c r="W18" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6131</v>
       </c>
       <c r="X18" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8133</v>
+      </c>
+      <c r="Y18" s="19">
+        <f t="shared" si="27"/>
+        <v>13055</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -5941,6 +6126,9 @@
       <c r="X19" s="40">
         <v>287</v>
       </c>
+      <c r="Y19" s="40">
+        <v>1836</v>
+      </c>
     </row>
     <row r="20" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="84" t="s">
@@ -5967,76 +6155,80 @@
         <v>1510</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" ref="G20:H20" si="26">G18-G19</f>
+        <f t="shared" ref="G20:H20" si="28">G18-G19</f>
         <v>2055</v>
       </c>
       <c r="H20" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2379</v>
       </c>
       <c r="I20" s="18">
-        <f t="shared" ref="I20:P20" si="27">I18-I19</f>
+        <f t="shared" ref="I20:P20" si="29">I18-I19</f>
         <v>3568</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3064</v>
       </c>
       <c r="K20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3894</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4707</v>
       </c>
       <c r="M20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4268</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4988</v>
       </c>
       <c r="O20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5106</v>
       </c>
       <c r="P20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5137</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" ref="Q20:R20" si="28">Q18-Q19</f>
+        <f t="shared" ref="Q20:R20" si="30">Q18-Q19</f>
         <v>6882</v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2429</v>
       </c>
       <c r="S20" s="16">
-        <f t="shared" ref="S20:T20" si="29">S18-S19</f>
+        <f t="shared" ref="S20:T20" si="31">S18-S19</f>
         <v>2616</v>
       </c>
       <c r="T20" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6091</v>
       </c>
       <c r="U20" s="16">
-        <f t="shared" ref="U20:V20" si="30">U18-U19</f>
+        <f t="shared" ref="U20:V20" si="32">U18-U19</f>
         <v>7349</v>
       </c>
       <c r="V20" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4902</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" ref="W20:X20" si="31">W18-W19</f>
+        <f t="shared" ref="W20:X20" si="33">W18-W19</f>
         <v>5178</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7846</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" ref="Y20" si="34">Y18-Y19</f>
+        <v>11219</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.15">
@@ -6044,96 +6236,100 @@
         <v>16</v>
       </c>
       <c r="B21" s="22">
-        <f t="shared" ref="B21:H21" si="32">IFERROR(B20/B22,0)</f>
+        <f t="shared" ref="B21:H21" si="35">IFERROR(B20/B22,0)</f>
         <v>0.18053596614950634</v>
       </c>
       <c r="C21" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.25228070175438594</v>
       </c>
       <c r="D21" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.31295843520782396</v>
       </c>
       <c r="E21" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.54273801250868658</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.52285318559556782</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.7076446280991735</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.81612349914236704</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21:L21" si="33">IFERROR(I20/I22,0)</f>
+        <f t="shared" ref="I21:L21" si="36">IFERROR(I20/I22,0)</f>
         <v>1.2144315861130019</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.0407608695652173</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.3195526940020332</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.5923545331529094</v>
       </c>
       <c r="M21" s="22">
-        <f t="shared" ref="M21:P21" si="34">IFERROR(M20/M22,0)</f>
+        <f t="shared" ref="M21:P21" si="37">IFERROR(M20/M22,0)</f>
         <v>1.4691910499139416</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1.6937181663837011</v>
       </c>
       <c r="O21" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="P21" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1.7634740817027119</v>
       </c>
       <c r="Q21" s="22">
-        <f t="shared" ref="Q21:R21" si="35">IFERROR(Q20/Q22,0)</f>
+        <f t="shared" ref="Q21:R21" si="38">IFERROR(Q20/Q22,0)</f>
         <v>2.3846153846153846</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.84663645869640991</v>
       </c>
       <c r="S21" s="22">
-        <f t="shared" ref="S21:T21" si="36">IFERROR(S20/S22,0)</f>
+        <f t="shared" ref="S21:T21" si="39">IFERROR(S20/S22,0)</f>
         <v>0.90991304347826085</v>
       </c>
       <c r="T21" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.1193458594293668</v>
       </c>
       <c r="U21" s="22">
-        <f t="shared" ref="U21:V21" si="37">IFERROR(U20/U22,0)</f>
+        <f t="shared" ref="U21:V21" si="40">IFERROR(U20/U22,0)</f>
         <v>2.559735283873215</v>
       </c>
       <c r="V21" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.7092050209205021</v>
       </c>
       <c r="W21" s="22">
-        <f t="shared" ref="W21:X21" si="38">IFERROR(W20/W22,0)</f>
+        <f t="shared" ref="W21:X21" si="41">IFERROR(W20/W22,0)</f>
         <v>1.7985411601250434</v>
       </c>
       <c r="X21" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.7139398132134209</v>
+      </c>
+      <c r="Y21" s="22">
+        <f t="shared" ref="Y21" si="42">IFERROR(Y20/Y22,0)</f>
+        <v>3.882006920415225</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -6209,6 +6405,9 @@
       </c>
       <c r="X22" s="40">
         <v>2891</v>
+      </c>
+      <c r="Y22" s="40">
+        <v>2890</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
@@ -6236,27 +6435,27 @@
         <v>0.51905165114309915</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" ref="G24:O24" si="39">G9/C9-1</f>
+        <f t="shared" ref="G24:O24" si="43">G9/C9-1</f>
         <v>0.5922810489856507</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.55765385469895579</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.5081321691491183</v>
       </c>
       <c r="J24" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.49238201412114457</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.44825978868862637</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.47311367850520614</v>
       </c>
       <c r="M24" s="23">
@@ -6264,51 +6463,51 @@
         <v>0.47258485639686687</v>
       </c>
       <c r="N24" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.48979083665338652</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.41948288810213485</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" ref="P24:Y24" si="40">P9/L9-1</f>
+        <f t="shared" ref="P24:Y24" si="44">P9/L9-1</f>
         <v>0.32910534469403574</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.30388529139685483</v>
       </c>
       <c r="R24" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.25998662878154777</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="V24" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="W24" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.10665640175293145</v>
       </c>
       <c r="X24" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.21629277135735325</v>
       </c>
       <c r="Y24" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.33156247035385644</v>
       </c>
     </row>
@@ -6329,72 +6528,76 @@
         <v>0.25042735042735043</v>
       </c>
       <c r="H25" s="26">
-        <f t="shared" ref="H25" si="41">H12/D12-1</f>
+        <f t="shared" ref="H25" si="45">H12/D12-1</f>
         <v>0.21085759244689228</v>
       </c>
       <c r="I25" s="26">
-        <f t="shared" ref="I25:I27" si="42">I12/E12-1</f>
+        <f t="shared" ref="I25:I27" si="46">I12/E12-1</f>
         <v>0.18949771689497719</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" ref="J25:J27" si="43">J12/F12-1</f>
+        <f t="shared" ref="J25:J27" si="47">J12/F12-1</f>
         <v>0.36559940431868942</v>
       </c>
       <c r="K25" s="26">
-        <f t="shared" ref="K25:K27" si="44">K12/G12-1</f>
+        <f t="shared" ref="K25:K27" si="48">K12/G12-1</f>
         <v>0.31168831168831179</v>
       </c>
       <c r="L25" s="26">
-        <f t="shared" ref="L25:L27" si="45">L12/H12-1</f>
+        <f t="shared" ref="L25:L27" si="49">L12/H12-1</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" ref="M25:M27" si="46">M12/I12-1</f>
+        <f t="shared" ref="M25:M27" si="50">M12/I12-1</f>
         <v>0.24696097248880355</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" ref="N25:N27" si="47">N12/J12-1</f>
+        <f t="shared" ref="N25:N27" si="51">N12/J12-1</f>
         <v>0.22028353326063255</v>
       </c>
       <c r="O25" s="26">
-        <f t="shared" ref="O25:O27" si="48">O12/K12-1</f>
+        <f t="shared" ref="O25:O27" si="52">O12/K12-1</f>
         <v>0.31474726420010413</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" ref="P25:P27" si="49">P12/L12-1</f>
+        <f t="shared" ref="P25:P27" si="53">P12/L12-1</f>
         <v>0.29483430799220267</v>
       </c>
       <c r="Q25" s="26">
-        <f t="shared" ref="Q25:X27" si="50">Q12/M12-1</f>
+        <f t="shared" ref="Q25:Y27" si="54">Q12/M12-1</f>
         <v>0.46485377116469984</v>
       </c>
       <c r="R25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.27792672028596965</v>
       </c>
       <c r="S25" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.31391200951248521</v>
       </c>
       <c r="T25" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.33534060971019941</v>
       </c>
       <c r="U25" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.35796847635726792</v>
       </c>
       <c r="V25" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.40384615384615374</v>
       </c>
       <c r="W25" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.34600301659125199</v>
       </c>
       <c r="X25" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.34244644870349483</v>
+      </c>
+      <c r="Y25" s="26">
+        <f t="shared" si="54"/>
+        <v>0.34330668042300738</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -6410,76 +6613,80 @@
         <v>0.33225806451612905</v>
       </c>
       <c r="G26" s="26">
-        <f t="shared" ref="G26:H26" si="51">G13/C13-1</f>
+        <f t="shared" ref="G26:H26" si="55">G13/C13-1</f>
         <v>0.4361022364217253</v>
       </c>
       <c r="H26" s="26">
+        <f t="shared" si="55"/>
+        <v>0.31019830028328621</v>
+      </c>
+      <c r="I26" s="26">
+        <f t="shared" si="46"/>
+        <v>0.44818652849740936</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="47"/>
+        <v>0.27966101694915246</v>
+      </c>
+      <c r="K26" s="26">
+        <f t="shared" si="48"/>
+        <v>0.25027808676307006</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="49"/>
+        <v>0.26486486486486482</v>
+      </c>
+      <c r="M26" s="26">
+        <f t="shared" si="50"/>
+        <v>0.22898032200357776</v>
+      </c>
+      <c r="N26" s="25">
         <f t="shared" si="51"/>
-        <v>0.31019830028328621</v>
-      </c>
-      <c r="I26" s="26">
-        <f t="shared" si="42"/>
-        <v>0.44818652849740936</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="43"/>
-        <v>0.27966101694915246</v>
-      </c>
-      <c r="K26" s="26">
-        <f t="shared" si="44"/>
-        <v>0.25027808676307006</v>
-      </c>
-      <c r="L26" s="26">
-        <f t="shared" si="45"/>
-        <v>0.26486486486486482</v>
-      </c>
-      <c r="M26" s="26">
-        <f t="shared" si="46"/>
-        <v>0.22898032200357776</v>
-      </c>
-      <c r="N26" s="25">
-        <f t="shared" si="47"/>
         <v>0.50898770104068114</v>
       </c>
       <c r="O26" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.6503558718861211</v>
       </c>
       <c r="P26" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.64786324786324778</v>
       </c>
       <c r="Q26" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.79548762736535661</v>
       </c>
       <c r="R26" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.26645768025078365</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.30134770889487861</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.25311203319502074</v>
       </c>
       <c r="U26" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.22659100121605191</v>
       </c>
       <c r="V26" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.3797029702970296</v>
       </c>
       <c r="W26" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.17647058823529416</v>
       </c>
       <c r="X26" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.11051324503311255</v>
+      </c>
+      <c r="Y26" s="26">
+        <f t="shared" si="54"/>
+        <v>8.393919365499003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -6495,76 +6702,80 @@
         <v>0.33576642335766427</v>
       </c>
       <c r="G27" s="26">
-        <f t="shared" ref="G27:H27" si="52">G14/C14-1</f>
+        <f t="shared" ref="G27:H27" si="56">G14/C14-1</f>
         <v>0.35081967213114762</v>
       </c>
       <c r="H27" s="26">
+        <f t="shared" si="56"/>
+        <v>0.26956521739130435</v>
+      </c>
+      <c r="I27" s="26">
+        <f t="shared" si="46"/>
+        <v>0.38814016172506749</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" si="47"/>
+        <v>0.78961748633879791</v>
+      </c>
+      <c r="K27" s="26">
+        <f t="shared" si="48"/>
+        <v>0.55339805825242716</v>
+      </c>
+      <c r="L27" s="26">
+        <f t="shared" si="49"/>
+        <v>0.22374429223744285</v>
+      </c>
+      <c r="M27" s="26">
+        <f t="shared" si="50"/>
+        <v>0.33203883495145625</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="51"/>
+        <v>0.1557251908396946</v>
+      </c>
+      <c r="O27" s="26">
         <f t="shared" si="52"/>
-        <v>0.26956521739130435</v>
-      </c>
-      <c r="I27" s="26">
-        <f t="shared" si="42"/>
-        <v>0.38814016172506749</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" si="43"/>
-        <v>0.78961748633879791</v>
-      </c>
-      <c r="K27" s="26">
-        <f t="shared" si="44"/>
-        <v>0.55339805825242716</v>
-      </c>
-      <c r="L27" s="26">
-        <f t="shared" si="45"/>
-        <v>0.22374429223744285</v>
-      </c>
-      <c r="M27" s="26">
-        <f t="shared" si="46"/>
-        <v>0.33203883495145625</v>
-      </c>
-      <c r="N27" s="25">
-        <f t="shared" si="47"/>
-        <v>0.1557251908396946</v>
-      </c>
-      <c r="O27" s="26">
-        <f t="shared" si="48"/>
         <v>0.21249999999999991</v>
       </c>
       <c r="P27" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.75932835820895517</v>
       </c>
       <c r="Q27" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.42274052478134116</v>
       </c>
       <c r="R27" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>4.3685601056803174</v>
       </c>
       <c r="S27" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>3.1546391752577323</v>
       </c>
       <c r="T27" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.42948038176033942</v>
       </c>
       <c r="U27" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.87397540983606548</v>
       </c>
       <c r="V27" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>-0.6104822834645669</v>
       </c>
       <c r="W27" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>-0.50589330024813894</v>
       </c>
       <c r="X27" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.32789317507418403</v>
+      </c>
+      <c r="Y27" s="26">
+        <f t="shared" si="54"/>
+        <v>-0.12575177692728268</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
@@ -6591,6 +6802,7 @@
       <c r="V28" s="28"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="36" t="s">
@@ -6617,15 +6829,15 @@
         <v>0.84429580081753997</v>
       </c>
       <c r="G29" s="32">
-        <f t="shared" ref="G29:K29" si="53">IFERROR(G11/G9,0)</f>
+        <f t="shared" ref="G29:K29" si="57">IFERROR(G11/G9,0)</f>
         <v>0.8576755748912368</v>
       </c>
       <c r="H29" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0.85922122379118526</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0.88114428425473945</v>
       </c>
       <c r="J29" s="31">
@@ -6633,7 +6845,7 @@
         <v>0.85570219123505975</v>
       </c>
       <c r="K29" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0.86728891749812254</v>
       </c>
       <c r="L29" s="30">
@@ -6641,7 +6853,7 @@
         <v>0.85979860573199074</v>
       </c>
       <c r="M29" s="30">
-        <f t="shared" ref="M29" si="54">IFERROR(M11/M9,0)</f>
+        <f t="shared" ref="M29" si="58">IFERROR(M11/M9,0)</f>
         <v>0.87580943570767811</v>
       </c>
       <c r="N29" s="31">
@@ -6649,44 +6861,48 @@
         <v>0.8389603877653351</v>
       </c>
       <c r="O29" s="30">
-        <f t="shared" ref="O29" si="55">IFERROR(O11/O9,0)</f>
+        <f t="shared" ref="O29" si="59">IFERROR(O11/O9,0)</f>
         <v>0.83266570931902351</v>
       </c>
       <c r="P29" s="30">
-        <f t="shared" ref="P29:X29" si="56">IFERROR(P11/P9,0)</f>
+        <f t="shared" ref="P29:X29" si="60">IFERROR(P11/P9,0)</f>
         <v>0.82385080498288044</v>
       </c>
       <c r="Q29" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="R29" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="S29" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="T29" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="U29" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="V29" s="31">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="W29" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="X29" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.80465766185374943</v>
+      </c>
+      <c r="Y29" s="30">
+        <f t="shared" ref="Y29" si="61">IFERROR(Y11/Y9,0)</f>
+        <v>0.81440581362211462</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
@@ -6714,76 +6930,80 @@
         <v>0.37328130806391674</v>
       </c>
       <c r="G30" s="35">
-        <f t="shared" ref="G30:L30" si="57">IFERROR(G16/G9,0)</f>
+        <f t="shared" ref="G30:L30" si="62">IFERROR(G16/G9,0)</f>
         <v>0.42666252330640148</v>
       </c>
       <c r="H30" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.445300242476109</v>
       </c>
       <c r="I30" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.5183335225337723</v>
       </c>
       <c r="J30" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.41421812749003983</v>
       </c>
       <c r="K30" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.47215963952365625</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.49593338497288925</v>
       </c>
       <c r="M30" s="33">
-        <f t="shared" ref="M30:P30" si="58">IFERROR(M16/M9,0)</f>
+        <f t="shared" ref="M30:P30" si="63">IFERROR(M16/M9,0)</f>
         <v>0.56675917360468697</v>
       </c>
       <c r="N30" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>0.45537355841551064</v>
       </c>
       <c r="O30" s="33">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="Q30" s="33">
-        <f t="shared" ref="Q30:X30" si="59">IFERROR(Q16/Q9,0)</f>
+        <f t="shared" ref="Q30:X30" si="64">IFERROR(Q16/Q9,0)</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="R30" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.22000397957153281</v>
       </c>
       <c r="S30" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.27395475541869002</v>
       </c>
       <c r="T30" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="U30" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.42016886443411439</v>
       </c>
       <c r="V30" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="W30" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="X30" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.37447601304145317</v>
+      </c>
+      <c r="Y30" s="33">
+        <f t="shared" ref="Y30" si="65">IFERROR(Y16/Y9,0)</f>
+        <v>0.45507979481333716</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
@@ -6795,15 +7015,15 @@
         <v>0.45064377682403434</v>
       </c>
       <c r="C31" s="33">
-        <f t="shared" ref="C31" si="60">IFERROR(C19/C18,0)</f>
+        <f t="shared" ref="C31" si="66">IFERROR(C19/C18,0)</f>
         <v>0.43519245875883739</v>
       </c>
       <c r="D31" s="33">
-        <f t="shared" ref="D31:E31" si="61">IFERROR(D19/D18,0)</f>
+        <f t="shared" ref="D31:E31" si="67">IFERROR(D19/D18,0)</f>
         <v>0.37430167597765363</v>
       </c>
       <c r="E31" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.38912788423934297</v>
       </c>
       <c r="F31" s="34">
@@ -6819,15 +7039,15 @@
         <v>0.24928999684443043</v>
       </c>
       <c r="I31" s="35">
-        <f t="shared" ref="I31:K31" si="62">IFERROR(I19/I18,0)</f>
+        <f t="shared" ref="I31:K31" si="68">IFERROR(I19/I18,0)</f>
         <v>0.21288330024266491</v>
       </c>
       <c r="J31" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.10093896713615023</v>
       </c>
       <c r="K31" s="33">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.13235294117647059</v>
       </c>
       <c r="L31" s="33">
@@ -6839,48 +7059,52 @@
         <v>0.42803537925489143</v>
       </c>
       <c r="N31" s="34">
-        <f t="shared" ref="N31:O31" si="63">IFERROR(N19/N18,0)</f>
+        <f t="shared" ref="N31:O31" si="69">IFERROR(N19/N18,0)</f>
         <v>0.11087344028520499</v>
       </c>
       <c r="O31" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" ref="P31:X31" si="64">IFERROR(P19/P18,0)</f>
+        <f t="shared" ref="P31:X31" si="70">IFERROR(P19/P18,0)</f>
         <v>0.13108930987821379</v>
       </c>
       <c r="Q31" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="R31" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.30241240666283747</v>
       </c>
       <c r="S31" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.45860927152317882</v>
       </c>
       <c r="T31" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="U31" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="V31" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="W31" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="X31" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>3.5288331488995447E-2</v>
+      </c>
+      <c r="Y31" s="33">
+        <f t="shared" ref="Y31" si="71">IFERROR(Y19/Y18,0)</f>
+        <v>0.14063577173496744</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
@@ -6920,23 +7144,23 @@
         <v>20621</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" ref="G33:K33" si="65">G34-G35</f>
+        <f t="shared" ref="G33:K33" si="72">G34-G35</f>
         <v>23293</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>26140</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>29449</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>32306</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>35452</v>
       </c>
       <c r="L33" s="16">
@@ -6948,51 +7172,51 @@
         <v>41711</v>
       </c>
       <c r="N33" s="17">
-        <f t="shared" ref="N33" si="66">N34-N35</f>
+        <f t="shared" ref="N33" si="73">N34-N35</f>
         <v>43956</v>
       </c>
       <c r="O33" s="16">
-        <f t="shared" ref="O33:Y33" si="67">O34-O35</f>
+        <f t="shared" ref="O33:Y33" si="74">O34-O35</f>
         <v>42309</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>41206</v>
       </c>
       <c r="Q33" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>41114</v>
       </c>
       <c r="R33" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>45243</v>
       </c>
       <c r="S33" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>48596</v>
       </c>
       <c r="T33" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>52269</v>
       </c>
       <c r="U33" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>54855</v>
       </c>
       <c r="V33" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>60289</v>
       </c>
       <c r="W33" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>58240</v>
       </c>
       <c r="X33" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>55620</v>
       </c>
       <c r="Y33" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>68189</v>
       </c>
     </row>
@@ -7197,7 +7421,7 @@
     </row>
     <row r="37" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -7265,7 +7489,7 @@
     </row>
     <row r="38" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -7320,7 +7544,7 @@
     </row>
     <row r="39" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -7396,7 +7620,7 @@
     </row>
     <row r="41" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -7410,51 +7634,51 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="19">
-        <f t="shared" ref="M41:X41" si="68">M38-M37-M34</f>
+        <f t="shared" ref="M41:X41" si="75">M38-M37-M34</f>
         <v>22708</v>
       </c>
       <c r="N41" s="20">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>24986</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>28146</v>
       </c>
       <c r="P41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>31491</v>
       </c>
       <c r="Q41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>36625</v>
       </c>
       <c r="R41" s="20">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>44751</v>
       </c>
       <c r="S41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>49082</v>
       </c>
       <c r="T41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>52958</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>58912</v>
       </c>
       <c r="V41" s="20">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>58433</v>
       </c>
       <c r="W41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>61563</v>
       </c>
       <c r="X41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>71042</v>
       </c>
       <c r="Y41" s="19">
@@ -7464,7 +7688,7 @@
     </row>
     <row r="42" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -7478,51 +7702,51 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="19">
-        <f t="shared" ref="M42:X42" si="69">M38-M39</f>
+        <f t="shared" ref="M42:X42" si="76">M38-M39</f>
         <v>74347</v>
       </c>
       <c r="N42" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>77620</v>
       </c>
       <c r="O42" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>79382</v>
       </c>
       <c r="P42" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>80342</v>
       </c>
       <c r="Q42" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>84127</v>
       </c>
       <c r="R42" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>86516</v>
       </c>
       <c r="S42" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>88762</v>
       </c>
       <c r="T42" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>93999</v>
       </c>
       <c r="U42" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>101054</v>
       </c>
       <c r="V42" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>105304</v>
       </c>
       <c r="W42" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>110447</v>
       </c>
       <c r="X42" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>117731</v>
       </c>
       <c r="Y42" s="19">
@@ -7553,99 +7777,99 @@
     </row>
     <row r="44" spans="1:25" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="84" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
       <c r="E44" s="16">
-        <f t="shared" ref="E44:P44" si="70">SUM(B20:E20)</f>
+        <f t="shared" ref="E44:P44" si="77">SUM(B20:E20)</f>
         <v>3689</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>4687</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>6023</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>7506</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>9512</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>11066</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>12905</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>15233</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>15933</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>17857</v>
       </c>
       <c r="O44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>19069</v>
       </c>
       <c r="P44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>19499</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" ref="Q44:X44" si="71">SUM(N20:Q20)</f>
+        <f t="shared" ref="Q44:X44" si="78">SUM(N20:Q20)</f>
         <v>22113</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>19554</v>
       </c>
       <c r="S44" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>17064</v>
       </c>
       <c r="T44" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>18018</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>18485</v>
       </c>
       <c r="V44" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>20958</v>
       </c>
       <c r="W44" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>23520</v>
       </c>
       <c r="X44" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>25275</v>
       </c>
       <c r="Y44" s="16">
         <f>SUM(V20:Y20)</f>
-        <v>17926</v>
+        <v>29145</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -7659,61 +7883,61 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="72">
-        <f t="shared" ref="M45:Y45" si="72">M44/M42</f>
+        <f t="shared" ref="M45:Y45" si="79">M44/M42</f>
         <v>0.21430588994848482</v>
       </c>
       <c r="N45" s="73">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.2300566864210255</v>
       </c>
       <c r="O45" s="72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.24021818548285506</v>
       </c>
       <c r="P45" s="72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.2426999576809141</v>
       </c>
       <c r="Q45" s="72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.2628525919146053</v>
       </c>
       <c r="R45" s="73">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.22601599704100975</v>
       </c>
       <c r="S45" s="72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.19224442892228658</v>
       </c>
       <c r="T45" s="72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.19168289024351323</v>
       </c>
       <c r="U45" s="72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.18292200209788825</v>
       </c>
       <c r="V45" s="73">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.19902377877383576</v>
       </c>
       <c r="W45" s="72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.21295281899915797</v>
       </c>
       <c r="X45" s="72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.21468432273572804</v>
       </c>
       <c r="Y45" s="72">
-        <f t="shared" si="72"/>
-        <v>0.13973029854236496</v>
+        <f t="shared" si="79"/>
+        <v>0.22718060643853769</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -7727,61 +7951,61 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="72">
-        <f t="shared" ref="M46:X46" si="73">M44/M38</f>
+        <f t="shared" ref="M46:X46" si="80">M44/M38</f>
         <v>0.18850267379679145</v>
       </c>
       <c r="N46" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.20076451739839227</v>
       </c>
       <c r="O46" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.21119491422179398</v>
       </c>
       <c r="P46" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.21090944490113789</v>
       </c>
       <c r="Q46" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.22718680009041034</v>
       </c>
       <c r="R46" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.17861285932204937</v>
       </c>
       <c r="S46" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.14583867493974667</v>
       </c>
       <c r="T46" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.14481827388320018</v>
       </c>
       <c r="U46" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.13859315019193857</v>
       </c>
       <c r="V46" s="73">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.1514623728960548</v>
       </c>
       <c r="W46" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.16837162021891175</v>
       </c>
       <c r="X46" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.17259982108346933</v>
       </c>
       <c r="Y46" s="72">
-        <f t="shared" ref="Y46" si="74">Y44/Y38</f>
-        <v>0.11251851665871601</v>
+        <f t="shared" ref="Y46" si="81">Y44/Y38</f>
+        <v>0.1829383112807251</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -7795,47 +8019,47 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="72">
-        <f t="shared" ref="M47:W47" si="75">M44/(M42-M37)</f>
+        <f t="shared" ref="M47:W47" si="82">M44/(M42-M37)</f>
         <v>0.29373916890970098</v>
       </c>
       <c r="N47" s="73">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.30992588992831976</v>
       </c>
       <c r="O47" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.3202398145971182</v>
       </c>
       <c r="P47" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.3218347170185023</v>
       </c>
       <c r="Q47" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.34266720386784849</v>
       </c>
       <c r="R47" s="73">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.29170706965226084</v>
       </c>
       <c r="S47" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.245758562087738</v>
       </c>
       <c r="T47" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.24085659287776709</v>
       </c>
       <c r="U47" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.22696298115292529</v>
       </c>
       <c r="V47" s="73">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.24467923647189305</v>
       </c>
       <c r="W47" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>0.2597201824225091</v>
       </c>
       <c r="X47" s="72">
@@ -7843,13 +8067,13 @@
         <v>0.25802401078035037</v>
       </c>
       <c r="Y47" s="72">
-        <f t="shared" ref="Y47" si="76">Y44/(Y42-Y37)</f>
-        <v>0.16503862194684074</v>
+        <f t="shared" ref="Y47" si="83">Y44/(Y42-Y37)</f>
+        <v>0.26832816225821005</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -7863,56 +8087,56 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="72">
-        <f t="shared" ref="M48:X48" si="77">M44/M41</f>
+        <f t="shared" ref="M48:X48" si="84">M44/M41</f>
         <v>0.70164699665316188</v>
       </c>
       <c r="N48" s="73">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.7146802209237173</v>
       </c>
       <c r="O48" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.67750301996731332</v>
       </c>
       <c r="P48" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.61919278524022736</v>
       </c>
       <c r="Q48" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.6037679180887372</v>
       </c>
       <c r="R48" s="73">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.43695112958369647</v>
       </c>
       <c r="S48" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.34766309441343057</v>
       </c>
       <c r="T48" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.34023188186865061</v>
       </c>
       <c r="U48" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.31377308527973929</v>
       </c>
       <c r="V48" s="73">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.35866719148426401</v>
       </c>
       <c r="W48" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.38204765849617467</v>
       </c>
       <c r="X48" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.35577545677205036</v>
       </c>
       <c r="Y48" s="72">
-        <f t="shared" ref="Y48" si="78">Y44/Y41</f>
-        <v>0.25087468861085455</v>
+        <f t="shared" ref="Y48" si="85">Y44/Y41</f>
+        <v>0.40788479301368713</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
@@ -7920,193 +8144,371 @@
       <c r="X49" s="29"/>
       <c r="Y49" s="29"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A50" s="36" t="s">
+    <row r="50" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="18">
+        <f>SUM(B9:E9)</f>
+        <v>17927</v>
+      </c>
+      <c r="F50" s="17">
+        <f>SUM(C9:F9)</f>
+        <v>19766</v>
+      </c>
+      <c r="G50" s="18">
+        <f>SUM(D9:G9)</f>
+        <v>22160</v>
+      </c>
+      <c r="H50" s="18">
+        <f>SUM(E9:H9)</f>
+        <v>24670</v>
+      </c>
+      <c r="I50" s="18">
+        <f>SUM(F9:I9)</f>
+        <v>27638</v>
+      </c>
+      <c r="J50" s="17">
+        <f>SUM(G9:J9)</f>
+        <v>30288</v>
+      </c>
+      <c r="K50" s="18">
+        <f>SUM(H9:K9)</f>
+        <v>33173</v>
+      </c>
+      <c r="L50" s="18">
+        <f>SUM(I9:L9)</f>
+        <v>36490</v>
+      </c>
+      <c r="M50" s="18">
+        <f>SUM(J9:M9)</f>
+        <v>40653</v>
+      </c>
+      <c r="N50" s="17">
+        <f>SUM(K9:N9)</f>
+        <v>44587</v>
+      </c>
+      <c r="O50" s="18">
+        <f>SUM(L9:O9)</f>
+        <v>48497</v>
+      </c>
+      <c r="P50" s="18">
+        <f>SUM(M9:P9)</f>
+        <v>51896</v>
+      </c>
+      <c r="Q50" s="18">
+        <f>SUM(N9:Q9)</f>
+        <v>55838</v>
+      </c>
+      <c r="R50" s="17">
+        <f>SUM(O9:R9)</f>
+        <v>58949</v>
+      </c>
+      <c r="S50" s="18">
+        <f>SUM(P9:S9)</f>
+        <v>62604</v>
+      </c>
+      <c r="T50" s="18">
+        <f>SUM(Q9:T9)</f>
+        <v>66529</v>
+      </c>
+      <c r="U50" s="18">
+        <f>SUM(R9:U9)</f>
+        <v>70697</v>
+      </c>
+      <c r="V50" s="17">
+        <f>SUM(S9:V9)</f>
+        <v>73357</v>
+      </c>
+      <c r="W50" s="18">
+        <f>SUM(T9:W9)</f>
+        <v>75158</v>
+      </c>
+      <c r="X50" s="18">
+        <f>SUM(U9:X9)</f>
+        <v>78976</v>
+      </c>
+      <c r="Y50" s="18">
+        <f>SUM(V9:Y9)</f>
+        <v>85966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" s="97" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96">
+        <f>I50/E50-1</f>
+        <v>0.54169688179840469</v>
+      </c>
+      <c r="J51" s="98">
+        <f>J50/F50-1</f>
+        <v>0.53232824041283022</v>
+      </c>
+      <c r="K51" s="96">
+        <f>K50/G50-1</f>
+        <v>0.49697653429602884</v>
+      </c>
+      <c r="L51" s="96">
+        <f>L50/H50-1</f>
+        <v>0.47912444264288601</v>
+      </c>
+      <c r="M51" s="96">
+        <f>M50/I50-1</f>
+        <v>0.47090961719371882</v>
+      </c>
+      <c r="N51" s="98">
+        <f>N50/J50-1</f>
+        <v>0.47210116217643949</v>
+      </c>
+      <c r="O51" s="96">
+        <f>O50/K50-1</f>
+        <v>0.461941940734935</v>
+      </c>
+      <c r="P51" s="96">
+        <f>P50/L50-1</f>
+        <v>0.42219786242806245</v>
+      </c>
+      <c r="Q51" s="96">
+        <f>Q50/M50-1</f>
+        <v>0.37352716896661997</v>
+      </c>
+      <c r="R51" s="98">
+        <f>R50/N50-1</f>
+        <v>0.3221118263170879</v>
+      </c>
+      <c r="S51" s="96">
+        <f>S50/O50-1</f>
+        <v>0.29088397220446627</v>
+      </c>
+      <c r="T51" s="96">
+        <f>T50/P50-1</f>
+        <v>0.28196778171728076</v>
+      </c>
+      <c r="U51" s="96">
+        <f>U50/Q50-1</f>
+        <v>0.26610910132884413</v>
+      </c>
+      <c r="V51" s="98">
+        <f>V50/R50-1</f>
+        <v>0.24441466352270602</v>
+      </c>
+      <c r="W51" s="96">
+        <f>W50/S50-1</f>
+        <v>0.20053031755159423</v>
+      </c>
+      <c r="X51" s="96">
+        <f>X50/T50-1</f>
+        <v>0.18709134362458468</v>
+      </c>
+      <c r="Y51" s="96">
+        <f>Y50/U50-1</f>
+        <v>0.21597804715900248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Q52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A53" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31">
-        <f t="shared" ref="F50:Q50" si="79">F6/B6-1</f>
+      <c r="B53" s="29"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31">
+        <f t="shared" ref="F53:Q53" si="86">F6/B6-1</f>
         <v>0.16452991452991461</v>
       </c>
-      <c r="G50" s="32">
-        <f t="shared" si="79"/>
+      <c r="G53" s="32">
+        <f t="shared" si="86"/>
         <v>0.1673553719008265</v>
       </c>
-      <c r="H50" s="32">
-        <f t="shared" si="79"/>
+      <c r="H53" s="32">
+        <f t="shared" si="86"/>
         <v>0.16831683168316824</v>
       </c>
-      <c r="I50" s="32">
-        <f t="shared" si="79"/>
+      <c r="I53" s="32">
+        <f t="shared" si="86"/>
         <v>0.18269230769230771</v>
       </c>
-      <c r="J50" s="31">
-        <f t="shared" si="79"/>
+      <c r="J53" s="31">
+        <f t="shared" si="86"/>
         <v>0.17431192660550465</v>
       </c>
-      <c r="K50" s="32">
-        <f t="shared" si="79"/>
+      <c r="K53" s="32">
+        <f t="shared" si="86"/>
         <v>0.16814159292035402</v>
       </c>
-      <c r="L50" s="32">
-        <f t="shared" si="79"/>
+      <c r="L53" s="32">
+        <f t="shared" si="86"/>
         <v>0.16101694915254239</v>
       </c>
-      <c r="M50" s="32">
-        <f t="shared" si="79"/>
+      <c r="M53" s="32">
+        <f t="shared" si="86"/>
         <v>0.13821138211382111</v>
       </c>
-      <c r="N50" s="31">
-        <f t="shared" si="79"/>
+      <c r="N53" s="31">
+        <f t="shared" si="86"/>
         <v>0.1328125</v>
       </c>
-      <c r="O50" s="32">
-        <f t="shared" si="79"/>
+      <c r="O53" s="32">
+        <f t="shared" si="86"/>
         <v>0.11363636363636354</v>
       </c>
-      <c r="P50" s="32">
-        <f t="shared" si="79"/>
+      <c r="P53" s="32">
+        <f t="shared" si="86"/>
         <v>8.7591240875912302E-2</v>
       </c>
-      <c r="Q50" s="32">
-        <f t="shared" si="79"/>
+      <c r="Q53" s="32">
+        <f t="shared" si="86"/>
         <v>8.5714285714285632E-2</v>
       </c>
-      <c r="R50" s="31">
-        <f t="shared" ref="R50:U50" si="80">R6/N6-1</f>
+      <c r="R53" s="31">
+        <f t="shared" ref="R53:U53" si="87">R6/N6-1</f>
         <v>7.5862068965517171E-2</v>
       </c>
-      <c r="S50" s="32">
-        <f t="shared" si="80"/>
+      <c r="S53" s="32">
+        <f t="shared" si="87"/>
         <v>8.163265306122458E-2</v>
       </c>
-      <c r="T50" s="32">
-        <f t="shared" si="80"/>
+      <c r="T53" s="32">
+        <f t="shared" si="87"/>
         <v>8.7248322147650992E-2</v>
       </c>
-      <c r="U50" s="32">
-        <f t="shared" si="80"/>
+      <c r="U53" s="32">
+        <f t="shared" si="87"/>
         <v>9.210526315789469E-2</v>
       </c>
-      <c r="V50" s="31">
-        <f t="shared" ref="V50:Y50" si="81">V6/R6-1</f>
+      <c r="V53" s="31">
+        <f t="shared" ref="V53:Y53" si="88">V6/R6-1</f>
         <v>0.10897435897435903</v>
       </c>
-      <c r="W50" s="32">
-        <f t="shared" si="81"/>
+      <c r="W53" s="32">
+        <f t="shared" si="88"/>
         <v>0.12578616352201255</v>
       </c>
-      <c r="X50" s="32">
-        <f t="shared" si="81"/>
+      <c r="X53" s="32">
+        <f t="shared" si="88"/>
         <v>0.12345679012345689</v>
       </c>
-      <c r="Y50" s="32">
-        <f t="shared" si="81"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A51" s="36" t="s">
+      <c r="Y53" s="32">
+        <f t="shared" si="88"/>
+        <v>0.10843373493975905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A54" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="31">
+      <c r="B54" s="29"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="31">
         <f>F7/B7-1</f>
         <v>0.30443334446783554</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G54" s="30">
         <f>G7/C7-1</f>
         <v>0.36400712868859286</v>
       </c>
-      <c r="H51" s="30">
-        <f t="shared" ref="H51:P51" si="82">H7/D7-1</f>
+      <c r="H54" s="30">
+        <f t="shared" ref="H54:P54" si="89">H7/D7-1</f>
         <v>0.33324609597114008</v>
       </c>
-      <c r="I51" s="30">
-        <f t="shared" si="82"/>
+      <c r="I54" s="30">
+        <f t="shared" si="89"/>
         <v>0.27516866334559609</v>
       </c>
-      <c r="J51" s="31">
-        <f t="shared" si="82"/>
+      <c r="J54" s="31">
+        <f t="shared" si="89"/>
         <v>0.27085655890003713</v>
       </c>
-      <c r="K51" s="30">
-        <f t="shared" si="82"/>
+      <c r="K54" s="30">
+        <f t="shared" si="89"/>
         <v>0.23979815243799085</v>
       </c>
-      <c r="L51" s="30">
-        <f t="shared" si="82"/>
+      <c r="L54" s="30">
+        <f t="shared" si="89"/>
         <v>0.26881324134025064</v>
       </c>
-      <c r="M51" s="30">
-        <f t="shared" si="82"/>
+      <c r="M54" s="30">
+        <f t="shared" si="89"/>
         <v>0.29377098097724708</v>
       </c>
-      <c r="N51" s="31">
-        <f t="shared" si="82"/>
+      <c r="N54" s="31">
+        <f t="shared" si="89"/>
         <v>0.31512570408023066</v>
       </c>
-      <c r="O51" s="30">
-        <f t="shared" si="82"/>
+      <c r="O54" s="30">
+        <f t="shared" si="89"/>
         <v>0.2746376954386518</v>
       </c>
-      <c r="P51" s="30">
-        <f t="shared" si="82"/>
+      <c r="P54" s="30">
+        <f t="shared" si="89"/>
         <v>0.22206330351062342</v>
       </c>
-      <c r="Q51" s="30">
-        <f t="shared" ref="Q51:Y51" si="83">Q7/M7-1</f>
+      <c r="Q54" s="30">
+        <f t="shared" ref="Q54:Y54" si="90">Q7/M7-1</f>
         <v>0.20094697891815594</v>
       </c>
-      <c r="R51" s="31">
-        <f t="shared" si="83"/>
+      <c r="R54" s="31">
+        <f t="shared" si="90"/>
         <v>0.17114141777772063</v>
       </c>
-      <c r="S51" s="30">
-        <f t="shared" si="83"/>
+      <c r="S54" s="30">
+        <f t="shared" si="90"/>
         <v>0.17992479069309786</v>
       </c>
-      <c r="T51" s="30">
-        <f t="shared" si="83"/>
+      <c r="T54" s="30">
+        <f t="shared" si="90"/>
         <v>0.18274069217465438</v>
       </c>
-      <c r="U51" s="30">
-        <f t="shared" si="83"/>
+      <c r="U54" s="30">
+        <f t="shared" si="90"/>
         <v>0.14130306255173219</v>
       </c>
-      <c r="V51" s="31">
-        <f t="shared" si="83"/>
+      <c r="V54" s="31">
+        <f t="shared" si="90"/>
         <v>6.0824952143543554E-2</v>
       </c>
-      <c r="W51" s="30">
-        <f t="shared" si="83"/>
+      <c r="W54" s="30">
+        <f t="shared" si="90"/>
         <v>-1.69923582194631E-2</v>
       </c>
-      <c r="X51" s="30">
-        <f t="shared" si="83"/>
+      <c r="X54" s="30">
+        <f t="shared" si="90"/>
         <v>8.2634225054347477E-2</v>
       </c>
-      <c r="Y51" s="30">
-        <f t="shared" si="83"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="F52" s="4"/>
-      <c r="Q52" s="29"/>
+      <c r="Y54" s="30">
+        <f t="shared" si="90"/>
+        <v>0.20130092434097913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="F55" s="4"/>
+      <c r="Q55" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8127,27 +8529,27 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
